--- a/GATEWAY/S1#111IASI0000000/IASI S.r.l/SISWeb/2.4.8/report-checklist.xlsx
+++ b/GATEWAY/S1#111IASI0000000/IASI S.r.l/SISWeb/2.4.8/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SISWeb\FSE2.0\it-fse-accreditamento\it-fse-accreditamento\GATEWAY\S1#111IASI0000000\IASI S.r.l\SISWeb\2.4.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1ED43C-AE92-4105-B501-7BE7596619D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CD17BB-9EF0-429F-ADFE-D9BFA5A477D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -2609,6 +2609,9 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
       <protection locked="0"/>
@@ -2642,9 +2645,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2968,27 +2968,27 @@
   <dimension ref="A1:T931"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I90" sqref="I90"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q9:Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="25.9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="25.95" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.140625" customWidth="1"/>
-    <col min="12" max="12" width="29.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.7109375" customWidth="1"/>
-    <col min="20" max="20" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.109375" customWidth="1"/>
+    <col min="12" max="12" width="29.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="29.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.6640625" customWidth="1"/>
+    <col min="20" max="20" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
@@ -2999,14 +2999,14 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>350</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="72" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="73" t="s">
         <v>362</v>
       </c>
-      <c r="D2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -3014,14 +3014,14 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>351</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="71" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="65"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -3029,12 +3029,12 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="71" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="72" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="65"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -3042,12 +3042,12 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71" t="s">
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="72" t="s">
         <v>361</v>
       </c>
-      <c r="D5" s="64"/>
+      <c r="D5" s="65"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -3137,7 +3137,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="10" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A10" s="18">
         <v>6</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="48" customFormat="1" ht="25.9" customHeight="1">
+    <row r="11" spans="1:20" s="48" customFormat="1" ht="25.95" customHeight="1">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1">
+    <row r="12" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1">
       <c r="A12" s="11">
         <v>8</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1">
+    <row r="13" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1">
       <c r="A13" s="34">
         <v>9</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="14" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A14" s="18">
         <v>11</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1">
+    <row r="15" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="25.9" customHeight="1">
+    <row r="16" spans="1:20" ht="25.95" customHeight="1">
       <c r="A16" s="18">
         <v>13</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="25.9" customHeight="1">
+    <row r="17" spans="1:20" ht="25.95" customHeight="1">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="25.9" customHeight="1">
+    <row r="18" spans="1:20" ht="25.95" customHeight="1">
       <c r="A18" s="11">
         <v>24</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="19" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A19" s="18">
         <v>25</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="48" customFormat="1" ht="25.9" customHeight="1">
+    <row r="20" spans="1:20" s="48" customFormat="1" ht="25.95" customHeight="1">
       <c r="A20" s="6">
         <v>26</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1">
+    <row r="21" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1">
       <c r="A21" s="11">
         <v>27</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="22" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A22" s="18">
         <v>29</v>
       </c>
@@ -3684,8 +3684,8 @@
       <c r="P22" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q22" s="22" t="s">
-        <v>64</v>
+      <c r="Q22" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R22" s="59"/>
       <c r="S22" s="23" t="s">
@@ -3695,7 +3695,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="23" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A23" s="18">
         <v>31</v>
       </c>
@@ -3742,8 +3742,8 @@
       <c r="P23" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q23" s="22" t="s">
-        <v>64</v>
+      <c r="Q23" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R23" s="50"/>
       <c r="S23" s="23"/>
@@ -3751,7 +3751,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="24" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A24" s="18">
         <v>35</v>
       </c>
@@ -3798,8 +3798,8 @@
       <c r="P24" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q24" s="22" t="s">
-        <v>64</v>
+      <c r="Q24" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R24" s="50"/>
       <c r="S24" s="23"/>
@@ -3807,7 +3807,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="25" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A25" s="18">
         <v>37</v>
       </c>
@@ -3854,8 +3854,8 @@
       <c r="P25" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q25" s="22" t="s">
-        <v>64</v>
+      <c r="Q25" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R25" s="59"/>
       <c r="S25" s="23" t="s">
@@ -3865,7 +3865,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="26" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A26" s="18">
         <v>39</v>
       </c>
@@ -3912,8 +3912,8 @@
       <c r="P26" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q26" s="22" t="s">
-        <v>64</v>
+      <c r="Q26" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R26" s="50"/>
       <c r="S26" s="23"/>
@@ -3921,7 +3921,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="48" customFormat="1" ht="25.9" customHeight="1">
+    <row r="27" spans="1:20" s="48" customFormat="1" ht="25.95" customHeight="1">
       <c r="A27" s="6">
         <v>43</v>
       </c>
@@ -3968,8 +3968,8 @@
       <c r="P27" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="Q27" s="9" t="s">
-        <v>64</v>
+      <c r="Q27" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R27" s="51"/>
       <c r="S27" s="10"/>
@@ -4018,8 +4018,8 @@
       <c r="P28" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="Q28" s="22" t="s">
-        <v>64</v>
+      <c r="Q28" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R28" s="50" t="s">
         <v>23</v>
@@ -4070,8 +4070,8 @@
       <c r="P29" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="Q29" s="22" t="s">
-        <v>64</v>
+      <c r="Q29" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R29" s="50" t="s">
         <v>23</v>
@@ -4122,8 +4122,8 @@
       <c r="P30" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="Q30" s="14" t="s">
-        <v>64</v>
+      <c r="Q30" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R30" s="52" t="s">
         <v>23</v>
@@ -4133,7 +4133,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1">
+    <row r="31" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1">
       <c r="A31" s="34">
         <v>63</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="32" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A32" s="18">
         <v>64</v>
       </c>
@@ -4220,8 +4220,8 @@
       <c r="P32" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q32" s="22" t="s">
-        <v>64</v>
+      <c r="Q32" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R32" s="50"/>
       <c r="S32" s="23"/>
@@ -4229,7 +4229,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="33" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A33" s="18">
         <v>65</v>
       </c>
@@ -4276,8 +4276,8 @@
       <c r="P33" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q33" s="22" t="s">
-        <v>64</v>
+      <c r="Q33" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R33" s="50"/>
       <c r="S33" s="23"/>
@@ -4285,7 +4285,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="34" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A34" s="18">
         <v>66</v>
       </c>
@@ -4332,8 +4332,8 @@
       <c r="P34" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q34" s="22" t="s">
-        <v>64</v>
+      <c r="Q34" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R34" s="50"/>
       <c r="S34" s="23"/>
@@ -4341,7 +4341,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="35" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A35" s="18">
         <v>67</v>
       </c>
@@ -4388,8 +4388,8 @@
       <c r="P35" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q35" s="22" t="s">
-        <v>64</v>
+      <c r="Q35" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R35" s="50"/>
       <c r="S35" s="23"/>
@@ -4397,7 +4397,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="36" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A36" s="18">
         <v>68</v>
       </c>
@@ -4444,8 +4444,8 @@
       <c r="P36" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q36" s="22" t="s">
-        <v>64</v>
+      <c r="Q36" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R36" s="50"/>
       <c r="S36" s="23"/>
@@ -4453,7 +4453,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="37" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A37" s="18">
         <v>69</v>
       </c>
@@ -4500,8 +4500,8 @@
       <c r="P37" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q37" s="22" t="s">
-        <v>64</v>
+      <c r="Q37" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R37" s="50"/>
       <c r="S37" s="23"/>
@@ -4509,7 +4509,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1">
+    <row r="38" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1">
       <c r="A38" s="11">
         <v>70</v>
       </c>
@@ -4556,8 +4556,8 @@
       <c r="P38" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="Q38" s="14" t="s">
-        <v>64</v>
+      <c r="Q38" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R38" s="52"/>
       <c r="S38" s="15"/>
@@ -4565,7 +4565,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="39" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A39" s="18">
         <v>71</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1" thickBot="1">
+    <row r="40" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1" thickBot="1">
       <c r="A40" s="6">
         <v>72</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1">
+    <row r="41" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1">
       <c r="A41" s="11">
         <v>73</v>
       </c>
@@ -4692,8 +4692,8 @@
       <c r="P41" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="Q41" s="14" t="s">
-        <v>64</v>
+      <c r="Q41" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R41" s="52"/>
       <c r="S41" s="15"/>
@@ -4701,7 +4701,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="42" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A42" s="18">
         <v>74</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1">
+    <row r="43" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1">
       <c r="A43" s="11">
         <v>75</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="44" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A44" s="18">
         <v>76</v>
       </c>
@@ -4828,8 +4828,8 @@
       <c r="P44" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q44" s="22" t="s">
-        <v>64</v>
+      <c r="Q44" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R44" s="50"/>
       <c r="S44" s="23"/>
@@ -4837,7 +4837,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="45" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A45" s="18">
         <v>77</v>
       </c>
@@ -4884,8 +4884,8 @@
       <c r="P45" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q45" s="22" t="s">
-        <v>64</v>
+      <c r="Q45" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R45" s="50"/>
       <c r="S45" s="23"/>
@@ -4893,7 +4893,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="46" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A46" s="18">
         <v>78</v>
       </c>
@@ -4940,8 +4940,8 @@
       <c r="P46" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q46" s="22" t="s">
-        <v>64</v>
+      <c r="Q46" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R46" s="50"/>
       <c r="S46" s="23"/>
@@ -4949,7 +4949,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="47" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A47" s="18">
         <v>79</v>
       </c>
@@ -4996,8 +4996,8 @@
       <c r="P47" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q47" s="22" t="s">
-        <v>64</v>
+      <c r="Q47" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R47" s="50"/>
       <c r="S47" s="23"/>
@@ -5005,7 +5005,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="48" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A48" s="18">
         <v>80</v>
       </c>
@@ -5052,8 +5052,8 @@
       <c r="P48" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q48" s="22" t="s">
-        <v>64</v>
+      <c r="Q48" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R48" s="50"/>
       <c r="S48" s="23"/>
@@ -5061,7 +5061,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="49" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A49" s="18">
         <v>81</v>
       </c>
@@ -5108,8 +5108,8 @@
       <c r="P49" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q49" s="22" t="s">
-        <v>64</v>
+      <c r="Q49" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R49" s="50"/>
       <c r="S49" s="23"/>
@@ -5117,7 +5117,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="50" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A50" s="18">
         <v>82</v>
       </c>
@@ -5164,8 +5164,8 @@
       <c r="P50" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q50" s="22" t="s">
-        <v>64</v>
+      <c r="Q50" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R50" s="50"/>
       <c r="S50" s="23"/>
@@ -5173,7 +5173,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="51" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A51" s="18">
         <v>83</v>
       </c>
@@ -5220,8 +5220,8 @@
       <c r="P51" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q51" s="22" t="s">
-        <v>64</v>
+      <c r="Q51" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R51" s="50"/>
       <c r="S51" s="23"/>
@@ -5229,7 +5229,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="52" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A52" s="18">
         <v>84</v>
       </c>
@@ -5276,8 +5276,8 @@
       <c r="P52" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q52" s="22" t="s">
-        <v>64</v>
+      <c r="Q52" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R52" s="50"/>
       <c r="S52" s="23"/>
@@ -5285,7 +5285,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1">
+    <row r="53" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1">
       <c r="A53" s="11">
         <v>85</v>
       </c>
@@ -5332,8 +5332,8 @@
       <c r="P53" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="Q53" s="14" t="s">
-        <v>64</v>
+      <c r="Q53" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R53" s="52"/>
       <c r="S53" s="15"/>
@@ -5341,7 +5341,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="54" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A54" s="18">
         <v>86</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="55" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A55" s="18">
         <v>87</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="56" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A56" s="18">
         <v>88</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="57" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A57" s="18">
         <v>89</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="58" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A58" s="18">
         <v>90</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="59" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A59" s="18">
         <v>91</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="60" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A60" s="18">
         <v>92</v>
       </c>
@@ -5628,8 +5628,8 @@
       <c r="P60" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q60" s="22" t="s">
-        <v>64</v>
+      <c r="Q60" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R60" s="50"/>
       <c r="S60" s="23"/>
@@ -5637,7 +5637,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="61" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A61" s="18">
         <v>93</v>
       </c>
@@ -5684,8 +5684,8 @@
       <c r="P61" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q61" s="22" t="s">
-        <v>64</v>
+      <c r="Q61" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R61" s="50"/>
       <c r="S61" s="23"/>
@@ -5693,7 +5693,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="62" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A62" s="18">
         <v>122</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="63" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="63" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A63" s="18">
         <v>123</v>
       </c>
@@ -5780,8 +5780,8 @@
       <c r="P63" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q63" s="22" t="s">
-        <v>64</v>
+      <c r="Q63" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R63" s="50"/>
       <c r="S63" s="23"/>
@@ -5789,7 +5789,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="64" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="64" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A64" s="18">
         <v>124</v>
       </c>
@@ -5836,8 +5836,8 @@
       <c r="P64" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q64" s="22" t="s">
-        <v>64</v>
+      <c r="Q64" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R64" s="50"/>
       <c r="S64" s="23"/>
@@ -5845,7 +5845,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="65" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="65" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A65" s="18">
         <v>125</v>
       </c>
@@ -5892,8 +5892,8 @@
       <c r="P65" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q65" s="22" t="s">
-        <v>64</v>
+      <c r="Q65" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R65" s="50"/>
       <c r="S65" s="23"/>
@@ -5901,7 +5901,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="66" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A66" s="18">
         <v>126</v>
       </c>
@@ -5948,8 +5948,8 @@
       <c r="P66" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q66" s="22" t="s">
-        <v>64</v>
+      <c r="Q66" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R66" s="50"/>
       <c r="S66" s="23"/>
@@ -5957,7 +5957,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="67" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="67" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A67" s="18">
         <v>127</v>
       </c>
@@ -6004,8 +6004,8 @@
       <c r="P67" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q67" s="22" t="s">
-        <v>64</v>
+      <c r="Q67" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R67" s="50"/>
       <c r="S67" s="23"/>
@@ -6013,7 +6013,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="68" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="68" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A68" s="18">
         <v>128</v>
       </c>
@@ -6060,8 +6060,8 @@
       <c r="P68" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q68" s="22" t="s">
-        <v>64</v>
+      <c r="Q68" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R68" s="50"/>
       <c r="S68" s="23"/>
@@ -6069,7 +6069,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="69" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="69" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A69" s="18">
         <v>129</v>
       </c>
@@ -6116,8 +6116,8 @@
       <c r="P69" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q69" s="22" t="s">
-        <v>64</v>
+      <c r="Q69" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R69" s="50"/>
       <c r="S69" s="23"/>
@@ -6125,7 +6125,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="70" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="70" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A70" s="18">
         <v>130</v>
       </c>
@@ -6172,8 +6172,8 @@
       <c r="P70" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q70" s="22" t="s">
-        <v>64</v>
+      <c r="Q70" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R70" s="50"/>
       <c r="S70" s="23"/>
@@ -6181,7 +6181,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="71" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="71" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A71" s="18">
         <v>131</v>
       </c>
@@ -6228,8 +6228,8 @@
       <c r="P71" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q71" s="22" t="s">
-        <v>64</v>
+      <c r="Q71" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R71" s="50"/>
       <c r="S71" s="23"/>
@@ -6237,7 +6237,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="72" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="72" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A72" s="18">
         <v>132</v>
       </c>
@@ -6284,8 +6284,8 @@
       <c r="P72" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q72" s="22" t="s">
-        <v>64</v>
+      <c r="Q72" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R72" s="50"/>
       <c r="S72" s="23"/>
@@ -6293,7 +6293,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="73" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="73" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A73" s="18">
         <v>133</v>
       </c>
@@ -6340,8 +6340,8 @@
       <c r="P73" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q73" s="22" t="s">
-        <v>64</v>
+      <c r="Q73" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R73" s="50"/>
       <c r="S73" s="23"/>
@@ -6349,7 +6349,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="74" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A74" s="18">
         <v>134</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="75" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="75" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A75" s="18">
         <v>135</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="76" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="76" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A76" s="18">
         <v>136</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="77" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A77" s="18">
         <v>137</v>
       </c>
@@ -6516,8 +6516,8 @@
       <c r="P77" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q77" s="22" t="s">
-        <v>64</v>
+      <c r="Q77" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R77" s="50"/>
       <c r="S77" s="23"/>
@@ -6525,7 +6525,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="78" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A78" s="18">
         <v>138</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="79" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="79" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A79" s="18">
         <v>139</v>
       </c>
@@ -6612,8 +6612,8 @@
       <c r="P79" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q79" s="22" t="s">
-        <v>64</v>
+      <c r="Q79" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R79" s="50"/>
       <c r="S79" s="23"/>
@@ -6621,7 +6621,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="80" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A80" s="18">
         <v>140</v>
       </c>
@@ -6668,8 +6668,8 @@
       <c r="P80" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q80" s="22" t="s">
-        <v>64</v>
+      <c r="Q80" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R80" s="50"/>
       <c r="S80" s="23"/>
@@ -6677,7 +6677,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="81" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A81" s="18">
         <v>141</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="82" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A82" s="18">
         <v>142</v>
       </c>
@@ -6764,8 +6764,8 @@
       <c r="P82" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q82" s="22" t="s">
-        <v>64</v>
+      <c r="Q82" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R82" s="50"/>
       <c r="S82" s="23"/>
@@ -6773,7 +6773,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="83" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A83" s="18">
         <v>143</v>
       </c>
@@ -6820,8 +6820,8 @@
       <c r="P83" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q83" s="22" t="s">
-        <v>64</v>
+      <c r="Q83" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R83" s="50"/>
       <c r="S83" s="23"/>
@@ -6829,7 +6829,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="84" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A84" s="18">
         <v>144</v>
       </c>
@@ -6876,8 +6876,8 @@
       <c r="P84" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="Q84" s="22" t="s">
-        <v>64</v>
+      <c r="Q84" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R84" s="50"/>
       <c r="S84" s="23"/>
@@ -6885,7 +6885,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="85" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A85" s="18">
         <v>145</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
+    <row r="86" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
       <c r="A86" s="18">
         <v>146</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="25.9" customHeight="1">
+    <row r="87" spans="1:20" ht="25.95" customHeight="1">
       <c r="A87" s="6">
         <v>32</v>
       </c>
@@ -7012,8 +7012,8 @@
       <c r="P87" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="Q87" s="22" t="s">
-        <v>64</v>
+      <c r="Q87" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R87" s="51"/>
       <c r="S87" s="10"/>
@@ -7021,7 +7021,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="25.9" customHeight="1">
+    <row r="88" spans="1:20" ht="25.95" customHeight="1">
       <c r="A88" s="6">
         <v>40</v>
       </c>
@@ -7068,8 +7068,8 @@
       <c r="P88" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="Q88" s="9" t="s">
-        <v>64</v>
+      <c r="Q88" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R88" s="51"/>
       <c r="S88" s="10"/>
@@ -7077,7 +7077,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="25.9" customHeight="1">
+    <row r="89" spans="1:20" ht="25.95" customHeight="1">
       <c r="A89" s="6">
         <v>48</v>
       </c>
@@ -7118,8 +7118,8 @@
       <c r="P89" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="Q89" s="22" t="s">
-        <v>64</v>
+      <c r="Q89" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="R89" s="50" t="s">
         <v>23</v>
@@ -7129,7 +7129,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="25.9" customHeight="1">
+    <row r="90" spans="1:20" ht="25.95" customHeight="1">
       <c r="A90" s="6">
         <v>147</v>
       </c>
@@ -7154,7 +7154,7 @@
       <c r="H90" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="I90" s="73" t="s">
+      <c r="I90" s="63" t="s">
         <v>482</v>
       </c>
       <c r="J90" s="6" t="s">
@@ -7175,7 +7175,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="25.9" customHeight="1">
+    <row r="91" spans="1:20" ht="25.95" customHeight="1">
       <c r="A91" s="6">
         <v>148</v>
       </c>
@@ -7198,7 +7198,7 @@
       <c r="J91" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K91" s="73" t="s">
+      <c r="K91" s="63" t="s">
         <v>33</v>
       </c>
       <c r="L91" s="6"/>
@@ -7208,14 +7208,14 @@
       <c r="P91" s="22"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
-      <c r="S91" s="73" t="s">
+      <c r="S91" s="63" t="s">
         <v>33</v>
       </c>
       <c r="T91" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="25.9" customHeight="1">
+    <row r="92" spans="1:20" ht="25.95" customHeight="1">
       <c r="A92" s="6">
         <v>149</v>
       </c>
@@ -7238,7 +7238,7 @@
       <c r="J92" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K92" s="73" t="s">
+      <c r="K92" s="63" t="s">
         <v>33</v>
       </c>
       <c r="L92" s="6"/>
@@ -7248,14 +7248,14 @@
       <c r="P92" s="22"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
-      <c r="S92" s="73" t="s">
+      <c r="S92" s="63" t="s">
         <v>33</v>
       </c>
       <c r="T92" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="25.9" customHeight="1">
+    <row r="93" spans="1:20" ht="25.95" customHeight="1">
       <c r="A93" s="6">
         <v>150</v>
       </c>
@@ -7278,7 +7278,7 @@
       <c r="J93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K93" s="73" t="s">
+      <c r="K93" s="63" t="s">
         <v>33</v>
       </c>
       <c r="L93" s="6"/>
@@ -7288,14 +7288,14 @@
       <c r="P93" s="22"/>
       <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
-      <c r="S93" s="73" t="s">
+      <c r="S93" s="63" t="s">
         <v>33</v>
       </c>
       <c r="T93" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="25.9" customHeight="1">
+    <row r="94" spans="1:20" ht="25.95" customHeight="1">
       <c r="A94" s="6">
         <v>151</v>
       </c>
@@ -7333,7 +7333,7 @@
       <c r="M94" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N94" s="73" t="s">
+      <c r="N94" s="63" t="s">
         <v>394</v>
       </c>
       <c r="O94" s="24" t="s">
@@ -7343,15 +7343,15 @@
         <v>479</v>
       </c>
       <c r="Q94" s="6" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="R94" s="6"/>
-      <c r="S94" s="73"/>
+      <c r="S94" s="63"/>
       <c r="T94" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="25.9" customHeight="1">
+    <row r="95" spans="1:20" ht="25.95" customHeight="1">
       <c r="A95" s="6">
         <v>152</v>
       </c>
@@ -7389,7 +7389,7 @@
       <c r="M95" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N95" s="73" t="s">
+      <c r="N95" s="63" t="s">
         <v>400</v>
       </c>
       <c r="O95" s="24" t="s">
@@ -7399,15 +7399,15 @@
         <v>479</v>
       </c>
       <c r="Q95" s="6" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="R95" s="6"/>
-      <c r="S95" s="73"/>
+      <c r="S95" s="63"/>
       <c r="T95" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="25.9" customHeight="1">
+    <row r="96" spans="1:20" ht="25.95" customHeight="1">
       <c r="A96" s="6">
         <v>153</v>
       </c>
@@ -7445,7 +7445,7 @@
       <c r="M96" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N96" s="73" t="s">
+      <c r="N96" s="63" t="s">
         <v>406</v>
       </c>
       <c r="O96" s="24" t="s">
@@ -7455,15 +7455,15 @@
         <v>479</v>
       </c>
       <c r="Q96" s="6" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="R96" s="6"/>
-      <c r="S96" s="73"/>
+      <c r="S96" s="63"/>
       <c r="T96" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="25.9" customHeight="1">
+    <row r="97" spans="1:20" ht="25.95" customHeight="1">
       <c r="A97" s="6">
         <v>154</v>
       </c>
@@ -7501,7 +7501,7 @@
       <c r="M97" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N97" s="73" t="s">
+      <c r="N97" s="63" t="s">
         <v>253</v>
       </c>
       <c r="O97" s="24" t="s">
@@ -7511,15 +7511,15 @@
         <v>479</v>
       </c>
       <c r="Q97" s="6" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="R97" s="6"/>
-      <c r="S97" s="73"/>
+      <c r="S97" s="63"/>
       <c r="T97" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="25.9" customHeight="1">
+    <row r="98" spans="1:20" ht="25.95" customHeight="1">
       <c r="A98" s="6">
         <v>155</v>
       </c>
@@ -7557,7 +7557,7 @@
       <c r="M98" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N98" s="73" t="s">
+      <c r="N98" s="63" t="s">
         <v>173</v>
       </c>
       <c r="O98" s="24" t="s">
@@ -7567,15 +7567,15 @@
         <v>479</v>
       </c>
       <c r="Q98" s="6" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="R98" s="6"/>
-      <c r="S98" s="73"/>
+      <c r="S98" s="63"/>
       <c r="T98" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="25.9" customHeight="1">
+    <row r="99" spans="1:20" ht="25.95" customHeight="1">
       <c r="A99" s="6">
         <v>156</v>
       </c>
@@ -7613,7 +7613,7 @@
       <c r="M99" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N99" s="73" t="s">
+      <c r="N99" s="63" t="s">
         <v>179</v>
       </c>
       <c r="O99" s="24" t="s">
@@ -7623,15 +7623,15 @@
         <v>479</v>
       </c>
       <c r="Q99" s="6" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="R99" s="6"/>
-      <c r="S99" s="73"/>
+      <c r="S99" s="63"/>
       <c r="T99" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="25.9" customHeight="1">
+    <row r="100" spans="1:20" ht="25.95" customHeight="1">
       <c r="A100" s="6">
         <v>157</v>
       </c>
@@ -7669,7 +7669,7 @@
       <c r="M100" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N100" s="73" t="s">
+      <c r="N100" s="63" t="s">
         <v>427</v>
       </c>
       <c r="O100" s="24" t="s">
@@ -7679,15 +7679,15 @@
         <v>479</v>
       </c>
       <c r="Q100" s="6" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="R100" s="6"/>
-      <c r="S100" s="73"/>
+      <c r="S100" s="63"/>
       <c r="T100" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="25.9" customHeight="1">
+    <row r="101" spans="1:20" ht="25.95" customHeight="1">
       <c r="A101" s="6">
         <v>158</v>
       </c>
@@ -7725,7 +7725,7 @@
       <c r="M101" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N101" s="73" t="s">
+      <c r="N101" s="63" t="s">
         <v>433</v>
       </c>
       <c r="O101" s="24" t="s">
@@ -7735,15 +7735,15 @@
         <v>479</v>
       </c>
       <c r="Q101" s="6" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="R101" s="6"/>
-      <c r="S101" s="73"/>
+      <c r="S101" s="63"/>
       <c r="T101" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="25.9" customHeight="1">
+    <row r="102" spans="1:20" ht="25.95" customHeight="1">
       <c r="A102" s="6">
         <v>159</v>
       </c>
@@ -7781,7 +7781,7 @@
       <c r="M102" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N102" s="73" t="s">
+      <c r="N102" s="63" t="s">
         <v>197</v>
       </c>
       <c r="O102" s="24" t="s">
@@ -7791,15 +7791,15 @@
         <v>479</v>
       </c>
       <c r="Q102" s="6" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="R102" s="6"/>
-      <c r="S102" s="73"/>
+      <c r="S102" s="63"/>
       <c r="T102" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="25.9" customHeight="1">
+    <row r="103" spans="1:20" ht="25.95" customHeight="1">
       <c r="A103" s="6">
         <v>160</v>
       </c>
@@ -7837,7 +7837,7 @@
       <c r="M103" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N103" s="73" t="s">
+      <c r="N103" s="63" t="s">
         <v>203</v>
       </c>
       <c r="O103" s="24" t="s">
@@ -7847,15 +7847,15 @@
         <v>479</v>
       </c>
       <c r="Q103" s="6" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="R103" s="6"/>
-      <c r="S103" s="73"/>
+      <c r="S103" s="63"/>
       <c r="T103" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="25.9" customHeight="1">
+    <row r="104" spans="1:20" ht="25.95" customHeight="1">
       <c r="A104" s="6">
         <v>161</v>
       </c>
@@ -7893,7 +7893,7 @@
       <c r="M104" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N104" s="73" t="s">
+      <c r="N104" s="63" t="s">
         <v>449</v>
       </c>
       <c r="O104" s="24" t="s">
@@ -7903,15 +7903,15 @@
         <v>479</v>
       </c>
       <c r="Q104" s="6" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="R104" s="6"/>
-      <c r="S104" s="73"/>
+      <c r="S104" s="63"/>
       <c r="T104" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="25.9" customHeight="1">
+    <row r="105" spans="1:20" ht="25.95" customHeight="1">
       <c r="A105" s="6">
         <v>162</v>
       </c>
@@ -7949,7 +7949,7 @@
       <c r="M105" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N105" s="73" t="s">
+      <c r="N105" s="63" t="s">
         <v>455</v>
       </c>
       <c r="O105" s="24" t="s">
@@ -7959,15 +7959,15 @@
         <v>479</v>
       </c>
       <c r="Q105" s="6" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="R105" s="6"/>
-      <c r="S105" s="73"/>
+      <c r="S105" s="63"/>
       <c r="T105" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="25.9" customHeight="1">
+    <row r="106" spans="1:20" ht="25.95" customHeight="1">
       <c r="A106" s="6">
         <v>163</v>
       </c>
@@ -7995,7 +7995,7 @@
       </c>
       <c r="L106" s="6"/>
       <c r="M106" s="24"/>
-      <c r="N106" s="73"/>
+      <c r="N106" s="63"/>
       <c r="O106" s="6"/>
       <c r="P106" s="22"/>
       <c r="Q106" s="6"/>
@@ -8007,7 +8007,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="25.9" customHeight="1">
+    <row r="107" spans="1:20" ht="25.95" customHeight="1">
       <c r="A107" s="6">
         <v>164</v>
       </c>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="L107" s="6"/>
       <c r="M107" s="24"/>
-      <c r="N107" s="73"/>
+      <c r="N107" s="63"/>
       <c r="O107" s="6"/>
       <c r="P107" s="22"/>
       <c r="Q107" s="6"/>
@@ -8047,7 +8047,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="25.9" customHeight="1">
+    <row r="108" spans="1:20" ht="25.95" customHeight="1">
       <c r="A108" s="6">
         <v>165</v>
       </c>
@@ -8075,7 +8075,7 @@
       </c>
       <c r="L108" s="6"/>
       <c r="M108" s="24"/>
-      <c r="N108" s="73"/>
+      <c r="N108" s="63"/>
       <c r="O108" s="6"/>
       <c r="P108" s="22"/>
       <c r="Q108" s="6"/>
@@ -8087,7 +8087,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="25.9" customHeight="1">
+    <row r="109" spans="1:20" ht="25.95" customHeight="1">
       <c r="A109" s="6">
         <v>166</v>
       </c>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="L109" s="6"/>
       <c r="M109" s="24"/>
-      <c r="N109" s="73"/>
+      <c r="N109" s="63"/>
       <c r="O109" s="6"/>
       <c r="P109" s="22"/>
       <c r="Q109" s="6"/>
@@ -8127,7 +8127,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="25.9" customHeight="1">
+    <row r="110" spans="1:20" ht="25.95" customHeight="1">
       <c r="A110" s="6">
         <v>167</v>
       </c>
@@ -8155,7 +8155,7 @@
       </c>
       <c r="L110" s="6"/>
       <c r="M110" s="24"/>
-      <c r="N110" s="73"/>
+      <c r="N110" s="63"/>
       <c r="O110" s="6"/>
       <c r="P110" s="22"/>
       <c r="Q110" s="6"/>
@@ -8167,7 +8167,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="25.9" customHeight="1">
+    <row r="111" spans="1:20" ht="25.95" customHeight="1">
       <c r="A111" s="6">
         <v>168</v>
       </c>
@@ -8205,7 +8205,7 @@
       <c r="M111" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N111" s="73" t="s">
+      <c r="N111" s="63" t="s">
         <v>471</v>
       </c>
       <c r="O111" s="24" t="s">
@@ -8215,15 +8215,15 @@
         <v>479</v>
       </c>
       <c r="Q111" s="6" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="R111" s="6"/>
-      <c r="S111" s="73"/>
+      <c r="S111" s="63"/>
       <c r="T111" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="25.9" customHeight="1">
+    <row r="112" spans="1:20" ht="25.95" customHeight="1">
       <c r="A112" s="6">
         <v>169</v>
       </c>
@@ -8261,7 +8261,7 @@
       <c r="M112" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N112" s="73" t="s">
+      <c r="N112" s="63" t="s">
         <v>477</v>
       </c>
       <c r="O112" s="24" t="s">
@@ -8271,5741 +8271,5741 @@
         <v>479</v>
       </c>
       <c r="Q112" s="6" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="R112" s="6"/>
-      <c r="S112" s="73"/>
+      <c r="S112" s="63"/>
       <c r="T112" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="113" spans="12:20" ht="25.9" customHeight="1">
+    <row r="113" spans="12:20" ht="25.95" customHeight="1">
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="12:20" ht="25.9" customHeight="1">
+    <row r="114" spans="12:20" ht="25.95" customHeight="1">
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="12:20" ht="25.9" customHeight="1">
+    <row r="115" spans="12:20" ht="25.95" customHeight="1">
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="12:20" ht="25.9" customHeight="1">
+    <row r="116" spans="12:20" ht="25.95" customHeight="1">
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="12:20" ht="25.9" customHeight="1">
+    <row r="117" spans="12:20" ht="25.95" customHeight="1">
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="12:20" ht="25.9" customHeight="1">
+    <row r="118" spans="12:20" ht="25.95" customHeight="1">
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="12:20" ht="25.9" customHeight="1">
+    <row r="119" spans="12:20" ht="25.95" customHeight="1">
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="12:20" ht="25.9" customHeight="1">
+    <row r="120" spans="12:20" ht="25.95" customHeight="1">
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="12:20" ht="25.9" customHeight="1">
+    <row r="121" spans="12:20" ht="25.95" customHeight="1">
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="12:20" ht="25.9" customHeight="1">
+    <row r="122" spans="12:20" ht="25.95" customHeight="1">
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="12:20" ht="25.9" customHeight="1">
+    <row r="123" spans="12:20" ht="25.95" customHeight="1">
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="12:20" ht="25.9" customHeight="1">
+    <row r="124" spans="12:20" ht="25.95" customHeight="1">
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="12:20" ht="25.9" customHeight="1">
+    <row r="125" spans="12:20" ht="25.95" customHeight="1">
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="12:20" ht="25.9" customHeight="1">
+    <row r="126" spans="12:20" ht="25.95" customHeight="1">
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="12:20" ht="25.9" customHeight="1">
+    <row r="127" spans="12:20" ht="25.95" customHeight="1">
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="12:20" ht="25.9" customHeight="1">
+    <row r="128" spans="12:20" ht="25.95" customHeight="1">
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="12:20" ht="25.9" customHeight="1">
+    <row r="129" spans="12:20" ht="25.95" customHeight="1">
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="12:20" ht="25.9" customHeight="1">
+    <row r="130" spans="12:20" ht="25.95" customHeight="1">
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="12:20" ht="25.9" customHeight="1">
+    <row r="131" spans="12:20" ht="25.95" customHeight="1">
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="12:20" ht="25.9" customHeight="1">
+    <row r="132" spans="12:20" ht="25.95" customHeight="1">
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="12:20" ht="25.9" customHeight="1">
+    <row r="133" spans="12:20" ht="25.95" customHeight="1">
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="12:20" ht="25.9" customHeight="1">
+    <row r="134" spans="12:20" ht="25.95" customHeight="1">
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="12:20" ht="25.9" customHeight="1">
+    <row r="135" spans="12:20" ht="25.95" customHeight="1">
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="12:20" ht="25.9" customHeight="1">
+    <row r="136" spans="12:20" ht="25.95" customHeight="1">
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="12:20" ht="25.9" customHeight="1">
+    <row r="137" spans="12:20" ht="25.95" customHeight="1">
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="12:20" ht="25.9" customHeight="1">
+    <row r="138" spans="12:20" ht="25.95" customHeight="1">
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="12:20" ht="25.9" customHeight="1">
+    <row r="139" spans="12:20" ht="25.95" customHeight="1">
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="12:20" ht="25.9" customHeight="1">
+    <row r="140" spans="12:20" ht="25.95" customHeight="1">
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="12:20" ht="25.9" customHeight="1">
+    <row r="141" spans="12:20" ht="25.95" customHeight="1">
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="12:20" ht="25.9" customHeight="1">
+    <row r="142" spans="12:20" ht="25.95" customHeight="1">
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="12:20" ht="25.9" customHeight="1">
+    <row r="143" spans="12:20" ht="25.95" customHeight="1">
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="12:20" ht="25.9" customHeight="1">
+    <row r="144" spans="12:20" ht="25.95" customHeight="1">
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="12:20" ht="25.9" customHeight="1">
+    <row r="145" spans="12:20" ht="25.95" customHeight="1">
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="12:20" ht="25.9" customHeight="1">
+    <row r="146" spans="12:20" ht="25.95" customHeight="1">
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="12:20" ht="25.9" customHeight="1">
+    <row r="147" spans="12:20" ht="25.95" customHeight="1">
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="12:20" ht="25.9" customHeight="1">
+    <row r="148" spans="12:20" ht="25.95" customHeight="1">
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="12:20" ht="25.9" customHeight="1">
+    <row r="149" spans="12:20" ht="25.95" customHeight="1">
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="12:20" ht="25.9" customHeight="1">
+    <row r="150" spans="12:20" ht="25.95" customHeight="1">
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="12:20" ht="25.9" customHeight="1">
+    <row r="151" spans="12:20" ht="25.95" customHeight="1">
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="12:20" ht="25.9" customHeight="1">
+    <row r="152" spans="12:20" ht="25.95" customHeight="1">
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="12:20" ht="25.9" customHeight="1">
+    <row r="153" spans="12:20" ht="25.95" customHeight="1">
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="12:20" ht="25.9" customHeight="1">
+    <row r="154" spans="12:20" ht="25.95" customHeight="1">
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="12:20" ht="25.9" customHeight="1">
+    <row r="155" spans="12:20" ht="25.95" customHeight="1">
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="12:20" ht="25.9" customHeight="1">
+    <row r="156" spans="12:20" ht="25.95" customHeight="1">
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="12:20" ht="25.9" customHeight="1">
+    <row r="157" spans="12:20" ht="25.95" customHeight="1">
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="12:20" ht="25.9" customHeight="1">
+    <row r="158" spans="12:20" ht="25.95" customHeight="1">
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="12:20" ht="25.9" customHeight="1">
+    <row r="159" spans="12:20" ht="25.95" customHeight="1">
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="12:20" ht="25.9" customHeight="1">
+    <row r="160" spans="12:20" ht="25.95" customHeight="1">
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="12:20" ht="25.9" customHeight="1">
+    <row r="161" spans="12:20" ht="25.95" customHeight="1">
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="12:20" ht="25.9" customHeight="1">
+    <row r="162" spans="12:20" ht="25.95" customHeight="1">
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="12:20" ht="25.9" customHeight="1">
+    <row r="163" spans="12:20" ht="25.95" customHeight="1">
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="12:20" ht="25.9" customHeight="1">
+    <row r="164" spans="12:20" ht="25.95" customHeight="1">
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="12:20" ht="25.9" customHeight="1">
+    <row r="165" spans="12:20" ht="25.95" customHeight="1">
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="12:20" ht="25.9" customHeight="1">
+    <row r="166" spans="12:20" ht="25.95" customHeight="1">
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="12:20" ht="25.9" customHeight="1">
+    <row r="167" spans="12:20" ht="25.95" customHeight="1">
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="12:20" ht="25.9" customHeight="1">
+    <row r="168" spans="12:20" ht="25.95" customHeight="1">
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="12:20" ht="25.9" customHeight="1">
+    <row r="169" spans="12:20" ht="25.95" customHeight="1">
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="12:20" ht="25.9" customHeight="1">
+    <row r="170" spans="12:20" ht="25.95" customHeight="1">
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="12:20" ht="25.9" customHeight="1">
+    <row r="171" spans="12:20" ht="25.95" customHeight="1">
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="12:20" ht="25.9" customHeight="1">
+    <row r="172" spans="12:20" ht="25.95" customHeight="1">
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="12:20" ht="25.9" customHeight="1">
+    <row r="173" spans="12:20" ht="25.95" customHeight="1">
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="12:20" ht="25.9" customHeight="1">
+    <row r="174" spans="12:20" ht="25.95" customHeight="1">
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="12:20" ht="25.9" customHeight="1">
+    <row r="175" spans="12:20" ht="25.95" customHeight="1">
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="12:20" ht="25.9" customHeight="1">
+    <row r="176" spans="12:20" ht="25.95" customHeight="1">
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="12:20" ht="25.9" customHeight="1">
+    <row r="177" spans="12:20" ht="25.95" customHeight="1">
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="12:20" ht="25.9" customHeight="1">
+    <row r="178" spans="12:20" ht="25.95" customHeight="1">
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="12:20" ht="25.9" customHeight="1">
+    <row r="179" spans="12:20" ht="25.95" customHeight="1">
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="12:20" ht="25.9" customHeight="1">
+    <row r="180" spans="12:20" ht="25.95" customHeight="1">
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="12:20" ht="25.9" customHeight="1">
+    <row r="181" spans="12:20" ht="25.95" customHeight="1">
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="12:20" ht="25.9" customHeight="1">
+    <row r="182" spans="12:20" ht="25.95" customHeight="1">
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="12:20" ht="25.9" customHeight="1">
+    <row r="183" spans="12:20" ht="25.95" customHeight="1">
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="12:20" ht="25.9" customHeight="1">
+    <row r="184" spans="12:20" ht="25.95" customHeight="1">
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="12:20" ht="25.9" customHeight="1">
+    <row r="185" spans="12:20" ht="25.95" customHeight="1">
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="12:20" ht="25.9" customHeight="1">
+    <row r="186" spans="12:20" ht="25.95" customHeight="1">
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="12:20" ht="25.9" customHeight="1">
+    <row r="187" spans="12:20" ht="25.95" customHeight="1">
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="12:20" ht="25.9" customHeight="1">
+    <row r="188" spans="12:20" ht="25.95" customHeight="1">
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="12:20" ht="25.9" customHeight="1">
+    <row r="189" spans="12:20" ht="25.95" customHeight="1">
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="12:20" ht="25.9" customHeight="1">
+    <row r="190" spans="12:20" ht="25.95" customHeight="1">
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="12:20" ht="25.9" customHeight="1">
+    <row r="191" spans="12:20" ht="25.95" customHeight="1">
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="12:20" ht="25.9" customHeight="1">
+    <row r="192" spans="12:20" ht="25.95" customHeight="1">
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="12:20" ht="25.9" customHeight="1">
+    <row r="193" spans="12:20" ht="25.95" customHeight="1">
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="12:20" ht="25.9" customHeight="1">
+    <row r="194" spans="12:20" ht="25.95" customHeight="1">
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="12:20" ht="25.9" customHeight="1">
+    <row r="195" spans="12:20" ht="25.95" customHeight="1">
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="12:20" ht="25.9" customHeight="1">
+    <row r="196" spans="12:20" ht="25.95" customHeight="1">
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="12:20" ht="25.9" customHeight="1">
+    <row r="197" spans="12:20" ht="25.95" customHeight="1">
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="12:20" ht="25.9" customHeight="1">
+    <row r="198" spans="12:20" ht="25.95" customHeight="1">
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="12:20" ht="25.9" customHeight="1">
+    <row r="199" spans="12:20" ht="25.95" customHeight="1">
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="12:20" ht="25.9" customHeight="1">
+    <row r="200" spans="12:20" ht="25.95" customHeight="1">
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
       <c r="T200" s="2"/>
     </row>
-    <row r="201" spans="12:20" ht="25.9" customHeight="1">
+    <row r="201" spans="12:20" ht="25.95" customHeight="1">
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
       <c r="T201" s="2"/>
     </row>
-    <row r="202" spans="12:20" ht="25.9" customHeight="1">
+    <row r="202" spans="12:20" ht="25.95" customHeight="1">
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
       <c r="T202" s="2"/>
     </row>
-    <row r="203" spans="12:20" ht="25.9" customHeight="1">
+    <row r="203" spans="12:20" ht="25.95" customHeight="1">
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
       <c r="T203" s="2"/>
     </row>
-    <row r="204" spans="12:20" ht="25.9" customHeight="1">
+    <row r="204" spans="12:20" ht="25.95" customHeight="1">
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
       <c r="T204" s="2"/>
     </row>
-    <row r="205" spans="12:20" ht="25.9" customHeight="1">
+    <row r="205" spans="12:20" ht="25.95" customHeight="1">
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
       <c r="T205" s="2"/>
     </row>
-    <row r="206" spans="12:20" ht="25.9" customHeight="1">
+    <row r="206" spans="12:20" ht="25.95" customHeight="1">
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
       <c r="T206" s="2"/>
     </row>
-    <row r="207" spans="12:20" ht="25.9" customHeight="1">
+    <row r="207" spans="12:20" ht="25.95" customHeight="1">
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
       <c r="T207" s="2"/>
     </row>
-    <row r="208" spans="12:20" ht="25.9" customHeight="1">
+    <row r="208" spans="12:20" ht="25.95" customHeight="1">
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
       <c r="T208" s="2"/>
     </row>
-    <row r="209" spans="12:20" ht="25.9" customHeight="1">
+    <row r="209" spans="12:20" ht="25.95" customHeight="1">
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
       <c r="T209" s="2"/>
     </row>
-    <row r="210" spans="12:20" ht="25.9" customHeight="1">
+    <row r="210" spans="12:20" ht="25.95" customHeight="1">
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
       <c r="T210" s="2"/>
     </row>
-    <row r="211" spans="12:20" ht="25.9" customHeight="1">
+    <row r="211" spans="12:20" ht="25.95" customHeight="1">
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
       <c r="T211" s="2"/>
     </row>
-    <row r="212" spans="12:20" ht="25.9" customHeight="1">
+    <row r="212" spans="12:20" ht="25.95" customHeight="1">
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
       <c r="T212" s="2"/>
     </row>
-    <row r="213" spans="12:20" ht="25.9" customHeight="1">
+    <row r="213" spans="12:20" ht="25.95" customHeight="1">
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
       <c r="T213" s="2"/>
     </row>
-    <row r="214" spans="12:20" ht="25.9" customHeight="1">
+    <row r="214" spans="12:20" ht="25.95" customHeight="1">
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
       <c r="T214" s="2"/>
     </row>
-    <row r="215" spans="12:20" ht="25.9" customHeight="1">
+    <row r="215" spans="12:20" ht="25.95" customHeight="1">
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
       <c r="T215" s="2"/>
     </row>
-    <row r="216" spans="12:20" ht="25.9" customHeight="1">
+    <row r="216" spans="12:20" ht="25.95" customHeight="1">
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
       <c r="T216" s="2"/>
     </row>
-    <row r="217" spans="12:20" ht="25.9" customHeight="1">
+    <row r="217" spans="12:20" ht="25.95" customHeight="1">
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
       <c r="T217" s="2"/>
     </row>
-    <row r="218" spans="12:20" ht="25.9" customHeight="1">
+    <row r="218" spans="12:20" ht="25.95" customHeight="1">
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
       <c r="T218" s="2"/>
     </row>
-    <row r="219" spans="12:20" ht="25.9" customHeight="1">
+    <row r="219" spans="12:20" ht="25.95" customHeight="1">
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
       <c r="T219" s="2"/>
     </row>
-    <row r="220" spans="12:20" ht="25.9" customHeight="1">
+    <row r="220" spans="12:20" ht="25.95" customHeight="1">
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
       <c r="T220" s="2"/>
     </row>
-    <row r="221" spans="12:20" ht="25.9" customHeight="1">
+    <row r="221" spans="12:20" ht="25.95" customHeight="1">
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
       <c r="N221" s="2"/>
       <c r="O221" s="2"/>
       <c r="T221" s="2"/>
     </row>
-    <row r="222" spans="12:20" ht="25.9" customHeight="1">
+    <row r="222" spans="12:20" ht="25.95" customHeight="1">
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
       <c r="T222" s="2"/>
     </row>
-    <row r="223" spans="12:20" ht="25.9" customHeight="1">
+    <row r="223" spans="12:20" ht="25.95" customHeight="1">
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
       <c r="T223" s="2"/>
     </row>
-    <row r="224" spans="12:20" ht="25.9" customHeight="1">
+    <row r="224" spans="12:20" ht="25.95" customHeight="1">
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
       <c r="T224" s="2"/>
     </row>
-    <row r="225" spans="12:20" ht="25.9" customHeight="1">
+    <row r="225" spans="12:20" ht="25.95" customHeight="1">
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
       <c r="T225" s="2"/>
     </row>
-    <row r="226" spans="12:20" ht="25.9" customHeight="1">
+    <row r="226" spans="12:20" ht="25.95" customHeight="1">
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
       <c r="T226" s="2"/>
     </row>
-    <row r="227" spans="12:20" ht="25.9" customHeight="1">
+    <row r="227" spans="12:20" ht="25.95" customHeight="1">
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
       <c r="T227" s="2"/>
     </row>
-    <row r="228" spans="12:20" ht="25.9" customHeight="1">
+    <row r="228" spans="12:20" ht="25.95" customHeight="1">
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
       <c r="O228" s="2"/>
       <c r="T228" s="2"/>
     </row>
-    <row r="229" spans="12:20" ht="25.9" customHeight="1">
+    <row r="229" spans="12:20" ht="25.95" customHeight="1">
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
       <c r="T229" s="2"/>
     </row>
-    <row r="230" spans="12:20" ht="25.9" customHeight="1">
+    <row r="230" spans="12:20" ht="25.95" customHeight="1">
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
       <c r="T230" s="2"/>
     </row>
-    <row r="231" spans="12:20" ht="25.9" customHeight="1">
+    <row r="231" spans="12:20" ht="25.95" customHeight="1">
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
       <c r="T231" s="2"/>
     </row>
-    <row r="232" spans="12:20" ht="25.9" customHeight="1">
+    <row r="232" spans="12:20" ht="25.95" customHeight="1">
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
       <c r="T232" s="2"/>
     </row>
-    <row r="233" spans="12:20" ht="25.9" customHeight="1">
+    <row r="233" spans="12:20" ht="25.95" customHeight="1">
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
       <c r="T233" s="2"/>
     </row>
-    <row r="234" spans="12:20" ht="25.9" customHeight="1">
+    <row r="234" spans="12:20" ht="25.95" customHeight="1">
       <c r="L234" s="2"/>
       <c r="M234" s="2"/>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
       <c r="T234" s="2"/>
     </row>
-    <row r="235" spans="12:20" ht="25.9" customHeight="1">
+    <row r="235" spans="12:20" ht="25.95" customHeight="1">
       <c r="L235" s="2"/>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
       <c r="T235" s="2"/>
     </row>
-    <row r="236" spans="12:20" ht="25.9" customHeight="1">
+    <row r="236" spans="12:20" ht="25.95" customHeight="1">
       <c r="L236" s="2"/>
       <c r="M236" s="2"/>
       <c r="N236" s="2"/>
       <c r="O236" s="2"/>
       <c r="T236" s="2"/>
     </row>
-    <row r="237" spans="12:20" ht="25.9" customHeight="1">
+    <row r="237" spans="12:20" ht="25.95" customHeight="1">
       <c r="L237" s="2"/>
       <c r="M237" s="2"/>
       <c r="N237" s="2"/>
       <c r="O237" s="2"/>
       <c r="T237" s="2"/>
     </row>
-    <row r="238" spans="12:20" ht="25.9" customHeight="1">
+    <row r="238" spans="12:20" ht="25.95" customHeight="1">
       <c r="L238" s="2"/>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
       <c r="O238" s="2"/>
       <c r="T238" s="2"/>
     </row>
-    <row r="239" spans="12:20" ht="25.9" customHeight="1">
+    <row r="239" spans="12:20" ht="25.95" customHeight="1">
       <c r="L239" s="2"/>
       <c r="M239" s="2"/>
       <c r="N239" s="2"/>
       <c r="O239" s="2"/>
       <c r="T239" s="2"/>
     </row>
-    <row r="240" spans="12:20" ht="25.9" customHeight="1">
+    <row r="240" spans="12:20" ht="25.95" customHeight="1">
       <c r="L240" s="2"/>
       <c r="M240" s="2"/>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
       <c r="T240" s="2"/>
     </row>
-    <row r="241" spans="12:20" ht="25.9" customHeight="1">
+    <row r="241" spans="12:20" ht="25.95" customHeight="1">
       <c r="L241" s="2"/>
       <c r="M241" s="2"/>
       <c r="N241" s="2"/>
       <c r="O241" s="2"/>
       <c r="T241" s="2"/>
     </row>
-    <row r="242" spans="12:20" ht="25.9" customHeight="1">
+    <row r="242" spans="12:20" ht="25.95" customHeight="1">
       <c r="L242" s="2"/>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
       <c r="T242" s="2"/>
     </row>
-    <row r="243" spans="12:20" ht="25.9" customHeight="1">
+    <row r="243" spans="12:20" ht="25.95" customHeight="1">
       <c r="L243" s="2"/>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
       <c r="O243" s="2"/>
       <c r="T243" s="2"/>
     </row>
-    <row r="244" spans="12:20" ht="25.9" customHeight="1">
+    <row r="244" spans="12:20" ht="25.95" customHeight="1">
       <c r="L244" s="2"/>
       <c r="M244" s="2"/>
       <c r="N244" s="2"/>
       <c r="O244" s="2"/>
       <c r="T244" s="2"/>
     </row>
-    <row r="245" spans="12:20" ht="25.9" customHeight="1">
+    <row r="245" spans="12:20" ht="25.95" customHeight="1">
       <c r="L245" s="2"/>
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
       <c r="O245" s="2"/>
       <c r="T245" s="2"/>
     </row>
-    <row r="246" spans="12:20" ht="25.9" customHeight="1">
+    <row r="246" spans="12:20" ht="25.95" customHeight="1">
       <c r="L246" s="2"/>
       <c r="M246" s="2"/>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
       <c r="T246" s="2"/>
     </row>
-    <row r="247" spans="12:20" ht="25.9" customHeight="1">
+    <row r="247" spans="12:20" ht="25.95" customHeight="1">
       <c r="L247" s="2"/>
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
       <c r="T247" s="2"/>
     </row>
-    <row r="248" spans="12:20" ht="25.9" customHeight="1">
+    <row r="248" spans="12:20" ht="25.95" customHeight="1">
       <c r="L248" s="2"/>
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
       <c r="O248" s="2"/>
       <c r="T248" s="2"/>
     </row>
-    <row r="249" spans="12:20" ht="25.9" customHeight="1">
+    <row r="249" spans="12:20" ht="25.95" customHeight="1">
       <c r="L249" s="2"/>
       <c r="M249" s="2"/>
       <c r="N249" s="2"/>
       <c r="O249" s="2"/>
       <c r="T249" s="2"/>
     </row>
-    <row r="250" spans="12:20" ht="25.9" customHeight="1">
+    <row r="250" spans="12:20" ht="25.95" customHeight="1">
       <c r="L250" s="2"/>
       <c r="M250" s="2"/>
       <c r="N250" s="2"/>
       <c r="O250" s="2"/>
       <c r="T250" s="2"/>
     </row>
-    <row r="251" spans="12:20" ht="25.9" customHeight="1">
+    <row r="251" spans="12:20" ht="25.95" customHeight="1">
       <c r="L251" s="2"/>
       <c r="M251" s="2"/>
       <c r="N251" s="2"/>
       <c r="O251" s="2"/>
       <c r="T251" s="2"/>
     </row>
-    <row r="252" spans="12:20" ht="25.9" customHeight="1">
+    <row r="252" spans="12:20" ht="25.95" customHeight="1">
       <c r="L252" s="2"/>
       <c r="M252" s="2"/>
       <c r="N252" s="2"/>
       <c r="O252" s="2"/>
       <c r="T252" s="2"/>
     </row>
-    <row r="253" spans="12:20" ht="25.9" customHeight="1">
+    <row r="253" spans="12:20" ht="25.95" customHeight="1">
       <c r="L253" s="2"/>
       <c r="M253" s="2"/>
       <c r="N253" s="2"/>
       <c r="O253" s="2"/>
       <c r="T253" s="2"/>
     </row>
-    <row r="254" spans="12:20" ht="25.9" customHeight="1">
+    <row r="254" spans="12:20" ht="25.95" customHeight="1">
       <c r="L254" s="2"/>
       <c r="M254" s="2"/>
       <c r="N254" s="2"/>
       <c r="O254" s="2"/>
       <c r="T254" s="2"/>
     </row>
-    <row r="255" spans="12:20" ht="25.9" customHeight="1">
+    <row r="255" spans="12:20" ht="25.95" customHeight="1">
       <c r="L255" s="2"/>
       <c r="M255" s="2"/>
       <c r="N255" s="2"/>
       <c r="O255" s="2"/>
       <c r="T255" s="2"/>
     </row>
-    <row r="256" spans="12:20" ht="25.9" customHeight="1">
+    <row r="256" spans="12:20" ht="25.95" customHeight="1">
       <c r="L256" s="2"/>
       <c r="M256" s="2"/>
       <c r="N256" s="2"/>
       <c r="O256" s="2"/>
       <c r="T256" s="2"/>
     </row>
-    <row r="257" spans="12:20" ht="25.9" customHeight="1">
+    <row r="257" spans="12:20" ht="25.95" customHeight="1">
       <c r="L257" s="2"/>
       <c r="M257" s="2"/>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
       <c r="T257" s="2"/>
     </row>
-    <row r="258" spans="12:20" ht="25.9" customHeight="1">
+    <row r="258" spans="12:20" ht="25.95" customHeight="1">
       <c r="L258" s="2"/>
       <c r="M258" s="2"/>
       <c r="N258" s="2"/>
       <c r="O258" s="2"/>
       <c r="T258" s="2"/>
     </row>
-    <row r="259" spans="12:20" ht="25.9" customHeight="1">
+    <row r="259" spans="12:20" ht="25.95" customHeight="1">
       <c r="L259" s="2"/>
       <c r="M259" s="2"/>
       <c r="N259" s="2"/>
       <c r="O259" s="2"/>
       <c r="T259" s="2"/>
     </row>
-    <row r="260" spans="12:20" ht="25.9" customHeight="1">
+    <row r="260" spans="12:20" ht="25.95" customHeight="1">
       <c r="L260" s="2"/>
       <c r="M260" s="2"/>
       <c r="N260" s="2"/>
       <c r="O260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="12:20" ht="25.9" customHeight="1">
+    <row r="261" spans="12:20" ht="25.95" customHeight="1">
       <c r="L261" s="2"/>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
       <c r="O261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="12:20" ht="25.9" customHeight="1">
+    <row r="262" spans="12:20" ht="25.95" customHeight="1">
       <c r="L262" s="2"/>
       <c r="M262" s="2"/>
       <c r="N262" s="2"/>
       <c r="O262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="12:20" ht="25.9" customHeight="1">
+    <row r="263" spans="12:20" ht="25.95" customHeight="1">
       <c r="L263" s="2"/>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
       <c r="O263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="12:20" ht="25.9" customHeight="1">
+    <row r="264" spans="12:20" ht="25.95" customHeight="1">
       <c r="L264" s="2"/>
       <c r="M264" s="2"/>
       <c r="N264" s="2"/>
       <c r="O264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="12:20" ht="25.9" customHeight="1">
+    <row r="265" spans="12:20" ht="25.95" customHeight="1">
       <c r="L265" s="2"/>
       <c r="M265" s="2"/>
       <c r="N265" s="2"/>
       <c r="O265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="12:20" ht="25.9" customHeight="1">
+    <row r="266" spans="12:20" ht="25.95" customHeight="1">
       <c r="L266" s="2"/>
       <c r="M266" s="2"/>
       <c r="N266" s="2"/>
       <c r="O266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="12:20" ht="25.9" customHeight="1">
+    <row r="267" spans="12:20" ht="25.95" customHeight="1">
       <c r="L267" s="2"/>
       <c r="M267" s="2"/>
       <c r="N267" s="2"/>
       <c r="O267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="12:20" ht="25.9" customHeight="1">
+    <row r="268" spans="12:20" ht="25.95" customHeight="1">
       <c r="L268" s="2"/>
       <c r="M268" s="2"/>
       <c r="N268" s="2"/>
       <c r="O268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="12:20" ht="25.9" customHeight="1">
+    <row r="269" spans="12:20" ht="25.95" customHeight="1">
       <c r="L269" s="2"/>
       <c r="M269" s="2"/>
       <c r="N269" s="2"/>
       <c r="O269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="12:20" ht="25.9" customHeight="1">
+    <row r="270" spans="12:20" ht="25.95" customHeight="1">
       <c r="L270" s="2"/>
       <c r="M270" s="2"/>
       <c r="N270" s="2"/>
       <c r="O270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="12:20" ht="25.9" customHeight="1">
+    <row r="271" spans="12:20" ht="25.95" customHeight="1">
       <c r="L271" s="2"/>
       <c r="M271" s="2"/>
       <c r="N271" s="2"/>
       <c r="O271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="12:20" ht="25.9" customHeight="1">
+    <row r="272" spans="12:20" ht="25.95" customHeight="1">
       <c r="L272" s="2"/>
       <c r="M272" s="2"/>
       <c r="N272" s="2"/>
       <c r="O272" s="2"/>
       <c r="T272" s="2"/>
     </row>
-    <row r="273" spans="12:20" ht="25.9" customHeight="1">
+    <row r="273" spans="12:20" ht="25.95" customHeight="1">
       <c r="L273" s="2"/>
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
       <c r="O273" s="2"/>
       <c r="T273" s="2"/>
     </row>
-    <row r="274" spans="12:20" ht="25.9" customHeight="1">
+    <row r="274" spans="12:20" ht="25.95" customHeight="1">
       <c r="L274" s="2"/>
       <c r="M274" s="2"/>
       <c r="N274" s="2"/>
       <c r="O274" s="2"/>
       <c r="T274" s="2"/>
     </row>
-    <row r="275" spans="12:20" ht="25.9" customHeight="1">
+    <row r="275" spans="12:20" ht="25.95" customHeight="1">
       <c r="L275" s="2"/>
       <c r="M275" s="2"/>
       <c r="N275" s="2"/>
       <c r="O275" s="2"/>
       <c r="T275" s="2"/>
     </row>
-    <row r="276" spans="12:20" ht="25.9" customHeight="1">
+    <row r="276" spans="12:20" ht="25.95" customHeight="1">
       <c r="L276" s="2"/>
       <c r="M276" s="2"/>
       <c r="N276" s="2"/>
       <c r="O276" s="2"/>
       <c r="T276" s="2"/>
     </row>
-    <row r="277" spans="12:20" ht="25.9" customHeight="1">
+    <row r="277" spans="12:20" ht="25.95" customHeight="1">
       <c r="L277" s="2"/>
       <c r="M277" s="2"/>
       <c r="N277" s="2"/>
       <c r="O277" s="2"/>
       <c r="T277" s="2"/>
     </row>
-    <row r="278" spans="12:20" ht="25.9" customHeight="1">
+    <row r="278" spans="12:20" ht="25.95" customHeight="1">
       <c r="L278" s="2"/>
       <c r="M278" s="2"/>
       <c r="N278" s="2"/>
       <c r="O278" s="2"/>
       <c r="T278" s="2"/>
     </row>
-    <row r="279" spans="12:20" ht="25.9" customHeight="1">
+    <row r="279" spans="12:20" ht="25.95" customHeight="1">
       <c r="L279" s="2"/>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
       <c r="O279" s="2"/>
       <c r="T279" s="2"/>
     </row>
-    <row r="280" spans="12:20" ht="25.9" customHeight="1">
+    <row r="280" spans="12:20" ht="25.95" customHeight="1">
       <c r="L280" s="2"/>
       <c r="M280" s="2"/>
       <c r="N280" s="2"/>
       <c r="O280" s="2"/>
       <c r="T280" s="2"/>
     </row>
-    <row r="281" spans="12:20" ht="25.9" customHeight="1">
+    <row r="281" spans="12:20" ht="25.95" customHeight="1">
       <c r="L281" s="2"/>
       <c r="M281" s="2"/>
       <c r="N281" s="2"/>
       <c r="O281" s="2"/>
       <c r="T281" s="2"/>
     </row>
-    <row r="282" spans="12:20" ht="25.9" customHeight="1">
+    <row r="282" spans="12:20" ht="25.95" customHeight="1">
       <c r="L282" s="2"/>
       <c r="M282" s="2"/>
       <c r="N282" s="2"/>
       <c r="O282" s="2"/>
       <c r="T282" s="2"/>
     </row>
-    <row r="283" spans="12:20" ht="25.9" customHeight="1">
+    <row r="283" spans="12:20" ht="25.95" customHeight="1">
       <c r="L283" s="2"/>
       <c r="M283" s="2"/>
       <c r="N283" s="2"/>
       <c r="O283" s="2"/>
       <c r="T283" s="2"/>
     </row>
-    <row r="284" spans="12:20" ht="25.9" customHeight="1">
+    <row r="284" spans="12:20" ht="25.95" customHeight="1">
       <c r="L284" s="2"/>
       <c r="M284" s="2"/>
       <c r="N284" s="2"/>
       <c r="O284" s="2"/>
       <c r="T284" s="2"/>
     </row>
-    <row r="285" spans="12:20" ht="25.9" customHeight="1">
+    <row r="285" spans="12:20" ht="25.95" customHeight="1">
       <c r="L285" s="2"/>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
       <c r="O285" s="2"/>
       <c r="T285" s="2"/>
     </row>
-    <row r="286" spans="12:20" ht="25.9" customHeight="1">
+    <row r="286" spans="12:20" ht="25.95" customHeight="1">
       <c r="L286" s="2"/>
       <c r="M286" s="2"/>
       <c r="N286" s="2"/>
       <c r="O286" s="2"/>
       <c r="T286" s="2"/>
     </row>
-    <row r="287" spans="12:20" ht="25.9" customHeight="1">
+    <row r="287" spans="12:20" ht="25.95" customHeight="1">
       <c r="L287" s="2"/>
       <c r="M287" s="2"/>
       <c r="N287" s="2"/>
       <c r="O287" s="2"/>
       <c r="T287" s="2"/>
     </row>
-    <row r="288" spans="12:20" ht="25.9" customHeight="1">
+    <row r="288" spans="12:20" ht="25.95" customHeight="1">
       <c r="L288" s="2"/>
       <c r="M288" s="2"/>
       <c r="N288" s="2"/>
       <c r="O288" s="2"/>
       <c r="T288" s="2"/>
     </row>
-    <row r="289" spans="12:20" ht="25.9" customHeight="1">
+    <row r="289" spans="12:20" ht="25.95" customHeight="1">
       <c r="L289" s="2"/>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
       <c r="T289" s="2"/>
     </row>
-    <row r="290" spans="12:20" ht="25.9" customHeight="1">
+    <row r="290" spans="12:20" ht="25.95" customHeight="1">
       <c r="L290" s="2"/>
       <c r="M290" s="2"/>
       <c r="N290" s="2"/>
       <c r="O290" s="2"/>
       <c r="T290" s="2"/>
     </row>
-    <row r="291" spans="12:20" ht="25.9" customHeight="1">
+    <row r="291" spans="12:20" ht="25.95" customHeight="1">
       <c r="L291" s="2"/>
       <c r="M291" s="2"/>
       <c r="N291" s="2"/>
       <c r="O291" s="2"/>
       <c r="T291" s="2"/>
     </row>
-    <row r="292" spans="12:20" ht="25.9" customHeight="1">
+    <row r="292" spans="12:20" ht="25.95" customHeight="1">
       <c r="L292" s="2"/>
       <c r="M292" s="2"/>
       <c r="N292" s="2"/>
       <c r="O292" s="2"/>
       <c r="T292" s="2"/>
     </row>
-    <row r="293" spans="12:20" ht="25.9" customHeight="1">
+    <row r="293" spans="12:20" ht="25.95" customHeight="1">
       <c r="L293" s="2"/>
       <c r="M293" s="2"/>
       <c r="N293" s="2"/>
       <c r="O293" s="2"/>
       <c r="T293" s="2"/>
     </row>
-    <row r="294" spans="12:20" ht="25.9" customHeight="1">
+    <row r="294" spans="12:20" ht="25.95" customHeight="1">
       <c r="L294" s="2"/>
       <c r="M294" s="2"/>
       <c r="N294" s="2"/>
       <c r="O294" s="2"/>
       <c r="T294" s="2"/>
     </row>
-    <row r="295" spans="12:20" ht="25.9" customHeight="1">
+    <row r="295" spans="12:20" ht="25.95" customHeight="1">
       <c r="L295" s="2"/>
       <c r="M295" s="2"/>
       <c r="N295" s="2"/>
       <c r="O295" s="2"/>
       <c r="T295" s="2"/>
     </row>
-    <row r="296" spans="12:20" ht="25.9" customHeight="1">
+    <row r="296" spans="12:20" ht="25.95" customHeight="1">
       <c r="L296" s="2"/>
       <c r="M296" s="2"/>
       <c r="N296" s="2"/>
       <c r="O296" s="2"/>
       <c r="T296" s="2"/>
     </row>
-    <row r="297" spans="12:20" ht="25.9" customHeight="1">
+    <row r="297" spans="12:20" ht="25.95" customHeight="1">
       <c r="L297" s="2"/>
       <c r="M297" s="2"/>
       <c r="N297" s="2"/>
       <c r="O297" s="2"/>
       <c r="T297" s="2"/>
     </row>
-    <row r="298" spans="12:20" ht="25.9" customHeight="1">
+    <row r="298" spans="12:20" ht="25.95" customHeight="1">
       <c r="L298" s="2"/>
       <c r="M298" s="2"/>
       <c r="N298" s="2"/>
       <c r="O298" s="2"/>
       <c r="T298" s="2"/>
     </row>
-    <row r="299" spans="12:20" ht="25.9" customHeight="1">
+    <row r="299" spans="12:20" ht="25.95" customHeight="1">
       <c r="L299" s="2"/>
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
       <c r="O299" s="2"/>
       <c r="T299" s="2"/>
     </row>
-    <row r="300" spans="12:20" ht="25.9" customHeight="1">
+    <row r="300" spans="12:20" ht="25.95" customHeight="1">
       <c r="L300" s="2"/>
       <c r="M300" s="2"/>
       <c r="N300" s="2"/>
       <c r="O300" s="2"/>
       <c r="T300" s="2"/>
     </row>
-    <row r="301" spans="12:20" ht="25.9" customHeight="1">
+    <row r="301" spans="12:20" ht="25.95" customHeight="1">
       <c r="L301" s="2"/>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
       <c r="O301" s="2"/>
       <c r="T301" s="2"/>
     </row>
-    <row r="302" spans="12:20" ht="25.9" customHeight="1">
+    <row r="302" spans="12:20" ht="25.95" customHeight="1">
       <c r="L302" s="2"/>
       <c r="M302" s="2"/>
       <c r="N302" s="2"/>
       <c r="O302" s="2"/>
       <c r="T302" s="2"/>
     </row>
-    <row r="303" spans="12:20" ht="25.9" customHeight="1">
+    <row r="303" spans="12:20" ht="25.95" customHeight="1">
       <c r="L303" s="2"/>
       <c r="M303" s="2"/>
       <c r="N303" s="2"/>
       <c r="O303" s="2"/>
       <c r="T303" s="2"/>
     </row>
-    <row r="304" spans="12:20" ht="25.9" customHeight="1">
+    <row r="304" spans="12:20" ht="25.95" customHeight="1">
       <c r="L304" s="2"/>
       <c r="M304" s="2"/>
       <c r="N304" s="2"/>
       <c r="O304" s="2"/>
       <c r="T304" s="2"/>
     </row>
-    <row r="305" spans="12:20" ht="25.9" customHeight="1">
+    <row r="305" spans="12:20" ht="25.95" customHeight="1">
       <c r="L305" s="2"/>
       <c r="M305" s="2"/>
       <c r="N305" s="2"/>
       <c r="O305" s="2"/>
       <c r="T305" s="2"/>
     </row>
-    <row r="306" spans="12:20" ht="25.9" customHeight="1">
+    <row r="306" spans="12:20" ht="25.95" customHeight="1">
       <c r="L306" s="2"/>
       <c r="M306" s="2"/>
       <c r="N306" s="2"/>
       <c r="O306" s="2"/>
       <c r="T306" s="2"/>
     </row>
-    <row r="307" spans="12:20" ht="25.9" customHeight="1">
+    <row r="307" spans="12:20" ht="25.95" customHeight="1">
       <c r="L307" s="2"/>
       <c r="M307" s="2"/>
       <c r="N307" s="2"/>
       <c r="O307" s="2"/>
       <c r="T307" s="2"/>
     </row>
-    <row r="308" spans="12:20" ht="25.9" customHeight="1">
+    <row r="308" spans="12:20" ht="25.95" customHeight="1">
       <c r="L308" s="2"/>
       <c r="M308" s="2"/>
       <c r="N308" s="2"/>
       <c r="O308" s="2"/>
       <c r="T308" s="2"/>
     </row>
-    <row r="309" spans="12:20" ht="25.9" customHeight="1">
+    <row r="309" spans="12:20" ht="25.95" customHeight="1">
       <c r="L309" s="2"/>
       <c r="M309" s="2"/>
       <c r="N309" s="2"/>
       <c r="O309" s="2"/>
       <c r="T309" s="2"/>
     </row>
-    <row r="310" spans="12:20" ht="25.9" customHeight="1">
+    <row r="310" spans="12:20" ht="25.95" customHeight="1">
       <c r="L310" s="2"/>
       <c r="M310" s="2"/>
       <c r="N310" s="2"/>
       <c r="O310" s="2"/>
       <c r="T310" s="2"/>
     </row>
-    <row r="311" spans="12:20" ht="25.9" customHeight="1">
+    <row r="311" spans="12:20" ht="25.95" customHeight="1">
       <c r="L311" s="2"/>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
       <c r="O311" s="2"/>
       <c r="T311" s="2"/>
     </row>
-    <row r="312" spans="12:20" ht="25.9" customHeight="1">
+    <row r="312" spans="12:20" ht="25.95" customHeight="1">
       <c r="L312" s="2"/>
       <c r="M312" s="2"/>
       <c r="N312" s="2"/>
       <c r="O312" s="2"/>
       <c r="T312" s="2"/>
     </row>
-    <row r="313" spans="12:20" ht="25.9" customHeight="1">
+    <row r="313" spans="12:20" ht="25.95" customHeight="1">
       <c r="L313" s="2"/>
       <c r="M313" s="2"/>
       <c r="N313" s="2"/>
       <c r="O313" s="2"/>
       <c r="T313" s="2"/>
     </row>
-    <row r="314" spans="12:20" ht="25.9" customHeight="1">
+    <row r="314" spans="12:20" ht="25.95" customHeight="1">
       <c r="L314" s="2"/>
       <c r="M314" s="2"/>
       <c r="N314" s="2"/>
       <c r="O314" s="2"/>
       <c r="T314" s="2"/>
     </row>
-    <row r="315" spans="12:20" ht="25.9" customHeight="1">
+    <row r="315" spans="12:20" ht="25.95" customHeight="1">
       <c r="L315" s="2"/>
       <c r="M315" s="2"/>
       <c r="N315" s="2"/>
       <c r="O315" s="2"/>
       <c r="T315" s="2"/>
     </row>
-    <row r="316" spans="12:20" ht="25.9" customHeight="1">
+    <row r="316" spans="12:20" ht="25.95" customHeight="1">
       <c r="L316" s="2"/>
       <c r="M316" s="2"/>
       <c r="N316" s="2"/>
       <c r="O316" s="2"/>
       <c r="T316" s="2"/>
     </row>
-    <row r="317" spans="12:20" ht="25.9" customHeight="1">
+    <row r="317" spans="12:20" ht="25.95" customHeight="1">
       <c r="L317" s="2"/>
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
       <c r="O317" s="2"/>
       <c r="T317" s="2"/>
     </row>
-    <row r="318" spans="12:20" ht="25.9" customHeight="1">
+    <row r="318" spans="12:20" ht="25.95" customHeight="1">
       <c r="L318" s="2"/>
       <c r="M318" s="2"/>
       <c r="N318" s="2"/>
       <c r="O318" s="2"/>
       <c r="T318" s="2"/>
     </row>
-    <row r="319" spans="12:20" ht="25.9" customHeight="1">
+    <row r="319" spans="12:20" ht="25.95" customHeight="1">
       <c r="L319" s="2"/>
       <c r="M319" s="2"/>
       <c r="N319" s="2"/>
       <c r="O319" s="2"/>
       <c r="T319" s="2"/>
     </row>
-    <row r="320" spans="12:20" ht="25.9" customHeight="1">
+    <row r="320" spans="12:20" ht="25.95" customHeight="1">
       <c r="L320" s="2"/>
       <c r="M320" s="2"/>
       <c r="N320" s="2"/>
       <c r="O320" s="2"/>
       <c r="T320" s="2"/>
     </row>
-    <row r="321" spans="12:20" ht="25.9" customHeight="1">
+    <row r="321" spans="12:20" ht="25.95" customHeight="1">
       <c r="L321" s="2"/>
       <c r="M321" s="2"/>
       <c r="N321" s="2"/>
       <c r="O321" s="2"/>
       <c r="T321" s="2"/>
     </row>
-    <row r="322" spans="12:20" ht="25.9" customHeight="1">
+    <row r="322" spans="12:20" ht="25.95" customHeight="1">
       <c r="L322" s="2"/>
       <c r="M322" s="2"/>
       <c r="N322" s="2"/>
       <c r="O322" s="2"/>
       <c r="T322" s="2"/>
     </row>
-    <row r="323" spans="12:20" ht="25.9" customHeight="1">
+    <row r="323" spans="12:20" ht="25.95" customHeight="1">
       <c r="L323" s="2"/>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
       <c r="O323" s="2"/>
       <c r="T323" s="2"/>
     </row>
-    <row r="324" spans="12:20" ht="25.9" customHeight="1">
+    <row r="324" spans="12:20" ht="25.95" customHeight="1">
       <c r="L324" s="2"/>
       <c r="M324" s="2"/>
       <c r="N324" s="2"/>
       <c r="O324" s="2"/>
       <c r="T324" s="2"/>
     </row>
-    <row r="325" spans="12:20" ht="25.9" customHeight="1">
+    <row r="325" spans="12:20" ht="25.95" customHeight="1">
       <c r="L325" s="2"/>
       <c r="M325" s="2"/>
       <c r="N325" s="2"/>
       <c r="O325" s="2"/>
       <c r="T325" s="2"/>
     </row>
-    <row r="326" spans="12:20" ht="25.9" customHeight="1">
+    <row r="326" spans="12:20" ht="25.95" customHeight="1">
       <c r="L326" s="2"/>
       <c r="M326" s="2"/>
       <c r="N326" s="2"/>
       <c r="O326" s="2"/>
       <c r="T326" s="2"/>
     </row>
-    <row r="327" spans="12:20" ht="25.9" customHeight="1">
+    <row r="327" spans="12:20" ht="25.95" customHeight="1">
       <c r="L327" s="2"/>
       <c r="M327" s="2"/>
       <c r="N327" s="2"/>
       <c r="O327" s="2"/>
       <c r="T327" s="2"/>
     </row>
-    <row r="328" spans="12:20" ht="25.9" customHeight="1">
+    <row r="328" spans="12:20" ht="25.95" customHeight="1">
       <c r="L328" s="2"/>
       <c r="M328" s="2"/>
       <c r="N328" s="2"/>
       <c r="O328" s="2"/>
       <c r="T328" s="2"/>
     </row>
-    <row r="329" spans="12:20" ht="25.9" customHeight="1">
+    <row r="329" spans="12:20" ht="25.95" customHeight="1">
       <c r="L329" s="2"/>
       <c r="M329" s="2"/>
       <c r="N329" s="2"/>
       <c r="O329" s="2"/>
       <c r="T329" s="2"/>
     </row>
-    <row r="330" spans="12:20" ht="25.9" customHeight="1">
+    <row r="330" spans="12:20" ht="25.95" customHeight="1">
       <c r="L330" s="2"/>
       <c r="M330" s="2"/>
       <c r="N330" s="2"/>
       <c r="O330" s="2"/>
       <c r="T330" s="2"/>
     </row>
-    <row r="331" spans="12:20" ht="25.9" customHeight="1">
+    <row r="331" spans="12:20" ht="25.95" customHeight="1">
       <c r="L331" s="2"/>
       <c r="M331" s="2"/>
       <c r="N331" s="2"/>
       <c r="O331" s="2"/>
       <c r="T331" s="2"/>
     </row>
-    <row r="332" spans="12:20" ht="25.9" customHeight="1">
+    <row r="332" spans="12:20" ht="25.95" customHeight="1">
       <c r="L332" s="2"/>
       <c r="M332" s="2"/>
       <c r="N332" s="2"/>
       <c r="O332" s="2"/>
       <c r="T332" s="2"/>
     </row>
-    <row r="333" spans="12:20" ht="25.9" customHeight="1">
+    <row r="333" spans="12:20" ht="25.95" customHeight="1">
       <c r="L333" s="2"/>
       <c r="M333" s="2"/>
       <c r="N333" s="2"/>
       <c r="O333" s="2"/>
       <c r="T333" s="2"/>
     </row>
-    <row r="334" spans="12:20" ht="25.9" customHeight="1">
+    <row r="334" spans="12:20" ht="25.95" customHeight="1">
       <c r="L334" s="2"/>
       <c r="M334" s="2"/>
       <c r="N334" s="2"/>
       <c r="O334" s="2"/>
       <c r="T334" s="2"/>
     </row>
-    <row r="335" spans="12:20" ht="25.9" customHeight="1">
+    <row r="335" spans="12:20" ht="25.95" customHeight="1">
       <c r="L335" s="2"/>
       <c r="M335" s="2"/>
       <c r="N335" s="2"/>
       <c r="O335" s="2"/>
       <c r="T335" s="2"/>
     </row>
-    <row r="336" spans="12:20" ht="25.9" customHeight="1">
+    <row r="336" spans="12:20" ht="25.95" customHeight="1">
       <c r="L336" s="2"/>
       <c r="M336" s="2"/>
       <c r="N336" s="2"/>
       <c r="O336" s="2"/>
       <c r="T336" s="2"/>
     </row>
-    <row r="337" spans="12:20" ht="25.9" customHeight="1">
+    <row r="337" spans="12:20" ht="25.95" customHeight="1">
       <c r="L337" s="2"/>
       <c r="M337" s="2"/>
       <c r="N337" s="2"/>
       <c r="O337" s="2"/>
       <c r="T337" s="2"/>
     </row>
-    <row r="338" spans="12:20" ht="25.9" customHeight="1">
+    <row r="338" spans="12:20" ht="25.95" customHeight="1">
       <c r="L338" s="2"/>
       <c r="M338" s="2"/>
       <c r="N338" s="2"/>
       <c r="O338" s="2"/>
       <c r="T338" s="2"/>
     </row>
-    <row r="339" spans="12:20" ht="25.9" customHeight="1">
+    <row r="339" spans="12:20" ht="25.95" customHeight="1">
       <c r="L339" s="2"/>
       <c r="M339" s="2"/>
       <c r="N339" s="2"/>
       <c r="O339" s="2"/>
       <c r="T339" s="2"/>
     </row>
-    <row r="340" spans="12:20" ht="25.9" customHeight="1">
+    <row r="340" spans="12:20" ht="25.95" customHeight="1">
       <c r="L340" s="2"/>
       <c r="M340" s="2"/>
       <c r="N340" s="2"/>
       <c r="O340" s="2"/>
       <c r="T340" s="2"/>
     </row>
-    <row r="341" spans="12:20" ht="25.9" customHeight="1">
+    <row r="341" spans="12:20" ht="25.95" customHeight="1">
       <c r="L341" s="2"/>
       <c r="M341" s="2"/>
       <c r="N341" s="2"/>
       <c r="O341" s="2"/>
       <c r="T341" s="2"/>
     </row>
-    <row r="342" spans="12:20" ht="25.9" customHeight="1">
+    <row r="342" spans="12:20" ht="25.95" customHeight="1">
       <c r="L342" s="2"/>
       <c r="M342" s="2"/>
       <c r="N342" s="2"/>
       <c r="O342" s="2"/>
       <c r="T342" s="2"/>
     </row>
-    <row r="343" spans="12:20" ht="25.9" customHeight="1">
+    <row r="343" spans="12:20" ht="25.95" customHeight="1">
       <c r="L343" s="2"/>
       <c r="M343" s="2"/>
       <c r="N343" s="2"/>
       <c r="O343" s="2"/>
       <c r="T343" s="2"/>
     </row>
-    <row r="344" spans="12:20" ht="25.9" customHeight="1">
+    <row r="344" spans="12:20" ht="25.95" customHeight="1">
       <c r="L344" s="2"/>
       <c r="M344" s="2"/>
       <c r="N344" s="2"/>
       <c r="O344" s="2"/>
       <c r="T344" s="2"/>
     </row>
-    <row r="345" spans="12:20" ht="25.9" customHeight="1">
+    <row r="345" spans="12:20" ht="25.95" customHeight="1">
       <c r="L345" s="2"/>
       <c r="M345" s="2"/>
       <c r="N345" s="2"/>
       <c r="O345" s="2"/>
       <c r="T345" s="2"/>
     </row>
-    <row r="346" spans="12:20" ht="25.9" customHeight="1">
+    <row r="346" spans="12:20" ht="25.95" customHeight="1">
       <c r="L346" s="2"/>
       <c r="M346" s="2"/>
       <c r="N346" s="2"/>
       <c r="O346" s="2"/>
       <c r="T346" s="2"/>
     </row>
-    <row r="347" spans="12:20" ht="25.9" customHeight="1">
+    <row r="347" spans="12:20" ht="25.95" customHeight="1">
       <c r="L347" s="2"/>
       <c r="M347" s="2"/>
       <c r="N347" s="2"/>
       <c r="O347" s="2"/>
       <c r="T347" s="2"/>
     </row>
-    <row r="348" spans="12:20" ht="25.9" customHeight="1">
+    <row r="348" spans="12:20" ht="25.95" customHeight="1">
       <c r="L348" s="2"/>
       <c r="M348" s="2"/>
       <c r="N348" s="2"/>
       <c r="O348" s="2"/>
       <c r="T348" s="2"/>
     </row>
-    <row r="349" spans="12:20" ht="25.9" customHeight="1">
+    <row r="349" spans="12:20" ht="25.95" customHeight="1">
       <c r="L349" s="2"/>
       <c r="M349" s="2"/>
       <c r="N349" s="2"/>
       <c r="O349" s="2"/>
       <c r="T349" s="2"/>
     </row>
-    <row r="350" spans="12:20" ht="25.9" customHeight="1">
+    <row r="350" spans="12:20" ht="25.95" customHeight="1">
       <c r="L350" s="2"/>
       <c r="M350" s="2"/>
       <c r="N350" s="2"/>
       <c r="O350" s="2"/>
       <c r="T350" s="2"/>
     </row>
-    <row r="351" spans="12:20" ht="25.9" customHeight="1">
+    <row r="351" spans="12:20" ht="25.95" customHeight="1">
       <c r="L351" s="2"/>
       <c r="M351" s="2"/>
       <c r="N351" s="2"/>
       <c r="O351" s="2"/>
       <c r="T351" s="2"/>
     </row>
-    <row r="352" spans="12:20" ht="25.9" customHeight="1">
+    <row r="352" spans="12:20" ht="25.95" customHeight="1">
       <c r="L352" s="2"/>
       <c r="M352" s="2"/>
       <c r="N352" s="2"/>
       <c r="O352" s="2"/>
       <c r="T352" s="2"/>
     </row>
-    <row r="353" spans="12:20" ht="25.9" customHeight="1">
+    <row r="353" spans="12:20" ht="25.95" customHeight="1">
       <c r="L353" s="2"/>
       <c r="M353" s="2"/>
       <c r="N353" s="2"/>
       <c r="O353" s="2"/>
       <c r="T353" s="2"/>
     </row>
-    <row r="354" spans="12:20" ht="25.9" customHeight="1">
+    <row r="354" spans="12:20" ht="25.95" customHeight="1">
       <c r="L354" s="2"/>
       <c r="M354" s="2"/>
       <c r="N354" s="2"/>
       <c r="O354" s="2"/>
       <c r="T354" s="2"/>
     </row>
-    <row r="355" spans="12:20" ht="25.9" customHeight="1">
+    <row r="355" spans="12:20" ht="25.95" customHeight="1">
       <c r="L355" s="2"/>
       <c r="M355" s="2"/>
       <c r="N355" s="2"/>
       <c r="O355" s="2"/>
       <c r="T355" s="2"/>
     </row>
-    <row r="356" spans="12:20" ht="25.9" customHeight="1">
+    <row r="356" spans="12:20" ht="25.95" customHeight="1">
       <c r="L356" s="2"/>
       <c r="M356" s="2"/>
       <c r="N356" s="2"/>
       <c r="O356" s="2"/>
       <c r="T356" s="2"/>
     </row>
-    <row r="357" spans="12:20" ht="25.9" customHeight="1">
+    <row r="357" spans="12:20" ht="25.95" customHeight="1">
       <c r="L357" s="2"/>
       <c r="M357" s="2"/>
       <c r="N357" s="2"/>
       <c r="O357" s="2"/>
       <c r="T357" s="2"/>
     </row>
-    <row r="358" spans="12:20" ht="25.9" customHeight="1">
+    <row r="358" spans="12:20" ht="25.95" customHeight="1">
       <c r="L358" s="2"/>
       <c r="M358" s="2"/>
       <c r="N358" s="2"/>
       <c r="O358" s="2"/>
       <c r="T358" s="2"/>
     </row>
-    <row r="359" spans="12:20" ht="25.9" customHeight="1">
+    <row r="359" spans="12:20" ht="25.95" customHeight="1">
       <c r="L359" s="2"/>
       <c r="M359" s="2"/>
       <c r="N359" s="2"/>
       <c r="O359" s="2"/>
       <c r="T359" s="2"/>
     </row>
-    <row r="360" spans="12:20" ht="25.9" customHeight="1">
+    <row r="360" spans="12:20" ht="25.95" customHeight="1">
       <c r="L360" s="2"/>
       <c r="M360" s="2"/>
       <c r="N360" s="2"/>
       <c r="O360" s="2"/>
       <c r="T360" s="2"/>
     </row>
-    <row r="361" spans="12:20" ht="25.9" customHeight="1">
+    <row r="361" spans="12:20" ht="25.95" customHeight="1">
       <c r="L361" s="2"/>
       <c r="M361" s="2"/>
       <c r="N361" s="2"/>
       <c r="O361" s="2"/>
       <c r="T361" s="2"/>
     </row>
-    <row r="362" spans="12:20" ht="25.9" customHeight="1">
+    <row r="362" spans="12:20" ht="25.95" customHeight="1">
       <c r="L362" s="2"/>
       <c r="M362" s="2"/>
       <c r="N362" s="2"/>
       <c r="O362" s="2"/>
       <c r="T362" s="2"/>
     </row>
-    <row r="363" spans="12:20" ht="25.9" customHeight="1">
+    <row r="363" spans="12:20" ht="25.95" customHeight="1">
       <c r="L363" s="2"/>
       <c r="M363" s="2"/>
       <c r="N363" s="2"/>
       <c r="O363" s="2"/>
       <c r="T363" s="2"/>
     </row>
-    <row r="364" spans="12:20" ht="25.9" customHeight="1">
+    <row r="364" spans="12:20" ht="25.95" customHeight="1">
       <c r="L364" s="2"/>
       <c r="M364" s="2"/>
       <c r="N364" s="2"/>
       <c r="O364" s="2"/>
       <c r="T364" s="2"/>
     </row>
-    <row r="365" spans="12:20" ht="25.9" customHeight="1">
+    <row r="365" spans="12:20" ht="25.95" customHeight="1">
       <c r="L365" s="2"/>
       <c r="M365" s="2"/>
       <c r="N365" s="2"/>
       <c r="O365" s="2"/>
       <c r="T365" s="2"/>
     </row>
-    <row r="366" spans="12:20" ht="25.9" customHeight="1">
+    <row r="366" spans="12:20" ht="25.95" customHeight="1">
       <c r="L366" s="2"/>
       <c r="M366" s="2"/>
       <c r="N366" s="2"/>
       <c r="O366" s="2"/>
       <c r="T366" s="2"/>
     </row>
-    <row r="367" spans="12:20" ht="25.9" customHeight="1">
+    <row r="367" spans="12:20" ht="25.95" customHeight="1">
       <c r="L367" s="2"/>
       <c r="M367" s="2"/>
       <c r="N367" s="2"/>
       <c r="O367" s="2"/>
       <c r="T367" s="2"/>
     </row>
-    <row r="368" spans="12:20" ht="25.9" customHeight="1">
+    <row r="368" spans="12:20" ht="25.95" customHeight="1">
       <c r="L368" s="2"/>
       <c r="M368" s="2"/>
       <c r="N368" s="2"/>
       <c r="O368" s="2"/>
       <c r="T368" s="2"/>
     </row>
-    <row r="369" spans="12:20" ht="25.9" customHeight="1">
+    <row r="369" spans="12:20" ht="25.95" customHeight="1">
       <c r="L369" s="2"/>
       <c r="M369" s="2"/>
       <c r="N369" s="2"/>
       <c r="O369" s="2"/>
       <c r="T369" s="2"/>
     </row>
-    <row r="370" spans="12:20" ht="25.9" customHeight="1">
+    <row r="370" spans="12:20" ht="25.95" customHeight="1">
       <c r="L370" s="2"/>
       <c r="M370" s="2"/>
       <c r="N370" s="2"/>
       <c r="O370" s="2"/>
       <c r="T370" s="2"/>
     </row>
-    <row r="371" spans="12:20" ht="25.9" customHeight="1">
+    <row r="371" spans="12:20" ht="25.95" customHeight="1">
       <c r="L371" s="2"/>
       <c r="M371" s="2"/>
       <c r="N371" s="2"/>
       <c r="O371" s="2"/>
       <c r="T371" s="2"/>
     </row>
-    <row r="372" spans="12:20" ht="25.9" customHeight="1">
+    <row r="372" spans="12:20" ht="25.95" customHeight="1">
       <c r="L372" s="2"/>
       <c r="M372" s="2"/>
       <c r="N372" s="2"/>
       <c r="O372" s="2"/>
       <c r="T372" s="2"/>
     </row>
-    <row r="373" spans="12:20" ht="25.9" customHeight="1">
+    <row r="373" spans="12:20" ht="25.95" customHeight="1">
       <c r="L373" s="2"/>
       <c r="M373" s="2"/>
       <c r="N373" s="2"/>
       <c r="O373" s="2"/>
       <c r="T373" s="2"/>
     </row>
-    <row r="374" spans="12:20" ht="25.9" customHeight="1">
+    <row r="374" spans="12:20" ht="25.95" customHeight="1">
       <c r="L374" s="2"/>
       <c r="M374" s="2"/>
       <c r="N374" s="2"/>
       <c r="O374" s="2"/>
       <c r="T374" s="2"/>
     </row>
-    <row r="375" spans="12:20" ht="25.9" customHeight="1">
+    <row r="375" spans="12:20" ht="25.95" customHeight="1">
       <c r="L375" s="2"/>
       <c r="M375" s="2"/>
       <c r="N375" s="2"/>
       <c r="O375" s="2"/>
       <c r="T375" s="2"/>
     </row>
-    <row r="376" spans="12:20" ht="25.9" customHeight="1">
+    <row r="376" spans="12:20" ht="25.95" customHeight="1">
       <c r="L376" s="2"/>
       <c r="M376" s="2"/>
       <c r="N376" s="2"/>
       <c r="O376" s="2"/>
       <c r="T376" s="2"/>
     </row>
-    <row r="377" spans="12:20" ht="25.9" customHeight="1">
+    <row r="377" spans="12:20" ht="25.95" customHeight="1">
       <c r="L377" s="2"/>
       <c r="M377" s="2"/>
       <c r="N377" s="2"/>
       <c r="O377" s="2"/>
       <c r="T377" s="2"/>
     </row>
-    <row r="378" spans="12:20" ht="25.9" customHeight="1">
+    <row r="378" spans="12:20" ht="25.95" customHeight="1">
       <c r="L378" s="2"/>
       <c r="M378" s="2"/>
       <c r="N378" s="2"/>
       <c r="O378" s="2"/>
       <c r="T378" s="2"/>
     </row>
-    <row r="379" spans="12:20" ht="25.9" customHeight="1">
+    <row r="379" spans="12:20" ht="25.95" customHeight="1">
       <c r="L379" s="2"/>
       <c r="M379" s="2"/>
       <c r="N379" s="2"/>
       <c r="O379" s="2"/>
       <c r="T379" s="2"/>
     </row>
-    <row r="380" spans="12:20" ht="25.9" customHeight="1">
+    <row r="380" spans="12:20" ht="25.95" customHeight="1">
       <c r="L380" s="2"/>
       <c r="M380" s="2"/>
       <c r="N380" s="2"/>
       <c r="O380" s="2"/>
       <c r="T380" s="2"/>
     </row>
-    <row r="381" spans="12:20" ht="25.9" customHeight="1">
+    <row r="381" spans="12:20" ht="25.95" customHeight="1">
       <c r="L381" s="2"/>
       <c r="M381" s="2"/>
       <c r="N381" s="2"/>
       <c r="O381" s="2"/>
       <c r="T381" s="2"/>
     </row>
-    <row r="382" spans="12:20" ht="25.9" customHeight="1">
+    <row r="382" spans="12:20" ht="25.95" customHeight="1">
       <c r="L382" s="2"/>
       <c r="M382" s="2"/>
       <c r="N382" s="2"/>
       <c r="O382" s="2"/>
       <c r="T382" s="2"/>
     </row>
-    <row r="383" spans="12:20" ht="25.9" customHeight="1">
+    <row r="383" spans="12:20" ht="25.95" customHeight="1">
       <c r="L383" s="2"/>
       <c r="M383" s="2"/>
       <c r="N383" s="2"/>
       <c r="O383" s="2"/>
       <c r="T383" s="2"/>
     </row>
-    <row r="384" spans="12:20" ht="25.9" customHeight="1">
+    <row r="384" spans="12:20" ht="25.95" customHeight="1">
       <c r="L384" s="2"/>
       <c r="M384" s="2"/>
       <c r="N384" s="2"/>
       <c r="O384" s="2"/>
       <c r="T384" s="2"/>
     </row>
-    <row r="385" spans="12:20" ht="25.9" customHeight="1">
+    <row r="385" spans="12:20" ht="25.95" customHeight="1">
       <c r="L385" s="2"/>
       <c r="M385" s="2"/>
       <c r="N385" s="2"/>
       <c r="O385" s="2"/>
       <c r="T385" s="2"/>
     </row>
-    <row r="386" spans="12:20" ht="25.9" customHeight="1">
+    <row r="386" spans="12:20" ht="25.95" customHeight="1">
       <c r="L386" s="2"/>
       <c r="M386" s="2"/>
       <c r="N386" s="2"/>
       <c r="O386" s="2"/>
       <c r="T386" s="2"/>
     </row>
-    <row r="387" spans="12:20" ht="25.9" customHeight="1">
+    <row r="387" spans="12:20" ht="25.95" customHeight="1">
       <c r="L387" s="2"/>
       <c r="M387" s="2"/>
       <c r="N387" s="2"/>
       <c r="O387" s="2"/>
       <c r="T387" s="2"/>
     </row>
-    <row r="388" spans="12:20" ht="25.9" customHeight="1">
+    <row r="388" spans="12:20" ht="25.95" customHeight="1">
       <c r="L388" s="2"/>
       <c r="M388" s="2"/>
       <c r="N388" s="2"/>
       <c r="O388" s="2"/>
       <c r="T388" s="2"/>
     </row>
-    <row r="389" spans="12:20" ht="25.9" customHeight="1">
+    <row r="389" spans="12:20" ht="25.95" customHeight="1">
       <c r="L389" s="2"/>
       <c r="M389" s="2"/>
       <c r="N389" s="2"/>
       <c r="O389" s="2"/>
       <c r="T389" s="2"/>
     </row>
-    <row r="390" spans="12:20" ht="25.9" customHeight="1">
+    <row r="390" spans="12:20" ht="25.95" customHeight="1">
       <c r="L390" s="2"/>
       <c r="M390" s="2"/>
       <c r="N390" s="2"/>
       <c r="O390" s="2"/>
       <c r="T390" s="2"/>
     </row>
-    <row r="391" spans="12:20" ht="25.9" customHeight="1">
+    <row r="391" spans="12:20" ht="25.95" customHeight="1">
       <c r="L391" s="2"/>
       <c r="M391" s="2"/>
       <c r="N391" s="2"/>
       <c r="O391" s="2"/>
       <c r="T391" s="2"/>
     </row>
-    <row r="392" spans="12:20" ht="25.9" customHeight="1">
+    <row r="392" spans="12:20" ht="25.95" customHeight="1">
       <c r="L392" s="2"/>
       <c r="M392" s="2"/>
       <c r="N392" s="2"/>
       <c r="O392" s="2"/>
       <c r="T392" s="2"/>
     </row>
-    <row r="393" spans="12:20" ht="25.9" customHeight="1">
+    <row r="393" spans="12:20" ht="25.95" customHeight="1">
       <c r="L393" s="2"/>
       <c r="M393" s="2"/>
       <c r="N393" s="2"/>
       <c r="O393" s="2"/>
       <c r="T393" s="2"/>
     </row>
-    <row r="394" spans="12:20" ht="25.9" customHeight="1">
+    <row r="394" spans="12:20" ht="25.95" customHeight="1">
       <c r="L394" s="2"/>
       <c r="M394" s="2"/>
       <c r="N394" s="2"/>
       <c r="O394" s="2"/>
       <c r="T394" s="2"/>
     </row>
-    <row r="395" spans="12:20" ht="25.9" customHeight="1">
+    <row r="395" spans="12:20" ht="25.95" customHeight="1">
       <c r="L395" s="2"/>
       <c r="M395" s="2"/>
       <c r="N395" s="2"/>
       <c r="O395" s="2"/>
       <c r="T395" s="2"/>
     </row>
-    <row r="396" spans="12:20" ht="25.9" customHeight="1">
+    <row r="396" spans="12:20" ht="25.95" customHeight="1">
       <c r="L396" s="2"/>
       <c r="M396" s="2"/>
       <c r="N396" s="2"/>
       <c r="O396" s="2"/>
       <c r="T396" s="2"/>
     </row>
-    <row r="397" spans="12:20" ht="25.9" customHeight="1">
+    <row r="397" spans="12:20" ht="25.95" customHeight="1">
       <c r="L397" s="2"/>
       <c r="M397" s="2"/>
       <c r="N397" s="2"/>
       <c r="O397" s="2"/>
       <c r="T397" s="2"/>
     </row>
-    <row r="398" spans="12:20" ht="25.9" customHeight="1">
+    <row r="398" spans="12:20" ht="25.95" customHeight="1">
       <c r="L398" s="2"/>
       <c r="M398" s="2"/>
       <c r="N398" s="2"/>
       <c r="O398" s="2"/>
       <c r="T398" s="2"/>
     </row>
-    <row r="399" spans="12:20" ht="25.9" customHeight="1">
+    <row r="399" spans="12:20" ht="25.95" customHeight="1">
       <c r="L399" s="2"/>
       <c r="M399" s="2"/>
       <c r="N399" s="2"/>
       <c r="O399" s="2"/>
       <c r="T399" s="2"/>
     </row>
-    <row r="400" spans="12:20" ht="25.9" customHeight="1">
+    <row r="400" spans="12:20" ht="25.95" customHeight="1">
       <c r="L400" s="2"/>
       <c r="M400" s="2"/>
       <c r="N400" s="2"/>
       <c r="O400" s="2"/>
       <c r="T400" s="2"/>
     </row>
-    <row r="401" spans="12:20" ht="25.9" customHeight="1">
+    <row r="401" spans="12:20" ht="25.95" customHeight="1">
       <c r="L401" s="2"/>
       <c r="M401" s="2"/>
       <c r="N401" s="2"/>
       <c r="O401" s="2"/>
       <c r="T401" s="2"/>
     </row>
-    <row r="402" spans="12:20" ht="25.9" customHeight="1">
+    <row r="402" spans="12:20" ht="25.95" customHeight="1">
       <c r="L402" s="2"/>
       <c r="M402" s="2"/>
       <c r="N402" s="2"/>
       <c r="O402" s="2"/>
       <c r="T402" s="2"/>
     </row>
-    <row r="403" spans="12:20" ht="25.9" customHeight="1">
+    <row r="403" spans="12:20" ht="25.95" customHeight="1">
       <c r="L403" s="2"/>
       <c r="M403" s="2"/>
       <c r="N403" s="2"/>
       <c r="O403" s="2"/>
       <c r="T403" s="2"/>
     </row>
-    <row r="404" spans="12:20" ht="25.9" customHeight="1">
+    <row r="404" spans="12:20" ht="25.95" customHeight="1">
       <c r="L404" s="2"/>
       <c r="M404" s="2"/>
       <c r="N404" s="2"/>
       <c r="O404" s="2"/>
       <c r="T404" s="2"/>
     </row>
-    <row r="405" spans="12:20" ht="25.9" customHeight="1">
+    <row r="405" spans="12:20" ht="25.95" customHeight="1">
       <c r="L405" s="2"/>
       <c r="M405" s="2"/>
       <c r="N405" s="2"/>
       <c r="O405" s="2"/>
       <c r="T405" s="2"/>
     </row>
-    <row r="406" spans="12:20" ht="25.9" customHeight="1">
+    <row r="406" spans="12:20" ht="25.95" customHeight="1">
       <c r="L406" s="2"/>
       <c r="M406" s="2"/>
       <c r="N406" s="2"/>
       <c r="O406" s="2"/>
       <c r="T406" s="2"/>
     </row>
-    <row r="407" spans="12:20" ht="25.9" customHeight="1">
+    <row r="407" spans="12:20" ht="25.95" customHeight="1">
       <c r="L407" s="2"/>
       <c r="M407" s="2"/>
       <c r="N407" s="2"/>
       <c r="O407" s="2"/>
       <c r="T407" s="2"/>
     </row>
-    <row r="408" spans="12:20" ht="25.9" customHeight="1">
+    <row r="408" spans="12:20" ht="25.95" customHeight="1">
       <c r="L408" s="2"/>
       <c r="M408" s="2"/>
       <c r="N408" s="2"/>
       <c r="O408" s="2"/>
       <c r="T408" s="2"/>
     </row>
-    <row r="409" spans="12:20" ht="25.9" customHeight="1">
+    <row r="409" spans="12:20" ht="25.95" customHeight="1">
       <c r="L409" s="2"/>
       <c r="M409" s="2"/>
       <c r="N409" s="2"/>
       <c r="O409" s="2"/>
       <c r="T409" s="2"/>
     </row>
-    <row r="410" spans="12:20" ht="25.9" customHeight="1">
+    <row r="410" spans="12:20" ht="25.95" customHeight="1">
       <c r="L410" s="2"/>
       <c r="M410" s="2"/>
       <c r="N410" s="2"/>
       <c r="O410" s="2"/>
       <c r="T410" s="2"/>
     </row>
-    <row r="411" spans="12:20" ht="25.9" customHeight="1">
+    <row r="411" spans="12:20" ht="25.95" customHeight="1">
       <c r="L411" s="2"/>
       <c r="M411" s="2"/>
       <c r="N411" s="2"/>
       <c r="O411" s="2"/>
       <c r="T411" s="2"/>
     </row>
-    <row r="412" spans="12:20" ht="25.9" customHeight="1">
+    <row r="412" spans="12:20" ht="25.95" customHeight="1">
       <c r="L412" s="2"/>
       <c r="M412" s="2"/>
       <c r="N412" s="2"/>
       <c r="O412" s="2"/>
       <c r="T412" s="2"/>
     </row>
-    <row r="413" spans="12:20" ht="25.9" customHeight="1">
+    <row r="413" spans="12:20" ht="25.95" customHeight="1">
       <c r="L413" s="2"/>
       <c r="M413" s="2"/>
       <c r="N413" s="2"/>
       <c r="O413" s="2"/>
       <c r="T413" s="2"/>
     </row>
-    <row r="414" spans="12:20" ht="25.9" customHeight="1">
+    <row r="414" spans="12:20" ht="25.95" customHeight="1">
       <c r="L414" s="2"/>
       <c r="M414" s="2"/>
       <c r="N414" s="2"/>
       <c r="O414" s="2"/>
       <c r="T414" s="2"/>
     </row>
-    <row r="415" spans="12:20" ht="25.9" customHeight="1">
+    <row r="415" spans="12:20" ht="25.95" customHeight="1">
       <c r="L415" s="2"/>
       <c r="M415" s="2"/>
       <c r="N415" s="2"/>
       <c r="O415" s="2"/>
       <c r="T415" s="2"/>
     </row>
-    <row r="416" spans="12:20" ht="25.9" customHeight="1">
+    <row r="416" spans="12:20" ht="25.95" customHeight="1">
       <c r="L416" s="2"/>
       <c r="M416" s="2"/>
       <c r="N416" s="2"/>
       <c r="O416" s="2"/>
       <c r="T416" s="2"/>
     </row>
-    <row r="417" spans="12:20" ht="25.9" customHeight="1">
+    <row r="417" spans="12:20" ht="25.95" customHeight="1">
       <c r="L417" s="2"/>
       <c r="M417" s="2"/>
       <c r="N417" s="2"/>
       <c r="O417" s="2"/>
       <c r="T417" s="2"/>
     </row>
-    <row r="418" spans="12:20" ht="25.9" customHeight="1">
+    <row r="418" spans="12:20" ht="25.95" customHeight="1">
       <c r="L418" s="2"/>
       <c r="M418" s="2"/>
       <c r="N418" s="2"/>
       <c r="O418" s="2"/>
       <c r="T418" s="2"/>
     </row>
-    <row r="419" spans="12:20" ht="25.9" customHeight="1">
+    <row r="419" spans="12:20" ht="25.95" customHeight="1">
       <c r="L419" s="2"/>
       <c r="M419" s="2"/>
       <c r="N419" s="2"/>
       <c r="O419" s="2"/>
       <c r="T419" s="2"/>
     </row>
-    <row r="420" spans="12:20" ht="25.9" customHeight="1">
+    <row r="420" spans="12:20" ht="25.95" customHeight="1">
       <c r="L420" s="2"/>
       <c r="M420" s="2"/>
       <c r="N420" s="2"/>
       <c r="O420" s="2"/>
       <c r="T420" s="2"/>
     </row>
-    <row r="421" spans="12:20" ht="25.9" customHeight="1">
+    <row r="421" spans="12:20" ht="25.95" customHeight="1">
       <c r="L421" s="2"/>
       <c r="M421" s="2"/>
       <c r="N421" s="2"/>
       <c r="O421" s="2"/>
       <c r="T421" s="2"/>
     </row>
-    <row r="422" spans="12:20" ht="25.9" customHeight="1">
+    <row r="422" spans="12:20" ht="25.95" customHeight="1">
       <c r="L422" s="2"/>
       <c r="M422" s="2"/>
       <c r="N422" s="2"/>
       <c r="O422" s="2"/>
       <c r="T422" s="2"/>
     </row>
-    <row r="423" spans="12:20" ht="25.9" customHeight="1">
+    <row r="423" spans="12:20" ht="25.95" customHeight="1">
       <c r="L423" s="2"/>
       <c r="M423" s="2"/>
       <c r="N423" s="2"/>
       <c r="O423" s="2"/>
       <c r="T423" s="2"/>
     </row>
-    <row r="424" spans="12:20" ht="25.9" customHeight="1">
+    <row r="424" spans="12:20" ht="25.95" customHeight="1">
       <c r="L424" s="2"/>
       <c r="M424" s="2"/>
       <c r="N424" s="2"/>
       <c r="O424" s="2"/>
       <c r="T424" s="2"/>
     </row>
-    <row r="425" spans="12:20" ht="25.9" customHeight="1">
+    <row r="425" spans="12:20" ht="25.95" customHeight="1">
       <c r="L425" s="2"/>
       <c r="M425" s="2"/>
       <c r="N425" s="2"/>
       <c r="O425" s="2"/>
       <c r="T425" s="2"/>
     </row>
-    <row r="426" spans="12:20" ht="25.9" customHeight="1">
+    <row r="426" spans="12:20" ht="25.95" customHeight="1">
       <c r="L426" s="2"/>
       <c r="M426" s="2"/>
       <c r="N426" s="2"/>
       <c r="O426" s="2"/>
       <c r="T426" s="2"/>
     </row>
-    <row r="427" spans="12:20" ht="25.9" customHeight="1">
+    <row r="427" spans="12:20" ht="25.95" customHeight="1">
       <c r="L427" s="2"/>
       <c r="M427" s="2"/>
       <c r="N427" s="2"/>
       <c r="O427" s="2"/>
       <c r="T427" s="2"/>
     </row>
-    <row r="428" spans="12:20" ht="25.9" customHeight="1">
+    <row r="428" spans="12:20" ht="25.95" customHeight="1">
       <c r="L428" s="2"/>
       <c r="M428" s="2"/>
       <c r="N428" s="2"/>
       <c r="O428" s="2"/>
       <c r="T428" s="2"/>
     </row>
-    <row r="429" spans="12:20" ht="25.9" customHeight="1">
+    <row r="429" spans="12:20" ht="25.95" customHeight="1">
       <c r="L429" s="2"/>
       <c r="M429" s="2"/>
       <c r="N429" s="2"/>
       <c r="O429" s="2"/>
       <c r="T429" s="2"/>
     </row>
-    <row r="430" spans="12:20" ht="25.9" customHeight="1">
+    <row r="430" spans="12:20" ht="25.95" customHeight="1">
       <c r="L430" s="2"/>
       <c r="M430" s="2"/>
       <c r="N430" s="2"/>
       <c r="O430" s="2"/>
       <c r="T430" s="2"/>
     </row>
-    <row r="431" spans="12:20" ht="25.9" customHeight="1">
+    <row r="431" spans="12:20" ht="25.95" customHeight="1">
       <c r="L431" s="2"/>
       <c r="M431" s="2"/>
       <c r="N431" s="2"/>
       <c r="O431" s="2"/>
       <c r="T431" s="2"/>
     </row>
-    <row r="432" spans="12:20" ht="25.9" customHeight="1">
+    <row r="432" spans="12:20" ht="25.95" customHeight="1">
       <c r="L432" s="2"/>
       <c r="M432" s="2"/>
       <c r="N432" s="2"/>
       <c r="O432" s="2"/>
       <c r="T432" s="2"/>
     </row>
-    <row r="433" spans="12:20" ht="25.9" customHeight="1">
+    <row r="433" spans="12:20" ht="25.95" customHeight="1">
       <c r="L433" s="2"/>
       <c r="M433" s="2"/>
       <c r="N433" s="2"/>
       <c r="O433" s="2"/>
       <c r="T433" s="2"/>
     </row>
-    <row r="434" spans="12:20" ht="25.9" customHeight="1">
+    <row r="434" spans="12:20" ht="25.95" customHeight="1">
       <c r="L434" s="2"/>
       <c r="M434" s="2"/>
       <c r="N434" s="2"/>
       <c r="O434" s="2"/>
       <c r="T434" s="2"/>
     </row>
-    <row r="435" spans="12:20" ht="25.9" customHeight="1">
+    <row r="435" spans="12:20" ht="25.95" customHeight="1">
       <c r="L435" s="2"/>
       <c r="M435" s="2"/>
       <c r="N435" s="2"/>
       <c r="O435" s="2"/>
       <c r="T435" s="2"/>
     </row>
-    <row r="436" spans="12:20" ht="25.9" customHeight="1">
+    <row r="436" spans="12:20" ht="25.95" customHeight="1">
       <c r="L436" s="2"/>
       <c r="M436" s="2"/>
       <c r="N436" s="2"/>
       <c r="O436" s="2"/>
       <c r="T436" s="2"/>
     </row>
-    <row r="437" spans="12:20" ht="25.9" customHeight="1">
+    <row r="437" spans="12:20" ht="25.95" customHeight="1">
       <c r="L437" s="2"/>
       <c r="M437" s="2"/>
       <c r="N437" s="2"/>
       <c r="O437" s="2"/>
       <c r="T437" s="2"/>
     </row>
-    <row r="438" spans="12:20" ht="25.9" customHeight="1">
+    <row r="438" spans="12:20" ht="25.95" customHeight="1">
       <c r="L438" s="2"/>
       <c r="M438" s="2"/>
       <c r="N438" s="2"/>
       <c r="O438" s="2"/>
       <c r="T438" s="2"/>
     </row>
-    <row r="439" spans="12:20" ht="25.9" customHeight="1">
+    <row r="439" spans="12:20" ht="25.95" customHeight="1">
       <c r="L439" s="2"/>
       <c r="M439" s="2"/>
       <c r="N439" s="2"/>
       <c r="O439" s="2"/>
       <c r="T439" s="2"/>
     </row>
-    <row r="440" spans="12:20" ht="25.9" customHeight="1">
+    <row r="440" spans="12:20" ht="25.95" customHeight="1">
       <c r="L440" s="2"/>
       <c r="M440" s="2"/>
       <c r="N440" s="2"/>
       <c r="O440" s="2"/>
       <c r="T440" s="2"/>
     </row>
-    <row r="441" spans="12:20" ht="25.9" customHeight="1">
+    <row r="441" spans="12:20" ht="25.95" customHeight="1">
       <c r="L441" s="2"/>
       <c r="M441" s="2"/>
       <c r="N441" s="2"/>
       <c r="O441" s="2"/>
       <c r="T441" s="2"/>
     </row>
-    <row r="442" spans="12:20" ht="25.9" customHeight="1">
+    <row r="442" spans="12:20" ht="25.95" customHeight="1">
       <c r="L442" s="2"/>
       <c r="M442" s="2"/>
       <c r="N442" s="2"/>
       <c r="O442" s="2"/>
       <c r="T442" s="2"/>
     </row>
-    <row r="443" spans="12:20" ht="25.9" customHeight="1">
+    <row r="443" spans="12:20" ht="25.95" customHeight="1">
       <c r="L443" s="2"/>
       <c r="M443" s="2"/>
       <c r="N443" s="2"/>
       <c r="O443" s="2"/>
       <c r="T443" s="2"/>
     </row>
-    <row r="444" spans="12:20" ht="25.9" customHeight="1">
+    <row r="444" spans="12:20" ht="25.95" customHeight="1">
       <c r="L444" s="2"/>
       <c r="M444" s="2"/>
       <c r="N444" s="2"/>
       <c r="O444" s="2"/>
       <c r="T444" s="2"/>
     </row>
-    <row r="445" spans="12:20" ht="25.9" customHeight="1">
+    <row r="445" spans="12:20" ht="25.95" customHeight="1">
       <c r="L445" s="2"/>
       <c r="M445" s="2"/>
       <c r="N445" s="2"/>
       <c r="O445" s="2"/>
       <c r="T445" s="2"/>
     </row>
-    <row r="446" spans="12:20" ht="25.9" customHeight="1">
+    <row r="446" spans="12:20" ht="25.95" customHeight="1">
       <c r="L446" s="2"/>
       <c r="M446" s="2"/>
       <c r="N446" s="2"/>
       <c r="O446" s="2"/>
       <c r="T446" s="2"/>
     </row>
-    <row r="447" spans="12:20" ht="25.9" customHeight="1">
+    <row r="447" spans="12:20" ht="25.95" customHeight="1">
       <c r="L447" s="2"/>
       <c r="M447" s="2"/>
       <c r="N447" s="2"/>
       <c r="O447" s="2"/>
       <c r="T447" s="2"/>
     </row>
-    <row r="448" spans="12:20" ht="25.9" customHeight="1">
+    <row r="448" spans="12:20" ht="25.95" customHeight="1">
       <c r="L448" s="2"/>
       <c r="M448" s="2"/>
       <c r="N448" s="2"/>
       <c r="O448" s="2"/>
       <c r="T448" s="2"/>
     </row>
-    <row r="449" spans="12:20" ht="25.9" customHeight="1">
+    <row r="449" spans="12:20" ht="25.95" customHeight="1">
       <c r="L449" s="2"/>
       <c r="M449" s="2"/>
       <c r="N449" s="2"/>
       <c r="O449" s="2"/>
       <c r="T449" s="2"/>
     </row>
-    <row r="450" spans="12:20" ht="25.9" customHeight="1">
+    <row r="450" spans="12:20" ht="25.95" customHeight="1">
       <c r="L450" s="2"/>
       <c r="M450" s="2"/>
       <c r="N450" s="2"/>
       <c r="O450" s="2"/>
       <c r="T450" s="2"/>
     </row>
-    <row r="451" spans="12:20" ht="25.9" customHeight="1">
+    <row r="451" spans="12:20" ht="25.95" customHeight="1">
       <c r="L451" s="2"/>
       <c r="M451" s="2"/>
       <c r="N451" s="2"/>
       <c r="O451" s="2"/>
       <c r="T451" s="2"/>
     </row>
-    <row r="452" spans="12:20" ht="25.9" customHeight="1">
+    <row r="452" spans="12:20" ht="25.95" customHeight="1">
       <c r="L452" s="2"/>
       <c r="M452" s="2"/>
       <c r="N452" s="2"/>
       <c r="O452" s="2"/>
       <c r="T452" s="2"/>
     </row>
-    <row r="453" spans="12:20" ht="25.9" customHeight="1">
+    <row r="453" spans="12:20" ht="25.95" customHeight="1">
       <c r="L453" s="2"/>
       <c r="M453" s="2"/>
       <c r="N453" s="2"/>
       <c r="O453" s="2"/>
       <c r="T453" s="2"/>
     </row>
-    <row r="454" spans="12:20" ht="25.9" customHeight="1">
+    <row r="454" spans="12:20" ht="25.95" customHeight="1">
       <c r="L454" s="2"/>
       <c r="M454" s="2"/>
       <c r="N454" s="2"/>
       <c r="O454" s="2"/>
       <c r="T454" s="2"/>
     </row>
-    <row r="455" spans="12:20" ht="25.9" customHeight="1">
+    <row r="455" spans="12:20" ht="25.95" customHeight="1">
       <c r="L455" s="2"/>
       <c r="M455" s="2"/>
       <c r="N455" s="2"/>
       <c r="O455" s="2"/>
       <c r="T455" s="2"/>
     </row>
-    <row r="456" spans="12:20" ht="25.9" customHeight="1">
+    <row r="456" spans="12:20" ht="25.95" customHeight="1">
       <c r="L456" s="2"/>
       <c r="M456" s="2"/>
       <c r="N456" s="2"/>
       <c r="O456" s="2"/>
       <c r="T456" s="2"/>
     </row>
-    <row r="457" spans="12:20" ht="25.9" customHeight="1">
+    <row r="457" spans="12:20" ht="25.95" customHeight="1">
       <c r="L457" s="2"/>
       <c r="M457" s="2"/>
       <c r="N457" s="2"/>
       <c r="O457" s="2"/>
       <c r="T457" s="2"/>
     </row>
-    <row r="458" spans="12:20" ht="25.9" customHeight="1">
+    <row r="458" spans="12:20" ht="25.95" customHeight="1">
       <c r="L458" s="2"/>
       <c r="M458" s="2"/>
       <c r="N458" s="2"/>
       <c r="O458" s="2"/>
       <c r="T458" s="2"/>
     </row>
-    <row r="459" spans="12:20" ht="25.9" customHeight="1">
+    <row r="459" spans="12:20" ht="25.95" customHeight="1">
       <c r="L459" s="2"/>
       <c r="M459" s="2"/>
       <c r="N459" s="2"/>
       <c r="O459" s="2"/>
       <c r="T459" s="2"/>
     </row>
-    <row r="460" spans="12:20" ht="25.9" customHeight="1">
+    <row r="460" spans="12:20" ht="25.95" customHeight="1">
       <c r="L460" s="2"/>
       <c r="M460" s="2"/>
       <c r="N460" s="2"/>
       <c r="O460" s="2"/>
       <c r="T460" s="2"/>
     </row>
-    <row r="461" spans="12:20" ht="25.9" customHeight="1">
+    <row r="461" spans="12:20" ht="25.95" customHeight="1">
       <c r="L461" s="2"/>
       <c r="M461" s="2"/>
       <c r="N461" s="2"/>
       <c r="O461" s="2"/>
       <c r="T461" s="2"/>
     </row>
-    <row r="462" spans="12:20" ht="25.9" customHeight="1">
+    <row r="462" spans="12:20" ht="25.95" customHeight="1">
       <c r="L462" s="2"/>
       <c r="M462" s="2"/>
       <c r="N462" s="2"/>
       <c r="O462" s="2"/>
       <c r="T462" s="2"/>
     </row>
-    <row r="463" spans="12:20" ht="25.9" customHeight="1">
+    <row r="463" spans="12:20" ht="25.95" customHeight="1">
       <c r="L463" s="2"/>
       <c r="M463" s="2"/>
       <c r="N463" s="2"/>
       <c r="O463" s="2"/>
       <c r="T463" s="2"/>
     </row>
-    <row r="464" spans="12:20" ht="25.9" customHeight="1">
+    <row r="464" spans="12:20" ht="25.95" customHeight="1">
       <c r="L464" s="2"/>
       <c r="M464" s="2"/>
       <c r="N464" s="2"/>
       <c r="O464" s="2"/>
       <c r="T464" s="2"/>
     </row>
-    <row r="465" spans="12:20" ht="25.9" customHeight="1">
+    <row r="465" spans="12:20" ht="25.95" customHeight="1">
       <c r="L465" s="2"/>
       <c r="M465" s="2"/>
       <c r="N465" s="2"/>
       <c r="O465" s="2"/>
       <c r="T465" s="2"/>
     </row>
-    <row r="466" spans="12:20" ht="25.9" customHeight="1">
+    <row r="466" spans="12:20" ht="25.95" customHeight="1">
       <c r="L466" s="2"/>
       <c r="M466" s="2"/>
       <c r="N466" s="2"/>
       <c r="O466" s="2"/>
       <c r="T466" s="2"/>
     </row>
-    <row r="467" spans="12:20" ht="25.9" customHeight="1">
+    <row r="467" spans="12:20" ht="25.95" customHeight="1">
       <c r="L467" s="2"/>
       <c r="M467" s="2"/>
       <c r="N467" s="2"/>
       <c r="O467" s="2"/>
       <c r="T467" s="2"/>
     </row>
-    <row r="468" spans="12:20" ht="25.9" customHeight="1">
+    <row r="468" spans="12:20" ht="25.95" customHeight="1">
       <c r="L468" s="2"/>
       <c r="M468" s="2"/>
       <c r="N468" s="2"/>
       <c r="O468" s="2"/>
       <c r="T468" s="2"/>
     </row>
-    <row r="469" spans="12:20" ht="25.9" customHeight="1">
+    <row r="469" spans="12:20" ht="25.95" customHeight="1">
       <c r="L469" s="2"/>
       <c r="M469" s="2"/>
       <c r="N469" s="2"/>
       <c r="O469" s="2"/>
       <c r="T469" s="2"/>
     </row>
-    <row r="470" spans="12:20" ht="25.9" customHeight="1">
+    <row r="470" spans="12:20" ht="25.95" customHeight="1">
       <c r="L470" s="2"/>
       <c r="M470" s="2"/>
       <c r="N470" s="2"/>
       <c r="O470" s="2"/>
       <c r="T470" s="2"/>
     </row>
-    <row r="471" spans="12:20" ht="25.9" customHeight="1">
+    <row r="471" spans="12:20" ht="25.95" customHeight="1">
       <c r="L471" s="2"/>
       <c r="M471" s="2"/>
       <c r="N471" s="2"/>
       <c r="O471" s="2"/>
       <c r="T471" s="2"/>
     </row>
-    <row r="472" spans="12:20" ht="25.9" customHeight="1">
+    <row r="472" spans="12:20" ht="25.95" customHeight="1">
       <c r="L472" s="2"/>
       <c r="M472" s="2"/>
       <c r="N472" s="2"/>
       <c r="O472" s="2"/>
       <c r="T472" s="2"/>
     </row>
-    <row r="473" spans="12:20" ht="25.9" customHeight="1">
+    <row r="473" spans="12:20" ht="25.95" customHeight="1">
       <c r="L473" s="2"/>
       <c r="M473" s="2"/>
       <c r="N473" s="2"/>
       <c r="O473" s="2"/>
       <c r="T473" s="2"/>
     </row>
-    <row r="474" spans="12:20" ht="25.9" customHeight="1">
+    <row r="474" spans="12:20" ht="25.95" customHeight="1">
       <c r="L474" s="2"/>
       <c r="M474" s="2"/>
       <c r="N474" s="2"/>
       <c r="O474" s="2"/>
       <c r="T474" s="2"/>
     </row>
-    <row r="475" spans="12:20" ht="25.9" customHeight="1">
+    <row r="475" spans="12:20" ht="25.95" customHeight="1">
       <c r="L475" s="2"/>
       <c r="M475" s="2"/>
       <c r="N475" s="2"/>
       <c r="O475" s="2"/>
       <c r="T475" s="2"/>
     </row>
-    <row r="476" spans="12:20" ht="25.9" customHeight="1">
+    <row r="476" spans="12:20" ht="25.95" customHeight="1">
       <c r="L476" s="2"/>
       <c r="M476" s="2"/>
       <c r="N476" s="2"/>
       <c r="O476" s="2"/>
       <c r="T476" s="2"/>
     </row>
-    <row r="477" spans="12:20" ht="25.9" customHeight="1">
+    <row r="477" spans="12:20" ht="25.95" customHeight="1">
       <c r="L477" s="2"/>
       <c r="M477" s="2"/>
       <c r="N477" s="2"/>
       <c r="O477" s="2"/>
       <c r="T477" s="2"/>
     </row>
-    <row r="478" spans="12:20" ht="25.9" customHeight="1">
+    <row r="478" spans="12:20" ht="25.95" customHeight="1">
       <c r="L478" s="2"/>
       <c r="M478" s="2"/>
       <c r="N478" s="2"/>
       <c r="O478" s="2"/>
       <c r="T478" s="2"/>
     </row>
-    <row r="479" spans="12:20" ht="25.9" customHeight="1">
+    <row r="479" spans="12:20" ht="25.95" customHeight="1">
       <c r="L479" s="2"/>
       <c r="M479" s="2"/>
       <c r="N479" s="2"/>
       <c r="O479" s="2"/>
       <c r="T479" s="2"/>
     </row>
-    <row r="480" spans="12:20" ht="25.9" customHeight="1">
+    <row r="480" spans="12:20" ht="25.95" customHeight="1">
       <c r="L480" s="2"/>
       <c r="M480" s="2"/>
       <c r="N480" s="2"/>
       <c r="O480" s="2"/>
       <c r="T480" s="2"/>
     </row>
-    <row r="481" spans="12:20" ht="25.9" customHeight="1">
+    <row r="481" spans="12:20" ht="25.95" customHeight="1">
       <c r="L481" s="2"/>
       <c r="M481" s="2"/>
       <c r="N481" s="2"/>
       <c r="O481" s="2"/>
       <c r="T481" s="2"/>
     </row>
-    <row r="482" spans="12:20" ht="25.9" customHeight="1">
+    <row r="482" spans="12:20" ht="25.95" customHeight="1">
       <c r="L482" s="2"/>
       <c r="M482" s="2"/>
       <c r="N482" s="2"/>
       <c r="O482" s="2"/>
       <c r="T482" s="2"/>
     </row>
-    <row r="483" spans="12:20" ht="25.9" customHeight="1">
+    <row r="483" spans="12:20" ht="25.95" customHeight="1">
       <c r="L483" s="2"/>
       <c r="M483" s="2"/>
       <c r="N483" s="2"/>
       <c r="O483" s="2"/>
       <c r="T483" s="2"/>
     </row>
-    <row r="484" spans="12:20" ht="25.9" customHeight="1">
+    <row r="484" spans="12:20" ht="25.95" customHeight="1">
       <c r="L484" s="2"/>
       <c r="M484" s="2"/>
       <c r="N484" s="2"/>
       <c r="O484" s="2"/>
       <c r="T484" s="2"/>
     </row>
-    <row r="485" spans="12:20" ht="25.9" customHeight="1">
+    <row r="485" spans="12:20" ht="25.95" customHeight="1">
       <c r="L485" s="2"/>
       <c r="M485" s="2"/>
       <c r="N485" s="2"/>
       <c r="O485" s="2"/>
       <c r="T485" s="2"/>
     </row>
-    <row r="486" spans="12:20" ht="25.9" customHeight="1">
+    <row r="486" spans="12:20" ht="25.95" customHeight="1">
       <c r="L486" s="2"/>
       <c r="M486" s="2"/>
       <c r="N486" s="2"/>
       <c r="O486" s="2"/>
       <c r="T486" s="2"/>
     </row>
-    <row r="487" spans="12:20" ht="25.9" customHeight="1">
+    <row r="487" spans="12:20" ht="25.95" customHeight="1">
       <c r="L487" s="2"/>
       <c r="M487" s="2"/>
       <c r="N487" s="2"/>
       <c r="O487" s="2"/>
       <c r="T487" s="2"/>
     </row>
-    <row r="488" spans="12:20" ht="25.9" customHeight="1">
+    <row r="488" spans="12:20" ht="25.95" customHeight="1">
       <c r="L488" s="2"/>
       <c r="M488" s="2"/>
       <c r="N488" s="2"/>
       <c r="O488" s="2"/>
       <c r="T488" s="2"/>
     </row>
-    <row r="489" spans="12:20" ht="25.9" customHeight="1">
+    <row r="489" spans="12:20" ht="25.95" customHeight="1">
       <c r="L489" s="2"/>
       <c r="M489" s="2"/>
       <c r="N489" s="2"/>
       <c r="O489" s="2"/>
       <c r="T489" s="2"/>
     </row>
-    <row r="490" spans="12:20" ht="25.9" customHeight="1">
+    <row r="490" spans="12:20" ht="25.95" customHeight="1">
       <c r="L490" s="2"/>
       <c r="M490" s="2"/>
       <c r="N490" s="2"/>
       <c r="O490" s="2"/>
       <c r="T490" s="2"/>
     </row>
-    <row r="491" spans="12:20" ht="25.9" customHeight="1">
+    <row r="491" spans="12:20" ht="25.95" customHeight="1">
       <c r="L491" s="2"/>
       <c r="M491" s="2"/>
       <c r="N491" s="2"/>
       <c r="O491" s="2"/>
       <c r="T491" s="2"/>
     </row>
-    <row r="492" spans="12:20" ht="25.9" customHeight="1">
+    <row r="492" spans="12:20" ht="25.95" customHeight="1">
       <c r="L492" s="2"/>
       <c r="M492" s="2"/>
       <c r="N492" s="2"/>
       <c r="O492" s="2"/>
       <c r="T492" s="2"/>
     </row>
-    <row r="493" spans="12:20" ht="25.9" customHeight="1">
+    <row r="493" spans="12:20" ht="25.95" customHeight="1">
       <c r="L493" s="2"/>
       <c r="M493" s="2"/>
       <c r="N493" s="2"/>
       <c r="O493" s="2"/>
       <c r="T493" s="2"/>
     </row>
-    <row r="494" spans="12:20" ht="25.9" customHeight="1">
+    <row r="494" spans="12:20" ht="25.95" customHeight="1">
       <c r="L494" s="2"/>
       <c r="M494" s="2"/>
       <c r="N494" s="2"/>
       <c r="O494" s="2"/>
       <c r="T494" s="2"/>
     </row>
-    <row r="495" spans="12:20" ht="25.9" customHeight="1">
+    <row r="495" spans="12:20" ht="25.95" customHeight="1">
       <c r="L495" s="2"/>
       <c r="M495" s="2"/>
       <c r="N495" s="2"/>
       <c r="O495" s="2"/>
       <c r="T495" s="2"/>
     </row>
-    <row r="496" spans="12:20" ht="25.9" customHeight="1">
+    <row r="496" spans="12:20" ht="25.95" customHeight="1">
       <c r="L496" s="2"/>
       <c r="M496" s="2"/>
       <c r="N496" s="2"/>
       <c r="O496" s="2"/>
       <c r="T496" s="2"/>
     </row>
-    <row r="497" spans="12:20" ht="25.9" customHeight="1">
+    <row r="497" spans="12:20" ht="25.95" customHeight="1">
       <c r="L497" s="2"/>
       <c r="M497" s="2"/>
       <c r="N497" s="2"/>
       <c r="O497" s="2"/>
       <c r="T497" s="2"/>
     </row>
-    <row r="498" spans="12:20" ht="25.9" customHeight="1">
+    <row r="498" spans="12:20" ht="25.95" customHeight="1">
       <c r="L498" s="2"/>
       <c r="M498" s="2"/>
       <c r="N498" s="2"/>
       <c r="O498" s="2"/>
       <c r="T498" s="2"/>
     </row>
-    <row r="499" spans="12:20" ht="25.9" customHeight="1">
+    <row r="499" spans="12:20" ht="25.95" customHeight="1">
       <c r="L499" s="2"/>
       <c r="M499" s="2"/>
       <c r="N499" s="2"/>
       <c r="O499" s="2"/>
       <c r="T499" s="2"/>
     </row>
-    <row r="500" spans="12:20" ht="25.9" customHeight="1">
+    <row r="500" spans="12:20" ht="25.95" customHeight="1">
       <c r="L500" s="2"/>
       <c r="M500" s="2"/>
       <c r="N500" s="2"/>
       <c r="O500" s="2"/>
       <c r="T500" s="2"/>
     </row>
-    <row r="501" spans="12:20" ht="25.9" customHeight="1">
+    <row r="501" spans="12:20" ht="25.95" customHeight="1">
       <c r="L501" s="2"/>
       <c r="M501" s="2"/>
       <c r="N501" s="2"/>
       <c r="O501" s="2"/>
       <c r="T501" s="2"/>
     </row>
-    <row r="502" spans="12:20" ht="25.9" customHeight="1">
+    <row r="502" spans="12:20" ht="25.95" customHeight="1">
       <c r="L502" s="2"/>
       <c r="M502" s="2"/>
       <c r="N502" s="2"/>
       <c r="O502" s="2"/>
       <c r="T502" s="2"/>
     </row>
-    <row r="503" spans="12:20" ht="25.9" customHeight="1">
+    <row r="503" spans="12:20" ht="25.95" customHeight="1">
       <c r="L503" s="2"/>
       <c r="M503" s="2"/>
       <c r="N503" s="2"/>
       <c r="O503" s="2"/>
       <c r="T503" s="2"/>
     </row>
-    <row r="504" spans="12:20" ht="25.9" customHeight="1">
+    <row r="504" spans="12:20" ht="25.95" customHeight="1">
       <c r="L504" s="2"/>
       <c r="M504" s="2"/>
       <c r="N504" s="2"/>
       <c r="O504" s="2"/>
       <c r="T504" s="2"/>
     </row>
-    <row r="505" spans="12:20" ht="25.9" customHeight="1">
+    <row r="505" spans="12:20" ht="25.95" customHeight="1">
       <c r="L505" s="2"/>
       <c r="M505" s="2"/>
       <c r="N505" s="2"/>
       <c r="O505" s="2"/>
       <c r="T505" s="2"/>
     </row>
-    <row r="506" spans="12:20" ht="25.9" customHeight="1">
+    <row r="506" spans="12:20" ht="25.95" customHeight="1">
       <c r="L506" s="2"/>
       <c r="M506" s="2"/>
       <c r="N506" s="2"/>
       <c r="O506" s="2"/>
       <c r="T506" s="2"/>
     </row>
-    <row r="507" spans="12:20" ht="25.9" customHeight="1">
+    <row r="507" spans="12:20" ht="25.95" customHeight="1">
       <c r="L507" s="2"/>
       <c r="M507" s="2"/>
       <c r="N507" s="2"/>
       <c r="O507" s="2"/>
       <c r="T507" s="2"/>
     </row>
-    <row r="508" spans="12:20" ht="25.9" customHeight="1">
+    <row r="508" spans="12:20" ht="25.95" customHeight="1">
       <c r="L508" s="2"/>
       <c r="M508" s="2"/>
       <c r="N508" s="2"/>
       <c r="O508" s="2"/>
       <c r="T508" s="2"/>
     </row>
-    <row r="509" spans="12:20" ht="25.9" customHeight="1">
+    <row r="509" spans="12:20" ht="25.95" customHeight="1">
       <c r="L509" s="2"/>
       <c r="M509" s="2"/>
       <c r="N509" s="2"/>
       <c r="O509" s="2"/>
       <c r="T509" s="2"/>
     </row>
-    <row r="510" spans="12:20" ht="25.9" customHeight="1">
+    <row r="510" spans="12:20" ht="25.95" customHeight="1">
       <c r="L510" s="2"/>
       <c r="M510" s="2"/>
       <c r="N510" s="2"/>
       <c r="O510" s="2"/>
       <c r="T510" s="2"/>
     </row>
-    <row r="511" spans="12:20" ht="25.9" customHeight="1">
+    <row r="511" spans="12:20" ht="25.95" customHeight="1">
       <c r="L511" s="2"/>
       <c r="M511" s="2"/>
       <c r="N511" s="2"/>
       <c r="O511" s="2"/>
       <c r="T511" s="2"/>
     </row>
-    <row r="512" spans="12:20" ht="25.9" customHeight="1">
+    <row r="512" spans="12:20" ht="25.95" customHeight="1">
       <c r="L512" s="2"/>
       <c r="M512" s="2"/>
       <c r="N512" s="2"/>
       <c r="O512" s="2"/>
       <c r="T512" s="2"/>
     </row>
-    <row r="513" spans="12:20" ht="25.9" customHeight="1">
+    <row r="513" spans="12:20" ht="25.95" customHeight="1">
       <c r="L513" s="2"/>
       <c r="M513" s="2"/>
       <c r="N513" s="2"/>
       <c r="O513" s="2"/>
       <c r="T513" s="2"/>
     </row>
-    <row r="514" spans="12:20" ht="25.9" customHeight="1">
+    <row r="514" spans="12:20" ht="25.95" customHeight="1">
       <c r="L514" s="2"/>
       <c r="M514" s="2"/>
       <c r="N514" s="2"/>
       <c r="O514" s="2"/>
       <c r="T514" s="2"/>
     </row>
-    <row r="515" spans="12:20" ht="25.9" customHeight="1">
+    <row r="515" spans="12:20" ht="25.95" customHeight="1">
       <c r="L515" s="2"/>
       <c r="M515" s="2"/>
       <c r="N515" s="2"/>
       <c r="O515" s="2"/>
       <c r="T515" s="2"/>
     </row>
-    <row r="516" spans="12:20" ht="25.9" customHeight="1">
+    <row r="516" spans="12:20" ht="25.95" customHeight="1">
       <c r="L516" s="2"/>
       <c r="M516" s="2"/>
       <c r="N516" s="2"/>
       <c r="O516" s="2"/>
       <c r="T516" s="2"/>
     </row>
-    <row r="517" spans="12:20" ht="25.9" customHeight="1">
+    <row r="517" spans="12:20" ht="25.95" customHeight="1">
       <c r="L517" s="2"/>
       <c r="M517" s="2"/>
       <c r="N517" s="2"/>
       <c r="O517" s="2"/>
       <c r="T517" s="2"/>
     </row>
-    <row r="518" spans="12:20" ht="25.9" customHeight="1">
+    <row r="518" spans="12:20" ht="25.95" customHeight="1">
       <c r="L518" s="2"/>
       <c r="M518" s="2"/>
       <c r="N518" s="2"/>
       <c r="O518" s="2"/>
       <c r="T518" s="2"/>
     </row>
-    <row r="519" spans="12:20" ht="25.9" customHeight="1">
+    <row r="519" spans="12:20" ht="25.95" customHeight="1">
       <c r="L519" s="2"/>
       <c r="M519" s="2"/>
       <c r="N519" s="2"/>
       <c r="O519" s="2"/>
       <c r="T519" s="2"/>
     </row>
-    <row r="520" spans="12:20" ht="25.9" customHeight="1">
+    <row r="520" spans="12:20" ht="25.95" customHeight="1">
       <c r="L520" s="2"/>
       <c r="M520" s="2"/>
       <c r="N520" s="2"/>
       <c r="O520" s="2"/>
       <c r="T520" s="2"/>
     </row>
-    <row r="521" spans="12:20" ht="25.9" customHeight="1">
+    <row r="521" spans="12:20" ht="25.95" customHeight="1">
       <c r="L521" s="2"/>
       <c r="M521" s="2"/>
       <c r="N521" s="2"/>
       <c r="O521" s="2"/>
       <c r="T521" s="2"/>
     </row>
-    <row r="522" spans="12:20" ht="25.9" customHeight="1">
+    <row r="522" spans="12:20" ht="25.95" customHeight="1">
       <c r="L522" s="2"/>
       <c r="M522" s="2"/>
       <c r="N522" s="2"/>
       <c r="O522" s="2"/>
       <c r="T522" s="2"/>
     </row>
-    <row r="523" spans="12:20" ht="25.9" customHeight="1">
+    <row r="523" spans="12:20" ht="25.95" customHeight="1">
       <c r="L523" s="2"/>
       <c r="M523" s="2"/>
       <c r="N523" s="2"/>
       <c r="O523" s="2"/>
       <c r="T523" s="2"/>
     </row>
-    <row r="524" spans="12:20" ht="25.9" customHeight="1">
+    <row r="524" spans="12:20" ht="25.95" customHeight="1">
       <c r="L524" s="2"/>
       <c r="M524" s="2"/>
       <c r="N524" s="2"/>
       <c r="O524" s="2"/>
       <c r="T524" s="2"/>
     </row>
-    <row r="525" spans="12:20" ht="25.9" customHeight="1">
+    <row r="525" spans="12:20" ht="25.95" customHeight="1">
       <c r="L525" s="2"/>
       <c r="M525" s="2"/>
       <c r="N525" s="2"/>
       <c r="O525" s="2"/>
       <c r="T525" s="2"/>
     </row>
-    <row r="526" spans="12:20" ht="25.9" customHeight="1">
+    <row r="526" spans="12:20" ht="25.95" customHeight="1">
       <c r="L526" s="2"/>
       <c r="M526" s="2"/>
       <c r="N526" s="2"/>
       <c r="O526" s="2"/>
       <c r="T526" s="2"/>
     </row>
-    <row r="527" spans="12:20" ht="25.9" customHeight="1">
+    <row r="527" spans="12:20" ht="25.95" customHeight="1">
       <c r="L527" s="2"/>
       <c r="M527" s="2"/>
       <c r="N527" s="2"/>
       <c r="O527" s="2"/>
       <c r="T527" s="2"/>
     </row>
-    <row r="528" spans="12:20" ht="25.9" customHeight="1">
+    <row r="528" spans="12:20" ht="25.95" customHeight="1">
       <c r="L528" s="2"/>
       <c r="M528" s="2"/>
       <c r="N528" s="2"/>
       <c r="O528" s="2"/>
       <c r="T528" s="2"/>
     </row>
-    <row r="529" spans="12:20" ht="25.9" customHeight="1">
+    <row r="529" spans="12:20" ht="25.95" customHeight="1">
       <c r="L529" s="2"/>
       <c r="M529" s="2"/>
       <c r="N529" s="2"/>
       <c r="O529" s="2"/>
       <c r="T529" s="2"/>
     </row>
-    <row r="530" spans="12:20" ht="25.9" customHeight="1">
+    <row r="530" spans="12:20" ht="25.95" customHeight="1">
       <c r="L530" s="2"/>
       <c r="M530" s="2"/>
       <c r="N530" s="2"/>
       <c r="O530" s="2"/>
       <c r="T530" s="2"/>
     </row>
-    <row r="531" spans="12:20" ht="25.9" customHeight="1">
+    <row r="531" spans="12:20" ht="25.95" customHeight="1">
       <c r="L531" s="2"/>
       <c r="M531" s="2"/>
       <c r="N531" s="2"/>
       <c r="O531" s="2"/>
       <c r="T531" s="2"/>
     </row>
-    <row r="532" spans="12:20" ht="25.9" customHeight="1">
+    <row r="532" spans="12:20" ht="25.95" customHeight="1">
       <c r="L532" s="2"/>
       <c r="M532" s="2"/>
       <c r="N532" s="2"/>
       <c r="O532" s="2"/>
       <c r="T532" s="2"/>
     </row>
-    <row r="533" spans="12:20" ht="25.9" customHeight="1">
+    <row r="533" spans="12:20" ht="25.95" customHeight="1">
       <c r="L533" s="2"/>
       <c r="M533" s="2"/>
       <c r="N533" s="2"/>
       <c r="O533" s="2"/>
       <c r="T533" s="2"/>
     </row>
-    <row r="534" spans="12:20" ht="25.9" customHeight="1">
+    <row r="534" spans="12:20" ht="25.95" customHeight="1">
       <c r="L534" s="2"/>
       <c r="M534" s="2"/>
       <c r="N534" s="2"/>
       <c r="O534" s="2"/>
       <c r="T534" s="2"/>
     </row>
-    <row r="535" spans="12:20" ht="25.9" customHeight="1">
+    <row r="535" spans="12:20" ht="25.95" customHeight="1">
       <c r="L535" s="2"/>
       <c r="M535" s="2"/>
       <c r="N535" s="2"/>
       <c r="O535" s="2"/>
       <c r="T535" s="2"/>
     </row>
-    <row r="536" spans="12:20" ht="25.9" customHeight="1">
+    <row r="536" spans="12:20" ht="25.95" customHeight="1">
       <c r="L536" s="2"/>
       <c r="M536" s="2"/>
       <c r="N536" s="2"/>
       <c r="O536" s="2"/>
       <c r="T536" s="2"/>
     </row>
-    <row r="537" spans="12:20" ht="25.9" customHeight="1">
+    <row r="537" spans="12:20" ht="25.95" customHeight="1">
       <c r="L537" s="2"/>
       <c r="M537" s="2"/>
       <c r="N537" s="2"/>
       <c r="O537" s="2"/>
       <c r="T537" s="2"/>
     </row>
-    <row r="538" spans="12:20" ht="25.9" customHeight="1">
+    <row r="538" spans="12:20" ht="25.95" customHeight="1">
       <c r="L538" s="2"/>
       <c r="M538" s="2"/>
       <c r="N538" s="2"/>
       <c r="O538" s="2"/>
       <c r="T538" s="2"/>
     </row>
-    <row r="539" spans="12:20" ht="25.9" customHeight="1">
+    <row r="539" spans="12:20" ht="25.95" customHeight="1">
       <c r="L539" s="2"/>
       <c r="M539" s="2"/>
       <c r="N539" s="2"/>
       <c r="O539" s="2"/>
       <c r="T539" s="2"/>
     </row>
-    <row r="540" spans="12:20" ht="25.9" customHeight="1">
+    <row r="540" spans="12:20" ht="25.95" customHeight="1">
       <c r="L540" s="2"/>
       <c r="M540" s="2"/>
       <c r="N540" s="2"/>
       <c r="O540" s="2"/>
       <c r="T540" s="2"/>
     </row>
-    <row r="541" spans="12:20" ht="25.9" customHeight="1">
+    <row r="541" spans="12:20" ht="25.95" customHeight="1">
       <c r="L541" s="2"/>
       <c r="M541" s="2"/>
       <c r="N541" s="2"/>
       <c r="O541" s="2"/>
       <c r="T541" s="2"/>
     </row>
-    <row r="542" spans="12:20" ht="25.9" customHeight="1">
+    <row r="542" spans="12:20" ht="25.95" customHeight="1">
       <c r="L542" s="2"/>
       <c r="M542" s="2"/>
       <c r="N542" s="2"/>
       <c r="O542" s="2"/>
       <c r="T542" s="2"/>
     </row>
-    <row r="543" spans="12:20" ht="25.9" customHeight="1">
+    <row r="543" spans="12:20" ht="25.95" customHeight="1">
       <c r="L543" s="2"/>
       <c r="M543" s="2"/>
       <c r="N543" s="2"/>
       <c r="O543" s="2"/>
       <c r="T543" s="2"/>
     </row>
-    <row r="544" spans="12:20" ht="25.9" customHeight="1">
+    <row r="544" spans="12:20" ht="25.95" customHeight="1">
       <c r="L544" s="2"/>
       <c r="M544" s="2"/>
       <c r="N544" s="2"/>
       <c r="O544" s="2"/>
       <c r="T544" s="2"/>
     </row>
-    <row r="545" spans="12:20" ht="25.9" customHeight="1">
+    <row r="545" spans="12:20" ht="25.95" customHeight="1">
       <c r="L545" s="2"/>
       <c r="M545" s="2"/>
       <c r="N545" s="2"/>
       <c r="O545" s="2"/>
       <c r="T545" s="2"/>
     </row>
-    <row r="546" spans="12:20" ht="25.9" customHeight="1">
+    <row r="546" spans="12:20" ht="25.95" customHeight="1">
       <c r="L546" s="2"/>
       <c r="M546" s="2"/>
       <c r="N546" s="2"/>
       <c r="O546" s="2"/>
       <c r="T546" s="2"/>
     </row>
-    <row r="547" spans="12:20" ht="25.9" customHeight="1">
+    <row r="547" spans="12:20" ht="25.95" customHeight="1">
       <c r="L547" s="2"/>
       <c r="M547" s="2"/>
       <c r="N547" s="2"/>
       <c r="O547" s="2"/>
       <c r="T547" s="2"/>
     </row>
-    <row r="548" spans="12:20" ht="25.9" customHeight="1">
+    <row r="548" spans="12:20" ht="25.95" customHeight="1">
       <c r="L548" s="2"/>
       <c r="M548" s="2"/>
       <c r="N548" s="2"/>
       <c r="O548" s="2"/>
       <c r="T548" s="2"/>
     </row>
-    <row r="549" spans="12:20" ht="25.9" customHeight="1">
+    <row r="549" spans="12:20" ht="25.95" customHeight="1">
       <c r="L549" s="2"/>
       <c r="M549" s="2"/>
       <c r="N549" s="2"/>
       <c r="O549" s="2"/>
       <c r="T549" s="2"/>
     </row>
-    <row r="550" spans="12:20" ht="25.9" customHeight="1">
+    <row r="550" spans="12:20" ht="25.95" customHeight="1">
       <c r="L550" s="2"/>
       <c r="M550" s="2"/>
       <c r="N550" s="2"/>
       <c r="O550" s="2"/>
       <c r="T550" s="2"/>
     </row>
-    <row r="551" spans="12:20" ht="25.9" customHeight="1">
+    <row r="551" spans="12:20" ht="25.95" customHeight="1">
       <c r="L551" s="2"/>
       <c r="M551" s="2"/>
       <c r="N551" s="2"/>
       <c r="O551" s="2"/>
       <c r="T551" s="2"/>
     </row>
-    <row r="552" spans="12:20" ht="25.9" customHeight="1">
+    <row r="552" spans="12:20" ht="25.95" customHeight="1">
       <c r="L552" s="2"/>
       <c r="M552" s="2"/>
       <c r="N552" s="2"/>
       <c r="O552" s="2"/>
       <c r="T552" s="2"/>
     </row>
-    <row r="553" spans="12:20" ht="25.9" customHeight="1">
+    <row r="553" spans="12:20" ht="25.95" customHeight="1">
       <c r="L553" s="2"/>
       <c r="M553" s="2"/>
       <c r="N553" s="2"/>
       <c r="O553" s="2"/>
       <c r="T553" s="2"/>
     </row>
-    <row r="554" spans="12:20" ht="25.9" customHeight="1">
+    <row r="554" spans="12:20" ht="25.95" customHeight="1">
       <c r="L554" s="2"/>
       <c r="M554" s="2"/>
       <c r="N554" s="2"/>
       <c r="O554" s="2"/>
       <c r="T554" s="2"/>
     </row>
-    <row r="555" spans="12:20" ht="25.9" customHeight="1">
+    <row r="555" spans="12:20" ht="25.95" customHeight="1">
       <c r="L555" s="2"/>
       <c r="M555" s="2"/>
       <c r="N555" s="2"/>
       <c r="O555" s="2"/>
       <c r="T555" s="2"/>
     </row>
-    <row r="556" spans="12:20" ht="25.9" customHeight="1">
+    <row r="556" spans="12:20" ht="25.95" customHeight="1">
       <c r="L556" s="2"/>
       <c r="M556" s="2"/>
       <c r="N556" s="2"/>
       <c r="O556" s="2"/>
       <c r="T556" s="2"/>
     </row>
-    <row r="557" spans="12:20" ht="25.9" customHeight="1">
+    <row r="557" spans="12:20" ht="25.95" customHeight="1">
       <c r="L557" s="2"/>
       <c r="M557" s="2"/>
       <c r="N557" s="2"/>
       <c r="O557" s="2"/>
       <c r="T557" s="2"/>
     </row>
-    <row r="558" spans="12:20" ht="25.9" customHeight="1">
+    <row r="558" spans="12:20" ht="25.95" customHeight="1">
       <c r="L558" s="2"/>
       <c r="M558" s="2"/>
       <c r="N558" s="2"/>
       <c r="O558" s="2"/>
       <c r="T558" s="2"/>
     </row>
-    <row r="559" spans="12:20" ht="25.9" customHeight="1">
+    <row r="559" spans="12:20" ht="25.95" customHeight="1">
       <c r="L559" s="2"/>
       <c r="M559" s="2"/>
       <c r="N559" s="2"/>
       <c r="O559" s="2"/>
       <c r="T559" s="2"/>
     </row>
-    <row r="560" spans="12:20" ht="25.9" customHeight="1">
+    <row r="560" spans="12:20" ht="25.95" customHeight="1">
       <c r="L560" s="2"/>
       <c r="M560" s="2"/>
       <c r="N560" s="2"/>
       <c r="O560" s="2"/>
       <c r="T560" s="2"/>
     </row>
-    <row r="561" spans="12:20" ht="25.9" customHeight="1">
+    <row r="561" spans="12:20" ht="25.95" customHeight="1">
       <c r="L561" s="2"/>
       <c r="M561" s="2"/>
       <c r="N561" s="2"/>
       <c r="O561" s="2"/>
       <c r="T561" s="2"/>
     </row>
-    <row r="562" spans="12:20" ht="25.9" customHeight="1">
+    <row r="562" spans="12:20" ht="25.95" customHeight="1">
       <c r="L562" s="2"/>
       <c r="M562" s="2"/>
       <c r="N562" s="2"/>
       <c r="O562" s="2"/>
       <c r="T562" s="2"/>
     </row>
-    <row r="563" spans="12:20" ht="25.9" customHeight="1">
+    <row r="563" spans="12:20" ht="25.95" customHeight="1">
       <c r="L563" s="2"/>
       <c r="M563" s="2"/>
       <c r="N563" s="2"/>
       <c r="O563" s="2"/>
       <c r="T563" s="2"/>
     </row>
-    <row r="564" spans="12:20" ht="25.9" customHeight="1">
+    <row r="564" spans="12:20" ht="25.95" customHeight="1">
       <c r="L564" s="2"/>
       <c r="M564" s="2"/>
       <c r="N564" s="2"/>
       <c r="O564" s="2"/>
       <c r="T564" s="2"/>
     </row>
-    <row r="565" spans="12:20" ht="25.9" customHeight="1">
+    <row r="565" spans="12:20" ht="25.95" customHeight="1">
       <c r="L565" s="2"/>
       <c r="M565" s="2"/>
       <c r="N565" s="2"/>
       <c r="O565" s="2"/>
       <c r="T565" s="2"/>
     </row>
-    <row r="566" spans="12:20" ht="25.9" customHeight="1">
+    <row r="566" spans="12:20" ht="25.95" customHeight="1">
       <c r="L566" s="2"/>
       <c r="M566" s="2"/>
       <c r="N566" s="2"/>
       <c r="O566" s="2"/>
       <c r="T566" s="2"/>
     </row>
-    <row r="567" spans="12:20" ht="25.9" customHeight="1">
+    <row r="567" spans="12:20" ht="25.95" customHeight="1">
       <c r="L567" s="2"/>
       <c r="M567" s="2"/>
       <c r="N567" s="2"/>
       <c r="O567" s="2"/>
       <c r="T567" s="2"/>
     </row>
-    <row r="568" spans="12:20" ht="25.9" customHeight="1">
+    <row r="568" spans="12:20" ht="25.95" customHeight="1">
       <c r="L568" s="2"/>
       <c r="M568" s="2"/>
       <c r="N568" s="2"/>
       <c r="O568" s="2"/>
       <c r="T568" s="2"/>
     </row>
-    <row r="569" spans="12:20" ht="25.9" customHeight="1">
+    <row r="569" spans="12:20" ht="25.95" customHeight="1">
       <c r="L569" s="2"/>
       <c r="M569" s="2"/>
       <c r="N569" s="2"/>
       <c r="O569" s="2"/>
       <c r="T569" s="2"/>
     </row>
-    <row r="570" spans="12:20" ht="25.9" customHeight="1">
+    <row r="570" spans="12:20" ht="25.95" customHeight="1">
       <c r="L570" s="2"/>
       <c r="M570" s="2"/>
       <c r="N570" s="2"/>
       <c r="O570" s="2"/>
       <c r="T570" s="2"/>
     </row>
-    <row r="571" spans="12:20" ht="25.9" customHeight="1">
+    <row r="571" spans="12:20" ht="25.95" customHeight="1">
       <c r="L571" s="2"/>
       <c r="M571" s="2"/>
       <c r="N571" s="2"/>
       <c r="O571" s="2"/>
       <c r="T571" s="2"/>
     </row>
-    <row r="572" spans="12:20" ht="25.9" customHeight="1">
+    <row r="572" spans="12:20" ht="25.95" customHeight="1">
       <c r="L572" s="2"/>
       <c r="M572" s="2"/>
       <c r="N572" s="2"/>
       <c r="O572" s="2"/>
       <c r="T572" s="2"/>
     </row>
-    <row r="573" spans="12:20" ht="25.9" customHeight="1">
+    <row r="573" spans="12:20" ht="25.95" customHeight="1">
       <c r="L573" s="2"/>
       <c r="M573" s="2"/>
       <c r="N573" s="2"/>
       <c r="O573" s="2"/>
       <c r="T573" s="2"/>
     </row>
-    <row r="574" spans="12:20" ht="25.9" customHeight="1">
+    <row r="574" spans="12:20" ht="25.95" customHeight="1">
       <c r="L574" s="2"/>
       <c r="M574" s="2"/>
       <c r="N574" s="2"/>
       <c r="O574" s="2"/>
       <c r="T574" s="2"/>
     </row>
-    <row r="575" spans="12:20" ht="25.9" customHeight="1">
+    <row r="575" spans="12:20" ht="25.95" customHeight="1">
       <c r="L575" s="2"/>
       <c r="M575" s="2"/>
       <c r="N575" s="2"/>
       <c r="O575" s="2"/>
       <c r="T575" s="2"/>
     </row>
-    <row r="576" spans="12:20" ht="25.9" customHeight="1">
+    <row r="576" spans="12:20" ht="25.95" customHeight="1">
       <c r="L576" s="2"/>
       <c r="M576" s="2"/>
       <c r="N576" s="2"/>
       <c r="O576" s="2"/>
       <c r="T576" s="2"/>
     </row>
-    <row r="577" spans="12:20" ht="25.9" customHeight="1">
+    <row r="577" spans="12:20" ht="25.95" customHeight="1">
       <c r="L577" s="2"/>
       <c r="M577" s="2"/>
       <c r="N577" s="2"/>
       <c r="O577" s="2"/>
       <c r="T577" s="2"/>
     </row>
-    <row r="578" spans="12:20" ht="25.9" customHeight="1">
+    <row r="578" spans="12:20" ht="25.95" customHeight="1">
       <c r="L578" s="2"/>
       <c r="M578" s="2"/>
       <c r="N578" s="2"/>
       <c r="O578" s="2"/>
       <c r="T578" s="2"/>
     </row>
-    <row r="579" spans="12:20" ht="25.9" customHeight="1">
+    <row r="579" spans="12:20" ht="25.95" customHeight="1">
       <c r="L579" s="2"/>
       <c r="M579" s="2"/>
       <c r="N579" s="2"/>
       <c r="O579" s="2"/>
       <c r="T579" s="2"/>
     </row>
-    <row r="580" spans="12:20" ht="25.9" customHeight="1">
+    <row r="580" spans="12:20" ht="25.95" customHeight="1">
       <c r="L580" s="2"/>
       <c r="M580" s="2"/>
       <c r="N580" s="2"/>
       <c r="O580" s="2"/>
       <c r="T580" s="2"/>
     </row>
-    <row r="581" spans="12:20" ht="25.9" customHeight="1">
+    <row r="581" spans="12:20" ht="25.95" customHeight="1">
       <c r="L581" s="2"/>
       <c r="M581" s="2"/>
       <c r="N581" s="2"/>
       <c r="O581" s="2"/>
       <c r="T581" s="2"/>
     </row>
-    <row r="582" spans="12:20" ht="25.9" customHeight="1">
+    <row r="582" spans="12:20" ht="25.95" customHeight="1">
       <c r="L582" s="2"/>
       <c r="M582" s="2"/>
       <c r="N582" s="2"/>
       <c r="O582" s="2"/>
       <c r="T582" s="2"/>
     </row>
-    <row r="583" spans="12:20" ht="25.9" customHeight="1">
+    <row r="583" spans="12:20" ht="25.95" customHeight="1">
       <c r="L583" s="2"/>
       <c r="M583" s="2"/>
       <c r="N583" s="2"/>
       <c r="O583" s="2"/>
       <c r="T583" s="2"/>
     </row>
-    <row r="584" spans="12:20" ht="25.9" customHeight="1">
+    <row r="584" spans="12:20" ht="25.95" customHeight="1">
       <c r="L584" s="2"/>
       <c r="M584" s="2"/>
       <c r="N584" s="2"/>
       <c r="O584" s="2"/>
       <c r="T584" s="2"/>
     </row>
-    <row r="585" spans="12:20" ht="25.9" customHeight="1">
+    <row r="585" spans="12:20" ht="25.95" customHeight="1">
       <c r="L585" s="2"/>
       <c r="M585" s="2"/>
       <c r="N585" s="2"/>
       <c r="O585" s="2"/>
       <c r="T585" s="2"/>
     </row>
-    <row r="586" spans="12:20" ht="25.9" customHeight="1">
+    <row r="586" spans="12:20" ht="25.95" customHeight="1">
       <c r="L586" s="2"/>
       <c r="M586" s="2"/>
       <c r="N586" s="2"/>
       <c r="O586" s="2"/>
       <c r="T586" s="2"/>
     </row>
-    <row r="587" spans="12:20" ht="25.9" customHeight="1">
+    <row r="587" spans="12:20" ht="25.95" customHeight="1">
       <c r="L587" s="2"/>
       <c r="M587" s="2"/>
       <c r="N587" s="2"/>
       <c r="O587" s="2"/>
       <c r="T587" s="2"/>
     </row>
-    <row r="588" spans="12:20" ht="25.9" customHeight="1">
+    <row r="588" spans="12:20" ht="25.95" customHeight="1">
       <c r="L588" s="2"/>
       <c r="M588" s="2"/>
       <c r="N588" s="2"/>
       <c r="O588" s="2"/>
       <c r="T588" s="2"/>
     </row>
-    <row r="589" spans="12:20" ht="25.9" customHeight="1">
+    <row r="589" spans="12:20" ht="25.95" customHeight="1">
       <c r="L589" s="2"/>
       <c r="M589" s="2"/>
       <c r="N589" s="2"/>
       <c r="O589" s="2"/>
       <c r="T589" s="2"/>
     </row>
-    <row r="590" spans="12:20" ht="25.9" customHeight="1">
+    <row r="590" spans="12:20" ht="25.95" customHeight="1">
       <c r="L590" s="2"/>
       <c r="M590" s="2"/>
       <c r="N590" s="2"/>
       <c r="O590" s="2"/>
       <c r="T590" s="2"/>
     </row>
-    <row r="591" spans="12:20" ht="25.9" customHeight="1">
+    <row r="591" spans="12:20" ht="25.95" customHeight="1">
       <c r="L591" s="2"/>
       <c r="M591" s="2"/>
       <c r="N591" s="2"/>
       <c r="O591" s="2"/>
       <c r="T591" s="2"/>
     </row>
-    <row r="592" spans="12:20" ht="25.9" customHeight="1">
+    <row r="592" spans="12:20" ht="25.95" customHeight="1">
       <c r="L592" s="2"/>
       <c r="M592" s="2"/>
       <c r="N592" s="2"/>
       <c r="O592" s="2"/>
       <c r="T592" s="2"/>
     </row>
-    <row r="593" spans="12:20" ht="25.9" customHeight="1">
+    <row r="593" spans="12:20" ht="25.95" customHeight="1">
       <c r="L593" s="2"/>
       <c r="M593" s="2"/>
       <c r="N593" s="2"/>
       <c r="O593" s="2"/>
       <c r="T593" s="2"/>
     </row>
-    <row r="594" spans="12:20" ht="25.9" customHeight="1">
+    <row r="594" spans="12:20" ht="25.95" customHeight="1">
       <c r="L594" s="2"/>
       <c r="M594" s="2"/>
       <c r="N594" s="2"/>
       <c r="O594" s="2"/>
       <c r="T594" s="2"/>
     </row>
-    <row r="595" spans="12:20" ht="25.9" customHeight="1">
+    <row r="595" spans="12:20" ht="25.95" customHeight="1">
       <c r="L595" s="2"/>
       <c r="M595" s="2"/>
       <c r="N595" s="2"/>
       <c r="O595" s="2"/>
       <c r="T595" s="2"/>
     </row>
-    <row r="596" spans="12:20" ht="25.9" customHeight="1">
+    <row r="596" spans="12:20" ht="25.95" customHeight="1">
       <c r="L596" s="2"/>
       <c r="M596" s="2"/>
       <c r="N596" s="2"/>
       <c r="O596" s="2"/>
       <c r="T596" s="2"/>
     </row>
-    <row r="597" spans="12:20" ht="25.9" customHeight="1">
+    <row r="597" spans="12:20" ht="25.95" customHeight="1">
       <c r="L597" s="2"/>
       <c r="M597" s="2"/>
       <c r="N597" s="2"/>
       <c r="O597" s="2"/>
       <c r="T597" s="2"/>
     </row>
-    <row r="598" spans="12:20" ht="25.9" customHeight="1">
+    <row r="598" spans="12:20" ht="25.95" customHeight="1">
       <c r="L598" s="2"/>
       <c r="M598" s="2"/>
       <c r="N598" s="2"/>
       <c r="O598" s="2"/>
       <c r="T598" s="2"/>
     </row>
-    <row r="599" spans="12:20" ht="25.9" customHeight="1">
+    <row r="599" spans="12:20" ht="25.95" customHeight="1">
       <c r="L599" s="2"/>
       <c r="M599" s="2"/>
       <c r="N599" s="2"/>
       <c r="O599" s="2"/>
       <c r="T599" s="2"/>
     </row>
-    <row r="600" spans="12:20" ht="25.9" customHeight="1">
+    <row r="600" spans="12:20" ht="25.95" customHeight="1">
       <c r="L600" s="2"/>
       <c r="M600" s="2"/>
       <c r="N600" s="2"/>
       <c r="O600" s="2"/>
       <c r="T600" s="2"/>
     </row>
-    <row r="601" spans="12:20" ht="25.9" customHeight="1">
+    <row r="601" spans="12:20" ht="25.95" customHeight="1">
       <c r="L601" s="2"/>
       <c r="M601" s="2"/>
       <c r="N601" s="2"/>
       <c r="O601" s="2"/>
       <c r="T601" s="2"/>
     </row>
-    <row r="602" spans="12:20" ht="25.9" customHeight="1">
+    <row r="602" spans="12:20" ht="25.95" customHeight="1">
       <c r="L602" s="2"/>
       <c r="M602" s="2"/>
       <c r="N602" s="2"/>
       <c r="O602" s="2"/>
       <c r="T602" s="2"/>
     </row>
-    <row r="603" spans="12:20" ht="25.9" customHeight="1">
+    <row r="603" spans="12:20" ht="25.95" customHeight="1">
       <c r="L603" s="2"/>
       <c r="M603" s="2"/>
       <c r="N603" s="2"/>
       <c r="O603" s="2"/>
       <c r="T603" s="2"/>
     </row>
-    <row r="604" spans="12:20" ht="25.9" customHeight="1">
+    <row r="604" spans="12:20" ht="25.95" customHeight="1">
       <c r="L604" s="2"/>
       <c r="M604" s="2"/>
       <c r="N604" s="2"/>
       <c r="O604" s="2"/>
       <c r="T604" s="2"/>
     </row>
-    <row r="605" spans="12:20" ht="25.9" customHeight="1">
+    <row r="605" spans="12:20" ht="25.95" customHeight="1">
       <c r="L605" s="2"/>
       <c r="M605" s="2"/>
       <c r="N605" s="2"/>
       <c r="O605" s="2"/>
       <c r="T605" s="2"/>
     </row>
-    <row r="606" spans="12:20" ht="25.9" customHeight="1">
+    <row r="606" spans="12:20" ht="25.95" customHeight="1">
       <c r="L606" s="2"/>
       <c r="M606" s="2"/>
       <c r="N606" s="2"/>
       <c r="O606" s="2"/>
       <c r="T606" s="2"/>
     </row>
-    <row r="607" spans="12:20" ht="25.9" customHeight="1">
+    <row r="607" spans="12:20" ht="25.95" customHeight="1">
       <c r="L607" s="2"/>
       <c r="M607" s="2"/>
       <c r="N607" s="2"/>
       <c r="O607" s="2"/>
       <c r="T607" s="2"/>
     </row>
-    <row r="608" spans="12:20" ht="25.9" customHeight="1">
+    <row r="608" spans="12:20" ht="25.95" customHeight="1">
       <c r="L608" s="2"/>
       <c r="M608" s="2"/>
       <c r="N608" s="2"/>
       <c r="O608" s="2"/>
       <c r="T608" s="2"/>
     </row>
-    <row r="609" spans="12:20" ht="25.9" customHeight="1">
+    <row r="609" spans="12:20" ht="25.95" customHeight="1">
       <c r="L609" s="2"/>
       <c r="M609" s="2"/>
       <c r="N609" s="2"/>
       <c r="O609" s="2"/>
       <c r="T609" s="2"/>
     </row>
-    <row r="610" spans="12:20" ht="25.9" customHeight="1">
+    <row r="610" spans="12:20" ht="25.95" customHeight="1">
       <c r="L610" s="2"/>
       <c r="M610" s="2"/>
       <c r="N610" s="2"/>
       <c r="O610" s="2"/>
       <c r="T610" s="2"/>
     </row>
-    <row r="611" spans="12:20" ht="25.9" customHeight="1">
+    <row r="611" spans="12:20" ht="25.95" customHeight="1">
       <c r="L611" s="2"/>
       <c r="M611" s="2"/>
       <c r="N611" s="2"/>
       <c r="O611" s="2"/>
       <c r="T611" s="2"/>
     </row>
-    <row r="612" spans="12:20" ht="25.9" customHeight="1">
+    <row r="612" spans="12:20" ht="25.95" customHeight="1">
       <c r="L612" s="2"/>
       <c r="M612" s="2"/>
       <c r="N612" s="2"/>
       <c r="O612" s="2"/>
       <c r="T612" s="2"/>
     </row>
-    <row r="613" spans="12:20" ht="25.9" customHeight="1">
+    <row r="613" spans="12:20" ht="25.95" customHeight="1">
       <c r="L613" s="2"/>
       <c r="M613" s="2"/>
       <c r="N613" s="2"/>
       <c r="O613" s="2"/>
       <c r="T613" s="2"/>
     </row>
-    <row r="614" spans="12:20" ht="25.9" customHeight="1">
+    <row r="614" spans="12:20" ht="25.95" customHeight="1">
       <c r="L614" s="2"/>
       <c r="M614" s="2"/>
       <c r="N614" s="2"/>
       <c r="O614" s="2"/>
       <c r="T614" s="2"/>
     </row>
-    <row r="615" spans="12:20" ht="25.9" customHeight="1">
+    <row r="615" spans="12:20" ht="25.95" customHeight="1">
       <c r="L615" s="2"/>
       <c r="M615" s="2"/>
       <c r="N615" s="2"/>
       <c r="O615" s="2"/>
       <c r="T615" s="2"/>
     </row>
-    <row r="616" spans="12:20" ht="25.9" customHeight="1">
+    <row r="616" spans="12:20" ht="25.95" customHeight="1">
       <c r="L616" s="2"/>
       <c r="M616" s="2"/>
       <c r="N616" s="2"/>
       <c r="O616" s="2"/>
       <c r="T616" s="2"/>
     </row>
-    <row r="617" spans="12:20" ht="25.9" customHeight="1">
+    <row r="617" spans="12:20" ht="25.95" customHeight="1">
       <c r="L617" s="2"/>
       <c r="M617" s="2"/>
       <c r="N617" s="2"/>
       <c r="O617" s="2"/>
       <c r="T617" s="2"/>
     </row>
-    <row r="618" spans="12:20" ht="25.9" customHeight="1">
+    <row r="618" spans="12:20" ht="25.95" customHeight="1">
       <c r="L618" s="2"/>
       <c r="M618" s="2"/>
       <c r="N618" s="2"/>
       <c r="O618" s="2"/>
       <c r="T618" s="2"/>
     </row>
-    <row r="619" spans="12:20" ht="25.9" customHeight="1">
+    <row r="619" spans="12:20" ht="25.95" customHeight="1">
       <c r="L619" s="2"/>
       <c r="M619" s="2"/>
       <c r="N619" s="2"/>
       <c r="O619" s="2"/>
       <c r="T619" s="2"/>
     </row>
-    <row r="620" spans="12:20" ht="25.9" customHeight="1">
+    <row r="620" spans="12:20" ht="25.95" customHeight="1">
       <c r="L620" s="2"/>
       <c r="M620" s="2"/>
       <c r="N620" s="2"/>
       <c r="O620" s="2"/>
       <c r="T620" s="2"/>
     </row>
-    <row r="621" spans="12:20" ht="25.9" customHeight="1">
+    <row r="621" spans="12:20" ht="25.95" customHeight="1">
       <c r="L621" s="2"/>
       <c r="M621" s="2"/>
       <c r="N621" s="2"/>
       <c r="O621" s="2"/>
       <c r="T621" s="2"/>
     </row>
-    <row r="622" spans="12:20" ht="25.9" customHeight="1">
+    <row r="622" spans="12:20" ht="25.95" customHeight="1">
       <c r="L622" s="2"/>
       <c r="M622" s="2"/>
       <c r="N622" s="2"/>
       <c r="O622" s="2"/>
       <c r="T622" s="2"/>
     </row>
-    <row r="623" spans="12:20" ht="25.9" customHeight="1">
+    <row r="623" spans="12:20" ht="25.95" customHeight="1">
       <c r="L623" s="2"/>
       <c r="M623" s="2"/>
       <c r="N623" s="2"/>
       <c r="O623" s="2"/>
       <c r="T623" s="2"/>
     </row>
-    <row r="624" spans="12:20" ht="25.9" customHeight="1">
+    <row r="624" spans="12:20" ht="25.95" customHeight="1">
       <c r="L624" s="2"/>
       <c r="M624" s="2"/>
       <c r="N624" s="2"/>
       <c r="O624" s="2"/>
       <c r="T624" s="2"/>
     </row>
-    <row r="625" spans="12:20" ht="25.9" customHeight="1">
+    <row r="625" spans="12:20" ht="25.95" customHeight="1">
       <c r="L625" s="2"/>
       <c r="M625" s="2"/>
       <c r="N625" s="2"/>
       <c r="O625" s="2"/>
       <c r="T625" s="2"/>
     </row>
-    <row r="626" spans="12:20" ht="25.9" customHeight="1">
+    <row r="626" spans="12:20" ht="25.95" customHeight="1">
       <c r="L626" s="2"/>
       <c r="M626" s="2"/>
       <c r="N626" s="2"/>
       <c r="O626" s="2"/>
       <c r="T626" s="2"/>
     </row>
-    <row r="627" spans="12:20" ht="25.9" customHeight="1">
+    <row r="627" spans="12:20" ht="25.95" customHeight="1">
       <c r="L627" s="2"/>
       <c r="M627" s="2"/>
       <c r="N627" s="2"/>
       <c r="O627" s="2"/>
       <c r="T627" s="2"/>
     </row>
-    <row r="628" spans="12:20" ht="25.9" customHeight="1">
+    <row r="628" spans="12:20" ht="25.95" customHeight="1">
       <c r="L628" s="2"/>
       <c r="M628" s="2"/>
       <c r="N628" s="2"/>
       <c r="O628" s="2"/>
       <c r="T628" s="2"/>
     </row>
-    <row r="629" spans="12:20" ht="25.9" customHeight="1">
+    <row r="629" spans="12:20" ht="25.95" customHeight="1">
       <c r="L629" s="2"/>
       <c r="M629" s="2"/>
       <c r="N629" s="2"/>
       <c r="O629" s="2"/>
       <c r="T629" s="2"/>
     </row>
-    <row r="630" spans="12:20" ht="25.9" customHeight="1">
+    <row r="630" spans="12:20" ht="25.95" customHeight="1">
       <c r="L630" s="2"/>
       <c r="M630" s="2"/>
       <c r="N630" s="2"/>
       <c r="O630" s="2"/>
       <c r="T630" s="2"/>
     </row>
-    <row r="631" spans="12:20" ht="25.9" customHeight="1">
+    <row r="631" spans="12:20" ht="25.95" customHeight="1">
       <c r="L631" s="2"/>
       <c r="M631" s="2"/>
       <c r="N631" s="2"/>
       <c r="O631" s="2"/>
       <c r="T631" s="2"/>
     </row>
-    <row r="632" spans="12:20" ht="25.9" customHeight="1">
+    <row r="632" spans="12:20" ht="25.95" customHeight="1">
       <c r="L632" s="2"/>
       <c r="M632" s="2"/>
       <c r="N632" s="2"/>
       <c r="O632" s="2"/>
       <c r="T632" s="2"/>
     </row>
-    <row r="633" spans="12:20" ht="25.9" customHeight="1">
+    <row r="633" spans="12:20" ht="25.95" customHeight="1">
       <c r="L633" s="2"/>
       <c r="M633" s="2"/>
       <c r="N633" s="2"/>
       <c r="O633" s="2"/>
       <c r="T633" s="2"/>
     </row>
-    <row r="634" spans="12:20" ht="25.9" customHeight="1">
+    <row r="634" spans="12:20" ht="25.95" customHeight="1">
       <c r="L634" s="2"/>
       <c r="M634" s="2"/>
       <c r="N634" s="2"/>
       <c r="O634" s="2"/>
       <c r="T634" s="2"/>
     </row>
-    <row r="635" spans="12:20" ht="25.9" customHeight="1">
+    <row r="635" spans="12:20" ht="25.95" customHeight="1">
       <c r="L635" s="2"/>
       <c r="M635" s="2"/>
       <c r="N635" s="2"/>
       <c r="O635" s="2"/>
       <c r="T635" s="2"/>
     </row>
-    <row r="636" spans="12:20" ht="25.9" customHeight="1">
+    <row r="636" spans="12:20" ht="25.95" customHeight="1">
       <c r="L636" s="2"/>
       <c r="M636" s="2"/>
       <c r="N636" s="2"/>
       <c r="O636" s="2"/>
       <c r="T636" s="2"/>
     </row>
-    <row r="637" spans="12:20" ht="25.9" customHeight="1">
+    <row r="637" spans="12:20" ht="25.95" customHeight="1">
       <c r="L637" s="2"/>
       <c r="M637" s="2"/>
       <c r="N637" s="2"/>
       <c r="O637" s="2"/>
       <c r="T637" s="2"/>
     </row>
-    <row r="638" spans="12:20" ht="25.9" customHeight="1">
+    <row r="638" spans="12:20" ht="25.95" customHeight="1">
       <c r="L638" s="2"/>
       <c r="M638" s="2"/>
       <c r="N638" s="2"/>
       <c r="O638" s="2"/>
       <c r="T638" s="2"/>
     </row>
-    <row r="639" spans="12:20" ht="25.9" customHeight="1">
+    <row r="639" spans="12:20" ht="25.95" customHeight="1">
       <c r="L639" s="2"/>
       <c r="M639" s="2"/>
       <c r="N639" s="2"/>
       <c r="O639" s="2"/>
       <c r="T639" s="2"/>
     </row>
-    <row r="640" spans="12:20" ht="25.9" customHeight="1">
+    <row r="640" spans="12:20" ht="25.95" customHeight="1">
       <c r="L640" s="2"/>
       <c r="M640" s="2"/>
       <c r="N640" s="2"/>
       <c r="O640" s="2"/>
       <c r="T640" s="2"/>
     </row>
-    <row r="641" spans="12:20" ht="25.9" customHeight="1">
+    <row r="641" spans="12:20" ht="25.95" customHeight="1">
       <c r="L641" s="2"/>
       <c r="M641" s="2"/>
       <c r="N641" s="2"/>
       <c r="O641" s="2"/>
       <c r="T641" s="2"/>
     </row>
-    <row r="642" spans="12:20" ht="25.9" customHeight="1">
+    <row r="642" spans="12:20" ht="25.95" customHeight="1">
       <c r="L642" s="2"/>
       <c r="M642" s="2"/>
       <c r="N642" s="2"/>
       <c r="O642" s="2"/>
       <c r="T642" s="2"/>
     </row>
-    <row r="643" spans="12:20" ht="25.9" customHeight="1">
+    <row r="643" spans="12:20" ht="25.95" customHeight="1">
       <c r="L643" s="2"/>
       <c r="M643" s="2"/>
       <c r="N643" s="2"/>
       <c r="O643" s="2"/>
       <c r="T643" s="2"/>
     </row>
-    <row r="644" spans="12:20" ht="25.9" customHeight="1">
+    <row r="644" spans="12:20" ht="25.95" customHeight="1">
       <c r="L644" s="2"/>
       <c r="M644" s="2"/>
       <c r="N644" s="2"/>
       <c r="O644" s="2"/>
       <c r="T644" s="2"/>
     </row>
-    <row r="645" spans="12:20" ht="25.9" customHeight="1">
+    <row r="645" spans="12:20" ht="25.95" customHeight="1">
       <c r="L645" s="2"/>
       <c r="M645" s="2"/>
       <c r="N645" s="2"/>
       <c r="O645" s="2"/>
       <c r="T645" s="2"/>
     </row>
-    <row r="646" spans="12:20" ht="25.9" customHeight="1">
+    <row r="646" spans="12:20" ht="25.95" customHeight="1">
       <c r="L646" s="2"/>
       <c r="M646" s="2"/>
       <c r="N646" s="2"/>
       <c r="O646" s="2"/>
       <c r="T646" s="2"/>
     </row>
-    <row r="647" spans="12:20" ht="25.9" customHeight="1">
+    <row r="647" spans="12:20" ht="25.95" customHeight="1">
       <c r="L647" s="2"/>
       <c r="M647" s="2"/>
       <c r="N647" s="2"/>
       <c r="O647" s="2"/>
       <c r="T647" s="2"/>
     </row>
-    <row r="648" spans="12:20" ht="25.9" customHeight="1">
+    <row r="648" spans="12:20" ht="25.95" customHeight="1">
       <c r="L648" s="2"/>
       <c r="M648" s="2"/>
       <c r="N648" s="2"/>
       <c r="O648" s="2"/>
       <c r="T648" s="2"/>
     </row>
-    <row r="649" spans="12:20" ht="25.9" customHeight="1">
+    <row r="649" spans="12:20" ht="25.95" customHeight="1">
       <c r="L649" s="2"/>
       <c r="M649" s="2"/>
       <c r="N649" s="2"/>
       <c r="O649" s="2"/>
       <c r="T649" s="2"/>
     </row>
-    <row r="650" spans="12:20" ht="25.9" customHeight="1">
+    <row r="650" spans="12:20" ht="25.95" customHeight="1">
       <c r="L650" s="2"/>
       <c r="M650" s="2"/>
       <c r="N650" s="2"/>
       <c r="O650" s="2"/>
       <c r="T650" s="2"/>
     </row>
-    <row r="651" spans="12:20" ht="25.9" customHeight="1">
+    <row r="651" spans="12:20" ht="25.95" customHeight="1">
       <c r="L651" s="2"/>
       <c r="M651" s="2"/>
       <c r="N651" s="2"/>
       <c r="O651" s="2"/>
       <c r="T651" s="2"/>
     </row>
-    <row r="652" spans="12:20" ht="25.9" customHeight="1">
+    <row r="652" spans="12:20" ht="25.95" customHeight="1">
       <c r="L652" s="2"/>
       <c r="M652" s="2"/>
       <c r="N652" s="2"/>
       <c r="O652" s="2"/>
       <c r="T652" s="2"/>
     </row>
-    <row r="653" spans="12:20" ht="25.9" customHeight="1">
+    <row r="653" spans="12:20" ht="25.95" customHeight="1">
       <c r="L653" s="2"/>
       <c r="M653" s="2"/>
       <c r="N653" s="2"/>
       <c r="O653" s="2"/>
       <c r="T653" s="2"/>
     </row>
-    <row r="654" spans="12:20" ht="25.9" customHeight="1">
+    <row r="654" spans="12:20" ht="25.95" customHeight="1">
       <c r="L654" s="2"/>
       <c r="M654" s="2"/>
       <c r="N654" s="2"/>
       <c r="O654" s="2"/>
       <c r="T654" s="2"/>
     </row>
-    <row r="655" spans="12:20" ht="25.9" customHeight="1">
+    <row r="655" spans="12:20" ht="25.95" customHeight="1">
       <c r="L655" s="2"/>
       <c r="M655" s="2"/>
       <c r="N655" s="2"/>
       <c r="O655" s="2"/>
       <c r="T655" s="2"/>
     </row>
-    <row r="656" spans="12:20" ht="25.9" customHeight="1">
+    <row r="656" spans="12:20" ht="25.95" customHeight="1">
       <c r="L656" s="2"/>
       <c r="M656" s="2"/>
       <c r="N656" s="2"/>
       <c r="O656" s="2"/>
       <c r="T656" s="2"/>
     </row>
-    <row r="657" spans="12:20" ht="25.9" customHeight="1">
+    <row r="657" spans="12:20" ht="25.95" customHeight="1">
       <c r="L657" s="2"/>
       <c r="M657" s="2"/>
       <c r="N657" s="2"/>
       <c r="O657" s="2"/>
       <c r="T657" s="2"/>
     </row>
-    <row r="658" spans="12:20" ht="25.9" customHeight="1">
+    <row r="658" spans="12:20" ht="25.95" customHeight="1">
       <c r="L658" s="2"/>
       <c r="M658" s="2"/>
       <c r="N658" s="2"/>
       <c r="O658" s="2"/>
       <c r="T658" s="2"/>
     </row>
-    <row r="659" spans="12:20" ht="25.9" customHeight="1">
+    <row r="659" spans="12:20" ht="25.95" customHeight="1">
       <c r="L659" s="2"/>
       <c r="M659" s="2"/>
       <c r="N659" s="2"/>
       <c r="O659" s="2"/>
       <c r="T659" s="2"/>
     </row>
-    <row r="660" spans="12:20" ht="25.9" customHeight="1">
+    <row r="660" spans="12:20" ht="25.95" customHeight="1">
       <c r="L660" s="2"/>
       <c r="M660" s="2"/>
       <c r="N660" s="2"/>
       <c r="O660" s="2"/>
       <c r="T660" s="2"/>
     </row>
-    <row r="661" spans="12:20" ht="25.9" customHeight="1">
+    <row r="661" spans="12:20" ht="25.95" customHeight="1">
       <c r="L661" s="2"/>
       <c r="M661" s="2"/>
       <c r="N661" s="2"/>
       <c r="O661" s="2"/>
       <c r="T661" s="2"/>
     </row>
-    <row r="662" spans="12:20" ht="25.9" customHeight="1">
+    <row r="662" spans="12:20" ht="25.95" customHeight="1">
       <c r="L662" s="2"/>
       <c r="M662" s="2"/>
       <c r="N662" s="2"/>
       <c r="O662" s="2"/>
       <c r="T662" s="2"/>
     </row>
-    <row r="663" spans="12:20" ht="25.9" customHeight="1">
+    <row r="663" spans="12:20" ht="25.95" customHeight="1">
       <c r="L663" s="2"/>
       <c r="M663" s="2"/>
       <c r="N663" s="2"/>
       <c r="O663" s="2"/>
       <c r="T663" s="2"/>
     </row>
-    <row r="664" spans="12:20" ht="25.9" customHeight="1">
+    <row r="664" spans="12:20" ht="25.95" customHeight="1">
       <c r="L664" s="2"/>
       <c r="M664" s="2"/>
       <c r="N664" s="2"/>
       <c r="O664" s="2"/>
       <c r="T664" s="2"/>
     </row>
-    <row r="665" spans="12:20" ht="25.9" customHeight="1">
+    <row r="665" spans="12:20" ht="25.95" customHeight="1">
       <c r="L665" s="2"/>
       <c r="M665" s="2"/>
       <c r="N665" s="2"/>
       <c r="O665" s="2"/>
       <c r="T665" s="2"/>
     </row>
-    <row r="666" spans="12:20" ht="25.9" customHeight="1">
+    <row r="666" spans="12:20" ht="25.95" customHeight="1">
       <c r="L666" s="2"/>
       <c r="M666" s="2"/>
       <c r="N666" s="2"/>
       <c r="O666" s="2"/>
       <c r="T666" s="2"/>
     </row>
-    <row r="667" spans="12:20" ht="25.9" customHeight="1">
+    <row r="667" spans="12:20" ht="25.95" customHeight="1">
       <c r="L667" s="2"/>
       <c r="M667" s="2"/>
       <c r="N667" s="2"/>
       <c r="O667" s="2"/>
       <c r="T667" s="2"/>
     </row>
-    <row r="668" spans="12:20" ht="25.9" customHeight="1">
+    <row r="668" spans="12:20" ht="25.95" customHeight="1">
       <c r="L668" s="2"/>
       <c r="M668" s="2"/>
       <c r="N668" s="2"/>
       <c r="O668" s="2"/>
       <c r="T668" s="2"/>
     </row>
-    <row r="669" spans="12:20" ht="25.9" customHeight="1">
+    <row r="669" spans="12:20" ht="25.95" customHeight="1">
       <c r="L669" s="2"/>
       <c r="M669" s="2"/>
       <c r="N669" s="2"/>
       <c r="O669" s="2"/>
       <c r="T669" s="2"/>
     </row>
-    <row r="670" spans="12:20" ht="25.9" customHeight="1">
+    <row r="670" spans="12:20" ht="25.95" customHeight="1">
       <c r="L670" s="2"/>
       <c r="M670" s="2"/>
       <c r="N670" s="2"/>
       <c r="O670" s="2"/>
       <c r="T670" s="2"/>
     </row>
-    <row r="671" spans="12:20" ht="25.9" customHeight="1">
+    <row r="671" spans="12:20" ht="25.95" customHeight="1">
       <c r="L671" s="2"/>
       <c r="M671" s="2"/>
       <c r="N671" s="2"/>
       <c r="O671" s="2"/>
       <c r="T671" s="2"/>
     </row>
-    <row r="672" spans="12:20" ht="25.9" customHeight="1">
+    <row r="672" spans="12:20" ht="25.95" customHeight="1">
       <c r="L672" s="2"/>
       <c r="M672" s="2"/>
       <c r="N672" s="2"/>
       <c r="O672" s="2"/>
       <c r="T672" s="2"/>
     </row>
-    <row r="673" spans="12:20" ht="25.9" customHeight="1">
+    <row r="673" spans="12:20" ht="25.95" customHeight="1">
       <c r="L673" s="2"/>
       <c r="M673" s="2"/>
       <c r="N673" s="2"/>
       <c r="O673" s="2"/>
       <c r="T673" s="2"/>
     </row>
-    <row r="674" spans="12:20" ht="25.9" customHeight="1">
+    <row r="674" spans="12:20" ht="25.95" customHeight="1">
       <c r="L674" s="2"/>
       <c r="M674" s="2"/>
       <c r="N674" s="2"/>
       <c r="O674" s="2"/>
       <c r="T674" s="2"/>
     </row>
-    <row r="675" spans="12:20" ht="25.9" customHeight="1">
+    <row r="675" spans="12:20" ht="25.95" customHeight="1">
       <c r="L675" s="2"/>
       <c r="M675" s="2"/>
       <c r="N675" s="2"/>
       <c r="O675" s="2"/>
       <c r="T675" s="2"/>
     </row>
-    <row r="676" spans="12:20" ht="25.9" customHeight="1">
+    <row r="676" spans="12:20" ht="25.95" customHeight="1">
       <c r="L676" s="2"/>
       <c r="M676" s="2"/>
       <c r="N676" s="2"/>
       <c r="O676" s="2"/>
       <c r="T676" s="2"/>
     </row>
-    <row r="677" spans="12:20" ht="25.9" customHeight="1">
+    <row r="677" spans="12:20" ht="25.95" customHeight="1">
       <c r="L677" s="2"/>
       <c r="M677" s="2"/>
       <c r="N677" s="2"/>
       <c r="O677" s="2"/>
       <c r="T677" s="2"/>
     </row>
-    <row r="678" spans="12:20" ht="25.9" customHeight="1">
+    <row r="678" spans="12:20" ht="25.95" customHeight="1">
       <c r="L678" s="2"/>
       <c r="M678" s="2"/>
       <c r="N678" s="2"/>
       <c r="O678" s="2"/>
       <c r="T678" s="2"/>
     </row>
-    <row r="679" spans="12:20" ht="25.9" customHeight="1">
+    <row r="679" spans="12:20" ht="25.95" customHeight="1">
       <c r="L679" s="2"/>
       <c r="M679" s="2"/>
       <c r="N679" s="2"/>
       <c r="O679" s="2"/>
       <c r="T679" s="2"/>
     </row>
-    <row r="680" spans="12:20" ht="25.9" customHeight="1">
+    <row r="680" spans="12:20" ht="25.95" customHeight="1">
       <c r="L680" s="2"/>
       <c r="M680" s="2"/>
       <c r="N680" s="2"/>
       <c r="O680" s="2"/>
       <c r="T680" s="2"/>
     </row>
-    <row r="681" spans="12:20" ht="25.9" customHeight="1">
+    <row r="681" spans="12:20" ht="25.95" customHeight="1">
       <c r="L681" s="2"/>
       <c r="M681" s="2"/>
       <c r="N681" s="2"/>
       <c r="O681" s="2"/>
       <c r="T681" s="2"/>
     </row>
-    <row r="682" spans="12:20" ht="25.9" customHeight="1">
+    <row r="682" spans="12:20" ht="25.95" customHeight="1">
       <c r="L682" s="2"/>
       <c r="M682" s="2"/>
       <c r="N682" s="2"/>
       <c r="O682" s="2"/>
       <c r="T682" s="2"/>
     </row>
-    <row r="683" spans="12:20" ht="25.9" customHeight="1">
+    <row r="683" spans="12:20" ht="25.95" customHeight="1">
       <c r="L683" s="2"/>
       <c r="M683" s="2"/>
       <c r="N683" s="2"/>
       <c r="O683" s="2"/>
       <c r="T683" s="2"/>
     </row>
-    <row r="684" spans="12:20" ht="25.9" customHeight="1">
+    <row r="684" spans="12:20" ht="25.95" customHeight="1">
       <c r="L684" s="2"/>
       <c r="M684" s="2"/>
       <c r="N684" s="2"/>
       <c r="O684" s="2"/>
       <c r="T684" s="2"/>
     </row>
-    <row r="685" spans="12:20" ht="25.9" customHeight="1">
+    <row r="685" spans="12:20" ht="25.95" customHeight="1">
       <c r="L685" s="2"/>
       <c r="M685" s="2"/>
       <c r="N685" s="2"/>
       <c r="O685" s="2"/>
       <c r="T685" s="2"/>
     </row>
-    <row r="686" spans="12:20" ht="25.9" customHeight="1">
+    <row r="686" spans="12:20" ht="25.95" customHeight="1">
       <c r="L686" s="2"/>
       <c r="M686" s="2"/>
       <c r="N686" s="2"/>
       <c r="O686" s="2"/>
       <c r="T686" s="2"/>
     </row>
-    <row r="687" spans="12:20" ht="25.9" customHeight="1">
+    <row r="687" spans="12:20" ht="25.95" customHeight="1">
       <c r="L687" s="2"/>
       <c r="M687" s="2"/>
       <c r="N687" s="2"/>
       <c r="O687" s="2"/>
       <c r="T687" s="2"/>
     </row>
-    <row r="688" spans="12:20" ht="25.9" customHeight="1">
+    <row r="688" spans="12:20" ht="25.95" customHeight="1">
       <c r="L688" s="2"/>
       <c r="M688" s="2"/>
       <c r="N688" s="2"/>
       <c r="O688" s="2"/>
       <c r="T688" s="2"/>
     </row>
-    <row r="689" spans="12:20" ht="25.9" customHeight="1">
+    <row r="689" spans="12:20" ht="25.95" customHeight="1">
       <c r="L689" s="2"/>
       <c r="M689" s="2"/>
       <c r="N689" s="2"/>
       <c r="O689" s="2"/>
       <c r="T689" s="2"/>
     </row>
-    <row r="690" spans="12:20" ht="25.9" customHeight="1">
+    <row r="690" spans="12:20" ht="25.95" customHeight="1">
       <c r="L690" s="2"/>
       <c r="M690" s="2"/>
       <c r="N690" s="2"/>
       <c r="O690" s="2"/>
       <c r="T690" s="2"/>
     </row>
-    <row r="691" spans="12:20" ht="25.9" customHeight="1">
+    <row r="691" spans="12:20" ht="25.95" customHeight="1">
       <c r="L691" s="2"/>
       <c r="M691" s="2"/>
       <c r="N691" s="2"/>
       <c r="O691" s="2"/>
       <c r="T691" s="2"/>
     </row>
-    <row r="692" spans="12:20" ht="25.9" customHeight="1">
+    <row r="692" spans="12:20" ht="25.95" customHeight="1">
       <c r="L692" s="2"/>
       <c r="M692" s="2"/>
       <c r="N692" s="2"/>
       <c r="O692" s="2"/>
       <c r="T692" s="2"/>
     </row>
-    <row r="693" spans="12:20" ht="25.9" customHeight="1">
+    <row r="693" spans="12:20" ht="25.95" customHeight="1">
       <c r="L693" s="2"/>
       <c r="M693" s="2"/>
       <c r="N693" s="2"/>
       <c r="O693" s="2"/>
       <c r="T693" s="2"/>
     </row>
-    <row r="694" spans="12:20" ht="25.9" customHeight="1">
+    <row r="694" spans="12:20" ht="25.95" customHeight="1">
       <c r="L694" s="2"/>
       <c r="M694" s="2"/>
       <c r="N694" s="2"/>
       <c r="O694" s="2"/>
       <c r="T694" s="2"/>
     </row>
-    <row r="695" spans="12:20" ht="25.9" customHeight="1">
+    <row r="695" spans="12:20" ht="25.95" customHeight="1">
       <c r="L695" s="2"/>
       <c r="M695" s="2"/>
       <c r="N695" s="2"/>
       <c r="O695" s="2"/>
       <c r="T695" s="2"/>
     </row>
-    <row r="696" spans="12:20" ht="25.9" customHeight="1">
+    <row r="696" spans="12:20" ht="25.95" customHeight="1">
       <c r="L696" s="2"/>
       <c r="M696" s="2"/>
       <c r="N696" s="2"/>
       <c r="O696" s="2"/>
       <c r="T696" s="2"/>
     </row>
-    <row r="697" spans="12:20" ht="25.9" customHeight="1">
+    <row r="697" spans="12:20" ht="25.95" customHeight="1">
       <c r="L697" s="2"/>
       <c r="M697" s="2"/>
       <c r="N697" s="2"/>
       <c r="O697" s="2"/>
       <c r="T697" s="2"/>
     </row>
-    <row r="698" spans="12:20" ht="25.9" customHeight="1">
+    <row r="698" spans="12:20" ht="25.95" customHeight="1">
       <c r="L698" s="2"/>
       <c r="M698" s="2"/>
       <c r="N698" s="2"/>
       <c r="O698" s="2"/>
       <c r="T698" s="2"/>
     </row>
-    <row r="699" spans="12:20" ht="25.9" customHeight="1">
+    <row r="699" spans="12:20" ht="25.95" customHeight="1">
       <c r="L699" s="2"/>
       <c r="M699" s="2"/>
       <c r="N699" s="2"/>
       <c r="O699" s="2"/>
       <c r="T699" s="2"/>
     </row>
-    <row r="700" spans="12:20" ht="25.9" customHeight="1">
+    <row r="700" spans="12:20" ht="25.95" customHeight="1">
       <c r="L700" s="2"/>
       <c r="M700" s="2"/>
       <c r="N700" s="2"/>
       <c r="O700" s="2"/>
       <c r="T700" s="2"/>
     </row>
-    <row r="701" spans="12:20" ht="25.9" customHeight="1">
+    <row r="701" spans="12:20" ht="25.95" customHeight="1">
       <c r="L701" s="2"/>
       <c r="M701" s="2"/>
       <c r="N701" s="2"/>
       <c r="O701" s="2"/>
       <c r="T701" s="2"/>
     </row>
-    <row r="702" spans="12:20" ht="25.9" customHeight="1">
+    <row r="702" spans="12:20" ht="25.95" customHeight="1">
       <c r="L702" s="2"/>
       <c r="M702" s="2"/>
       <c r="N702" s="2"/>
       <c r="O702" s="2"/>
       <c r="T702" s="2"/>
     </row>
-    <row r="703" spans="12:20" ht="25.9" customHeight="1">
+    <row r="703" spans="12:20" ht="25.95" customHeight="1">
       <c r="L703" s="2"/>
       <c r="M703" s="2"/>
       <c r="N703" s="2"/>
       <c r="O703" s="2"/>
       <c r="T703" s="2"/>
     </row>
-    <row r="704" spans="12:20" ht="25.9" customHeight="1">
+    <row r="704" spans="12:20" ht="25.95" customHeight="1">
       <c r="L704" s="2"/>
       <c r="M704" s="2"/>
       <c r="N704" s="2"/>
       <c r="O704" s="2"/>
       <c r="T704" s="2"/>
     </row>
-    <row r="705" spans="12:20" ht="25.9" customHeight="1">
+    <row r="705" spans="12:20" ht="25.95" customHeight="1">
       <c r="L705" s="2"/>
       <c r="M705" s="2"/>
       <c r="N705" s="2"/>
       <c r="O705" s="2"/>
       <c r="T705" s="2"/>
     </row>
-    <row r="706" spans="12:20" ht="25.9" customHeight="1">
+    <row r="706" spans="12:20" ht="25.95" customHeight="1">
       <c r="L706" s="2"/>
       <c r="M706" s="2"/>
       <c r="N706" s="2"/>
       <c r="O706" s="2"/>
       <c r="T706" s="2"/>
     </row>
-    <row r="707" spans="12:20" ht="25.9" customHeight="1">
+    <row r="707" spans="12:20" ht="25.95" customHeight="1">
       <c r="L707" s="2"/>
       <c r="M707" s="2"/>
       <c r="N707" s="2"/>
       <c r="O707" s="2"/>
       <c r="T707" s="2"/>
     </row>
-    <row r="708" spans="12:20" ht="25.9" customHeight="1">
+    <row r="708" spans="12:20" ht="25.95" customHeight="1">
       <c r="L708" s="2"/>
       <c r="M708" s="2"/>
       <c r="N708" s="2"/>
       <c r="O708" s="2"/>
       <c r="T708" s="2"/>
     </row>
-    <row r="709" spans="12:20" ht="25.9" customHeight="1">
+    <row r="709" spans="12:20" ht="25.95" customHeight="1">
       <c r="L709" s="2"/>
       <c r="M709" s="2"/>
       <c r="N709" s="2"/>
       <c r="O709" s="2"/>
       <c r="T709" s="2"/>
     </row>
-    <row r="710" spans="12:20" ht="25.9" customHeight="1">
+    <row r="710" spans="12:20" ht="25.95" customHeight="1">
       <c r="L710" s="2"/>
       <c r="M710" s="2"/>
       <c r="N710" s="2"/>
       <c r="O710" s="2"/>
       <c r="T710" s="2"/>
     </row>
-    <row r="711" spans="12:20" ht="25.9" customHeight="1">
+    <row r="711" spans="12:20" ht="25.95" customHeight="1">
       <c r="L711" s="2"/>
       <c r="M711" s="2"/>
       <c r="N711" s="2"/>
       <c r="O711" s="2"/>
       <c r="T711" s="2"/>
     </row>
-    <row r="712" spans="12:20" ht="25.9" customHeight="1">
+    <row r="712" spans="12:20" ht="25.95" customHeight="1">
       <c r="L712" s="2"/>
       <c r="M712" s="2"/>
       <c r="N712" s="2"/>
       <c r="O712" s="2"/>
       <c r="T712" s="2"/>
     </row>
-    <row r="713" spans="12:20" ht="25.9" customHeight="1">
+    <row r="713" spans="12:20" ht="25.95" customHeight="1">
       <c r="L713" s="2"/>
       <c r="M713" s="2"/>
       <c r="N713" s="2"/>
       <c r="O713" s="2"/>
       <c r="T713" s="2"/>
     </row>
-    <row r="714" spans="12:20" ht="25.9" customHeight="1">
+    <row r="714" spans="12:20" ht="25.95" customHeight="1">
       <c r="L714" s="2"/>
       <c r="M714" s="2"/>
       <c r="N714" s="2"/>
       <c r="O714" s="2"/>
       <c r="T714" s="2"/>
     </row>
-    <row r="715" spans="12:20" ht="25.9" customHeight="1">
+    <row r="715" spans="12:20" ht="25.95" customHeight="1">
       <c r="L715" s="2"/>
       <c r="M715" s="2"/>
       <c r="N715" s="2"/>
       <c r="O715" s="2"/>
       <c r="T715" s="2"/>
     </row>
-    <row r="716" spans="12:20" ht="25.9" customHeight="1">
+    <row r="716" spans="12:20" ht="25.95" customHeight="1">
       <c r="L716" s="2"/>
       <c r="M716" s="2"/>
       <c r="N716" s="2"/>
       <c r="O716" s="2"/>
       <c r="T716" s="2"/>
     </row>
-    <row r="717" spans="12:20" ht="25.9" customHeight="1">
+    <row r="717" spans="12:20" ht="25.95" customHeight="1">
       <c r="L717" s="2"/>
       <c r="M717" s="2"/>
       <c r="N717" s="2"/>
       <c r="O717" s="2"/>
       <c r="T717" s="2"/>
     </row>
-    <row r="718" spans="12:20" ht="25.9" customHeight="1">
+    <row r="718" spans="12:20" ht="25.95" customHeight="1">
       <c r="L718" s="2"/>
       <c r="M718" s="2"/>
       <c r="N718" s="2"/>
       <c r="O718" s="2"/>
       <c r="T718" s="2"/>
     </row>
-    <row r="719" spans="12:20" ht="25.9" customHeight="1">
+    <row r="719" spans="12:20" ht="25.95" customHeight="1">
       <c r="L719" s="2"/>
       <c r="M719" s="2"/>
       <c r="N719" s="2"/>
       <c r="O719" s="2"/>
       <c r="T719" s="2"/>
     </row>
-    <row r="720" spans="12:20" ht="25.9" customHeight="1">
+    <row r="720" spans="12:20" ht="25.95" customHeight="1">
       <c r="L720" s="2"/>
       <c r="M720" s="2"/>
       <c r="N720" s="2"/>
       <c r="O720" s="2"/>
       <c r="T720" s="2"/>
     </row>
-    <row r="721" spans="12:20" ht="25.9" customHeight="1">
+    <row r="721" spans="12:20" ht="25.95" customHeight="1">
       <c r="L721" s="2"/>
       <c r="M721" s="2"/>
       <c r="N721" s="2"/>
       <c r="O721" s="2"/>
       <c r="T721" s="2"/>
     </row>
-    <row r="722" spans="12:20" ht="25.9" customHeight="1">
+    <row r="722" spans="12:20" ht="25.95" customHeight="1">
       <c r="L722" s="2"/>
       <c r="M722" s="2"/>
       <c r="N722" s="2"/>
       <c r="O722" s="2"/>
       <c r="T722" s="2"/>
     </row>
-    <row r="723" spans="12:20" ht="25.9" customHeight="1">
+    <row r="723" spans="12:20" ht="25.95" customHeight="1">
       <c r="L723" s="2"/>
       <c r="M723" s="2"/>
       <c r="N723" s="2"/>
       <c r="O723" s="2"/>
       <c r="T723" s="2"/>
     </row>
-    <row r="724" spans="12:20" ht="25.9" customHeight="1">
+    <row r="724" spans="12:20" ht="25.95" customHeight="1">
       <c r="L724" s="2"/>
       <c r="M724" s="2"/>
       <c r="N724" s="2"/>
       <c r="O724" s="2"/>
       <c r="T724" s="2"/>
     </row>
-    <row r="725" spans="12:20" ht="25.9" customHeight="1">
+    <row r="725" spans="12:20" ht="25.95" customHeight="1">
       <c r="L725" s="2"/>
       <c r="M725" s="2"/>
       <c r="N725" s="2"/>
       <c r="O725" s="2"/>
       <c r="T725" s="2"/>
     </row>
-    <row r="726" spans="12:20" ht="25.9" customHeight="1">
+    <row r="726" spans="12:20" ht="25.95" customHeight="1">
       <c r="L726" s="2"/>
       <c r="M726" s="2"/>
       <c r="N726" s="2"/>
       <c r="O726" s="2"/>
       <c r="T726" s="2"/>
     </row>
-    <row r="727" spans="12:20" ht="25.9" customHeight="1">
+    <row r="727" spans="12:20" ht="25.95" customHeight="1">
       <c r="L727" s="2"/>
       <c r="M727" s="2"/>
       <c r="N727" s="2"/>
       <c r="O727" s="2"/>
       <c r="T727" s="2"/>
     </row>
-    <row r="728" spans="12:20" ht="25.9" customHeight="1">
+    <row r="728" spans="12:20" ht="25.95" customHeight="1">
       <c r="L728" s="2"/>
       <c r="M728" s="2"/>
       <c r="N728" s="2"/>
       <c r="O728" s="2"/>
       <c r="T728" s="2"/>
     </row>
-    <row r="729" spans="12:20" ht="25.9" customHeight="1">
+    <row r="729" spans="12:20" ht="25.95" customHeight="1">
       <c r="L729" s="2"/>
       <c r="M729" s="2"/>
       <c r="N729" s="2"/>
       <c r="O729" s="2"/>
       <c r="T729" s="2"/>
     </row>
-    <row r="730" spans="12:20" ht="25.9" customHeight="1">
+    <row r="730" spans="12:20" ht="25.95" customHeight="1">
       <c r="L730" s="2"/>
       <c r="M730" s="2"/>
       <c r="N730" s="2"/>
       <c r="O730" s="2"/>
       <c r="T730" s="2"/>
     </row>
-    <row r="731" spans="12:20" ht="25.9" customHeight="1">
+    <row r="731" spans="12:20" ht="25.95" customHeight="1">
       <c r="L731" s="2"/>
       <c r="M731" s="2"/>
       <c r="N731" s="2"/>
       <c r="O731" s="2"/>
       <c r="T731" s="2"/>
     </row>
-    <row r="732" spans="12:20" ht="25.9" customHeight="1">
+    <row r="732" spans="12:20" ht="25.95" customHeight="1">
       <c r="L732" s="2"/>
       <c r="M732" s="2"/>
       <c r="N732" s="2"/>
       <c r="O732" s="2"/>
       <c r="T732" s="2"/>
     </row>
-    <row r="733" spans="12:20" ht="25.9" customHeight="1">
+    <row r="733" spans="12:20" ht="25.95" customHeight="1">
       <c r="L733" s="2"/>
       <c r="M733" s="2"/>
       <c r="N733" s="2"/>
       <c r="O733" s="2"/>
       <c r="T733" s="2"/>
     </row>
-    <row r="734" spans="12:20" ht="25.9" customHeight="1">
+    <row r="734" spans="12:20" ht="25.95" customHeight="1">
       <c r="L734" s="2"/>
       <c r="M734" s="2"/>
       <c r="N734" s="2"/>
       <c r="O734" s="2"/>
       <c r="T734" s="2"/>
     </row>
-    <row r="735" spans="12:20" ht="25.9" customHeight="1">
+    <row r="735" spans="12:20" ht="25.95" customHeight="1">
       <c r="L735" s="2"/>
       <c r="M735" s="2"/>
       <c r="N735" s="2"/>
       <c r="O735" s="2"/>
       <c r="T735" s="2"/>
     </row>
-    <row r="736" spans="12:20" ht="25.9" customHeight="1">
+    <row r="736" spans="12:20" ht="25.95" customHeight="1">
       <c r="L736" s="2"/>
       <c r="M736" s="2"/>
       <c r="N736" s="2"/>
       <c r="O736" s="2"/>
       <c r="T736" s="2"/>
     </row>
-    <row r="737" spans="12:20" ht="25.9" customHeight="1">
+    <row r="737" spans="12:20" ht="25.95" customHeight="1">
       <c r="L737" s="2"/>
       <c r="M737" s="2"/>
       <c r="N737" s="2"/>
       <c r="O737" s="2"/>
       <c r="T737" s="2"/>
     </row>
-    <row r="738" spans="12:20" ht="25.9" customHeight="1">
+    <row r="738" spans="12:20" ht="25.95" customHeight="1">
       <c r="L738" s="2"/>
       <c r="M738" s="2"/>
       <c r="N738" s="2"/>
       <c r="O738" s="2"/>
       <c r="T738" s="2"/>
     </row>
-    <row r="739" spans="12:20" ht="25.9" customHeight="1">
+    <row r="739" spans="12:20" ht="25.95" customHeight="1">
       <c r="L739" s="2"/>
       <c r="M739" s="2"/>
       <c r="N739" s="2"/>
       <c r="O739" s="2"/>
       <c r="T739" s="2"/>
     </row>
-    <row r="740" spans="12:20" ht="25.9" customHeight="1">
+    <row r="740" spans="12:20" ht="25.95" customHeight="1">
       <c r="L740" s="2"/>
       <c r="M740" s="2"/>
       <c r="N740" s="2"/>
       <c r="O740" s="2"/>
       <c r="T740" s="2"/>
     </row>
-    <row r="741" spans="12:20" ht="25.9" customHeight="1">
+    <row r="741" spans="12:20" ht="25.95" customHeight="1">
       <c r="L741" s="2"/>
       <c r="M741" s="2"/>
       <c r="N741" s="2"/>
       <c r="O741" s="2"/>
       <c r="T741" s="2"/>
     </row>
-    <row r="742" spans="12:20" ht="25.9" customHeight="1">
+    <row r="742" spans="12:20" ht="25.95" customHeight="1">
       <c r="L742" s="2"/>
       <c r="M742" s="2"/>
       <c r="N742" s="2"/>
       <c r="O742" s="2"/>
       <c r="T742" s="2"/>
     </row>
-    <row r="743" spans="12:20" ht="25.9" customHeight="1">
+    <row r="743" spans="12:20" ht="25.95" customHeight="1">
       <c r="L743" s="2"/>
       <c r="M743" s="2"/>
       <c r="N743" s="2"/>
       <c r="O743" s="2"/>
       <c r="T743" s="2"/>
     </row>
-    <row r="744" spans="12:20" ht="25.9" customHeight="1">
+    <row r="744" spans="12:20" ht="25.95" customHeight="1">
       <c r="L744" s="2"/>
       <c r="M744" s="2"/>
       <c r="N744" s="2"/>
       <c r="O744" s="2"/>
       <c r="T744" s="2"/>
     </row>
-    <row r="745" spans="12:20" ht="25.9" customHeight="1">
+    <row r="745" spans="12:20" ht="25.95" customHeight="1">
       <c r="L745" s="2"/>
       <c r="M745" s="2"/>
       <c r="N745" s="2"/>
       <c r="O745" s="2"/>
       <c r="T745" s="2"/>
     </row>
-    <row r="746" spans="12:20" ht="25.9" customHeight="1">
+    <row r="746" spans="12:20" ht="25.95" customHeight="1">
       <c r="L746" s="2"/>
       <c r="M746" s="2"/>
       <c r="N746" s="2"/>
       <c r="O746" s="2"/>
       <c r="T746" s="2"/>
     </row>
-    <row r="747" spans="12:20" ht="25.9" customHeight="1">
+    <row r="747" spans="12:20" ht="25.95" customHeight="1">
       <c r="L747" s="2"/>
       <c r="M747" s="2"/>
       <c r="N747" s="2"/>
       <c r="O747" s="2"/>
       <c r="T747" s="2"/>
     </row>
-    <row r="748" spans="12:20" ht="25.9" customHeight="1">
+    <row r="748" spans="12:20" ht="25.95" customHeight="1">
       <c r="L748" s="2"/>
       <c r="M748" s="2"/>
       <c r="N748" s="2"/>
       <c r="O748" s="2"/>
       <c r="T748" s="2"/>
     </row>
-    <row r="749" spans="12:20" ht="25.9" customHeight="1">
+    <row r="749" spans="12:20" ht="25.95" customHeight="1">
       <c r="L749" s="2"/>
       <c r="M749" s="2"/>
       <c r="N749" s="2"/>
       <c r="O749" s="2"/>
       <c r="T749" s="2"/>
     </row>
-    <row r="750" spans="12:20" ht="25.9" customHeight="1">
+    <row r="750" spans="12:20" ht="25.95" customHeight="1">
       <c r="L750" s="2"/>
       <c r="M750" s="2"/>
       <c r="N750" s="2"/>
       <c r="O750" s="2"/>
       <c r="T750" s="2"/>
     </row>
-    <row r="751" spans="12:20" ht="25.9" customHeight="1">
+    <row r="751" spans="12:20" ht="25.95" customHeight="1">
       <c r="L751" s="2"/>
       <c r="M751" s="2"/>
       <c r="N751" s="2"/>
       <c r="O751" s="2"/>
       <c r="T751" s="2"/>
     </row>
-    <row r="752" spans="12:20" ht="25.9" customHeight="1">
+    <row r="752" spans="12:20" ht="25.95" customHeight="1">
       <c r="L752" s="2"/>
       <c r="M752" s="2"/>
       <c r="N752" s="2"/>
       <c r="O752" s="2"/>
       <c r="T752" s="2"/>
     </row>
-    <row r="753" spans="12:20" ht="25.9" customHeight="1">
+    <row r="753" spans="12:20" ht="25.95" customHeight="1">
       <c r="L753" s="2"/>
       <c r="M753" s="2"/>
       <c r="N753" s="2"/>
       <c r="O753" s="2"/>
       <c r="T753" s="2"/>
     </row>
-    <row r="754" spans="12:20" ht="25.9" customHeight="1">
+    <row r="754" spans="12:20" ht="25.95" customHeight="1">
       <c r="L754" s="2"/>
       <c r="M754" s="2"/>
       <c r="N754" s="2"/>
       <c r="O754" s="2"/>
       <c r="T754" s="2"/>
     </row>
-    <row r="755" spans="12:20" ht="25.9" customHeight="1">
+    <row r="755" spans="12:20" ht="25.95" customHeight="1">
       <c r="L755" s="2"/>
       <c r="M755" s="2"/>
       <c r="N755" s="2"/>
       <c r="O755" s="2"/>
       <c r="T755" s="2"/>
     </row>
-    <row r="756" spans="12:20" ht="25.9" customHeight="1">
+    <row r="756" spans="12:20" ht="25.95" customHeight="1">
       <c r="L756" s="2"/>
       <c r="M756" s="2"/>
       <c r="N756" s="2"/>
       <c r="O756" s="2"/>
       <c r="T756" s="2"/>
     </row>
-    <row r="757" spans="12:20" ht="25.9" customHeight="1">
+    <row r="757" spans="12:20" ht="25.95" customHeight="1">
       <c r="L757" s="2"/>
       <c r="M757" s="2"/>
       <c r="N757" s="2"/>
       <c r="O757" s="2"/>
       <c r="T757" s="2"/>
     </row>
-    <row r="758" spans="12:20" ht="25.9" customHeight="1">
+    <row r="758" spans="12:20" ht="25.95" customHeight="1">
       <c r="L758" s="2"/>
       <c r="M758" s="2"/>
       <c r="N758" s="2"/>
       <c r="O758" s="2"/>
       <c r="T758" s="2"/>
     </row>
-    <row r="759" spans="12:20" ht="25.9" customHeight="1">
+    <row r="759" spans="12:20" ht="25.95" customHeight="1">
       <c r="L759" s="2"/>
       <c r="M759" s="2"/>
       <c r="N759" s="2"/>
       <c r="O759" s="2"/>
       <c r="T759" s="2"/>
     </row>
-    <row r="760" spans="12:20" ht="25.9" customHeight="1">
+    <row r="760" spans="12:20" ht="25.95" customHeight="1">
       <c r="L760" s="2"/>
       <c r="M760" s="2"/>
       <c r="N760" s="2"/>
       <c r="O760" s="2"/>
       <c r="T760" s="2"/>
     </row>
-    <row r="761" spans="12:20" ht="25.9" customHeight="1">
+    <row r="761" spans="12:20" ht="25.95" customHeight="1">
       <c r="L761" s="2"/>
       <c r="M761" s="2"/>
       <c r="N761" s="2"/>
       <c r="O761" s="2"/>
       <c r="T761" s="2"/>
     </row>
-    <row r="762" spans="12:20" ht="25.9" customHeight="1">
+    <row r="762" spans="12:20" ht="25.95" customHeight="1">
       <c r="L762" s="2"/>
       <c r="M762" s="2"/>
       <c r="N762" s="2"/>
       <c r="O762" s="2"/>
       <c r="T762" s="2"/>
     </row>
-    <row r="763" spans="12:20" ht="25.9" customHeight="1">
+    <row r="763" spans="12:20" ht="25.95" customHeight="1">
       <c r="L763" s="2"/>
       <c r="M763" s="2"/>
       <c r="N763" s="2"/>
       <c r="O763" s="2"/>
       <c r="T763" s="2"/>
     </row>
-    <row r="764" spans="12:20" ht="25.9" customHeight="1">
+    <row r="764" spans="12:20" ht="25.95" customHeight="1">
       <c r="L764" s="2"/>
       <c r="M764" s="2"/>
       <c r="N764" s="2"/>
       <c r="O764" s="2"/>
       <c r="T764" s="2"/>
     </row>
-    <row r="765" spans="12:20" ht="25.9" customHeight="1">
+    <row r="765" spans="12:20" ht="25.95" customHeight="1">
       <c r="L765" s="2"/>
       <c r="M765" s="2"/>
       <c r="N765" s="2"/>
       <c r="O765" s="2"/>
       <c r="T765" s="2"/>
     </row>
-    <row r="766" spans="12:20" ht="25.9" customHeight="1">
+    <row r="766" spans="12:20" ht="25.95" customHeight="1">
       <c r="L766" s="2"/>
       <c r="M766" s="2"/>
       <c r="N766" s="2"/>
       <c r="O766" s="2"/>
       <c r="T766" s="2"/>
     </row>
-    <row r="767" spans="12:20" ht="25.9" customHeight="1">
+    <row r="767" spans="12:20" ht="25.95" customHeight="1">
       <c r="L767" s="2"/>
       <c r="M767" s="2"/>
       <c r="N767" s="2"/>
       <c r="O767" s="2"/>
       <c r="T767" s="2"/>
     </row>
-    <row r="768" spans="12:20" ht="25.9" customHeight="1">
+    <row r="768" spans="12:20" ht="25.95" customHeight="1">
       <c r="L768" s="2"/>
       <c r="M768" s="2"/>
       <c r="N768" s="2"/>
       <c r="O768" s="2"/>
       <c r="T768" s="2"/>
     </row>
-    <row r="769" spans="12:20" ht="25.9" customHeight="1">
+    <row r="769" spans="12:20" ht="25.95" customHeight="1">
       <c r="L769" s="2"/>
       <c r="M769" s="2"/>
       <c r="N769" s="2"/>
       <c r="O769" s="2"/>
       <c r="T769" s="2"/>
     </row>
-    <row r="770" spans="12:20" ht="25.9" customHeight="1">
+    <row r="770" spans="12:20" ht="25.95" customHeight="1">
       <c r="L770" s="2"/>
       <c r="M770" s="2"/>
       <c r="N770" s="2"/>
       <c r="O770" s="2"/>
       <c r="T770" s="2"/>
     </row>
-    <row r="771" spans="12:20" ht="25.9" customHeight="1">
+    <row r="771" spans="12:20" ht="25.95" customHeight="1">
       <c r="L771" s="2"/>
       <c r="M771" s="2"/>
       <c r="N771" s="2"/>
       <c r="O771" s="2"/>
       <c r="T771" s="2"/>
     </row>
-    <row r="772" spans="12:20" ht="25.9" customHeight="1">
+    <row r="772" spans="12:20" ht="25.95" customHeight="1">
       <c r="L772" s="2"/>
       <c r="M772" s="2"/>
       <c r="N772" s="2"/>
       <c r="O772" s="2"/>
       <c r="T772" s="2"/>
     </row>
-    <row r="773" spans="12:20" ht="25.9" customHeight="1">
+    <row r="773" spans="12:20" ht="25.95" customHeight="1">
       <c r="L773" s="2"/>
       <c r="M773" s="2"/>
       <c r="N773" s="2"/>
       <c r="O773" s="2"/>
       <c r="T773" s="2"/>
     </row>
-    <row r="774" spans="12:20" ht="25.9" customHeight="1">
+    <row r="774" spans="12:20" ht="25.95" customHeight="1">
       <c r="L774" s="2"/>
       <c r="M774" s="2"/>
       <c r="N774" s="2"/>
       <c r="O774" s="2"/>
       <c r="T774" s="2"/>
     </row>
-    <row r="775" spans="12:20" ht="25.9" customHeight="1">
+    <row r="775" spans="12:20" ht="25.95" customHeight="1">
       <c r="L775" s="2"/>
       <c r="M775" s="2"/>
       <c r="N775" s="2"/>
       <c r="O775" s="2"/>
       <c r="T775" s="2"/>
     </row>
-    <row r="776" spans="12:20" ht="25.9" customHeight="1">
+    <row r="776" spans="12:20" ht="25.95" customHeight="1">
       <c r="L776" s="2"/>
       <c r="M776" s="2"/>
       <c r="N776" s="2"/>
       <c r="O776" s="2"/>
       <c r="T776" s="2"/>
     </row>
-    <row r="777" spans="12:20" ht="25.9" customHeight="1">
+    <row r="777" spans="12:20" ht="25.95" customHeight="1">
       <c r="L777" s="2"/>
       <c r="M777" s="2"/>
       <c r="N777" s="2"/>
       <c r="O777" s="2"/>
       <c r="T777" s="2"/>
     </row>
-    <row r="778" spans="12:20" ht="25.9" customHeight="1">
+    <row r="778" spans="12:20" ht="25.95" customHeight="1">
       <c r="L778" s="2"/>
       <c r="M778" s="2"/>
       <c r="N778" s="2"/>
       <c r="O778" s="2"/>
       <c r="T778" s="2"/>
     </row>
-    <row r="779" spans="12:20" ht="25.9" customHeight="1">
+    <row r="779" spans="12:20" ht="25.95" customHeight="1">
       <c r="L779" s="2"/>
       <c r="M779" s="2"/>
       <c r="N779" s="2"/>
       <c r="O779" s="2"/>
       <c r="T779" s="2"/>
     </row>
-    <row r="780" spans="12:20" ht="25.9" customHeight="1">
+    <row r="780" spans="12:20" ht="25.95" customHeight="1">
       <c r="L780" s="2"/>
       <c r="M780" s="2"/>
       <c r="N780" s="2"/>
       <c r="O780" s="2"/>
       <c r="T780" s="2"/>
     </row>
-    <row r="781" spans="12:20" ht="25.9" customHeight="1">
+    <row r="781" spans="12:20" ht="25.95" customHeight="1">
       <c r="L781" s="2"/>
       <c r="M781" s="2"/>
       <c r="N781" s="2"/>
       <c r="O781" s="2"/>
       <c r="T781" s="2"/>
     </row>
-    <row r="782" spans="12:20" ht="25.9" customHeight="1">
+    <row r="782" spans="12:20" ht="25.95" customHeight="1">
       <c r="L782" s="2"/>
       <c r="M782" s="2"/>
       <c r="N782" s="2"/>
       <c r="O782" s="2"/>
       <c r="T782" s="2"/>
     </row>
-    <row r="783" spans="12:20" ht="25.9" customHeight="1">
+    <row r="783" spans="12:20" ht="25.95" customHeight="1">
       <c r="L783" s="2"/>
       <c r="M783" s="2"/>
       <c r="N783" s="2"/>
       <c r="O783" s="2"/>
       <c r="T783" s="2"/>
     </row>
-    <row r="784" spans="12:20" ht="25.9" customHeight="1">
+    <row r="784" spans="12:20" ht="25.95" customHeight="1">
       <c r="L784" s="2"/>
       <c r="M784" s="2"/>
       <c r="N784" s="2"/>
       <c r="O784" s="2"/>
       <c r="T784" s="2"/>
     </row>
-    <row r="785" spans="12:20" ht="25.9" customHeight="1">
+    <row r="785" spans="12:20" ht="25.95" customHeight="1">
       <c r="L785" s="2"/>
       <c r="M785" s="2"/>
       <c r="N785" s="2"/>
       <c r="O785" s="2"/>
       <c r="T785" s="2"/>
     </row>
-    <row r="786" spans="12:20" ht="25.9" customHeight="1">
+    <row r="786" spans="12:20" ht="25.95" customHeight="1">
       <c r="L786" s="2"/>
       <c r="M786" s="2"/>
       <c r="N786" s="2"/>
       <c r="O786" s="2"/>
       <c r="T786" s="2"/>
     </row>
-    <row r="787" spans="12:20" ht="25.9" customHeight="1">
+    <row r="787" spans="12:20" ht="25.95" customHeight="1">
       <c r="L787" s="2"/>
       <c r="M787" s="2"/>
       <c r="N787" s="2"/>
       <c r="O787" s="2"/>
       <c r="T787" s="2"/>
     </row>
-    <row r="788" spans="12:20" ht="25.9" customHeight="1">
+    <row r="788" spans="12:20" ht="25.95" customHeight="1">
       <c r="L788" s="2"/>
       <c r="M788" s="2"/>
       <c r="N788" s="2"/>
       <c r="O788" s="2"/>
       <c r="T788" s="2"/>
     </row>
-    <row r="789" spans="12:20" ht="25.9" customHeight="1">
+    <row r="789" spans="12:20" ht="25.95" customHeight="1">
       <c r="L789" s="2"/>
       <c r="M789" s="2"/>
       <c r="N789" s="2"/>
       <c r="O789" s="2"/>
       <c r="T789" s="2"/>
     </row>
-    <row r="790" spans="12:20" ht="25.9" customHeight="1">
+    <row r="790" spans="12:20" ht="25.95" customHeight="1">
       <c r="L790" s="2"/>
       <c r="M790" s="2"/>
       <c r="N790" s="2"/>
       <c r="O790" s="2"/>
       <c r="T790" s="2"/>
     </row>
-    <row r="791" spans="12:20" ht="25.9" customHeight="1">
+    <row r="791" spans="12:20" ht="25.95" customHeight="1">
       <c r="L791" s="2"/>
       <c r="M791" s="2"/>
       <c r="N791" s="2"/>
       <c r="O791" s="2"/>
       <c r="T791" s="2"/>
     </row>
-    <row r="792" spans="12:20" ht="25.9" customHeight="1">
+    <row r="792" spans="12:20" ht="25.95" customHeight="1">
       <c r="L792" s="2"/>
       <c r="M792" s="2"/>
       <c r="N792" s="2"/>
       <c r="O792" s="2"/>
       <c r="T792" s="2"/>
     </row>
-    <row r="793" spans="12:20" ht="25.9" customHeight="1">
+    <row r="793" spans="12:20" ht="25.95" customHeight="1">
       <c r="L793" s="2"/>
       <c r="M793" s="2"/>
       <c r="N793" s="2"/>
       <c r="O793" s="2"/>
       <c r="T793" s="2"/>
     </row>
-    <row r="794" spans="12:20" ht="25.9" customHeight="1">
+    <row r="794" spans="12:20" ht="25.95" customHeight="1">
       <c r="L794" s="2"/>
       <c r="M794" s="2"/>
       <c r="N794" s="2"/>
       <c r="O794" s="2"/>
       <c r="T794" s="2"/>
     </row>
-    <row r="795" spans="12:20" ht="25.9" customHeight="1">
+    <row r="795" spans="12:20" ht="25.95" customHeight="1">
       <c r="L795" s="2"/>
       <c r="M795" s="2"/>
       <c r="N795" s="2"/>
       <c r="O795" s="2"/>
       <c r="T795" s="2"/>
     </row>
-    <row r="796" spans="12:20" ht="25.9" customHeight="1">
+    <row r="796" spans="12:20" ht="25.95" customHeight="1">
       <c r="L796" s="2"/>
       <c r="M796" s="2"/>
       <c r="N796" s="2"/>
       <c r="O796" s="2"/>
       <c r="T796" s="2"/>
     </row>
-    <row r="797" spans="12:20" ht="25.9" customHeight="1">
+    <row r="797" spans="12:20" ht="25.95" customHeight="1">
       <c r="L797" s="2"/>
       <c r="M797" s="2"/>
       <c r="N797" s="2"/>
       <c r="O797" s="2"/>
       <c r="T797" s="2"/>
     </row>
-    <row r="798" spans="12:20" ht="25.9" customHeight="1">
+    <row r="798" spans="12:20" ht="25.95" customHeight="1">
       <c r="L798" s="2"/>
       <c r="M798" s="2"/>
       <c r="N798" s="2"/>
       <c r="O798" s="2"/>
       <c r="T798" s="2"/>
     </row>
-    <row r="799" spans="12:20" ht="25.9" customHeight="1">
+    <row r="799" spans="12:20" ht="25.95" customHeight="1">
       <c r="L799" s="2"/>
       <c r="M799" s="2"/>
       <c r="N799" s="2"/>
       <c r="O799" s="2"/>
       <c r="T799" s="2"/>
     </row>
-    <row r="800" spans="12:20" ht="25.9" customHeight="1">
+    <row r="800" spans="12:20" ht="25.95" customHeight="1">
       <c r="L800" s="2"/>
       <c r="M800" s="2"/>
       <c r="N800" s="2"/>
       <c r="O800" s="2"/>
       <c r="T800" s="2"/>
     </row>
-    <row r="801" spans="12:20" ht="25.9" customHeight="1">
+    <row r="801" spans="12:20" ht="25.95" customHeight="1">
       <c r="L801" s="2"/>
       <c r="M801" s="2"/>
       <c r="N801" s="2"/>
       <c r="O801" s="2"/>
       <c r="T801" s="2"/>
     </row>
-    <row r="802" spans="12:20" ht="25.9" customHeight="1">
+    <row r="802" spans="12:20" ht="25.95" customHeight="1">
       <c r="L802" s="2"/>
       <c r="M802" s="2"/>
       <c r="N802" s="2"/>
       <c r="O802" s="2"/>
       <c r="T802" s="2"/>
     </row>
-    <row r="803" spans="12:20" ht="25.9" customHeight="1">
+    <row r="803" spans="12:20" ht="25.95" customHeight="1">
       <c r="L803" s="2"/>
       <c r="M803" s="2"/>
       <c r="N803" s="2"/>
       <c r="O803" s="2"/>
       <c r="T803" s="2"/>
     </row>
-    <row r="804" spans="12:20" ht="25.9" customHeight="1">
+    <row r="804" spans="12:20" ht="25.95" customHeight="1">
       <c r="L804" s="2"/>
       <c r="M804" s="2"/>
       <c r="N804" s="2"/>
       <c r="O804" s="2"/>
       <c r="T804" s="2"/>
     </row>
-    <row r="805" spans="12:20" ht="25.9" customHeight="1">
+    <row r="805" spans="12:20" ht="25.95" customHeight="1">
       <c r="L805" s="2"/>
       <c r="M805" s="2"/>
       <c r="N805" s="2"/>
       <c r="O805" s="2"/>
       <c r="T805" s="2"/>
     </row>
-    <row r="806" spans="12:20" ht="25.9" customHeight="1">
+    <row r="806" spans="12:20" ht="25.95" customHeight="1">
       <c r="L806" s="2"/>
       <c r="M806" s="2"/>
       <c r="N806" s="2"/>
       <c r="O806" s="2"/>
       <c r="T806" s="2"/>
     </row>
-    <row r="807" spans="12:20" ht="25.9" customHeight="1">
+    <row r="807" spans="12:20" ht="25.95" customHeight="1">
       <c r="L807" s="2"/>
       <c r="M807" s="2"/>
       <c r="N807" s="2"/>
       <c r="O807" s="2"/>
       <c r="T807" s="2"/>
     </row>
-    <row r="808" spans="12:20" ht="25.9" customHeight="1">
+    <row r="808" spans="12:20" ht="25.95" customHeight="1">
       <c r="L808" s="2"/>
       <c r="M808" s="2"/>
       <c r="N808" s="2"/>
       <c r="O808" s="2"/>
       <c r="T808" s="2"/>
     </row>
-    <row r="809" spans="12:20" ht="25.9" customHeight="1">
+    <row r="809" spans="12:20" ht="25.95" customHeight="1">
       <c r="L809" s="2"/>
       <c r="M809" s="2"/>
       <c r="N809" s="2"/>
       <c r="O809" s="2"/>
       <c r="T809" s="2"/>
     </row>
-    <row r="810" spans="12:20" ht="25.9" customHeight="1">
+    <row r="810" spans="12:20" ht="25.95" customHeight="1">
       <c r="L810" s="2"/>
       <c r="M810" s="2"/>
       <c r="N810" s="2"/>
       <c r="O810" s="2"/>
       <c r="T810" s="2"/>
     </row>
-    <row r="811" spans="12:20" ht="25.9" customHeight="1">
+    <row r="811" spans="12:20" ht="25.95" customHeight="1">
       <c r="L811" s="2"/>
       <c r="M811" s="2"/>
       <c r="N811" s="2"/>
       <c r="O811" s="2"/>
       <c r="T811" s="2"/>
     </row>
-    <row r="812" spans="12:20" ht="25.9" customHeight="1">
+    <row r="812" spans="12:20" ht="25.95" customHeight="1">
       <c r="L812" s="2"/>
       <c r="M812" s="2"/>
       <c r="N812" s="2"/>
       <c r="O812" s="2"/>
       <c r="T812" s="2"/>
     </row>
-    <row r="813" spans="12:20" ht="25.9" customHeight="1">
+    <row r="813" spans="12:20" ht="25.95" customHeight="1">
       <c r="L813" s="2"/>
       <c r="M813" s="2"/>
       <c r="N813" s="2"/>
       <c r="O813" s="2"/>
       <c r="T813" s="2"/>
     </row>
-    <row r="814" spans="12:20" ht="25.9" customHeight="1">
+    <row r="814" spans="12:20" ht="25.95" customHeight="1">
       <c r="L814" s="2"/>
       <c r="M814" s="2"/>
       <c r="N814" s="2"/>
       <c r="O814" s="2"/>
       <c r="T814" s="2"/>
     </row>
-    <row r="815" spans="12:20" ht="25.9" customHeight="1">
+    <row r="815" spans="12:20" ht="25.95" customHeight="1">
       <c r="L815" s="2"/>
       <c r="M815" s="2"/>
       <c r="N815" s="2"/>
       <c r="O815" s="2"/>
       <c r="T815" s="2"/>
     </row>
-    <row r="816" spans="12:20" ht="25.9" customHeight="1">
+    <row r="816" spans="12:20" ht="25.95" customHeight="1">
       <c r="L816" s="2"/>
       <c r="M816" s="2"/>
       <c r="N816" s="2"/>
       <c r="O816" s="2"/>
       <c r="T816" s="2"/>
     </row>
-    <row r="817" spans="12:20" ht="25.9" customHeight="1">
+    <row r="817" spans="12:20" ht="25.95" customHeight="1">
       <c r="L817" s="2"/>
       <c r="M817" s="2"/>
       <c r="N817" s="2"/>
       <c r="O817" s="2"/>
       <c r="T817" s="2"/>
     </row>
-    <row r="818" spans="12:20" ht="25.9" customHeight="1">
+    <row r="818" spans="12:20" ht="25.95" customHeight="1">
       <c r="L818" s="2"/>
       <c r="M818" s="2"/>
       <c r="N818" s="2"/>
       <c r="O818" s="2"/>
       <c r="T818" s="2"/>
     </row>
-    <row r="819" spans="12:20" ht="25.9" customHeight="1">
+    <row r="819" spans="12:20" ht="25.95" customHeight="1">
       <c r="L819" s="2"/>
       <c r="M819" s="2"/>
       <c r="N819" s="2"/>
       <c r="O819" s="2"/>
       <c r="T819" s="2"/>
     </row>
-    <row r="820" spans="12:20" ht="25.9" customHeight="1">
+    <row r="820" spans="12:20" ht="25.95" customHeight="1">
       <c r="L820" s="2"/>
       <c r="M820" s="2"/>
       <c r="N820" s="2"/>
       <c r="O820" s="2"/>
       <c r="T820" s="2"/>
     </row>
-    <row r="821" spans="12:20" ht="25.9" customHeight="1">
+    <row r="821" spans="12:20" ht="25.95" customHeight="1">
       <c r="L821" s="2"/>
       <c r="M821" s="2"/>
       <c r="N821" s="2"/>
       <c r="O821" s="2"/>
       <c r="T821" s="2"/>
     </row>
-    <row r="822" spans="12:20" ht="25.9" customHeight="1">
+    <row r="822" spans="12:20" ht="25.95" customHeight="1">
       <c r="L822" s="2"/>
       <c r="M822" s="2"/>
       <c r="N822" s="2"/>
       <c r="O822" s="2"/>
       <c r="T822" s="2"/>
     </row>
-    <row r="823" spans="12:20" ht="25.9" customHeight="1">
+    <row r="823" spans="12:20" ht="25.95" customHeight="1">
       <c r="L823" s="2"/>
       <c r="M823" s="2"/>
       <c r="N823" s="2"/>
       <c r="O823" s="2"/>
       <c r="T823" s="2"/>
     </row>
-    <row r="824" spans="12:20" ht="25.9" customHeight="1">
+    <row r="824" spans="12:20" ht="25.95" customHeight="1">
       <c r="L824" s="2"/>
       <c r="M824" s="2"/>
       <c r="N824" s="2"/>
       <c r="O824" s="2"/>
       <c r="T824" s="2"/>
     </row>
-    <row r="825" spans="12:20" ht="25.9" customHeight="1">
+    <row r="825" spans="12:20" ht="25.95" customHeight="1">
       <c r="L825" s="2"/>
       <c r="M825" s="2"/>
       <c r="N825" s="2"/>
       <c r="O825" s="2"/>
       <c r="T825" s="2"/>
     </row>
-    <row r="826" spans="12:20" ht="25.9" customHeight="1">
+    <row r="826" spans="12:20" ht="25.95" customHeight="1">
       <c r="L826" s="2"/>
       <c r="M826" s="2"/>
       <c r="N826" s="2"/>
       <c r="O826" s="2"/>
       <c r="T826" s="2"/>
     </row>
-    <row r="827" spans="12:20" ht="25.9" customHeight="1">
+    <row r="827" spans="12:20" ht="25.95" customHeight="1">
       <c r="L827" s="2"/>
       <c r="M827" s="2"/>
       <c r="N827" s="2"/>
       <c r="O827" s="2"/>
       <c r="T827" s="2"/>
     </row>
-    <row r="828" spans="12:20" ht="25.9" customHeight="1">
+    <row r="828" spans="12:20" ht="25.95" customHeight="1">
       <c r="L828" s="2"/>
       <c r="M828" s="2"/>
       <c r="N828" s="2"/>
       <c r="O828" s="2"/>
       <c r="T828" s="2"/>
     </row>
-    <row r="829" spans="12:20" ht="25.9" customHeight="1">
+    <row r="829" spans="12:20" ht="25.95" customHeight="1">
       <c r="L829" s="2"/>
       <c r="M829" s="2"/>
       <c r="N829" s="2"/>
       <c r="O829" s="2"/>
       <c r="T829" s="2"/>
     </row>
-    <row r="830" spans="12:20" ht="25.9" customHeight="1">
+    <row r="830" spans="12:20" ht="25.95" customHeight="1">
       <c r="L830" s="2"/>
       <c r="M830" s="2"/>
       <c r="N830" s="2"/>
       <c r="O830" s="2"/>
       <c r="T830" s="2"/>
     </row>
-    <row r="831" spans="12:20" ht="25.9" customHeight="1">
+    <row r="831" spans="12:20" ht="25.95" customHeight="1">
       <c r="L831" s="2"/>
       <c r="M831" s="2"/>
       <c r="N831" s="2"/>
       <c r="O831" s="2"/>
       <c r="T831" s="2"/>
     </row>
-    <row r="832" spans="12:20" ht="25.9" customHeight="1">
+    <row r="832" spans="12:20" ht="25.95" customHeight="1">
       <c r="L832" s="2"/>
       <c r="M832" s="2"/>
       <c r="N832" s="2"/>
       <c r="O832" s="2"/>
       <c r="T832" s="2"/>
     </row>
-    <row r="833" spans="12:20" ht="25.9" customHeight="1">
+    <row r="833" spans="12:20" ht="25.95" customHeight="1">
       <c r="L833" s="2"/>
       <c r="M833" s="2"/>
       <c r="N833" s="2"/>
       <c r="O833" s="2"/>
       <c r="T833" s="2"/>
     </row>
-    <row r="834" spans="12:20" ht="25.9" customHeight="1">
+    <row r="834" spans="12:20" ht="25.95" customHeight="1">
       <c r="L834" s="2"/>
       <c r="M834" s="2"/>
       <c r="N834" s="2"/>
       <c r="O834" s="2"/>
       <c r="T834" s="2"/>
     </row>
-    <row r="835" spans="12:20" ht="25.9" customHeight="1">
+    <row r="835" spans="12:20" ht="25.95" customHeight="1">
       <c r="L835" s="2"/>
       <c r="M835" s="2"/>
       <c r="N835" s="2"/>
       <c r="O835" s="2"/>
       <c r="T835" s="2"/>
     </row>
-    <row r="836" spans="12:20" ht="25.9" customHeight="1">
+    <row r="836" spans="12:20" ht="25.95" customHeight="1">
       <c r="L836" s="2"/>
       <c r="M836" s="2"/>
       <c r="N836" s="2"/>
       <c r="O836" s="2"/>
       <c r="T836" s="2"/>
     </row>
-    <row r="837" spans="12:20" ht="25.9" customHeight="1">
+    <row r="837" spans="12:20" ht="25.95" customHeight="1">
       <c r="L837" s="2"/>
       <c r="M837" s="2"/>
       <c r="N837" s="2"/>
       <c r="O837" s="2"/>
       <c r="T837" s="2"/>
     </row>
-    <row r="838" spans="12:20" ht="25.9" customHeight="1">
+    <row r="838" spans="12:20" ht="25.95" customHeight="1">
       <c r="L838" s="2"/>
       <c r="M838" s="2"/>
       <c r="N838" s="2"/>
       <c r="O838" s="2"/>
       <c r="T838" s="2"/>
     </row>
-    <row r="839" spans="12:20" ht="25.9" customHeight="1">
+    <row r="839" spans="12:20" ht="25.95" customHeight="1">
       <c r="L839" s="2"/>
       <c r="M839" s="2"/>
       <c r="N839" s="2"/>
       <c r="O839" s="2"/>
       <c r="T839" s="2"/>
     </row>
-    <row r="840" spans="12:20" ht="25.9" customHeight="1">
+    <row r="840" spans="12:20" ht="25.95" customHeight="1">
       <c r="L840" s="2"/>
       <c r="M840" s="2"/>
       <c r="N840" s="2"/>
       <c r="O840" s="2"/>
       <c r="T840" s="2"/>
     </row>
-    <row r="841" spans="12:20" ht="25.9" customHeight="1">
+    <row r="841" spans="12:20" ht="25.95" customHeight="1">
       <c r="L841" s="2"/>
       <c r="M841" s="2"/>
       <c r="N841" s="2"/>
       <c r="O841" s="2"/>
       <c r="T841" s="2"/>
     </row>
-    <row r="842" spans="12:20" ht="25.9" customHeight="1">
+    <row r="842" spans="12:20" ht="25.95" customHeight="1">
       <c r="L842" s="2"/>
       <c r="M842" s="2"/>
       <c r="N842" s="2"/>
       <c r="O842" s="2"/>
       <c r="T842" s="2"/>
     </row>
-    <row r="843" spans="12:20" ht="25.9" customHeight="1">
+    <row r="843" spans="12:20" ht="25.95" customHeight="1">
       <c r="L843" s="2"/>
       <c r="M843" s="2"/>
       <c r="N843" s="2"/>
       <c r="O843" s="2"/>
       <c r="T843" s="2"/>
     </row>
-    <row r="844" spans="12:20" ht="25.9" customHeight="1">
+    <row r="844" spans="12:20" ht="25.95" customHeight="1">
       <c r="L844" s="2"/>
       <c r="M844" s="2"/>
       <c r="N844" s="2"/>
       <c r="O844" s="2"/>
       <c r="T844" s="2"/>
     </row>
-    <row r="845" spans="12:20" ht="25.9" customHeight="1">
+    <row r="845" spans="12:20" ht="25.95" customHeight="1">
       <c r="L845" s="2"/>
       <c r="M845" s="2"/>
       <c r="N845" s="2"/>
       <c r="O845" s="2"/>
       <c r="T845" s="2"/>
     </row>
-    <row r="846" spans="12:20" ht="25.9" customHeight="1">
+    <row r="846" spans="12:20" ht="25.95" customHeight="1">
       <c r="L846" s="2"/>
       <c r="M846" s="2"/>
       <c r="N846" s="2"/>
       <c r="O846" s="2"/>
       <c r="T846" s="2"/>
     </row>
-    <row r="847" spans="12:20" ht="25.9" customHeight="1">
+    <row r="847" spans="12:20" ht="25.95" customHeight="1">
       <c r="L847" s="2"/>
       <c r="M847" s="2"/>
       <c r="N847" s="2"/>
       <c r="O847" s="2"/>
       <c r="T847" s="2"/>
     </row>
-    <row r="848" spans="12:20" ht="25.9" customHeight="1">
+    <row r="848" spans="12:20" ht="25.95" customHeight="1">
       <c r="L848" s="2"/>
       <c r="M848" s="2"/>
       <c r="N848" s="2"/>
       <c r="O848" s="2"/>
       <c r="T848" s="2"/>
     </row>
-    <row r="849" spans="12:20" ht="25.9" customHeight="1">
+    <row r="849" spans="12:20" ht="25.95" customHeight="1">
       <c r="L849" s="2"/>
       <c r="M849" s="2"/>
       <c r="N849" s="2"/>
       <c r="O849" s="2"/>
       <c r="T849" s="2"/>
     </row>
-    <row r="850" spans="12:20" ht="25.9" customHeight="1">
+    <row r="850" spans="12:20" ht="25.95" customHeight="1">
       <c r="L850" s="2"/>
       <c r="M850" s="2"/>
       <c r="N850" s="2"/>
       <c r="O850" s="2"/>
       <c r="T850" s="2"/>
     </row>
-    <row r="851" spans="12:20" ht="25.9" customHeight="1">
+    <row r="851" spans="12:20" ht="25.95" customHeight="1">
       <c r="L851" s="2"/>
       <c r="M851" s="2"/>
       <c r="N851" s="2"/>
       <c r="O851" s="2"/>
       <c r="T851" s="2"/>
     </row>
-    <row r="852" spans="12:20" ht="25.9" customHeight="1">
+    <row r="852" spans="12:20" ht="25.95" customHeight="1">
       <c r="L852" s="2"/>
       <c r="M852" s="2"/>
       <c r="N852" s="2"/>
       <c r="O852" s="2"/>
       <c r="T852" s="2"/>
     </row>
-    <row r="853" spans="12:20" ht="25.9" customHeight="1">
+    <row r="853" spans="12:20" ht="25.95" customHeight="1">
       <c r="L853" s="2"/>
       <c r="M853" s="2"/>
       <c r="N853" s="2"/>
       <c r="O853" s="2"/>
       <c r="T853" s="2"/>
     </row>
-    <row r="854" spans="12:20" ht="25.9" customHeight="1">
+    <row r="854" spans="12:20" ht="25.95" customHeight="1">
       <c r="L854" s="2"/>
       <c r="M854" s="2"/>
       <c r="N854" s="2"/>
       <c r="O854" s="2"/>
       <c r="T854" s="2"/>
     </row>
-    <row r="855" spans="12:20" ht="25.9" customHeight="1">
+    <row r="855" spans="12:20" ht="25.95" customHeight="1">
       <c r="L855" s="2"/>
       <c r="M855" s="2"/>
       <c r="N855" s="2"/>
       <c r="O855" s="2"/>
       <c r="T855" s="2"/>
     </row>
-    <row r="856" spans="12:20" ht="25.9" customHeight="1">
+    <row r="856" spans="12:20" ht="25.95" customHeight="1">
       <c r="L856" s="2"/>
       <c r="M856" s="2"/>
       <c r="N856" s="2"/>
       <c r="O856" s="2"/>
       <c r="T856" s="2"/>
     </row>
-    <row r="857" spans="12:20" ht="25.9" customHeight="1">
+    <row r="857" spans="12:20" ht="25.95" customHeight="1">
       <c r="L857" s="2"/>
       <c r="M857" s="2"/>
       <c r="N857" s="2"/>
       <c r="O857" s="2"/>
       <c r="T857" s="2"/>
     </row>
-    <row r="858" spans="12:20" ht="25.9" customHeight="1">
+    <row r="858" spans="12:20" ht="25.95" customHeight="1">
       <c r="L858" s="2"/>
       <c r="M858" s="2"/>
       <c r="N858" s="2"/>
       <c r="O858" s="2"/>
       <c r="T858" s="2"/>
     </row>
-    <row r="859" spans="12:20" ht="25.9" customHeight="1">
+    <row r="859" spans="12:20" ht="25.95" customHeight="1">
       <c r="L859" s="2"/>
       <c r="M859" s="2"/>
       <c r="N859" s="2"/>
       <c r="O859" s="2"/>
       <c r="T859" s="2"/>
     </row>
-    <row r="860" spans="12:20" ht="25.9" customHeight="1">
+    <row r="860" spans="12:20" ht="25.95" customHeight="1">
       <c r="L860" s="2"/>
       <c r="M860" s="2"/>
       <c r="N860" s="2"/>
       <c r="O860" s="2"/>
       <c r="T860" s="2"/>
     </row>
-    <row r="861" spans="12:20" ht="25.9" customHeight="1">
+    <row r="861" spans="12:20" ht="25.95" customHeight="1">
       <c r="L861" s="2"/>
       <c r="M861" s="2"/>
       <c r="N861" s="2"/>
       <c r="O861" s="2"/>
       <c r="T861" s="2"/>
     </row>
-    <row r="862" spans="12:20" ht="25.9" customHeight="1">
+    <row r="862" spans="12:20" ht="25.95" customHeight="1">
       <c r="L862" s="2"/>
       <c r="M862" s="2"/>
       <c r="N862" s="2"/>
       <c r="O862" s="2"/>
       <c r="T862" s="2"/>
     </row>
-    <row r="863" spans="12:20" ht="25.9" customHeight="1">
+    <row r="863" spans="12:20" ht="25.95" customHeight="1">
       <c r="L863" s="2"/>
       <c r="M863" s="2"/>
       <c r="N863" s="2"/>
       <c r="O863" s="2"/>
       <c r="T863" s="2"/>
     </row>
-    <row r="864" spans="12:20" ht="25.9" customHeight="1">
+    <row r="864" spans="12:20" ht="25.95" customHeight="1">
       <c r="L864" s="2"/>
       <c r="M864" s="2"/>
       <c r="N864" s="2"/>
       <c r="O864" s="2"/>
       <c r="T864" s="2"/>
     </row>
-    <row r="865" spans="12:20" ht="25.9" customHeight="1">
+    <row r="865" spans="12:20" ht="25.95" customHeight="1">
       <c r="L865" s="2"/>
       <c r="M865" s="2"/>
       <c r="N865" s="2"/>
       <c r="O865" s="2"/>
       <c r="T865" s="2"/>
     </row>
-    <row r="866" spans="12:20" ht="25.9" customHeight="1">
+    <row r="866" spans="12:20" ht="25.95" customHeight="1">
       <c r="L866" s="2"/>
       <c r="M866" s="2"/>
       <c r="N866" s="2"/>
       <c r="O866" s="2"/>
       <c r="T866" s="2"/>
     </row>
-    <row r="867" spans="12:20" ht="25.9" customHeight="1">
+    <row r="867" spans="12:20" ht="25.95" customHeight="1">
       <c r="L867" s="2"/>
       <c r="M867" s="2"/>
       <c r="N867" s="2"/>
       <c r="O867" s="2"/>
       <c r="T867" s="2"/>
     </row>
-    <row r="868" spans="12:20" ht="25.9" customHeight="1">
+    <row r="868" spans="12:20" ht="25.95" customHeight="1">
       <c r="L868" s="2"/>
       <c r="M868" s="2"/>
       <c r="N868" s="2"/>
       <c r="O868" s="2"/>
       <c r="T868" s="2"/>
     </row>
-    <row r="869" spans="12:20" ht="25.9" customHeight="1">
+    <row r="869" spans="12:20" ht="25.95" customHeight="1">
       <c r="L869" s="2"/>
       <c r="M869" s="2"/>
       <c r="N869" s="2"/>
       <c r="O869" s="2"/>
       <c r="T869" s="2"/>
     </row>
-    <row r="870" spans="12:20" ht="25.9" customHeight="1">
+    <row r="870" spans="12:20" ht="25.95" customHeight="1">
       <c r="L870" s="2"/>
       <c r="M870" s="2"/>
       <c r="N870" s="2"/>
       <c r="O870" s="2"/>
       <c r="T870" s="2"/>
     </row>
-    <row r="871" spans="12:20" ht="25.9" customHeight="1">
+    <row r="871" spans="12:20" ht="25.95" customHeight="1">
       <c r="L871" s="2"/>
       <c r="M871" s="2"/>
       <c r="N871" s="2"/>
       <c r="O871" s="2"/>
       <c r="T871" s="2"/>
     </row>
-    <row r="872" spans="12:20" ht="25.9" customHeight="1">
+    <row r="872" spans="12:20" ht="25.95" customHeight="1">
       <c r="L872" s="2"/>
       <c r="M872" s="2"/>
       <c r="N872" s="2"/>
       <c r="O872" s="2"/>
       <c r="T872" s="2"/>
     </row>
-    <row r="873" spans="12:20" ht="25.9" customHeight="1">
+    <row r="873" spans="12:20" ht="25.95" customHeight="1">
       <c r="L873" s="2"/>
       <c r="M873" s="2"/>
       <c r="N873" s="2"/>
       <c r="O873" s="2"/>
       <c r="T873" s="2"/>
     </row>
-    <row r="874" spans="12:20" ht="25.9" customHeight="1">
+    <row r="874" spans="12:20" ht="25.95" customHeight="1">
       <c r="L874" s="2"/>
       <c r="M874" s="2"/>
       <c r="N874" s="2"/>
       <c r="O874" s="2"/>
       <c r="T874" s="2"/>
     </row>
-    <row r="875" spans="12:20" ht="25.9" customHeight="1">
+    <row r="875" spans="12:20" ht="25.95" customHeight="1">
       <c r="L875" s="2"/>
       <c r="M875" s="2"/>
       <c r="N875" s="2"/>
       <c r="O875" s="2"/>
       <c r="T875" s="2"/>
     </row>
-    <row r="876" spans="12:20" ht="25.9" customHeight="1">
+    <row r="876" spans="12:20" ht="25.95" customHeight="1">
       <c r="L876" s="2"/>
       <c r="M876" s="2"/>
       <c r="N876" s="2"/>
       <c r="O876" s="2"/>
       <c r="T876" s="2"/>
     </row>
-    <row r="877" spans="12:20" ht="25.9" customHeight="1">
+    <row r="877" spans="12:20" ht="25.95" customHeight="1">
       <c r="L877" s="2"/>
       <c r="M877" s="2"/>
       <c r="N877" s="2"/>
       <c r="O877" s="2"/>
       <c r="T877" s="2"/>
     </row>
-    <row r="878" spans="12:20" ht="25.9" customHeight="1">
+    <row r="878" spans="12:20" ht="25.95" customHeight="1">
       <c r="L878" s="2"/>
       <c r="M878" s="2"/>
       <c r="N878" s="2"/>
       <c r="O878" s="2"/>
       <c r="T878" s="2"/>
     </row>
-    <row r="879" spans="12:20" ht="25.9" customHeight="1">
+    <row r="879" spans="12:20" ht="25.95" customHeight="1">
       <c r="L879" s="2"/>
       <c r="M879" s="2"/>
       <c r="N879" s="2"/>
       <c r="O879" s="2"/>
       <c r="T879" s="2"/>
     </row>
-    <row r="880" spans="12:20" ht="25.9" customHeight="1">
+    <row r="880" spans="12:20" ht="25.95" customHeight="1">
       <c r="L880" s="2"/>
       <c r="M880" s="2"/>
       <c r="N880" s="2"/>
       <c r="O880" s="2"/>
       <c r="T880" s="2"/>
     </row>
-    <row r="881" spans="12:20" ht="25.9" customHeight="1">
+    <row r="881" spans="12:20" ht="25.95" customHeight="1">
       <c r="L881" s="2"/>
       <c r="M881" s="2"/>
       <c r="N881" s="2"/>
       <c r="O881" s="2"/>
       <c r="T881" s="2"/>
     </row>
-    <row r="882" spans="12:20" ht="25.9" customHeight="1">
+    <row r="882" spans="12:20" ht="25.95" customHeight="1">
       <c r="L882" s="2"/>
       <c r="M882" s="2"/>
       <c r="N882" s="2"/>
       <c r="O882" s="2"/>
       <c r="T882" s="2"/>
     </row>
-    <row r="883" spans="12:20" ht="25.9" customHeight="1">
+    <row r="883" spans="12:20" ht="25.95" customHeight="1">
       <c r="L883" s="2"/>
       <c r="M883" s="2"/>
       <c r="N883" s="2"/>
       <c r="O883" s="2"/>
       <c r="T883" s="2"/>
     </row>
-    <row r="884" spans="12:20" ht="25.9" customHeight="1">
+    <row r="884" spans="12:20" ht="25.95" customHeight="1">
       <c r="L884" s="2"/>
       <c r="M884" s="2"/>
       <c r="N884" s="2"/>
       <c r="O884" s="2"/>
       <c r="T884" s="2"/>
     </row>
-    <row r="885" spans="12:20" ht="25.9" customHeight="1">
+    <row r="885" spans="12:20" ht="25.95" customHeight="1">
       <c r="L885" s="2"/>
       <c r="M885" s="2"/>
       <c r="N885" s="2"/>
       <c r="O885" s="2"/>
       <c r="T885" s="2"/>
     </row>
-    <row r="886" spans="12:20" ht="25.9" customHeight="1">
+    <row r="886" spans="12:20" ht="25.95" customHeight="1">
       <c r="L886" s="2"/>
       <c r="M886" s="2"/>
       <c r="N886" s="2"/>
       <c r="O886" s="2"/>
       <c r="T886" s="2"/>
     </row>
-    <row r="887" spans="12:20" ht="25.9" customHeight="1">
+    <row r="887" spans="12:20" ht="25.95" customHeight="1">
       <c r="L887" s="2"/>
       <c r="M887" s="2"/>
       <c r="N887" s="2"/>
       <c r="O887" s="2"/>
       <c r="T887" s="2"/>
     </row>
-    <row r="888" spans="12:20" ht="25.9" customHeight="1">
+    <row r="888" spans="12:20" ht="25.95" customHeight="1">
       <c r="L888" s="2"/>
       <c r="M888" s="2"/>
       <c r="N888" s="2"/>
       <c r="O888" s="2"/>
       <c r="T888" s="2"/>
     </row>
-    <row r="889" spans="12:20" ht="25.9" customHeight="1">
+    <row r="889" spans="12:20" ht="25.95" customHeight="1">
       <c r="L889" s="2"/>
       <c r="M889" s="2"/>
       <c r="N889" s="2"/>
       <c r="O889" s="2"/>
       <c r="T889" s="2"/>
     </row>
-    <row r="890" spans="12:20" ht="25.9" customHeight="1">
+    <row r="890" spans="12:20" ht="25.95" customHeight="1">
       <c r="L890" s="2"/>
       <c r="M890" s="2"/>
       <c r="N890" s="2"/>
       <c r="O890" s="2"/>
       <c r="T890" s="2"/>
     </row>
-    <row r="891" spans="12:20" ht="25.9" customHeight="1">
+    <row r="891" spans="12:20" ht="25.95" customHeight="1">
       <c r="L891" s="2"/>
       <c r="M891" s="2"/>
       <c r="N891" s="2"/>
       <c r="O891" s="2"/>
       <c r="T891" s="2"/>
     </row>
-    <row r="892" spans="12:20" ht="25.9" customHeight="1">
+    <row r="892" spans="12:20" ht="25.95" customHeight="1">
       <c r="L892" s="2"/>
       <c r="M892" s="2"/>
       <c r="N892" s="2"/>
       <c r="O892" s="2"/>
       <c r="T892" s="2"/>
     </row>
-    <row r="893" spans="12:20" ht="25.9" customHeight="1">
+    <row r="893" spans="12:20" ht="25.95" customHeight="1">
       <c r="L893" s="2"/>
       <c r="M893" s="2"/>
       <c r="N893" s="2"/>
       <c r="O893" s="2"/>
       <c r="T893" s="2"/>
     </row>
-    <row r="894" spans="12:20" ht="25.9" customHeight="1">
+    <row r="894" spans="12:20" ht="25.95" customHeight="1">
       <c r="L894" s="2"/>
       <c r="M894" s="2"/>
       <c r="N894" s="2"/>
       <c r="O894" s="2"/>
       <c r="T894" s="2"/>
     </row>
-    <row r="895" spans="12:20" ht="25.9" customHeight="1">
+    <row r="895" spans="12:20" ht="25.95" customHeight="1">
       <c r="L895" s="2"/>
       <c r="M895" s="2"/>
       <c r="N895" s="2"/>
       <c r="O895" s="2"/>
       <c r="T895" s="2"/>
     </row>
-    <row r="896" spans="12:20" ht="25.9" customHeight="1">
+    <row r="896" spans="12:20" ht="25.95" customHeight="1">
       <c r="L896" s="2"/>
       <c r="M896" s="2"/>
       <c r="N896" s="2"/>
       <c r="O896" s="2"/>
       <c r="T896" s="2"/>
     </row>
-    <row r="897" spans="12:20" ht="25.9" customHeight="1">
+    <row r="897" spans="12:20" ht="25.95" customHeight="1">
       <c r="L897" s="2"/>
       <c r="M897" s="2"/>
       <c r="N897" s="2"/>
       <c r="O897" s="2"/>
       <c r="T897" s="2"/>
     </row>
-    <row r="898" spans="12:20" ht="25.9" customHeight="1">
+    <row r="898" spans="12:20" ht="25.95" customHeight="1">
       <c r="L898" s="2"/>
       <c r="M898" s="2"/>
       <c r="N898" s="2"/>
       <c r="O898" s="2"/>
       <c r="T898" s="2"/>
     </row>
-    <row r="899" spans="12:20" ht="25.9" customHeight="1">
+    <row r="899" spans="12:20" ht="25.95" customHeight="1">
       <c r="L899" s="2"/>
       <c r="M899" s="2"/>
       <c r="N899" s="2"/>
       <c r="O899" s="2"/>
       <c r="T899" s="2"/>
     </row>
-    <row r="900" spans="12:20" ht="25.9" customHeight="1">
+    <row r="900" spans="12:20" ht="25.95" customHeight="1">
       <c r="L900" s="2"/>
       <c r="M900" s="2"/>
       <c r="N900" s="2"/>
       <c r="O900" s="2"/>
       <c r="T900" s="2"/>
     </row>
-    <row r="901" spans="12:20" ht="25.9" customHeight="1">
+    <row r="901" spans="12:20" ht="25.95" customHeight="1">
       <c r="L901" s="2"/>
       <c r="M901" s="2"/>
       <c r="N901" s="2"/>
       <c r="O901" s="2"/>
       <c r="T901" s="2"/>
     </row>
-    <row r="902" spans="12:20" ht="25.9" customHeight="1">
+    <row r="902" spans="12:20" ht="25.95" customHeight="1">
       <c r="L902" s="2"/>
       <c r="M902" s="2"/>
       <c r="N902" s="2"/>
       <c r="O902" s="2"/>
       <c r="T902" s="2"/>
     </row>
-    <row r="903" spans="12:20" ht="25.9" customHeight="1">
+    <row r="903" spans="12:20" ht="25.95" customHeight="1">
       <c r="L903" s="2"/>
       <c r="M903" s="2"/>
       <c r="N903" s="2"/>
       <c r="O903" s="2"/>
       <c r="T903" s="2"/>
     </row>
-    <row r="904" spans="12:20" ht="25.9" customHeight="1">
+    <row r="904" spans="12:20" ht="25.95" customHeight="1">
       <c r="L904" s="2"/>
       <c r="M904" s="2"/>
       <c r="N904" s="2"/>
       <c r="O904" s="2"/>
       <c r="T904" s="2"/>
     </row>
-    <row r="905" spans="12:20" ht="25.9" customHeight="1">
+    <row r="905" spans="12:20" ht="25.95" customHeight="1">
       <c r="L905" s="2"/>
       <c r="M905" s="2"/>
       <c r="N905" s="2"/>
       <c r="O905" s="2"/>
       <c r="T905" s="2"/>
     </row>
-    <row r="906" spans="12:20" ht="25.9" customHeight="1">
+    <row r="906" spans="12:20" ht="25.95" customHeight="1">
       <c r="L906" s="2"/>
       <c r="M906" s="2"/>
       <c r="N906" s="2"/>
       <c r="O906" s="2"/>
       <c r="T906" s="2"/>
     </row>
-    <row r="907" spans="12:20" ht="25.9" customHeight="1">
+    <row r="907" spans="12:20" ht="25.95" customHeight="1">
       <c r="L907" s="2"/>
       <c r="M907" s="2"/>
       <c r="N907" s="2"/>
       <c r="O907" s="2"/>
       <c r="T907" s="2"/>
     </row>
-    <row r="908" spans="12:20" ht="25.9" customHeight="1">
+    <row r="908" spans="12:20" ht="25.95" customHeight="1">
       <c r="L908" s="2"/>
       <c r="M908" s="2"/>
       <c r="N908" s="2"/>
       <c r="O908" s="2"/>
       <c r="T908" s="2"/>
     </row>
-    <row r="909" spans="12:20" ht="25.9" customHeight="1">
+    <row r="909" spans="12:20" ht="25.95" customHeight="1">
       <c r="L909" s="2"/>
       <c r="M909" s="2"/>
       <c r="N909" s="2"/>
       <c r="O909" s="2"/>
       <c r="T909" s="2"/>
     </row>
-    <row r="910" spans="12:20" ht="25.9" customHeight="1">
+    <row r="910" spans="12:20" ht="25.95" customHeight="1">
       <c r="L910" s="2"/>
       <c r="M910" s="2"/>
       <c r="N910" s="2"/>
       <c r="O910" s="2"/>
       <c r="T910" s="2"/>
     </row>
-    <row r="911" spans="12:20" ht="25.9" customHeight="1">
+    <row r="911" spans="12:20" ht="25.95" customHeight="1">
       <c r="L911" s="2"/>
       <c r="M911" s="2"/>
       <c r="N911" s="2"/>
       <c r="O911" s="2"/>
       <c r="T911" s="2"/>
     </row>
-    <row r="912" spans="12:20" ht="25.9" customHeight="1">
+    <row r="912" spans="12:20" ht="25.95" customHeight="1">
       <c r="L912" s="2"/>
       <c r="M912" s="2"/>
       <c r="N912" s="2"/>
       <c r="O912" s="2"/>
       <c r="T912" s="2"/>
     </row>
-    <row r="913" spans="12:20" ht="25.9" customHeight="1">
+    <row r="913" spans="12:20" ht="25.95" customHeight="1">
       <c r="L913" s="2"/>
       <c r="M913" s="2"/>
       <c r="N913" s="2"/>
       <c r="O913" s="2"/>
       <c r="T913" s="2"/>
     </row>
-    <row r="914" spans="12:20" ht="25.9" customHeight="1">
+    <row r="914" spans="12:20" ht="25.95" customHeight="1">
       <c r="L914" s="2"/>
       <c r="M914" s="2"/>
       <c r="N914" s="2"/>
       <c r="O914" s="2"/>
       <c r="T914" s="2"/>
     </row>
-    <row r="915" spans="12:20" ht="25.9" customHeight="1">
+    <row r="915" spans="12:20" ht="25.95" customHeight="1">
       <c r="L915" s="2"/>
       <c r="M915" s="2"/>
       <c r="N915" s="2"/>
       <c r="O915" s="2"/>
       <c r="T915" s="2"/>
     </row>
-    <row r="916" spans="12:20" ht="25.9" customHeight="1">
+    <row r="916" spans="12:20" ht="25.95" customHeight="1">
       <c r="L916" s="2"/>
       <c r="M916" s="2"/>
       <c r="N916" s="2"/>
       <c r="O916" s="2"/>
       <c r="T916" s="2"/>
     </row>
-    <row r="917" spans="12:20" ht="25.9" customHeight="1">
+    <row r="917" spans="12:20" ht="25.95" customHeight="1">
       <c r="L917" s="2"/>
       <c r="M917" s="2"/>
       <c r="N917" s="2"/>
       <c r="O917" s="2"/>
       <c r="T917" s="2"/>
     </row>
-    <row r="918" spans="12:20" ht="25.9" customHeight="1">
+    <row r="918" spans="12:20" ht="25.95" customHeight="1">
       <c r="L918" s="2"/>
       <c r="M918" s="2"/>
       <c r="N918" s="2"/>
       <c r="O918" s="2"/>
       <c r="T918" s="2"/>
     </row>
-    <row r="919" spans="12:20" ht="25.9" customHeight="1">
+    <row r="919" spans="12:20" ht="25.95" customHeight="1">
       <c r="L919" s="2"/>
       <c r="M919" s="2"/>
       <c r="N919" s="2"/>
       <c r="O919" s="2"/>
       <c r="T919" s="2"/>
     </row>
-    <row r="920" spans="12:20" ht="25.9" customHeight="1">
+    <row r="920" spans="12:20" ht="25.95" customHeight="1">
       <c r="L920" s="2"/>
       <c r="M920" s="2"/>
       <c r="N920" s="2"/>
       <c r="O920" s="2"/>
       <c r="T920" s="2"/>
     </row>
-    <row r="921" spans="12:20" ht="25.9" customHeight="1">
+    <row r="921" spans="12:20" ht="25.95" customHeight="1">
       <c r="L921" s="2"/>
       <c r="M921" s="2"/>
       <c r="N921" s="2"/>
       <c r="O921" s="2"/>
       <c r="T921" s="2"/>
     </row>
-    <row r="922" spans="12:20" ht="25.9" customHeight="1">
+    <row r="922" spans="12:20" ht="25.95" customHeight="1">
       <c r="L922" s="2"/>
       <c r="M922" s="2"/>
       <c r="N922" s="2"/>
       <c r="O922" s="2"/>
       <c r="T922" s="2"/>
     </row>
-    <row r="923" spans="12:20" ht="25.9" customHeight="1">
+    <row r="923" spans="12:20" ht="25.95" customHeight="1">
       <c r="L923" s="2"/>
       <c r="M923" s="2"/>
       <c r="N923" s="2"/>
       <c r="O923" s="2"/>
       <c r="T923" s="2"/>
     </row>
-    <row r="924" spans="12:20" ht="25.9" customHeight="1">
+    <row r="924" spans="12:20" ht="25.95" customHeight="1">
       <c r="L924" s="2"/>
       <c r="M924" s="2"/>
       <c r="N924" s="2"/>
       <c r="O924" s="2"/>
       <c r="T924" s="2"/>
     </row>
-    <row r="925" spans="12:20" ht="25.9" customHeight="1">
+    <row r="925" spans="12:20" ht="25.95" customHeight="1">
       <c r="L925" s="2"/>
       <c r="M925" s="2"/>
       <c r="N925" s="2"/>
       <c r="O925" s="2"/>
       <c r="T925" s="2"/>
     </row>
-    <row r="926" spans="12:20" ht="25.9" customHeight="1">
+    <row r="926" spans="12:20" ht="25.95" customHeight="1">
       <c r="L926" s="2"/>
       <c r="M926" s="2"/>
       <c r="N926" s="2"/>
       <c r="O926" s="2"/>
       <c r="T926" s="2"/>
     </row>
-    <row r="927" spans="12:20" ht="25.9" customHeight="1">
+    <row r="927" spans="12:20" ht="25.95" customHeight="1">
       <c r="L927" s="2"/>
       <c r="M927" s="2"/>
       <c r="N927" s="2"/>
       <c r="O927" s="2"/>
       <c r="T927" s="2"/>
     </row>
-    <row r="928" spans="12:20" ht="25.9" customHeight="1">
+    <row r="928" spans="12:20" ht="25.95" customHeight="1">
       <c r="L928" s="2"/>
       <c r="M928" s="2"/>
       <c r="N928" s="2"/>
       <c r="O928" s="2"/>
       <c r="T928" s="2"/>
     </row>
-    <row r="929" spans="12:20" ht="25.9" customHeight="1">
+    <row r="929" spans="12:20" ht="25.95" customHeight="1">
       <c r="L929" s="2"/>
       <c r="M929" s="2"/>
       <c r="N929" s="2"/>
       <c r="O929" s="2"/>
       <c r="T929" s="2"/>
     </row>
-    <row r="930" spans="12:20" ht="25.9" customHeight="1">
+    <row r="930" spans="12:20" ht="25.95" customHeight="1">
       <c r="L930" s="2"/>
       <c r="M930" s="2"/>
       <c r="N930" s="2"/>
       <c r="O930" s="2"/>
       <c r="T930" s="2"/>
     </row>
-    <row r="931" spans="12:20" ht="25.9" customHeight="1">
+    <row r="931" spans="12:20" ht="25.95" customHeight="1">
       <c r="L931" s="2"/>
       <c r="M931" s="2"/>
       <c r="N931" s="2"/>
@@ -14037,11 +14037,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="26" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/S1#111IASI0000000/IASI S.r.l/SISWeb/2.4.8/report-checklist.xlsx
+++ b/GATEWAY/S1#111IASI0000000/IASI S.r.l/SISWeb/2.4.8/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SISWeb\FSE2.0\it-fse-accreditamento\it-fse-accreditamento\GATEWAY\S1#111IASI0000000\IASI S.r.l\SISWeb\2.4.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CD17BB-9EF0-429F-ADFE-D9BFA5A477D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114D520A-C6A2-4DB0-A4E0-F9D05A6865F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -1463,15 +1463,6 @@
 Tentare di nuovo il processo di validazione?</t>
   </si>
   <si>
-    <t>2023-03-18T19:29:21Z</t>
-  </si>
-  <si>
-    <t>61740e529fdd72be</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.130202.4.4.886808350b06a9393032e75291b0cf07b4adc8c7a6c99e884da22d89c55a873d.b8300ae17a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>RSA</t>
   </si>
   <si>
@@ -1896,13 +1887,22 @@
 Nel caso in cui non fosse possibile proseguire con la validazione, il processo clinico prosegue e in backoffice si cerca di risolvere il problema per consentire una nuova validazione.</t>
   </si>
   <si>
-    <t>2717b90b33189078</t>
-  </si>
-  <si>
-    <t>2023-03-28T15:01:16Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.130202.4.4.f46a4e56f62d1c959046327790f704dbc9cb10c5dbb6649fd8cb1d75f37f7c4f.271a06deec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-04-12T14:42:41Z</t>
+  </si>
+  <si>
+    <t>9e02d068f4ea88d4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.130202.4.4.886808350b06a9393032e75291b0cf07b4adc8c7a6c99e884da22d89c55a873d.a05d380b35^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:22:08Z</t>
+  </si>
+  <si>
+    <t>782a0f2dc1a43465</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.130202.4.4.f46a4e56f62d1c959046327790f704dbc9cb10c5dbb6649fd8cb1d75f37f7c4f.46ae48f9ea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2428,7 +2428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2605,7 +2605,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2971,24 +2970,24 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="Q11" sqref="Q9:Q11"/>
+      <selection pane="bottomRight" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="25.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="25.9" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.109375" customWidth="1"/>
-    <col min="12" max="12" width="29.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="29.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.6640625" customWidth="1"/>
-    <col min="20" max="20" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" customWidth="1"/>
+    <col min="12" max="12" width="29.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5703125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="29.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.7109375" customWidth="1"/>
+    <col min="20" max="20" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
@@ -2999,14 +2998,14 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="63" t="s">
         <v>350</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="73" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="D2" s="65"/>
+      <c r="D2" s="64"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -3014,14 +3013,14 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>351</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="71" t="s">
         <v>360</v>
       </c>
-      <c r="D3" s="65"/>
+      <c r="D3" s="64"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -3029,12 +3028,12 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="72" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="71" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="64"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -3042,12 +3041,12 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71" t="s">
         <v>361</v>
       </c>
-      <c r="D5" s="65"/>
+      <c r="D5" s="64"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -3137,7 +3136,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="10" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A10" s="18">
         <v>6</v>
       </c>
@@ -3183,7 +3182,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="48" customFormat="1" ht="25.95" customHeight="1">
+    <row r="11" spans="1:20" s="48" customFormat="1" ht="25.9" customHeight="1">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -3221,7 +3220,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1">
+    <row r="12" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1">
       <c r="A12" s="11">
         <v>8</v>
       </c>
@@ -3259,7 +3258,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1">
+    <row r="13" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1">
       <c r="A13" s="34">
         <v>9</v>
       </c>
@@ -3299,7 +3298,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="14" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A14" s="18">
         <v>11</v>
       </c>
@@ -3345,7 +3344,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1">
+    <row r="15" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -3391,7 +3390,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="25.95" customHeight="1">
+    <row r="16" spans="1:20" ht="25.9" customHeight="1">
       <c r="A16" s="18">
         <v>13</v>
       </c>
@@ -3431,7 +3430,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="25.95" customHeight="1">
+    <row r="17" spans="1:20" ht="25.9" customHeight="1">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -3471,7 +3470,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="25.95" customHeight="1">
+    <row r="18" spans="1:20" ht="25.9" customHeight="1">
       <c r="A18" s="11">
         <v>24</v>
       </c>
@@ -3487,17 +3486,17 @@
       <c r="E18" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="61">
-        <v>45003</v>
+      <c r="F18" s="8">
+        <v>45028</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="H18" s="62" t="s">
-        <v>368</v>
+        <v>477</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>478</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>369</v>
+        <v>479</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>23</v>
@@ -3517,7 +3516,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="19" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A19" s="18">
         <v>25</v>
       </c>
@@ -3557,7 +3556,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="48" customFormat="1" ht="25.95" customHeight="1">
+    <row r="20" spans="1:20" s="48" customFormat="1" ht="25.9" customHeight="1">
       <c r="A20" s="6">
         <v>26</v>
       </c>
@@ -3597,7 +3596,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1">
+    <row r="21" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1">
       <c r="A21" s="11">
         <v>27</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="22" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A22" s="18">
         <v>29</v>
       </c>
@@ -3695,7 +3694,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="23" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A23" s="18">
         <v>31</v>
       </c>
@@ -3751,7 +3750,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="24" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A24" s="18">
         <v>35</v>
       </c>
@@ -3807,7 +3806,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="25" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A25" s="18">
         <v>37</v>
       </c>
@@ -3865,7 +3864,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="26" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A26" s="18">
         <v>39</v>
       </c>
@@ -3921,7 +3920,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="48" customFormat="1" ht="25.95" customHeight="1">
+    <row r="27" spans="1:20" s="48" customFormat="1" ht="25.9" customHeight="1">
       <c r="A27" s="6">
         <v>43</v>
       </c>
@@ -4133,7 +4132,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1">
+    <row r="31" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1">
       <c r="A31" s="34">
         <v>63</v>
       </c>
@@ -4173,7 +4172,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="32" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A32" s="18">
         <v>64</v>
       </c>
@@ -4229,7 +4228,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="33" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A33" s="18">
         <v>65</v>
       </c>
@@ -4285,7 +4284,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="34" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A34" s="18">
         <v>66</v>
       </c>
@@ -4341,7 +4340,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="35" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A35" s="18">
         <v>67</v>
       </c>
@@ -4397,7 +4396,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="36" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A36" s="18">
         <v>68</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="37" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A37" s="18">
         <v>69</v>
       </c>
@@ -4509,7 +4508,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1">
+    <row r="38" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1">
       <c r="A38" s="11">
         <v>70</v>
       </c>
@@ -4565,7 +4564,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="39" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A39" s="18">
         <v>71</v>
       </c>
@@ -4605,7 +4604,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1" thickBot="1">
+    <row r="40" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1" thickBot="1">
       <c r="A40" s="6">
         <v>72</v>
       </c>
@@ -4645,7 +4644,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1">
+    <row r="41" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1">
       <c r="A41" s="11">
         <v>73</v>
       </c>
@@ -4701,7 +4700,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="42" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A42" s="18">
         <v>74</v>
       </c>
@@ -4741,7 +4740,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1">
+    <row r="43" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1">
       <c r="A43" s="11">
         <v>75</v>
       </c>
@@ -4781,7 +4780,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="44" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A44" s="18">
         <v>76</v>
       </c>
@@ -4837,7 +4836,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="45" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A45" s="18">
         <v>77</v>
       </c>
@@ -4893,7 +4892,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="46" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A46" s="18">
         <v>78</v>
       </c>
@@ -4949,7 +4948,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="47" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A47" s="18">
         <v>79</v>
       </c>
@@ -5005,7 +5004,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="48" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A48" s="18">
         <v>80</v>
       </c>
@@ -5061,7 +5060,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="49" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A49" s="18">
         <v>81</v>
       </c>
@@ -5117,7 +5116,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="50" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A50" s="18">
         <v>82</v>
       </c>
@@ -5173,7 +5172,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="51" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A51" s="18">
         <v>83</v>
       </c>
@@ -5229,7 +5228,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="52" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A52" s="18">
         <v>84</v>
       </c>
@@ -5285,7 +5284,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="4" customFormat="1" ht="25.95" customHeight="1">
+    <row r="53" spans="1:20" s="4" customFormat="1" ht="25.9" customHeight="1">
       <c r="A53" s="11">
         <v>85</v>
       </c>
@@ -5341,7 +5340,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="54" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A54" s="18">
         <v>86</v>
       </c>
@@ -5381,7 +5380,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="55" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A55" s="18">
         <v>87</v>
       </c>
@@ -5421,7 +5420,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="56" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A56" s="18">
         <v>88</v>
       </c>
@@ -5461,7 +5460,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="57" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A57" s="18">
         <v>89</v>
       </c>
@@ -5501,7 +5500,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="58" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A58" s="18">
         <v>90</v>
       </c>
@@ -5541,7 +5540,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="59" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A59" s="18">
         <v>91</v>
       </c>
@@ -5581,7 +5580,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="60" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A60" s="18">
         <v>92</v>
       </c>
@@ -5637,7 +5636,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="61" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A61" s="18">
         <v>93</v>
       </c>
@@ -5693,7 +5692,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="62" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A62" s="18">
         <v>122</v>
       </c>
@@ -5733,7 +5732,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="63" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="63" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A63" s="18">
         <v>123</v>
       </c>
@@ -5789,7 +5788,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="64" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="64" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A64" s="18">
         <v>124</v>
       </c>
@@ -5845,7 +5844,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="65" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="65" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A65" s="18">
         <v>125</v>
       </c>
@@ -5901,7 +5900,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="66" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A66" s="18">
         <v>126</v>
       </c>
@@ -5957,7 +5956,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="67" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="67" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A67" s="18">
         <v>127</v>
       </c>
@@ -6013,7 +6012,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="68" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="68" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A68" s="18">
         <v>128</v>
       </c>
@@ -6069,7 +6068,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="69" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="69" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A69" s="18">
         <v>129</v>
       </c>
@@ -6125,7 +6124,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="70" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="70" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A70" s="18">
         <v>130</v>
       </c>
@@ -6181,7 +6180,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="71" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="71" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A71" s="18">
         <v>131</v>
       </c>
@@ -6237,7 +6236,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="72" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="72" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A72" s="18">
         <v>132</v>
       </c>
@@ -6293,7 +6292,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="73" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="73" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A73" s="18">
         <v>133</v>
       </c>
@@ -6349,7 +6348,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="74" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A74" s="18">
         <v>134</v>
       </c>
@@ -6389,7 +6388,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="75" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="75" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A75" s="18">
         <v>135</v>
       </c>
@@ -6429,7 +6428,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="76" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="76" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A76" s="18">
         <v>136</v>
       </c>
@@ -6469,7 +6468,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="77" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A77" s="18">
         <v>137</v>
       </c>
@@ -6525,7 +6524,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="78" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A78" s="18">
         <v>138</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="79" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="79" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A79" s="18">
         <v>139</v>
       </c>
@@ -6621,7 +6620,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="80" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A80" s="18">
         <v>140</v>
       </c>
@@ -6677,7 +6676,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="81" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A81" s="18">
         <v>141</v>
       </c>
@@ -6717,7 +6716,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="82" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A82" s="18">
         <v>142</v>
       </c>
@@ -6773,7 +6772,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="83" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A83" s="18">
         <v>143</v>
       </c>
@@ -6829,7 +6828,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="84" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A84" s="18">
         <v>144</v>
       </c>
@@ -6885,7 +6884,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="85" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A85" s="18">
         <v>145</v>
       </c>
@@ -6925,7 +6924,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="26" customFormat="1" ht="25.95" customHeight="1">
+    <row r="86" spans="1:20" s="26" customFormat="1" ht="25.9" customHeight="1">
       <c r="A86" s="18">
         <v>146</v>
       </c>
@@ -6965,7 +6964,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="25.95" customHeight="1">
+    <row r="87" spans="1:20" ht="25.9" customHeight="1">
       <c r="A87" s="6">
         <v>32</v>
       </c>
@@ -6973,22 +6972,22 @@
         <v>15</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F87" s="8">
         <v>45013</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I87" s="8" t="s">
         <v>62</v>
@@ -7010,7 +7009,7 @@
         <v>23</v>
       </c>
       <c r="P87" s="9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Q87" s="6" t="s">
         <v>24</v>
@@ -7021,7 +7020,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="25.95" customHeight="1">
+    <row r="88" spans="1:20" ht="25.9" customHeight="1">
       <c r="A88" s="6">
         <v>40</v>
       </c>
@@ -7029,22 +7028,22 @@
         <v>15</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F88" s="8">
         <v>45013</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I88" s="8" t="s">
         <v>62</v>
@@ -7060,13 +7059,13 @@
         <v>23</v>
       </c>
       <c r="N88" s="9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="O88" s="27" t="s">
         <v>23</v>
       </c>
       <c r="P88" s="9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="Q88" s="6" t="s">
         <v>24</v>
@@ -7077,7 +7076,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="25.95" customHeight="1">
+    <row r="89" spans="1:20" ht="25.9" customHeight="1">
       <c r="A89" s="6">
         <v>48</v>
       </c>
@@ -7085,10 +7084,10 @@
         <v>15</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>89</v>
@@ -7129,7 +7128,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="25.95" customHeight="1">
+    <row r="90" spans="1:20" ht="25.9" customHeight="1">
       <c r="A90" s="6">
         <v>147</v>
       </c>
@@ -7137,24 +7136,24 @@
         <v>15</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F90" s="8">
-        <v>45013</v>
+        <v>45028</v>
       </c>
       <c r="G90" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="H90" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="H90" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="I90" s="63" t="s">
+      <c r="I90" s="62" t="s">
         <v>482</v>
       </c>
       <c r="J90" s="6" t="s">
@@ -7175,7 +7174,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="25.95" customHeight="1">
+    <row r="91" spans="1:20" ht="25.9" customHeight="1">
       <c r="A91" s="6">
         <v>148</v>
       </c>
@@ -7183,13 +7182,13 @@
         <v>15</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="6"/>
@@ -7198,7 +7197,7 @@
       <c r="J91" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K91" s="63" t="s">
+      <c r="K91" s="62" t="s">
         <v>33</v>
       </c>
       <c r="L91" s="6"/>
@@ -7208,14 +7207,14 @@
       <c r="P91" s="22"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
-      <c r="S91" s="63" t="s">
+      <c r="S91" s="62" t="s">
         <v>33</v>
       </c>
       <c r="T91" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="25.95" customHeight="1">
+    <row r="92" spans="1:20" ht="25.9" customHeight="1">
       <c r="A92" s="6">
         <v>149</v>
       </c>
@@ -7223,13 +7222,13 @@
         <v>15</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="6"/>
@@ -7238,7 +7237,7 @@
       <c r="J92" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K92" s="63" t="s">
+      <c r="K92" s="62" t="s">
         <v>33</v>
       </c>
       <c r="L92" s="6"/>
@@ -7248,14 +7247,14 @@
       <c r="P92" s="22"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
-      <c r="S92" s="63" t="s">
+      <c r="S92" s="62" t="s">
         <v>33</v>
       </c>
       <c r="T92" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="25.95" customHeight="1">
+    <row r="93" spans="1:20" ht="25.9" customHeight="1">
       <c r="A93" s="6">
         <v>150</v>
       </c>
@@ -7263,13 +7262,13 @@
         <v>15</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="6"/>
@@ -7278,7 +7277,7 @@
       <c r="J93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K93" s="63" t="s">
+      <c r="K93" s="62" t="s">
         <v>33</v>
       </c>
       <c r="L93" s="6"/>
@@ -7288,14 +7287,14 @@
       <c r="P93" s="22"/>
       <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
-      <c r="S93" s="63" t="s">
+      <c r="S93" s="62" t="s">
         <v>33</v>
       </c>
       <c r="T93" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="25.95" customHeight="1">
+    <row r="94" spans="1:20" ht="25.9" customHeight="1">
       <c r="A94" s="6">
         <v>151</v>
       </c>
@@ -7303,25 +7302,25 @@
         <v>15</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F94" s="8">
         <v>45013</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I94" s="21" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J94" s="6" t="s">
         <v>23</v>
@@ -7333,25 +7332,25 @@
       <c r="M94" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N94" s="63" t="s">
-        <v>394</v>
+      <c r="N94" s="62" t="s">
+        <v>391</v>
       </c>
       <c r="O94" s="24" t="s">
         <v>23</v>
       </c>
       <c r="P94" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q94" s="6" t="s">
         <v>24</v>
       </c>
       <c r="R94" s="6"/>
-      <c r="S94" s="63"/>
+      <c r="S94" s="62"/>
       <c r="T94" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="25.95" customHeight="1">
+    <row r="95" spans="1:20" ht="25.9" customHeight="1">
       <c r="A95" s="6">
         <v>152</v>
       </c>
@@ -7359,25 +7358,25 @@
         <v>15</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F95" s="8">
         <v>45013</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I95" s="21" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J95" s="6" t="s">
         <v>23</v>
@@ -7389,25 +7388,25 @@
       <c r="M95" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N95" s="63" t="s">
-        <v>400</v>
+      <c r="N95" s="62" t="s">
+        <v>397</v>
       </c>
       <c r="O95" s="24" t="s">
         <v>23</v>
       </c>
       <c r="P95" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q95" s="6" t="s">
         <v>24</v>
       </c>
       <c r="R95" s="6"/>
-      <c r="S95" s="63"/>
+      <c r="S95" s="62"/>
       <c r="T95" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="25.95" customHeight="1">
+    <row r="96" spans="1:20" ht="25.9" customHeight="1">
       <c r="A96" s="6">
         <v>153</v>
       </c>
@@ -7415,25 +7414,25 @@
         <v>15</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F96" s="8">
         <v>45013</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I96" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J96" s="6" t="s">
         <v>23</v>
@@ -7445,25 +7444,25 @@
       <c r="M96" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N96" s="63" t="s">
-        <v>406</v>
+      <c r="N96" s="62" t="s">
+        <v>403</v>
       </c>
       <c r="O96" s="24" t="s">
         <v>23</v>
       </c>
       <c r="P96" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q96" s="6" t="s">
         <v>24</v>
       </c>
       <c r="R96" s="6"/>
-      <c r="S96" s="63"/>
+      <c r="S96" s="62"/>
       <c r="T96" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="25.95" customHeight="1">
+    <row r="97" spans="1:20" ht="25.9" customHeight="1">
       <c r="A97" s="6">
         <v>154</v>
       </c>
@@ -7471,25 +7470,25 @@
         <v>15</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F97" s="8">
         <v>45013</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I97" s="21" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J97" s="6" t="s">
         <v>23</v>
@@ -7501,25 +7500,25 @@
       <c r="M97" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N97" s="63" t="s">
+      <c r="N97" s="62" t="s">
         <v>253</v>
       </c>
       <c r="O97" s="24" t="s">
         <v>23</v>
       </c>
       <c r="P97" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q97" s="6" t="s">
         <v>24</v>
       </c>
       <c r="R97" s="6"/>
-      <c r="S97" s="63"/>
+      <c r="S97" s="62"/>
       <c r="T97" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="25.95" customHeight="1">
+    <row r="98" spans="1:20" ht="25.9" customHeight="1">
       <c r="A98" s="6">
         <v>155</v>
       </c>
@@ -7527,25 +7526,25 @@
         <v>15</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F98" s="8">
         <v>45013</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I98" s="21" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>23</v>
@@ -7557,25 +7556,25 @@
       <c r="M98" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N98" s="63" t="s">
+      <c r="N98" s="62" t="s">
         <v>173</v>
       </c>
       <c r="O98" s="24" t="s">
         <v>23</v>
       </c>
       <c r="P98" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q98" s="6" t="s">
         <v>24</v>
       </c>
       <c r="R98" s="6"/>
-      <c r="S98" s="63"/>
+      <c r="S98" s="62"/>
       <c r="T98" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="25.95" customHeight="1">
+    <row r="99" spans="1:20" ht="25.9" customHeight="1">
       <c r="A99" s="6">
         <v>156</v>
       </c>
@@ -7583,25 +7582,25 @@
         <v>15</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F99" s="8">
         <v>45013</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I99" s="21" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J99" s="6" t="s">
         <v>23</v>
@@ -7613,25 +7612,25 @@
       <c r="M99" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N99" s="63" t="s">
+      <c r="N99" s="62" t="s">
         <v>179</v>
       </c>
       <c r="O99" s="24" t="s">
         <v>23</v>
       </c>
       <c r="P99" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q99" s="6" t="s">
         <v>24</v>
       </c>
       <c r="R99" s="6"/>
-      <c r="S99" s="63"/>
+      <c r="S99" s="62"/>
       <c r="T99" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="25.95" customHeight="1">
+    <row r="100" spans="1:20" ht="25.9" customHeight="1">
       <c r="A100" s="6">
         <v>157</v>
       </c>
@@ -7639,25 +7638,25 @@
         <v>15</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F100" s="8">
         <v>45013</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I100" s="21" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J100" s="6" t="s">
         <v>23</v>
@@ -7669,25 +7668,25 @@
       <c r="M100" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N100" s="63" t="s">
-        <v>427</v>
+      <c r="N100" s="62" t="s">
+        <v>424</v>
       </c>
       <c r="O100" s="24" t="s">
         <v>23</v>
       </c>
       <c r="P100" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q100" s="6" t="s">
         <v>24</v>
       </c>
       <c r="R100" s="6"/>
-      <c r="S100" s="63"/>
+      <c r="S100" s="62"/>
       <c r="T100" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="25.95" customHeight="1">
+    <row r="101" spans="1:20" ht="25.9" customHeight="1">
       <c r="A101" s="6">
         <v>158</v>
       </c>
@@ -7695,25 +7694,25 @@
         <v>15</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F101" s="8">
         <v>45013</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I101" s="21" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>23</v>
@@ -7725,25 +7724,25 @@
       <c r="M101" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N101" s="63" t="s">
-        <v>433</v>
+      <c r="N101" s="62" t="s">
+        <v>430</v>
       </c>
       <c r="O101" s="24" t="s">
         <v>23</v>
       </c>
       <c r="P101" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q101" s="6" t="s">
         <v>24</v>
       </c>
       <c r="R101" s="6"/>
-      <c r="S101" s="63"/>
+      <c r="S101" s="62"/>
       <c r="T101" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="25.95" customHeight="1">
+    <row r="102" spans="1:20" ht="25.9" customHeight="1">
       <c r="A102" s="6">
         <v>159</v>
       </c>
@@ -7751,25 +7750,25 @@
         <v>15</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F102" s="8">
         <v>45013</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I102" s="21" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>23</v>
@@ -7781,25 +7780,25 @@
       <c r="M102" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N102" s="63" t="s">
+      <c r="N102" s="62" t="s">
         <v>197</v>
       </c>
       <c r="O102" s="24" t="s">
         <v>23</v>
       </c>
       <c r="P102" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q102" s="6" t="s">
         <v>24</v>
       </c>
       <c r="R102" s="6"/>
-      <c r="S102" s="63"/>
+      <c r="S102" s="62"/>
       <c r="T102" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="25.95" customHeight="1">
+    <row r="103" spans="1:20" ht="25.9" customHeight="1">
       <c r="A103" s="6">
         <v>160</v>
       </c>
@@ -7807,25 +7806,25 @@
         <v>15</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F103" s="8">
         <v>45013</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I103" s="21" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J103" s="6" t="s">
         <v>23</v>
@@ -7837,25 +7836,25 @@
       <c r="M103" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N103" s="63" t="s">
+      <c r="N103" s="62" t="s">
         <v>203</v>
       </c>
       <c r="O103" s="24" t="s">
         <v>23</v>
       </c>
       <c r="P103" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q103" s="6" t="s">
         <v>24</v>
       </c>
       <c r="R103" s="6"/>
-      <c r="S103" s="63"/>
+      <c r="S103" s="62"/>
       <c r="T103" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="25.95" customHeight="1">
+    <row r="104" spans="1:20" ht="25.9" customHeight="1">
       <c r="A104" s="6">
         <v>161</v>
       </c>
@@ -7863,25 +7862,25 @@
         <v>15</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F104" s="8">
         <v>45013</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I104" s="21" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J104" s="6" t="s">
         <v>23</v>
@@ -7893,25 +7892,25 @@
       <c r="M104" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N104" s="63" t="s">
-        <v>449</v>
+      <c r="N104" s="62" t="s">
+        <v>446</v>
       </c>
       <c r="O104" s="24" t="s">
         <v>23</v>
       </c>
       <c r="P104" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q104" s="6" t="s">
         <v>24</v>
       </c>
       <c r="R104" s="6"/>
-      <c r="S104" s="63"/>
+      <c r="S104" s="62"/>
       <c r="T104" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="25.95" customHeight="1">
+    <row r="105" spans="1:20" ht="25.9" customHeight="1">
       <c r="A105" s="6">
         <v>162</v>
       </c>
@@ -7919,25 +7918,25 @@
         <v>15</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F105" s="8">
         <v>45013</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I105" s="21" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J105" s="6" t="s">
         <v>23</v>
@@ -7949,25 +7948,25 @@
       <c r="M105" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N105" s="63" t="s">
-        <v>455</v>
+      <c r="N105" s="62" t="s">
+        <v>452</v>
       </c>
       <c r="O105" s="24" t="s">
         <v>23</v>
       </c>
       <c r="P105" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q105" s="6" t="s">
         <v>24</v>
       </c>
       <c r="R105" s="6"/>
-      <c r="S105" s="63"/>
+      <c r="S105" s="62"/>
       <c r="T105" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="25.95" customHeight="1">
+    <row r="106" spans="1:20" ht="25.9" customHeight="1">
       <c r="A106" s="6">
         <v>163</v>
       </c>
@@ -7975,13 +7974,13 @@
         <v>15</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F106" s="8"/>
       <c r="G106" s="6"/>
@@ -7995,7 +7994,7 @@
       </c>
       <c r="L106" s="6"/>
       <c r="M106" s="24"/>
-      <c r="N106" s="63"/>
+      <c r="N106" s="62"/>
       <c r="O106" s="6"/>
       <c r="P106" s="22"/>
       <c r="Q106" s="6"/>
@@ -8007,7 +8006,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="25.95" customHeight="1">
+    <row r="107" spans="1:20" ht="25.9" customHeight="1">
       <c r="A107" s="6">
         <v>164</v>
       </c>
@@ -8015,13 +8014,13 @@
         <v>15</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F107" s="8"/>
       <c r="G107" s="6"/>
@@ -8035,7 +8034,7 @@
       </c>
       <c r="L107" s="6"/>
       <c r="M107" s="24"/>
-      <c r="N107" s="63"/>
+      <c r="N107" s="62"/>
       <c r="O107" s="6"/>
       <c r="P107" s="22"/>
       <c r="Q107" s="6"/>
@@ -8047,7 +8046,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="25.95" customHeight="1">
+    <row r="108" spans="1:20" ht="25.9" customHeight="1">
       <c r="A108" s="6">
         <v>165</v>
       </c>
@@ -8055,13 +8054,13 @@
         <v>15</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F108" s="8"/>
       <c r="G108" s="6"/>
@@ -8075,7 +8074,7 @@
       </c>
       <c r="L108" s="6"/>
       <c r="M108" s="24"/>
-      <c r="N108" s="63"/>
+      <c r="N108" s="62"/>
       <c r="O108" s="6"/>
       <c r="P108" s="22"/>
       <c r="Q108" s="6"/>
@@ -8087,7 +8086,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="25.95" customHeight="1">
+    <row r="109" spans="1:20" ht="25.9" customHeight="1">
       <c r="A109" s="6">
         <v>166</v>
       </c>
@@ -8095,13 +8094,13 @@
         <v>15</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="6"/>
@@ -8115,7 +8114,7 @@
       </c>
       <c r="L109" s="6"/>
       <c r="M109" s="24"/>
-      <c r="N109" s="63"/>
+      <c r="N109" s="62"/>
       <c r="O109" s="6"/>
       <c r="P109" s="22"/>
       <c r="Q109" s="6"/>
@@ -8127,7 +8126,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="25.95" customHeight="1">
+    <row r="110" spans="1:20" ht="25.9" customHeight="1">
       <c r="A110" s="6">
         <v>167</v>
       </c>
@@ -8135,13 +8134,13 @@
         <v>15</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F110" s="8"/>
       <c r="G110" s="6"/>
@@ -8155,7 +8154,7 @@
       </c>
       <c r="L110" s="6"/>
       <c r="M110" s="24"/>
-      <c r="N110" s="63"/>
+      <c r="N110" s="62"/>
       <c r="O110" s="6"/>
       <c r="P110" s="22"/>
       <c r="Q110" s="6"/>
@@ -8167,7 +8166,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="25.95" customHeight="1">
+    <row r="111" spans="1:20" ht="25.9" customHeight="1">
       <c r="A111" s="6">
         <v>168</v>
       </c>
@@ -8175,25 +8174,25 @@
         <v>15</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F111" s="8">
         <v>45013</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I111" s="21" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J111" s="6" t="s">
         <v>23</v>
@@ -8205,25 +8204,25 @@
       <c r="M111" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N111" s="63" t="s">
-        <v>471</v>
+      <c r="N111" s="62" t="s">
+        <v>468</v>
       </c>
       <c r="O111" s="24" t="s">
         <v>23</v>
       </c>
       <c r="P111" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q111" s="6" t="s">
         <v>24</v>
       </c>
       <c r="R111" s="6"/>
-      <c r="S111" s="63"/>
+      <c r="S111" s="62"/>
       <c r="T111" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="25.95" customHeight="1">
+    <row r="112" spans="1:20" ht="25.9" customHeight="1">
       <c r="A112" s="6">
         <v>169</v>
       </c>
@@ -8231,25 +8230,25 @@
         <v>15</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F112" s="8">
         <v>45013</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I112" s="21" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J112" s="6" t="s">
         <v>23</v>
@@ -8261,5751 +8260,5751 @@
       <c r="M112" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N112" s="63" t="s">
-        <v>477</v>
+      <c r="N112" s="62" t="s">
+        <v>474</v>
       </c>
       <c r="O112" s="24" t="s">
         <v>23</v>
       </c>
       <c r="P112" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q112" s="6" t="s">
         <v>24</v>
       </c>
       <c r="R112" s="6"/>
-      <c r="S112" s="63"/>
+      <c r="S112" s="62"/>
       <c r="T112" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="113" spans="12:20" ht="25.95" customHeight="1">
+    <row r="113" spans="12:20" ht="25.9" customHeight="1">
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="T113" s="2"/>
     </row>
-    <row r="114" spans="12:20" ht="25.95" customHeight="1">
+    <row r="114" spans="12:20" ht="25.9" customHeight="1">
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="T114" s="2"/>
     </row>
-    <row r="115" spans="12:20" ht="25.95" customHeight="1">
+    <row r="115" spans="12:20" ht="25.9" customHeight="1">
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
       <c r="T115" s="2"/>
     </row>
-    <row r="116" spans="12:20" ht="25.95" customHeight="1">
+    <row r="116" spans="12:20" ht="25.9" customHeight="1">
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
       <c r="T116" s="2"/>
     </row>
-    <row r="117" spans="12:20" ht="25.95" customHeight="1">
+    <row r="117" spans="12:20" ht="25.9" customHeight="1">
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
       <c r="T117" s="2"/>
     </row>
-    <row r="118" spans="12:20" ht="25.95" customHeight="1">
+    <row r="118" spans="12:20" ht="25.9" customHeight="1">
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="12:20" ht="25.95" customHeight="1">
+    <row r="119" spans="12:20" ht="25.9" customHeight="1">
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
       <c r="T119" s="2"/>
     </row>
-    <row r="120" spans="12:20" ht="25.95" customHeight="1">
+    <row r="120" spans="12:20" ht="25.9" customHeight="1">
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
       <c r="T120" s="2"/>
     </row>
-    <row r="121" spans="12:20" ht="25.95" customHeight="1">
+    <row r="121" spans="12:20" ht="25.9" customHeight="1">
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
       <c r="T121" s="2"/>
     </row>
-    <row r="122" spans="12:20" ht="25.95" customHeight="1">
+    <row r="122" spans="12:20" ht="25.9" customHeight="1">
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="T122" s="2"/>
     </row>
-    <row r="123" spans="12:20" ht="25.95" customHeight="1">
+    <row r="123" spans="12:20" ht="25.9" customHeight="1">
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="T123" s="2"/>
     </row>
-    <row r="124" spans="12:20" ht="25.95" customHeight="1">
+    <row r="124" spans="12:20" ht="25.9" customHeight="1">
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
       <c r="T124" s="2"/>
     </row>
-    <row r="125" spans="12:20" ht="25.95" customHeight="1">
+    <row r="125" spans="12:20" ht="25.9" customHeight="1">
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
       <c r="T125" s="2"/>
     </row>
-    <row r="126" spans="12:20" ht="25.95" customHeight="1">
+    <row r="126" spans="12:20" ht="25.9" customHeight="1">
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
       <c r="T126" s="2"/>
     </row>
-    <row r="127" spans="12:20" ht="25.95" customHeight="1">
+    <row r="127" spans="12:20" ht="25.9" customHeight="1">
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="T127" s="2"/>
     </row>
-    <row r="128" spans="12:20" ht="25.95" customHeight="1">
+    <row r="128" spans="12:20" ht="25.9" customHeight="1">
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
       <c r="T128" s="2"/>
     </row>
-    <row r="129" spans="12:20" ht="25.95" customHeight="1">
+    <row r="129" spans="12:20" ht="25.9" customHeight="1">
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
       <c r="T129" s="2"/>
     </row>
-    <row r="130" spans="12:20" ht="25.95" customHeight="1">
+    <row r="130" spans="12:20" ht="25.9" customHeight="1">
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
       <c r="T130" s="2"/>
     </row>
-    <row r="131" spans="12:20" ht="25.95" customHeight="1">
+    <row r="131" spans="12:20" ht="25.9" customHeight="1">
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
       <c r="T131" s="2"/>
     </row>
-    <row r="132" spans="12:20" ht="25.95" customHeight="1">
+    <row r="132" spans="12:20" ht="25.9" customHeight="1">
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
       <c r="T132" s="2"/>
     </row>
-    <row r="133" spans="12:20" ht="25.95" customHeight="1">
+    <row r="133" spans="12:20" ht="25.9" customHeight="1">
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
       <c r="T133" s="2"/>
     </row>
-    <row r="134" spans="12:20" ht="25.95" customHeight="1">
+    <row r="134" spans="12:20" ht="25.9" customHeight="1">
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
       <c r="T134" s="2"/>
     </row>
-    <row r="135" spans="12:20" ht="25.95" customHeight="1">
+    <row r="135" spans="12:20" ht="25.9" customHeight="1">
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
       <c r="T135" s="2"/>
     </row>
-    <row r="136" spans="12:20" ht="25.95" customHeight="1">
+    <row r="136" spans="12:20" ht="25.9" customHeight="1">
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
       <c r="T136" s="2"/>
     </row>
-    <row r="137" spans="12:20" ht="25.95" customHeight="1">
+    <row r="137" spans="12:20" ht="25.9" customHeight="1">
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
       <c r="T137" s="2"/>
     </row>
-    <row r="138" spans="12:20" ht="25.95" customHeight="1">
+    <row r="138" spans="12:20" ht="25.9" customHeight="1">
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
       <c r="T138" s="2"/>
     </row>
-    <row r="139" spans="12:20" ht="25.95" customHeight="1">
+    <row r="139" spans="12:20" ht="25.9" customHeight="1">
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
       <c r="T139" s="2"/>
     </row>
-    <row r="140" spans="12:20" ht="25.95" customHeight="1">
+    <row r="140" spans="12:20" ht="25.9" customHeight="1">
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
       <c r="T140" s="2"/>
     </row>
-    <row r="141" spans="12:20" ht="25.95" customHeight="1">
+    <row r="141" spans="12:20" ht="25.9" customHeight="1">
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
       <c r="T141" s="2"/>
     </row>
-    <row r="142" spans="12:20" ht="25.95" customHeight="1">
+    <row r="142" spans="12:20" ht="25.9" customHeight="1">
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
       <c r="T142" s="2"/>
     </row>
-    <row r="143" spans="12:20" ht="25.95" customHeight="1">
+    <row r="143" spans="12:20" ht="25.9" customHeight="1">
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
       <c r="T143" s="2"/>
     </row>
-    <row r="144" spans="12:20" ht="25.95" customHeight="1">
+    <row r="144" spans="12:20" ht="25.9" customHeight="1">
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
       <c r="T144" s="2"/>
     </row>
-    <row r="145" spans="12:20" ht="25.95" customHeight="1">
+    <row r="145" spans="12:20" ht="25.9" customHeight="1">
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
       <c r="T145" s="2"/>
     </row>
-    <row r="146" spans="12:20" ht="25.95" customHeight="1">
+    <row r="146" spans="12:20" ht="25.9" customHeight="1">
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
       <c r="T146" s="2"/>
     </row>
-    <row r="147" spans="12:20" ht="25.95" customHeight="1">
+    <row r="147" spans="12:20" ht="25.9" customHeight="1">
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
       <c r="T147" s="2"/>
     </row>
-    <row r="148" spans="12:20" ht="25.95" customHeight="1">
+    <row r="148" spans="12:20" ht="25.9" customHeight="1">
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
       <c r="T148" s="2"/>
     </row>
-    <row r="149" spans="12:20" ht="25.95" customHeight="1">
+    <row r="149" spans="12:20" ht="25.9" customHeight="1">
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
       <c r="T149" s="2"/>
     </row>
-    <row r="150" spans="12:20" ht="25.95" customHeight="1">
+    <row r="150" spans="12:20" ht="25.9" customHeight="1">
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
       <c r="T150" s="2"/>
     </row>
-    <row r="151" spans="12:20" ht="25.95" customHeight="1">
+    <row r="151" spans="12:20" ht="25.9" customHeight="1">
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
       <c r="T151" s="2"/>
     </row>
-    <row r="152" spans="12:20" ht="25.95" customHeight="1">
+    <row r="152" spans="12:20" ht="25.9" customHeight="1">
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
       <c r="T152" s="2"/>
     </row>
-    <row r="153" spans="12:20" ht="25.95" customHeight="1">
+    <row r="153" spans="12:20" ht="25.9" customHeight="1">
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
       <c r="T153" s="2"/>
     </row>
-    <row r="154" spans="12:20" ht="25.95" customHeight="1">
+    <row r="154" spans="12:20" ht="25.9" customHeight="1">
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
       <c r="T154" s="2"/>
     </row>
-    <row r="155" spans="12:20" ht="25.95" customHeight="1">
+    <row r="155" spans="12:20" ht="25.9" customHeight="1">
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
       <c r="T155" s="2"/>
     </row>
-    <row r="156" spans="12:20" ht="25.95" customHeight="1">
+    <row r="156" spans="12:20" ht="25.9" customHeight="1">
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
       <c r="T156" s="2"/>
     </row>
-    <row r="157" spans="12:20" ht="25.95" customHeight="1">
+    <row r="157" spans="12:20" ht="25.9" customHeight="1">
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
       <c r="T157" s="2"/>
     </row>
-    <row r="158" spans="12:20" ht="25.95" customHeight="1">
+    <row r="158" spans="12:20" ht="25.9" customHeight="1">
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
       <c r="T158" s="2"/>
     </row>
-    <row r="159" spans="12:20" ht="25.95" customHeight="1">
+    <row r="159" spans="12:20" ht="25.9" customHeight="1">
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
       <c r="T159" s="2"/>
     </row>
-    <row r="160" spans="12:20" ht="25.95" customHeight="1">
+    <row r="160" spans="12:20" ht="25.9" customHeight="1">
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
       <c r="T160" s="2"/>
     </row>
-    <row r="161" spans="12:20" ht="25.95" customHeight="1">
+    <row r="161" spans="12:20" ht="25.9" customHeight="1">
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
       <c r="T161" s="2"/>
     </row>
-    <row r="162" spans="12:20" ht="25.95" customHeight="1">
+    <row r="162" spans="12:20" ht="25.9" customHeight="1">
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
       <c r="T162" s="2"/>
     </row>
-    <row r="163" spans="12:20" ht="25.95" customHeight="1">
+    <row r="163" spans="12:20" ht="25.9" customHeight="1">
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
       <c r="T163" s="2"/>
     </row>
-    <row r="164" spans="12:20" ht="25.95" customHeight="1">
+    <row r="164" spans="12:20" ht="25.9" customHeight="1">
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
       <c r="T164" s="2"/>
     </row>
-    <row r="165" spans="12:20" ht="25.95" customHeight="1">
+    <row r="165" spans="12:20" ht="25.9" customHeight="1">
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
       <c r="T165" s="2"/>
     </row>
-    <row r="166" spans="12:20" ht="25.95" customHeight="1">
+    <row r="166" spans="12:20" ht="25.9" customHeight="1">
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
       <c r="T166" s="2"/>
     </row>
-    <row r="167" spans="12:20" ht="25.95" customHeight="1">
+    <row r="167" spans="12:20" ht="25.9" customHeight="1">
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
       <c r="T167" s="2"/>
     </row>
-    <row r="168" spans="12:20" ht="25.95" customHeight="1">
+    <row r="168" spans="12:20" ht="25.9" customHeight="1">
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
       <c r="T168" s="2"/>
     </row>
-    <row r="169" spans="12:20" ht="25.95" customHeight="1">
+    <row r="169" spans="12:20" ht="25.9" customHeight="1">
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
       <c r="T169" s="2"/>
     </row>
-    <row r="170" spans="12:20" ht="25.95" customHeight="1">
+    <row r="170" spans="12:20" ht="25.9" customHeight="1">
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
       <c r="T170" s="2"/>
     </row>
-    <row r="171" spans="12:20" ht="25.95" customHeight="1">
+    <row r="171" spans="12:20" ht="25.9" customHeight="1">
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
       <c r="T171" s="2"/>
     </row>
-    <row r="172" spans="12:20" ht="25.95" customHeight="1">
+    <row r="172" spans="12:20" ht="25.9" customHeight="1">
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
       <c r="T172" s="2"/>
     </row>
-    <row r="173" spans="12:20" ht="25.95" customHeight="1">
+    <row r="173" spans="12:20" ht="25.9" customHeight="1">
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
       <c r="T173" s="2"/>
     </row>
-    <row r="174" spans="12:20" ht="25.95" customHeight="1">
+    <row r="174" spans="12:20" ht="25.9" customHeight="1">
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
       <c r="T174" s="2"/>
     </row>
-    <row r="175" spans="12:20" ht="25.95" customHeight="1">
+    <row r="175" spans="12:20" ht="25.9" customHeight="1">
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
       <c r="T175" s="2"/>
     </row>
-    <row r="176" spans="12:20" ht="25.95" customHeight="1">
+    <row r="176" spans="12:20" ht="25.9" customHeight="1">
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
       <c r="T176" s="2"/>
     </row>
-    <row r="177" spans="12:20" ht="25.95" customHeight="1">
+    <row r="177" spans="12:20" ht="25.9" customHeight="1">
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
       <c r="T177" s="2"/>
     </row>
-    <row r="178" spans="12:20" ht="25.95" customHeight="1">
+    <row r="178" spans="12:20" ht="25.9" customHeight="1">
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
       <c r="T178" s="2"/>
     </row>
-    <row r="179" spans="12:20" ht="25.95" customHeight="1">
+    <row r="179" spans="12:20" ht="25.9" customHeight="1">
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
       <c r="T179" s="2"/>
     </row>
-    <row r="180" spans="12:20" ht="25.95" customHeight="1">
+    <row r="180" spans="12:20" ht="25.9" customHeight="1">
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
       <c r="T180" s="2"/>
     </row>
-    <row r="181" spans="12:20" ht="25.95" customHeight="1">
+    <row r="181" spans="12:20" ht="25.9" customHeight="1">
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
       <c r="T181" s="2"/>
     </row>
-    <row r="182" spans="12:20" ht="25.95" customHeight="1">
+    <row r="182" spans="12:20" ht="25.9" customHeight="1">
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
       <c r="T182" s="2"/>
     </row>
-    <row r="183" spans="12:20" ht="25.95" customHeight="1">
+    <row r="183" spans="12:20" ht="25.9" customHeight="1">
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="T183" s="2"/>
     </row>
-    <row r="184" spans="12:20" ht="25.95" customHeight="1">
+    <row r="184" spans="12:20" ht="25.9" customHeight="1">
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
       <c r="T184" s="2"/>
     </row>
-    <row r="185" spans="12:20" ht="25.95" customHeight="1">
+    <row r="185" spans="12:20" ht="25.9" customHeight="1">
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
       <c r="T185" s="2"/>
     </row>
-    <row r="186" spans="12:20" ht="25.95" customHeight="1">
+    <row r="186" spans="12:20" ht="25.9" customHeight="1">
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
       <c r="T186" s="2"/>
     </row>
-    <row r="187" spans="12:20" ht="25.95" customHeight="1">
+    <row r="187" spans="12:20" ht="25.9" customHeight="1">
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
       <c r="T187" s="2"/>
     </row>
-    <row r="188" spans="12:20" ht="25.95" customHeight="1">
+    <row r="188" spans="12:20" ht="25.9" customHeight="1">
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="T188" s="2"/>
     </row>
-    <row r="189" spans="12:20" ht="25.95" customHeight="1">
+    <row r="189" spans="12:20" ht="25.9" customHeight="1">
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
       <c r="T189" s="2"/>
     </row>
-    <row r="190" spans="12:20" ht="25.95" customHeight="1">
+    <row r="190" spans="12:20" ht="25.9" customHeight="1">
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
       <c r="T190" s="2"/>
     </row>
-    <row r="191" spans="12:20" ht="25.95" customHeight="1">
+    <row r="191" spans="12:20" ht="25.9" customHeight="1">
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
       <c r="T191" s="2"/>
     </row>
-    <row r="192" spans="12:20" ht="25.95" customHeight="1">
+    <row r="192" spans="12:20" ht="25.9" customHeight="1">
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
       <c r="T192" s="2"/>
     </row>
-    <row r="193" spans="12:20" ht="25.95" customHeight="1">
+    <row r="193" spans="12:20" ht="25.9" customHeight="1">
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
       <c r="T193" s="2"/>
     </row>
-    <row r="194" spans="12:20" ht="25.95" customHeight="1">
+    <row r="194" spans="12:20" ht="25.9" customHeight="1">
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
       <c r="T194" s="2"/>
     </row>
-    <row r="195" spans="12:20" ht="25.95" customHeight="1">
+    <row r="195" spans="12:20" ht="25.9" customHeight="1">
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
       <c r="T195" s="2"/>
     </row>
-    <row r="196" spans="12:20" ht="25.95" customHeight="1">
+    <row r="196" spans="12:20" ht="25.9" customHeight="1">
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
       <c r="T196" s="2"/>
     </row>
-    <row r="197" spans="12:20" ht="25.95" customHeight="1">
+    <row r="197" spans="12:20" ht="25.9" customHeight="1">
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
       <c r="T197" s="2"/>
     </row>
-    <row r="198" spans="12:20" ht="25.95" customHeight="1">
+    <row r="198" spans="12:20" ht="25.9" customHeight="1">
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
       <c r="T198" s="2"/>
     </row>
-    <row r="199" spans="12:20" ht="25.95" customHeight="1">
+    <row r="199" spans="12:20" ht="25.9" customHeight="1">
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
       <c r="T199" s="2"/>
     </row>
-    <row r="200" spans="12:20" ht="25.95" customHeight="1">
+    <row r="200" spans="12:20" ht="25.9" customHeight="1">
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
       <c r="T200" s="2"/>
     </row>
-    <row r="201" spans="12:20" ht="25.95" customHeight="1">
+    <row r="201" spans="12:20" ht="25.9" customHeight="1">
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
       <c r="T201" s="2"/>
     </row>
-    <row r="202" spans="12:20" ht="25.95" customHeight="1">
+    <row r="202" spans="12:20" ht="25.9" customHeight="1">
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
       <c r="T202" s="2"/>
     </row>
-    <row r="203" spans="12:20" ht="25.95" customHeight="1">
+    <row r="203" spans="12:20" ht="25.9" customHeight="1">
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
       <c r="T203" s="2"/>
     </row>
-    <row r="204" spans="12:20" ht="25.95" customHeight="1">
+    <row r="204" spans="12:20" ht="25.9" customHeight="1">
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
       <c r="T204" s="2"/>
     </row>
-    <row r="205" spans="12:20" ht="25.95" customHeight="1">
+    <row r="205" spans="12:20" ht="25.9" customHeight="1">
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
       <c r="T205" s="2"/>
     </row>
-    <row r="206" spans="12:20" ht="25.95" customHeight="1">
+    <row r="206" spans="12:20" ht="25.9" customHeight="1">
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
       <c r="T206" s="2"/>
     </row>
-    <row r="207" spans="12:20" ht="25.95" customHeight="1">
+    <row r="207" spans="12:20" ht="25.9" customHeight="1">
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
       <c r="T207" s="2"/>
     </row>
-    <row r="208" spans="12:20" ht="25.95" customHeight="1">
+    <row r="208" spans="12:20" ht="25.9" customHeight="1">
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
       <c r="T208" s="2"/>
     </row>
-    <row r="209" spans="12:20" ht="25.95" customHeight="1">
+    <row r="209" spans="12:20" ht="25.9" customHeight="1">
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
       <c r="T209" s="2"/>
     </row>
-    <row r="210" spans="12:20" ht="25.95" customHeight="1">
+    <row r="210" spans="12:20" ht="25.9" customHeight="1">
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
       <c r="T210" s="2"/>
     </row>
-    <row r="211" spans="12:20" ht="25.95" customHeight="1">
+    <row r="211" spans="12:20" ht="25.9" customHeight="1">
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
       <c r="T211" s="2"/>
     </row>
-    <row r="212" spans="12:20" ht="25.95" customHeight="1">
+    <row r="212" spans="12:20" ht="25.9" customHeight="1">
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
       <c r="T212" s="2"/>
     </row>
-    <row r="213" spans="12:20" ht="25.95" customHeight="1">
+    <row r="213" spans="12:20" ht="25.9" customHeight="1">
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
       <c r="T213" s="2"/>
     </row>
-    <row r="214" spans="12:20" ht="25.95" customHeight="1">
+    <row r="214" spans="12:20" ht="25.9" customHeight="1">
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
       <c r="T214" s="2"/>
     </row>
-    <row r="215" spans="12:20" ht="25.95" customHeight="1">
+    <row r="215" spans="12:20" ht="25.9" customHeight="1">
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
       <c r="T215" s="2"/>
     </row>
-    <row r="216" spans="12:20" ht="25.95" customHeight="1">
+    <row r="216" spans="12:20" ht="25.9" customHeight="1">
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
       <c r="T216" s="2"/>
     </row>
-    <row r="217" spans="12:20" ht="25.95" customHeight="1">
+    <row r="217" spans="12:20" ht="25.9" customHeight="1">
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
       <c r="T217" s="2"/>
     </row>
-    <row r="218" spans="12:20" ht="25.95" customHeight="1">
+    <row r="218" spans="12:20" ht="25.9" customHeight="1">
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
       <c r="T218" s="2"/>
     </row>
-    <row r="219" spans="12:20" ht="25.95" customHeight="1">
+    <row r="219" spans="12:20" ht="25.9" customHeight="1">
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
       <c r="T219" s="2"/>
     </row>
-    <row r="220" spans="12:20" ht="25.95" customHeight="1">
+    <row r="220" spans="12:20" ht="25.9" customHeight="1">
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
       <c r="T220" s="2"/>
     </row>
-    <row r="221" spans="12:20" ht="25.95" customHeight="1">
+    <row r="221" spans="12:20" ht="25.9" customHeight="1">
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
       <c r="N221" s="2"/>
       <c r="O221" s="2"/>
       <c r="T221" s="2"/>
     </row>
-    <row r="222" spans="12:20" ht="25.95" customHeight="1">
+    <row r="222" spans="12:20" ht="25.9" customHeight="1">
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
       <c r="T222" s="2"/>
     </row>
-    <row r="223" spans="12:20" ht="25.95" customHeight="1">
+    <row r="223" spans="12:20" ht="25.9" customHeight="1">
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
       <c r="T223" s="2"/>
     </row>
-    <row r="224" spans="12:20" ht="25.95" customHeight="1">
+    <row r="224" spans="12:20" ht="25.9" customHeight="1">
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
       <c r="T224" s="2"/>
     </row>
-    <row r="225" spans="12:20" ht="25.95" customHeight="1">
+    <row r="225" spans="12:20" ht="25.9" customHeight="1">
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
       <c r="T225" s="2"/>
     </row>
-    <row r="226" spans="12:20" ht="25.95" customHeight="1">
+    <row r="226" spans="12:20" ht="25.9" customHeight="1">
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
       <c r="T226" s="2"/>
     </row>
-    <row r="227" spans="12:20" ht="25.95" customHeight="1">
+    <row r="227" spans="12:20" ht="25.9" customHeight="1">
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
       <c r="T227" s="2"/>
     </row>
-    <row r="228" spans="12:20" ht="25.95" customHeight="1">
+    <row r="228" spans="12:20" ht="25.9" customHeight="1">
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
       <c r="O228" s="2"/>
       <c r="T228" s="2"/>
     </row>
-    <row r="229" spans="12:20" ht="25.95" customHeight="1">
+    <row r="229" spans="12:20" ht="25.9" customHeight="1">
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
       <c r="T229" s="2"/>
     </row>
-    <row r="230" spans="12:20" ht="25.95" customHeight="1">
+    <row r="230" spans="12:20" ht="25.9" customHeight="1">
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
       <c r="T230" s="2"/>
     </row>
-    <row r="231" spans="12:20" ht="25.95" customHeight="1">
+    <row r="231" spans="12:20" ht="25.9" customHeight="1">
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
       <c r="T231" s="2"/>
     </row>
-    <row r="232" spans="12:20" ht="25.95" customHeight="1">
+    <row r="232" spans="12:20" ht="25.9" customHeight="1">
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
       <c r="T232" s="2"/>
     </row>
-    <row r="233" spans="12:20" ht="25.95" customHeight="1">
+    <row r="233" spans="12:20" ht="25.9" customHeight="1">
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
       <c r="T233" s="2"/>
     </row>
-    <row r="234" spans="12:20" ht="25.95" customHeight="1">
+    <row r="234" spans="12:20" ht="25.9" customHeight="1">
       <c r="L234" s="2"/>
       <c r="M234" s="2"/>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
       <c r="T234" s="2"/>
     </row>
-    <row r="235" spans="12:20" ht="25.95" customHeight="1">
+    <row r="235" spans="12:20" ht="25.9" customHeight="1">
       <c r="L235" s="2"/>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
       <c r="T235" s="2"/>
     </row>
-    <row r="236" spans="12:20" ht="25.95" customHeight="1">
+    <row r="236" spans="12:20" ht="25.9" customHeight="1">
       <c r="L236" s="2"/>
       <c r="M236" s="2"/>
       <c r="N236" s="2"/>
       <c r="O236" s="2"/>
       <c r="T236" s="2"/>
     </row>
-    <row r="237" spans="12:20" ht="25.95" customHeight="1">
+    <row r="237" spans="12:20" ht="25.9" customHeight="1">
       <c r="L237" s="2"/>
       <c r="M237" s="2"/>
       <c r="N237" s="2"/>
       <c r="O237" s="2"/>
       <c r="T237" s="2"/>
     </row>
-    <row r="238" spans="12:20" ht="25.95" customHeight="1">
+    <row r="238" spans="12:20" ht="25.9" customHeight="1">
       <c r="L238" s="2"/>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
       <c r="O238" s="2"/>
       <c r="T238" s="2"/>
     </row>
-    <row r="239" spans="12:20" ht="25.95" customHeight="1">
+    <row r="239" spans="12:20" ht="25.9" customHeight="1">
       <c r="L239" s="2"/>
       <c r="M239" s="2"/>
       <c r="N239" s="2"/>
       <c r="O239" s="2"/>
       <c r="T239" s="2"/>
     </row>
-    <row r="240" spans="12:20" ht="25.95" customHeight="1">
+    <row r="240" spans="12:20" ht="25.9" customHeight="1">
       <c r="L240" s="2"/>
       <c r="M240" s="2"/>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
       <c r="T240" s="2"/>
     </row>
-    <row r="241" spans="12:20" ht="25.95" customHeight="1">
+    <row r="241" spans="12:20" ht="25.9" customHeight="1">
       <c r="L241" s="2"/>
       <c r="M241" s="2"/>
       <c r="N241" s="2"/>
       <c r="O241" s="2"/>
       <c r="T241" s="2"/>
     </row>
-    <row r="242" spans="12:20" ht="25.95" customHeight="1">
+    <row r="242" spans="12:20" ht="25.9" customHeight="1">
       <c r="L242" s="2"/>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
       <c r="T242" s="2"/>
     </row>
-    <row r="243" spans="12:20" ht="25.95" customHeight="1">
+    <row r="243" spans="12:20" ht="25.9" customHeight="1">
       <c r="L243" s="2"/>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
       <c r="O243" s="2"/>
       <c r="T243" s="2"/>
     </row>
-    <row r="244" spans="12:20" ht="25.95" customHeight="1">
+    <row r="244" spans="12:20" ht="25.9" customHeight="1">
       <c r="L244" s="2"/>
       <c r="M244" s="2"/>
       <c r="N244" s="2"/>
       <c r="O244" s="2"/>
       <c r="T244" s="2"/>
     </row>
-    <row r="245" spans="12:20" ht="25.95" customHeight="1">
+    <row r="245" spans="12:20" ht="25.9" customHeight="1">
       <c r="L245" s="2"/>
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
       <c r="O245" s="2"/>
       <c r="T245" s="2"/>
     </row>
-    <row r="246" spans="12:20" ht="25.95" customHeight="1">
+    <row r="246" spans="12:20" ht="25.9" customHeight="1">
       <c r="L246" s="2"/>
       <c r="M246" s="2"/>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
       <c r="T246" s="2"/>
     </row>
-    <row r="247" spans="12:20" ht="25.95" customHeight="1">
+    <row r="247" spans="12:20" ht="25.9" customHeight="1">
       <c r="L247" s="2"/>
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
       <c r="T247" s="2"/>
     </row>
-    <row r="248" spans="12:20" ht="25.95" customHeight="1">
+    <row r="248" spans="12:20" ht="25.9" customHeight="1">
       <c r="L248" s="2"/>
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
       <c r="O248" s="2"/>
       <c r="T248" s="2"/>
     </row>
-    <row r="249" spans="12:20" ht="25.95" customHeight="1">
+    <row r="249" spans="12:20" ht="25.9" customHeight="1">
       <c r="L249" s="2"/>
       <c r="M249" s="2"/>
       <c r="N249" s="2"/>
       <c r="O249" s="2"/>
       <c r="T249" s="2"/>
     </row>
-    <row r="250" spans="12:20" ht="25.95" customHeight="1">
+    <row r="250" spans="12:20" ht="25.9" customHeight="1">
       <c r="L250" s="2"/>
       <c r="M250" s="2"/>
       <c r="N250" s="2"/>
       <c r="O250" s="2"/>
       <c r="T250" s="2"/>
     </row>
-    <row r="251" spans="12:20" ht="25.95" customHeight="1">
+    <row r="251" spans="12:20" ht="25.9" customHeight="1">
       <c r="L251" s="2"/>
       <c r="M251" s="2"/>
       <c r="N251" s="2"/>
       <c r="O251" s="2"/>
       <c r="T251" s="2"/>
     </row>
-    <row r="252" spans="12:20" ht="25.95" customHeight="1">
+    <row r="252" spans="12:20" ht="25.9" customHeight="1">
       <c r="L252" s="2"/>
       <c r="M252" s="2"/>
       <c r="N252" s="2"/>
       <c r="O252" s="2"/>
       <c r="T252" s="2"/>
     </row>
-    <row r="253" spans="12:20" ht="25.95" customHeight="1">
+    <row r="253" spans="12:20" ht="25.9" customHeight="1">
       <c r="L253" s="2"/>
       <c r="M253" s="2"/>
       <c r="N253" s="2"/>
       <c r="O253" s="2"/>
       <c r="T253" s="2"/>
     </row>
-    <row r="254" spans="12:20" ht="25.95" customHeight="1">
+    <row r="254" spans="12:20" ht="25.9" customHeight="1">
       <c r="L254" s="2"/>
       <c r="M254" s="2"/>
       <c r="N254" s="2"/>
       <c r="O254" s="2"/>
       <c r="T254" s="2"/>
     </row>
-    <row r="255" spans="12:20" ht="25.95" customHeight="1">
+    <row r="255" spans="12:20" ht="25.9" customHeight="1">
       <c r="L255" s="2"/>
       <c r="M255" s="2"/>
       <c r="N255" s="2"/>
       <c r="O255" s="2"/>
       <c r="T255" s="2"/>
     </row>
-    <row r="256" spans="12:20" ht="25.95" customHeight="1">
+    <row r="256" spans="12:20" ht="25.9" customHeight="1">
       <c r="L256" s="2"/>
       <c r="M256" s="2"/>
       <c r="N256" s="2"/>
       <c r="O256" s="2"/>
       <c r="T256" s="2"/>
     </row>
-    <row r="257" spans="12:20" ht="25.95" customHeight="1">
+    <row r="257" spans="12:20" ht="25.9" customHeight="1">
       <c r="L257" s="2"/>
       <c r="M257" s="2"/>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
       <c r="T257" s="2"/>
     </row>
-    <row r="258" spans="12:20" ht="25.95" customHeight="1">
+    <row r="258" spans="12:20" ht="25.9" customHeight="1">
       <c r="L258" s="2"/>
       <c r="M258" s="2"/>
       <c r="N258" s="2"/>
       <c r="O258" s="2"/>
       <c r="T258" s="2"/>
     </row>
-    <row r="259" spans="12:20" ht="25.95" customHeight="1">
+    <row r="259" spans="12:20" ht="25.9" customHeight="1">
       <c r="L259" s="2"/>
       <c r="M259" s="2"/>
       <c r="N259" s="2"/>
       <c r="O259" s="2"/>
       <c r="T259" s="2"/>
     </row>
-    <row r="260" spans="12:20" ht="25.95" customHeight="1">
+    <row r="260" spans="12:20" ht="25.9" customHeight="1">
       <c r="L260" s="2"/>
       <c r="M260" s="2"/>
       <c r="N260" s="2"/>
       <c r="O260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="12:20" ht="25.95" customHeight="1">
+    <row r="261" spans="12:20" ht="25.9" customHeight="1">
       <c r="L261" s="2"/>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
       <c r="O261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="12:20" ht="25.95" customHeight="1">
+    <row r="262" spans="12:20" ht="25.9" customHeight="1">
       <c r="L262" s="2"/>
       <c r="M262" s="2"/>
       <c r="N262" s="2"/>
       <c r="O262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="12:20" ht="25.95" customHeight="1">
+    <row r="263" spans="12:20" ht="25.9" customHeight="1">
       <c r="L263" s="2"/>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
       <c r="O263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="12:20" ht="25.95" customHeight="1">
+    <row r="264" spans="12:20" ht="25.9" customHeight="1">
       <c r="L264" s="2"/>
       <c r="M264" s="2"/>
       <c r="N264" s="2"/>
       <c r="O264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="12:20" ht="25.95" customHeight="1">
+    <row r="265" spans="12:20" ht="25.9" customHeight="1">
       <c r="L265" s="2"/>
       <c r="M265" s="2"/>
       <c r="N265" s="2"/>
       <c r="O265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="12:20" ht="25.95" customHeight="1">
+    <row r="266" spans="12:20" ht="25.9" customHeight="1">
       <c r="L266" s="2"/>
       <c r="M266" s="2"/>
       <c r="N266" s="2"/>
       <c r="O266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="12:20" ht="25.95" customHeight="1">
+    <row r="267" spans="12:20" ht="25.9" customHeight="1">
       <c r="L267" s="2"/>
       <c r="M267" s="2"/>
       <c r="N267" s="2"/>
       <c r="O267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="12:20" ht="25.95" customHeight="1">
+    <row r="268" spans="12:20" ht="25.9" customHeight="1">
       <c r="L268" s="2"/>
       <c r="M268" s="2"/>
       <c r="N268" s="2"/>
       <c r="O268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="12:20" ht="25.95" customHeight="1">
+    <row r="269" spans="12:20" ht="25.9" customHeight="1">
       <c r="L269" s="2"/>
       <c r="M269" s="2"/>
       <c r="N269" s="2"/>
       <c r="O269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="12:20" ht="25.95" customHeight="1">
+    <row r="270" spans="12:20" ht="25.9" customHeight="1">
       <c r="L270" s="2"/>
       <c r="M270" s="2"/>
       <c r="N270" s="2"/>
       <c r="O270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="12:20" ht="25.95" customHeight="1">
+    <row r="271" spans="12:20" ht="25.9" customHeight="1">
       <c r="L271" s="2"/>
       <c r="M271" s="2"/>
       <c r="N271" s="2"/>
       <c r="O271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="12:20" ht="25.95" customHeight="1">
+    <row r="272" spans="12:20" ht="25.9" customHeight="1">
       <c r="L272" s="2"/>
       <c r="M272" s="2"/>
       <c r="N272" s="2"/>
       <c r="O272" s="2"/>
       <c r="T272" s="2"/>
     </row>
-    <row r="273" spans="12:20" ht="25.95" customHeight="1">
+    <row r="273" spans="12:20" ht="25.9" customHeight="1">
       <c r="L273" s="2"/>
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
       <c r="O273" s="2"/>
       <c r="T273" s="2"/>
     </row>
-    <row r="274" spans="12:20" ht="25.95" customHeight="1">
+    <row r="274" spans="12:20" ht="25.9" customHeight="1">
       <c r="L274" s="2"/>
       <c r="M274" s="2"/>
       <c r="N274" s="2"/>
       <c r="O274" s="2"/>
       <c r="T274" s="2"/>
     </row>
-    <row r="275" spans="12:20" ht="25.95" customHeight="1">
+    <row r="275" spans="12:20" ht="25.9" customHeight="1">
       <c r="L275" s="2"/>
       <c r="M275" s="2"/>
       <c r="N275" s="2"/>
       <c r="O275" s="2"/>
       <c r="T275" s="2"/>
     </row>
-    <row r="276" spans="12:20" ht="25.95" customHeight="1">
+    <row r="276" spans="12:20" ht="25.9" customHeight="1">
       <c r="L276" s="2"/>
       <c r="M276" s="2"/>
       <c r="N276" s="2"/>
       <c r="O276" s="2"/>
       <c r="T276" s="2"/>
     </row>
-    <row r="277" spans="12:20" ht="25.95" customHeight="1">
+    <row r="277" spans="12:20" ht="25.9" customHeight="1">
       <c r="L277" s="2"/>
       <c r="M277" s="2"/>
       <c r="N277" s="2"/>
       <c r="O277" s="2"/>
       <c r="T277" s="2"/>
     </row>
-    <row r="278" spans="12:20" ht="25.95" customHeight="1">
+    <row r="278" spans="12:20" ht="25.9" customHeight="1">
       <c r="L278" s="2"/>
       <c r="M278" s="2"/>
       <c r="N278" s="2"/>
       <c r="O278" s="2"/>
       <c r="T278" s="2"/>
     </row>
-    <row r="279" spans="12:20" ht="25.95" customHeight="1">
+    <row r="279" spans="12:20" ht="25.9" customHeight="1">
       <c r="L279" s="2"/>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
       <c r="O279" s="2"/>
       <c r="T279" s="2"/>
     </row>
-    <row r="280" spans="12:20" ht="25.95" customHeight="1">
+    <row r="280" spans="12:20" ht="25.9" customHeight="1">
       <c r="L280" s="2"/>
       <c r="M280" s="2"/>
       <c r="N280" s="2"/>
       <c r="O280" s="2"/>
       <c r="T280" s="2"/>
     </row>
-    <row r="281" spans="12:20" ht="25.95" customHeight="1">
+    <row r="281" spans="12:20" ht="25.9" customHeight="1">
       <c r="L281" s="2"/>
       <c r="M281" s="2"/>
       <c r="N281" s="2"/>
       <c r="O281" s="2"/>
       <c r="T281" s="2"/>
     </row>
-    <row r="282" spans="12:20" ht="25.95" customHeight="1">
+    <row r="282" spans="12:20" ht="25.9" customHeight="1">
       <c r="L282" s="2"/>
       <c r="M282" s="2"/>
       <c r="N282" s="2"/>
       <c r="O282" s="2"/>
       <c r="T282" s="2"/>
     </row>
-    <row r="283" spans="12:20" ht="25.95" customHeight="1">
+    <row r="283" spans="12:20" ht="25.9" customHeight="1">
       <c r="L283" s="2"/>
       <c r="M283" s="2"/>
       <c r="N283" s="2"/>
       <c r="O283" s="2"/>
       <c r="T283" s="2"/>
     </row>
-    <row r="284" spans="12:20" ht="25.95" customHeight="1">
+    <row r="284" spans="12:20" ht="25.9" customHeight="1">
       <c r="L284" s="2"/>
       <c r="M284" s="2"/>
       <c r="N284" s="2"/>
       <c r="O284" s="2"/>
       <c r="T284" s="2"/>
     </row>
-    <row r="285" spans="12:20" ht="25.95" customHeight="1">
+    <row r="285" spans="12:20" ht="25.9" customHeight="1">
       <c r="L285" s="2"/>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
       <c r="O285" s="2"/>
       <c r="T285" s="2"/>
     </row>
-    <row r="286" spans="12:20" ht="25.95" customHeight="1">
+    <row r="286" spans="12:20" ht="25.9" customHeight="1">
       <c r="L286" s="2"/>
       <c r="M286" s="2"/>
       <c r="N286" s="2"/>
       <c r="O286" s="2"/>
       <c r="T286" s="2"/>
     </row>
-    <row r="287" spans="12:20" ht="25.95" customHeight="1">
+    <row r="287" spans="12:20" ht="25.9" customHeight="1">
       <c r="L287" s="2"/>
       <c r="M287" s="2"/>
       <c r="N287" s="2"/>
       <c r="O287" s="2"/>
       <c r="T287" s="2"/>
     </row>
-    <row r="288" spans="12:20" ht="25.95" customHeight="1">
+    <row r="288" spans="12:20" ht="25.9" customHeight="1">
       <c r="L288" s="2"/>
       <c r="M288" s="2"/>
       <c r="N288" s="2"/>
       <c r="O288" s="2"/>
       <c r="T288" s="2"/>
     </row>
-    <row r="289" spans="12:20" ht="25.95" customHeight="1">
+    <row r="289" spans="12:20" ht="25.9" customHeight="1">
       <c r="L289" s="2"/>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
       <c r="T289" s="2"/>
     </row>
-    <row r="290" spans="12:20" ht="25.95" customHeight="1">
+    <row r="290" spans="12:20" ht="25.9" customHeight="1">
       <c r="L290" s="2"/>
       <c r="M290" s="2"/>
       <c r="N290" s="2"/>
       <c r="O290" s="2"/>
       <c r="T290" s="2"/>
     </row>
-    <row r="291" spans="12:20" ht="25.95" customHeight="1">
+    <row r="291" spans="12:20" ht="25.9" customHeight="1">
       <c r="L291" s="2"/>
       <c r="M291" s="2"/>
       <c r="N291" s="2"/>
       <c r="O291" s="2"/>
       <c r="T291" s="2"/>
     </row>
-    <row r="292" spans="12:20" ht="25.95" customHeight="1">
+    <row r="292" spans="12:20" ht="25.9" customHeight="1">
       <c r="L292" s="2"/>
       <c r="M292" s="2"/>
       <c r="N292" s="2"/>
       <c r="O292" s="2"/>
       <c r="T292" s="2"/>
     </row>
-    <row r="293" spans="12:20" ht="25.95" customHeight="1">
+    <row r="293" spans="12:20" ht="25.9" customHeight="1">
       <c r="L293" s="2"/>
       <c r="M293" s="2"/>
       <c r="N293" s="2"/>
       <c r="O293" s="2"/>
       <c r="T293" s="2"/>
     </row>
-    <row r="294" spans="12:20" ht="25.95" customHeight="1">
+    <row r="294" spans="12:20" ht="25.9" customHeight="1">
       <c r="L294" s="2"/>
       <c r="M294" s="2"/>
       <c r="N294" s="2"/>
       <c r="O294" s="2"/>
       <c r="T294" s="2"/>
     </row>
-    <row r="295" spans="12:20" ht="25.95" customHeight="1">
+    <row r="295" spans="12:20" ht="25.9" customHeight="1">
       <c r="L295" s="2"/>
       <c r="M295" s="2"/>
       <c r="N295" s="2"/>
       <c r="O295" s="2"/>
       <c r="T295" s="2"/>
     </row>
-    <row r="296" spans="12:20" ht="25.95" customHeight="1">
+    <row r="296" spans="12:20" ht="25.9" customHeight="1">
       <c r="L296" s="2"/>
       <c r="M296" s="2"/>
       <c r="N296" s="2"/>
       <c r="O296" s="2"/>
       <c r="T296" s="2"/>
     </row>
-    <row r="297" spans="12:20" ht="25.95" customHeight="1">
+    <row r="297" spans="12:20" ht="25.9" customHeight="1">
       <c r="L297" s="2"/>
       <c r="M297" s="2"/>
       <c r="N297" s="2"/>
       <c r="O297" s="2"/>
       <c r="T297" s="2"/>
     </row>
-    <row r="298" spans="12:20" ht="25.95" customHeight="1">
+    <row r="298" spans="12:20" ht="25.9" customHeight="1">
       <c r="L298" s="2"/>
       <c r="M298" s="2"/>
       <c r="N298" s="2"/>
       <c r="O298" s="2"/>
       <c r="T298" s="2"/>
     </row>
-    <row r="299" spans="12:20" ht="25.95" customHeight="1">
+    <row r="299" spans="12:20" ht="25.9" customHeight="1">
       <c r="L299" s="2"/>
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
       <c r="O299" s="2"/>
       <c r="T299" s="2"/>
     </row>
-    <row r="300" spans="12:20" ht="25.95" customHeight="1">
+    <row r="300" spans="12:20" ht="25.9" customHeight="1">
       <c r="L300" s="2"/>
       <c r="M300" s="2"/>
       <c r="N300" s="2"/>
       <c r="O300" s="2"/>
       <c r="T300" s="2"/>
     </row>
-    <row r="301" spans="12:20" ht="25.95" customHeight="1">
+    <row r="301" spans="12:20" ht="25.9" customHeight="1">
       <c r="L301" s="2"/>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
       <c r="O301" s="2"/>
       <c r="T301" s="2"/>
     </row>
-    <row r="302" spans="12:20" ht="25.95" customHeight="1">
+    <row r="302" spans="12:20" ht="25.9" customHeight="1">
       <c r="L302" s="2"/>
       <c r="M302" s="2"/>
       <c r="N302" s="2"/>
       <c r="O302" s="2"/>
       <c r="T302" s="2"/>
     </row>
-    <row r="303" spans="12:20" ht="25.95" customHeight="1">
+    <row r="303" spans="12:20" ht="25.9" customHeight="1">
       <c r="L303" s="2"/>
       <c r="M303" s="2"/>
       <c r="N303" s="2"/>
       <c r="O303" s="2"/>
       <c r="T303" s="2"/>
     </row>
-    <row r="304" spans="12:20" ht="25.95" customHeight="1">
+    <row r="304" spans="12:20" ht="25.9" customHeight="1">
       <c r="L304" s="2"/>
       <c r="M304" s="2"/>
       <c r="N304" s="2"/>
       <c r="O304" s="2"/>
       <c r="T304" s="2"/>
     </row>
-    <row r="305" spans="12:20" ht="25.95" customHeight="1">
+    <row r="305" spans="12:20" ht="25.9" customHeight="1">
       <c r="L305" s="2"/>
       <c r="M305" s="2"/>
       <c r="N305" s="2"/>
       <c r="O305" s="2"/>
       <c r="T305" s="2"/>
     </row>
-    <row r="306" spans="12:20" ht="25.95" customHeight="1">
+    <row r="306" spans="12:20" ht="25.9" customHeight="1">
       <c r="L306" s="2"/>
       <c r="M306" s="2"/>
       <c r="N306" s="2"/>
       <c r="O306" s="2"/>
       <c r="T306" s="2"/>
     </row>
-    <row r="307" spans="12:20" ht="25.95" customHeight="1">
+    <row r="307" spans="12:20" ht="25.9" customHeight="1">
       <c r="L307" s="2"/>
       <c r="M307" s="2"/>
       <c r="N307" s="2"/>
       <c r="O307" s="2"/>
       <c r="T307" s="2"/>
     </row>
-    <row r="308" spans="12:20" ht="25.95" customHeight="1">
+    <row r="308" spans="12:20" ht="25.9" customHeight="1">
       <c r="L308" s="2"/>
       <c r="M308" s="2"/>
       <c r="N308" s="2"/>
       <c r="O308" s="2"/>
       <c r="T308" s="2"/>
     </row>
-    <row r="309" spans="12:20" ht="25.95" customHeight="1">
+    <row r="309" spans="12:20" ht="25.9" customHeight="1">
       <c r="L309" s="2"/>
       <c r="M309" s="2"/>
       <c r="N309" s="2"/>
       <c r="O309" s="2"/>
       <c r="T309" s="2"/>
     </row>
-    <row r="310" spans="12:20" ht="25.95" customHeight="1">
+    <row r="310" spans="12:20" ht="25.9" customHeight="1">
       <c r="L310" s="2"/>
       <c r="M310" s="2"/>
       <c r="N310" s="2"/>
       <c r="O310" s="2"/>
       <c r="T310" s="2"/>
     </row>
-    <row r="311" spans="12:20" ht="25.95" customHeight="1">
+    <row r="311" spans="12:20" ht="25.9" customHeight="1">
       <c r="L311" s="2"/>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
       <c r="O311" s="2"/>
       <c r="T311" s="2"/>
     </row>
-    <row r="312" spans="12:20" ht="25.95" customHeight="1">
+    <row r="312" spans="12:20" ht="25.9" customHeight="1">
       <c r="L312" s="2"/>
       <c r="M312" s="2"/>
       <c r="N312" s="2"/>
       <c r="O312" s="2"/>
       <c r="T312" s="2"/>
     </row>
-    <row r="313" spans="12:20" ht="25.95" customHeight="1">
+    <row r="313" spans="12:20" ht="25.9" customHeight="1">
       <c r="L313" s="2"/>
       <c r="M313" s="2"/>
       <c r="N313" s="2"/>
       <c r="O313" s="2"/>
       <c r="T313" s="2"/>
     </row>
-    <row r="314" spans="12:20" ht="25.95" customHeight="1">
+    <row r="314" spans="12:20" ht="25.9" customHeight="1">
       <c r="L314" s="2"/>
       <c r="M314" s="2"/>
       <c r="N314" s="2"/>
       <c r="O314" s="2"/>
       <c r="T314" s="2"/>
     </row>
-    <row r="315" spans="12:20" ht="25.95" customHeight="1">
+    <row r="315" spans="12:20" ht="25.9" customHeight="1">
       <c r="L315" s="2"/>
       <c r="M315" s="2"/>
       <c r="N315" s="2"/>
       <c r="O315" s="2"/>
       <c r="T315" s="2"/>
     </row>
-    <row r="316" spans="12:20" ht="25.95" customHeight="1">
+    <row r="316" spans="12:20" ht="25.9" customHeight="1">
       <c r="L316" s="2"/>
       <c r="M316" s="2"/>
       <c r="N316" s="2"/>
       <c r="O316" s="2"/>
       <c r="T316" s="2"/>
     </row>
-    <row r="317" spans="12:20" ht="25.95" customHeight="1">
+    <row r="317" spans="12:20" ht="25.9" customHeight="1">
       <c r="L317" s="2"/>
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
       <c r="O317" s="2"/>
       <c r="T317" s="2"/>
     </row>
-    <row r="318" spans="12:20" ht="25.95" customHeight="1">
+    <row r="318" spans="12:20" ht="25.9" customHeight="1">
       <c r="L318" s="2"/>
       <c r="M318" s="2"/>
       <c r="N318" s="2"/>
       <c r="O318" s="2"/>
       <c r="T318" s="2"/>
     </row>
-    <row r="319" spans="12:20" ht="25.95" customHeight="1">
+    <row r="319" spans="12:20" ht="25.9" customHeight="1">
       <c r="L319" s="2"/>
       <c r="M319" s="2"/>
       <c r="N319" s="2"/>
       <c r="O319" s="2"/>
       <c r="T319" s="2"/>
     </row>
-    <row r="320" spans="12:20" ht="25.95" customHeight="1">
+    <row r="320" spans="12:20" ht="25.9" customHeight="1">
       <c r="L320" s="2"/>
       <c r="M320" s="2"/>
       <c r="N320" s="2"/>
       <c r="O320" s="2"/>
       <c r="T320" s="2"/>
     </row>
-    <row r="321" spans="12:20" ht="25.95" customHeight="1">
+    <row r="321" spans="12:20" ht="25.9" customHeight="1">
       <c r="L321" s="2"/>
       <c r="M321" s="2"/>
       <c r="N321" s="2"/>
       <c r="O321" s="2"/>
       <c r="T321" s="2"/>
     </row>
-    <row r="322" spans="12:20" ht="25.95" customHeight="1">
+    <row r="322" spans="12:20" ht="25.9" customHeight="1">
       <c r="L322" s="2"/>
       <c r="M322" s="2"/>
       <c r="N322" s="2"/>
       <c r="O322" s="2"/>
       <c r="T322" s="2"/>
     </row>
-    <row r="323" spans="12:20" ht="25.95" customHeight="1">
+    <row r="323" spans="12:20" ht="25.9" customHeight="1">
       <c r="L323" s="2"/>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
       <c r="O323" s="2"/>
       <c r="T323" s="2"/>
     </row>
-    <row r="324" spans="12:20" ht="25.95" customHeight="1">
+    <row r="324" spans="12:20" ht="25.9" customHeight="1">
       <c r="L324" s="2"/>
       <c r="M324" s="2"/>
       <c r="N324" s="2"/>
       <c r="O324" s="2"/>
       <c r="T324" s="2"/>
     </row>
-    <row r="325" spans="12:20" ht="25.95" customHeight="1">
+    <row r="325" spans="12:20" ht="25.9" customHeight="1">
       <c r="L325" s="2"/>
       <c r="M325" s="2"/>
       <c r="N325" s="2"/>
       <c r="O325" s="2"/>
       <c r="T325" s="2"/>
     </row>
-    <row r="326" spans="12:20" ht="25.95" customHeight="1">
+    <row r="326" spans="12:20" ht="25.9" customHeight="1">
       <c r="L326" s="2"/>
       <c r="M326" s="2"/>
       <c r="N326" s="2"/>
       <c r="O326" s="2"/>
       <c r="T326" s="2"/>
     </row>
-    <row r="327" spans="12:20" ht="25.95" customHeight="1">
+    <row r="327" spans="12:20" ht="25.9" customHeight="1">
       <c r="L327" s="2"/>
       <c r="M327" s="2"/>
       <c r="N327" s="2"/>
       <c r="O327" s="2"/>
       <c r="T327" s="2"/>
     </row>
-    <row r="328" spans="12:20" ht="25.95" customHeight="1">
+    <row r="328" spans="12:20" ht="25.9" customHeight="1">
       <c r="L328" s="2"/>
       <c r="M328" s="2"/>
       <c r="N328" s="2"/>
       <c r="O328" s="2"/>
       <c r="T328" s="2"/>
     </row>
-    <row r="329" spans="12:20" ht="25.95" customHeight="1">
+    <row r="329" spans="12:20" ht="25.9" customHeight="1">
       <c r="L329" s="2"/>
       <c r="M329" s="2"/>
       <c r="N329" s="2"/>
       <c r="O329" s="2"/>
       <c r="T329" s="2"/>
     </row>
-    <row r="330" spans="12:20" ht="25.95" customHeight="1">
+    <row r="330" spans="12:20" ht="25.9" customHeight="1">
       <c r="L330" s="2"/>
       <c r="M330" s="2"/>
       <c r="N330" s="2"/>
       <c r="O330" s="2"/>
       <c r="T330" s="2"/>
     </row>
-    <row r="331" spans="12:20" ht="25.95" customHeight="1">
+    <row r="331" spans="12:20" ht="25.9" customHeight="1">
       <c r="L331" s="2"/>
       <c r="M331" s="2"/>
       <c r="N331" s="2"/>
       <c r="O331" s="2"/>
       <c r="T331" s="2"/>
     </row>
-    <row r="332" spans="12:20" ht="25.95" customHeight="1">
+    <row r="332" spans="12:20" ht="25.9" customHeight="1">
       <c r="L332" s="2"/>
       <c r="M332" s="2"/>
       <c r="N332" s="2"/>
       <c r="O332" s="2"/>
       <c r="T332" s="2"/>
     </row>
-    <row r="333" spans="12:20" ht="25.95" customHeight="1">
+    <row r="333" spans="12:20" ht="25.9" customHeight="1">
       <c r="L333" s="2"/>
       <c r="M333" s="2"/>
       <c r="N333" s="2"/>
       <c r="O333" s="2"/>
       <c r="T333" s="2"/>
     </row>
-    <row r="334" spans="12:20" ht="25.95" customHeight="1">
+    <row r="334" spans="12:20" ht="25.9" customHeight="1">
       <c r="L334" s="2"/>
       <c r="M334" s="2"/>
       <c r="N334" s="2"/>
       <c r="O334" s="2"/>
       <c r="T334" s="2"/>
     </row>
-    <row r="335" spans="12:20" ht="25.95" customHeight="1">
+    <row r="335" spans="12:20" ht="25.9" customHeight="1">
       <c r="L335" s="2"/>
       <c r="M335" s="2"/>
       <c r="N335" s="2"/>
       <c r="O335" s="2"/>
       <c r="T335" s="2"/>
     </row>
-    <row r="336" spans="12:20" ht="25.95" customHeight="1">
+    <row r="336" spans="12:20" ht="25.9" customHeight="1">
       <c r="L336" s="2"/>
       <c r="M336" s="2"/>
       <c r="N336" s="2"/>
       <c r="O336" s="2"/>
       <c r="T336" s="2"/>
     </row>
-    <row r="337" spans="12:20" ht="25.95" customHeight="1">
+    <row r="337" spans="12:20" ht="25.9" customHeight="1">
       <c r="L337" s="2"/>
       <c r="M337" s="2"/>
       <c r="N337" s="2"/>
       <c r="O337" s="2"/>
       <c r="T337" s="2"/>
     </row>
-    <row r="338" spans="12:20" ht="25.95" customHeight="1">
+    <row r="338" spans="12:20" ht="25.9" customHeight="1">
       <c r="L338" s="2"/>
       <c r="M338" s="2"/>
       <c r="N338" s="2"/>
       <c r="O338" s="2"/>
       <c r="T338" s="2"/>
     </row>
-    <row r="339" spans="12:20" ht="25.95" customHeight="1">
+    <row r="339" spans="12:20" ht="25.9" customHeight="1">
       <c r="L339" s="2"/>
       <c r="M339" s="2"/>
       <c r="N339" s="2"/>
       <c r="O339" s="2"/>
       <c r="T339" s="2"/>
     </row>
-    <row r="340" spans="12:20" ht="25.95" customHeight="1">
+    <row r="340" spans="12:20" ht="25.9" customHeight="1">
       <c r="L340" s="2"/>
       <c r="M340" s="2"/>
       <c r="N340" s="2"/>
       <c r="O340" s="2"/>
       <c r="T340" s="2"/>
     </row>
-    <row r="341" spans="12:20" ht="25.95" customHeight="1">
+    <row r="341" spans="12:20" ht="25.9" customHeight="1">
       <c r="L341" s="2"/>
       <c r="M341" s="2"/>
       <c r="N341" s="2"/>
       <c r="O341" s="2"/>
       <c r="T341" s="2"/>
     </row>
-    <row r="342" spans="12:20" ht="25.95" customHeight="1">
+    <row r="342" spans="12:20" ht="25.9" customHeight="1">
       <c r="L342" s="2"/>
       <c r="M342" s="2"/>
       <c r="N342" s="2"/>
       <c r="O342" s="2"/>
       <c r="T342" s="2"/>
     </row>
-    <row r="343" spans="12:20" ht="25.95" customHeight="1">
+    <row r="343" spans="12:20" ht="25.9" customHeight="1">
       <c r="L343" s="2"/>
       <c r="M343" s="2"/>
       <c r="N343" s="2"/>
       <c r="O343" s="2"/>
       <c r="T343" s="2"/>
     </row>
-    <row r="344" spans="12:20" ht="25.95" customHeight="1">
+    <row r="344" spans="12:20" ht="25.9" customHeight="1">
       <c r="L344" s="2"/>
       <c r="M344" s="2"/>
       <c r="N344" s="2"/>
       <c r="O344" s="2"/>
       <c r="T344" s="2"/>
     </row>
-    <row r="345" spans="12:20" ht="25.95" customHeight="1">
+    <row r="345" spans="12:20" ht="25.9" customHeight="1">
       <c r="L345" s="2"/>
       <c r="M345" s="2"/>
       <c r="N345" s="2"/>
       <c r="O345" s="2"/>
       <c r="T345" s="2"/>
     </row>
-    <row r="346" spans="12:20" ht="25.95" customHeight="1">
+    <row r="346" spans="12:20" ht="25.9" customHeight="1">
       <c r="L346" s="2"/>
       <c r="M346" s="2"/>
       <c r="N346" s="2"/>
       <c r="O346" s="2"/>
       <c r="T346" s="2"/>
     </row>
-    <row r="347" spans="12:20" ht="25.95" customHeight="1">
+    <row r="347" spans="12:20" ht="25.9" customHeight="1">
       <c r="L347" s="2"/>
       <c r="M347" s="2"/>
       <c r="N347" s="2"/>
       <c r="O347" s="2"/>
       <c r="T347" s="2"/>
     </row>
-    <row r="348" spans="12:20" ht="25.95" customHeight="1">
+    <row r="348" spans="12:20" ht="25.9" customHeight="1">
       <c r="L348" s="2"/>
       <c r="M348" s="2"/>
       <c r="N348" s="2"/>
       <c r="O348" s="2"/>
       <c r="T348" s="2"/>
     </row>
-    <row r="349" spans="12:20" ht="25.95" customHeight="1">
+    <row r="349" spans="12:20" ht="25.9" customHeight="1">
       <c r="L349" s="2"/>
       <c r="M349" s="2"/>
       <c r="N349" s="2"/>
       <c r="O349" s="2"/>
       <c r="T349" s="2"/>
     </row>
-    <row r="350" spans="12:20" ht="25.95" customHeight="1">
+    <row r="350" spans="12:20" ht="25.9" customHeight="1">
       <c r="L350" s="2"/>
       <c r="M350" s="2"/>
       <c r="N350" s="2"/>
       <c r="O350" s="2"/>
       <c r="T350" s="2"/>
     </row>
-    <row r="351" spans="12:20" ht="25.95" customHeight="1">
+    <row r="351" spans="12:20" ht="25.9" customHeight="1">
       <c r="L351" s="2"/>
       <c r="M351" s="2"/>
       <c r="N351" s="2"/>
       <c r="O351" s="2"/>
       <c r="T351" s="2"/>
     </row>
-    <row r="352" spans="12:20" ht="25.95" customHeight="1">
+    <row r="352" spans="12:20" ht="25.9" customHeight="1">
       <c r="L352" s="2"/>
       <c r="M352" s="2"/>
       <c r="N352" s="2"/>
       <c r="O352" s="2"/>
       <c r="T352" s="2"/>
     </row>
-    <row r="353" spans="12:20" ht="25.95" customHeight="1">
+    <row r="353" spans="12:20" ht="25.9" customHeight="1">
       <c r="L353" s="2"/>
       <c r="M353" s="2"/>
       <c r="N353" s="2"/>
       <c r="O353" s="2"/>
       <c r="T353" s="2"/>
     </row>
-    <row r="354" spans="12:20" ht="25.95" customHeight="1">
+    <row r="354" spans="12:20" ht="25.9" customHeight="1">
       <c r="L354" s="2"/>
       <c r="M354" s="2"/>
       <c r="N354" s="2"/>
       <c r="O354" s="2"/>
       <c r="T354" s="2"/>
     </row>
-    <row r="355" spans="12:20" ht="25.95" customHeight="1">
+    <row r="355" spans="12:20" ht="25.9" customHeight="1">
       <c r="L355" s="2"/>
       <c r="M355" s="2"/>
       <c r="N355" s="2"/>
       <c r="O355" s="2"/>
       <c r="T355" s="2"/>
     </row>
-    <row r="356" spans="12:20" ht="25.95" customHeight="1">
+    <row r="356" spans="12:20" ht="25.9" customHeight="1">
       <c r="L356" s="2"/>
       <c r="M356" s="2"/>
       <c r="N356" s="2"/>
       <c r="O356" s="2"/>
       <c r="T356" s="2"/>
     </row>
-    <row r="357" spans="12:20" ht="25.95" customHeight="1">
+    <row r="357" spans="12:20" ht="25.9" customHeight="1">
       <c r="L357" s="2"/>
       <c r="M357" s="2"/>
       <c r="N357" s="2"/>
       <c r="O357" s="2"/>
       <c r="T357" s="2"/>
     </row>
-    <row r="358" spans="12:20" ht="25.95" customHeight="1">
+    <row r="358" spans="12:20" ht="25.9" customHeight="1">
       <c r="L358" s="2"/>
       <c r="M358" s="2"/>
       <c r="N358" s="2"/>
       <c r="O358" s="2"/>
       <c r="T358" s="2"/>
     </row>
-    <row r="359" spans="12:20" ht="25.95" customHeight="1">
+    <row r="359" spans="12:20" ht="25.9" customHeight="1">
       <c r="L359" s="2"/>
       <c r="M359" s="2"/>
       <c r="N359" s="2"/>
       <c r="O359" s="2"/>
       <c r="T359" s="2"/>
     </row>
-    <row r="360" spans="12:20" ht="25.95" customHeight="1">
+    <row r="360" spans="12:20" ht="25.9" customHeight="1">
       <c r="L360" s="2"/>
       <c r="M360" s="2"/>
       <c r="N360" s="2"/>
       <c r="O360" s="2"/>
       <c r="T360" s="2"/>
     </row>
-    <row r="361" spans="12:20" ht="25.95" customHeight="1">
+    <row r="361" spans="12:20" ht="25.9" customHeight="1">
       <c r="L361" s="2"/>
       <c r="M361" s="2"/>
       <c r="N361" s="2"/>
       <c r="O361" s="2"/>
       <c r="T361" s="2"/>
     </row>
-    <row r="362" spans="12:20" ht="25.95" customHeight="1">
+    <row r="362" spans="12:20" ht="25.9" customHeight="1">
       <c r="L362" s="2"/>
       <c r="M362" s="2"/>
       <c r="N362" s="2"/>
       <c r="O362" s="2"/>
       <c r="T362" s="2"/>
     </row>
-    <row r="363" spans="12:20" ht="25.95" customHeight="1">
+    <row r="363" spans="12:20" ht="25.9" customHeight="1">
       <c r="L363" s="2"/>
       <c r="M363" s="2"/>
       <c r="N363" s="2"/>
       <c r="O363" s="2"/>
       <c r="T363" s="2"/>
     </row>
-    <row r="364" spans="12:20" ht="25.95" customHeight="1">
+    <row r="364" spans="12:20" ht="25.9" customHeight="1">
       <c r="L364" s="2"/>
       <c r="M364" s="2"/>
       <c r="N364" s="2"/>
       <c r="O364" s="2"/>
       <c r="T364" s="2"/>
     </row>
-    <row r="365" spans="12:20" ht="25.95" customHeight="1">
+    <row r="365" spans="12:20" ht="25.9" customHeight="1">
       <c r="L365" s="2"/>
       <c r="M365" s="2"/>
       <c r="N365" s="2"/>
       <c r="O365" s="2"/>
       <c r="T365" s="2"/>
     </row>
-    <row r="366" spans="12:20" ht="25.95" customHeight="1">
+    <row r="366" spans="12:20" ht="25.9" customHeight="1">
       <c r="L366" s="2"/>
       <c r="M366" s="2"/>
       <c r="N366" s="2"/>
       <c r="O366" s="2"/>
       <c r="T366" s="2"/>
     </row>
-    <row r="367" spans="12:20" ht="25.95" customHeight="1">
+    <row r="367" spans="12:20" ht="25.9" customHeight="1">
       <c r="L367" s="2"/>
       <c r="M367" s="2"/>
       <c r="N367" s="2"/>
       <c r="O367" s="2"/>
       <c r="T367" s="2"/>
     </row>
-    <row r="368" spans="12:20" ht="25.95" customHeight="1">
+    <row r="368" spans="12:20" ht="25.9" customHeight="1">
       <c r="L368" s="2"/>
       <c r="M368" s="2"/>
       <c r="N368" s="2"/>
       <c r="O368" s="2"/>
       <c r="T368" s="2"/>
     </row>
-    <row r="369" spans="12:20" ht="25.95" customHeight="1">
+    <row r="369" spans="12:20" ht="25.9" customHeight="1">
       <c r="L369" s="2"/>
       <c r="M369" s="2"/>
       <c r="N369" s="2"/>
       <c r="O369" s="2"/>
       <c r="T369" s="2"/>
     </row>
-    <row r="370" spans="12:20" ht="25.95" customHeight="1">
+    <row r="370" spans="12:20" ht="25.9" customHeight="1">
       <c r="L370" s="2"/>
       <c r="M370" s="2"/>
       <c r="N370" s="2"/>
       <c r="O370" s="2"/>
       <c r="T370" s="2"/>
     </row>
-    <row r="371" spans="12:20" ht="25.95" customHeight="1">
+    <row r="371" spans="12:20" ht="25.9" customHeight="1">
       <c r="L371" s="2"/>
       <c r="M371" s="2"/>
       <c r="N371" s="2"/>
       <c r="O371" s="2"/>
       <c r="T371" s="2"/>
     </row>
-    <row r="372" spans="12:20" ht="25.95" customHeight="1">
+    <row r="372" spans="12:20" ht="25.9" customHeight="1">
       <c r="L372" s="2"/>
       <c r="M372" s="2"/>
       <c r="N372" s="2"/>
       <c r="O372" s="2"/>
       <c r="T372" s="2"/>
     </row>
-    <row r="373" spans="12:20" ht="25.95" customHeight="1">
+    <row r="373" spans="12:20" ht="25.9" customHeight="1">
       <c r="L373" s="2"/>
       <c r="M373" s="2"/>
       <c r="N373" s="2"/>
       <c r="O373" s="2"/>
       <c r="T373" s="2"/>
     </row>
-    <row r="374" spans="12:20" ht="25.95" customHeight="1">
+    <row r="374" spans="12:20" ht="25.9" customHeight="1">
       <c r="L374" s="2"/>
       <c r="M374" s="2"/>
       <c r="N374" s="2"/>
       <c r="O374" s="2"/>
       <c r="T374" s="2"/>
     </row>
-    <row r="375" spans="12:20" ht="25.95" customHeight="1">
+    <row r="375" spans="12:20" ht="25.9" customHeight="1">
       <c r="L375" s="2"/>
       <c r="M375" s="2"/>
       <c r="N375" s="2"/>
       <c r="O375" s="2"/>
       <c r="T375" s="2"/>
     </row>
-    <row r="376" spans="12:20" ht="25.95" customHeight="1">
+    <row r="376" spans="12:20" ht="25.9" customHeight="1">
       <c r="L376" s="2"/>
       <c r="M376" s="2"/>
       <c r="N376" s="2"/>
       <c r="O376" s="2"/>
       <c r="T376" s="2"/>
     </row>
-    <row r="377" spans="12:20" ht="25.95" customHeight="1">
+    <row r="377" spans="12:20" ht="25.9" customHeight="1">
       <c r="L377" s="2"/>
       <c r="M377" s="2"/>
       <c r="N377" s="2"/>
       <c r="O377" s="2"/>
       <c r="T377" s="2"/>
     </row>
-    <row r="378" spans="12:20" ht="25.95" customHeight="1">
+    <row r="378" spans="12:20" ht="25.9" customHeight="1">
       <c r="L378" s="2"/>
       <c r="M378" s="2"/>
       <c r="N378" s="2"/>
       <c r="O378" s="2"/>
       <c r="T378" s="2"/>
     </row>
-    <row r="379" spans="12:20" ht="25.95" customHeight="1">
+    <row r="379" spans="12:20" ht="25.9" customHeight="1">
       <c r="L379" s="2"/>
       <c r="M379" s="2"/>
       <c r="N379" s="2"/>
       <c r="O379" s="2"/>
       <c r="T379" s="2"/>
     </row>
-    <row r="380" spans="12:20" ht="25.95" customHeight="1">
+    <row r="380" spans="12:20" ht="25.9" customHeight="1">
       <c r="L380" s="2"/>
       <c r="M380" s="2"/>
       <c r="N380" s="2"/>
       <c r="O380" s="2"/>
       <c r="T380" s="2"/>
     </row>
-    <row r="381" spans="12:20" ht="25.95" customHeight="1">
+    <row r="381" spans="12:20" ht="25.9" customHeight="1">
       <c r="L381" s="2"/>
       <c r="M381" s="2"/>
       <c r="N381" s="2"/>
       <c r="O381" s="2"/>
       <c r="T381" s="2"/>
     </row>
-    <row r="382" spans="12:20" ht="25.95" customHeight="1">
+    <row r="382" spans="12:20" ht="25.9" customHeight="1">
       <c r="L382" s="2"/>
       <c r="M382" s="2"/>
       <c r="N382" s="2"/>
       <c r="O382" s="2"/>
       <c r="T382" s="2"/>
     </row>
-    <row r="383" spans="12:20" ht="25.95" customHeight="1">
+    <row r="383" spans="12:20" ht="25.9" customHeight="1">
       <c r="L383" s="2"/>
       <c r="M383" s="2"/>
       <c r="N383" s="2"/>
       <c r="O383" s="2"/>
       <c r="T383" s="2"/>
     </row>
-    <row r="384" spans="12:20" ht="25.95" customHeight="1">
+    <row r="384" spans="12:20" ht="25.9" customHeight="1">
       <c r="L384" s="2"/>
       <c r="M384" s="2"/>
       <c r="N384" s="2"/>
       <c r="O384" s="2"/>
       <c r="T384" s="2"/>
     </row>
-    <row r="385" spans="12:20" ht="25.95" customHeight="1">
+    <row r="385" spans="12:20" ht="25.9" customHeight="1">
       <c r="L385" s="2"/>
       <c r="M385" s="2"/>
       <c r="N385" s="2"/>
       <c r="O385" s="2"/>
       <c r="T385" s="2"/>
     </row>
-    <row r="386" spans="12:20" ht="25.95" customHeight="1">
+    <row r="386" spans="12:20" ht="25.9" customHeight="1">
       <c r="L386" s="2"/>
       <c r="M386" s="2"/>
       <c r="N386" s="2"/>
       <c r="O386" s="2"/>
       <c r="T386" s="2"/>
     </row>
-    <row r="387" spans="12:20" ht="25.95" customHeight="1">
+    <row r="387" spans="12:20" ht="25.9" customHeight="1">
       <c r="L387" s="2"/>
       <c r="M387" s="2"/>
       <c r="N387" s="2"/>
       <c r="O387" s="2"/>
       <c r="T387" s="2"/>
     </row>
-    <row r="388" spans="12:20" ht="25.95" customHeight="1">
+    <row r="388" spans="12:20" ht="25.9" customHeight="1">
       <c r="L388" s="2"/>
       <c r="M388" s="2"/>
       <c r="N388" s="2"/>
       <c r="O388" s="2"/>
       <c r="T388" s="2"/>
     </row>
-    <row r="389" spans="12:20" ht="25.95" customHeight="1">
+    <row r="389" spans="12:20" ht="25.9" customHeight="1">
       <c r="L389" s="2"/>
       <c r="M389" s="2"/>
       <c r="N389" s="2"/>
       <c r="O389" s="2"/>
       <c r="T389" s="2"/>
     </row>
-    <row r="390" spans="12:20" ht="25.95" customHeight="1">
+    <row r="390" spans="12:20" ht="25.9" customHeight="1">
       <c r="L390" s="2"/>
       <c r="M390" s="2"/>
       <c r="N390" s="2"/>
       <c r="O390" s="2"/>
       <c r="T390" s="2"/>
     </row>
-    <row r="391" spans="12:20" ht="25.95" customHeight="1">
+    <row r="391" spans="12:20" ht="25.9" customHeight="1">
       <c r="L391" s="2"/>
       <c r="M391" s="2"/>
       <c r="N391" s="2"/>
       <c r="O391" s="2"/>
       <c r="T391" s="2"/>
     </row>
-    <row r="392" spans="12:20" ht="25.95" customHeight="1">
+    <row r="392" spans="12:20" ht="25.9" customHeight="1">
       <c r="L392" s="2"/>
       <c r="M392" s="2"/>
       <c r="N392" s="2"/>
       <c r="O392" s="2"/>
       <c r="T392" s="2"/>
     </row>
-    <row r="393" spans="12:20" ht="25.95" customHeight="1">
+    <row r="393" spans="12:20" ht="25.9" customHeight="1">
       <c r="L393" s="2"/>
       <c r="M393" s="2"/>
       <c r="N393" s="2"/>
       <c r="O393" s="2"/>
       <c r="T393" s="2"/>
     </row>
-    <row r="394" spans="12:20" ht="25.95" customHeight="1">
+    <row r="394" spans="12:20" ht="25.9" customHeight="1">
       <c r="L394" s="2"/>
       <c r="M394" s="2"/>
       <c r="N394" s="2"/>
       <c r="O394" s="2"/>
       <c r="T394" s="2"/>
     </row>
-    <row r="395" spans="12:20" ht="25.95" customHeight="1">
+    <row r="395" spans="12:20" ht="25.9" customHeight="1">
       <c r="L395" s="2"/>
       <c r="M395" s="2"/>
       <c r="N395" s="2"/>
       <c r="O395" s="2"/>
       <c r="T395" s="2"/>
     </row>
-    <row r="396" spans="12:20" ht="25.95" customHeight="1">
+    <row r="396" spans="12:20" ht="25.9" customHeight="1">
       <c r="L396" s="2"/>
       <c r="M396" s="2"/>
       <c r="N396" s="2"/>
       <c r="O396" s="2"/>
       <c r="T396" s="2"/>
     </row>
-    <row r="397" spans="12:20" ht="25.95" customHeight="1">
+    <row r="397" spans="12:20" ht="25.9" customHeight="1">
       <c r="L397" s="2"/>
       <c r="M397" s="2"/>
       <c r="N397" s="2"/>
       <c r="O397" s="2"/>
       <c r="T397" s="2"/>
     </row>
-    <row r="398" spans="12:20" ht="25.95" customHeight="1">
+    <row r="398" spans="12:20" ht="25.9" customHeight="1">
       <c r="L398" s="2"/>
       <c r="M398" s="2"/>
       <c r="N398" s="2"/>
       <c r="O398" s="2"/>
       <c r="T398" s="2"/>
     </row>
-    <row r="399" spans="12:20" ht="25.95" customHeight="1">
+    <row r="399" spans="12:20" ht="25.9" customHeight="1">
       <c r="L399" s="2"/>
       <c r="M399" s="2"/>
       <c r="N399" s="2"/>
       <c r="O399" s="2"/>
       <c r="T399" s="2"/>
     </row>
-    <row r="400" spans="12:20" ht="25.95" customHeight="1">
+    <row r="400" spans="12:20" ht="25.9" customHeight="1">
       <c r="L400" s="2"/>
       <c r="M400" s="2"/>
       <c r="N400" s="2"/>
       <c r="O400" s="2"/>
       <c r="T400" s="2"/>
     </row>
-    <row r="401" spans="12:20" ht="25.95" customHeight="1">
+    <row r="401" spans="12:20" ht="25.9" customHeight="1">
       <c r="L401" s="2"/>
       <c r="M401" s="2"/>
       <c r="N401" s="2"/>
       <c r="O401" s="2"/>
       <c r="T401" s="2"/>
     </row>
-    <row r="402" spans="12:20" ht="25.95" customHeight="1">
+    <row r="402" spans="12:20" ht="25.9" customHeight="1">
       <c r="L402" s="2"/>
       <c r="M402" s="2"/>
       <c r="N402" s="2"/>
       <c r="O402" s="2"/>
       <c r="T402" s="2"/>
     </row>
-    <row r="403" spans="12:20" ht="25.95" customHeight="1">
+    <row r="403" spans="12:20" ht="25.9" customHeight="1">
       <c r="L403" s="2"/>
       <c r="M403" s="2"/>
       <c r="N403" s="2"/>
       <c r="O403" s="2"/>
       <c r="T403" s="2"/>
     </row>
-    <row r="404" spans="12:20" ht="25.95" customHeight="1">
+    <row r="404" spans="12:20" ht="25.9" customHeight="1">
       <c r="L404" s="2"/>
       <c r="M404" s="2"/>
       <c r="N404" s="2"/>
       <c r="O404" s="2"/>
       <c r="T404" s="2"/>
     </row>
-    <row r="405" spans="12:20" ht="25.95" customHeight="1">
+    <row r="405" spans="12:20" ht="25.9" customHeight="1">
       <c r="L405" s="2"/>
       <c r="M405" s="2"/>
       <c r="N405" s="2"/>
       <c r="O405" s="2"/>
       <c r="T405" s="2"/>
     </row>
-    <row r="406" spans="12:20" ht="25.95" customHeight="1">
+    <row r="406" spans="12:20" ht="25.9" customHeight="1">
       <c r="L406" s="2"/>
       <c r="M406" s="2"/>
       <c r="N406" s="2"/>
       <c r="O406" s="2"/>
       <c r="T406" s="2"/>
     </row>
-    <row r="407" spans="12:20" ht="25.95" customHeight="1">
+    <row r="407" spans="12:20" ht="25.9" customHeight="1">
       <c r="L407" s="2"/>
       <c r="M407" s="2"/>
       <c r="N407" s="2"/>
       <c r="O407" s="2"/>
       <c r="T407" s="2"/>
     </row>
-    <row r="408" spans="12:20" ht="25.95" customHeight="1">
+    <row r="408" spans="12:20" ht="25.9" customHeight="1">
       <c r="L408" s="2"/>
       <c r="M408" s="2"/>
       <c r="N408" s="2"/>
       <c r="O408" s="2"/>
       <c r="T408" s="2"/>
     </row>
-    <row r="409" spans="12:20" ht="25.95" customHeight="1">
+    <row r="409" spans="12:20" ht="25.9" customHeight="1">
       <c r="L409" s="2"/>
       <c r="M409" s="2"/>
       <c r="N409" s="2"/>
       <c r="O409" s="2"/>
       <c r="T409" s="2"/>
     </row>
-    <row r="410" spans="12:20" ht="25.95" customHeight="1">
+    <row r="410" spans="12:20" ht="25.9" customHeight="1">
       <c r="L410" s="2"/>
       <c r="M410" s="2"/>
       <c r="N410" s="2"/>
       <c r="O410" s="2"/>
       <c r="T410" s="2"/>
     </row>
-    <row r="411" spans="12:20" ht="25.95" customHeight="1">
+    <row r="411" spans="12:20" ht="25.9" customHeight="1">
       <c r="L411" s="2"/>
       <c r="M411" s="2"/>
       <c r="N411" s="2"/>
       <c r="O411" s="2"/>
       <c r="T411" s="2"/>
     </row>
-    <row r="412" spans="12:20" ht="25.95" customHeight="1">
+    <row r="412" spans="12:20" ht="25.9" customHeight="1">
       <c r="L412" s="2"/>
       <c r="M412" s="2"/>
       <c r="N412" s="2"/>
       <c r="O412" s="2"/>
       <c r="T412" s="2"/>
     </row>
-    <row r="413" spans="12:20" ht="25.95" customHeight="1">
+    <row r="413" spans="12:20" ht="25.9" customHeight="1">
       <c r="L413" s="2"/>
       <c r="M413" s="2"/>
       <c r="N413" s="2"/>
       <c r="O413" s="2"/>
       <c r="T413" s="2"/>
     </row>
-    <row r="414" spans="12:20" ht="25.95" customHeight="1">
+    <row r="414" spans="12:20" ht="25.9" customHeight="1">
       <c r="L414" s="2"/>
       <c r="M414" s="2"/>
       <c r="N414" s="2"/>
       <c r="O414" s="2"/>
       <c r="T414" s="2"/>
     </row>
-    <row r="415" spans="12:20" ht="25.95" customHeight="1">
+    <row r="415" spans="12:20" ht="25.9" customHeight="1">
       <c r="L415" s="2"/>
       <c r="M415" s="2"/>
       <c r="N415" s="2"/>
       <c r="O415" s="2"/>
       <c r="T415" s="2"/>
     </row>
-    <row r="416" spans="12:20" ht="25.95" customHeight="1">
+    <row r="416" spans="12:20" ht="25.9" customHeight="1">
       <c r="L416" s="2"/>
       <c r="M416" s="2"/>
       <c r="N416" s="2"/>
       <c r="O416" s="2"/>
       <c r="T416" s="2"/>
     </row>
-    <row r="417" spans="12:20" ht="25.95" customHeight="1">
+    <row r="417" spans="12:20" ht="25.9" customHeight="1">
       <c r="L417" s="2"/>
       <c r="M417" s="2"/>
       <c r="N417" s="2"/>
       <c r="O417" s="2"/>
       <c r="T417" s="2"/>
     </row>
-    <row r="418" spans="12:20" ht="25.95" customHeight="1">
+    <row r="418" spans="12:20" ht="25.9" customHeight="1">
       <c r="L418" s="2"/>
       <c r="M418" s="2"/>
       <c r="N418" s="2"/>
       <c r="O418" s="2"/>
       <c r="T418" s="2"/>
     </row>
-    <row r="419" spans="12:20" ht="25.95" customHeight="1">
+    <row r="419" spans="12:20" ht="25.9" customHeight="1">
       <c r="L419" s="2"/>
       <c r="M419" s="2"/>
       <c r="N419" s="2"/>
       <c r="O419" s="2"/>
       <c r="T419" s="2"/>
     </row>
-    <row r="420" spans="12:20" ht="25.95" customHeight="1">
+    <row r="420" spans="12:20" ht="25.9" customHeight="1">
       <c r="L420" s="2"/>
       <c r="M420" s="2"/>
       <c r="N420" s="2"/>
       <c r="O420" s="2"/>
       <c r="T420" s="2"/>
     </row>
-    <row r="421" spans="12:20" ht="25.95" customHeight="1">
+    <row r="421" spans="12:20" ht="25.9" customHeight="1">
       <c r="L421" s="2"/>
       <c r="M421" s="2"/>
       <c r="N421" s="2"/>
       <c r="O421" s="2"/>
       <c r="T421" s="2"/>
     </row>
-    <row r="422" spans="12:20" ht="25.95" customHeight="1">
+    <row r="422" spans="12:20" ht="25.9" customHeight="1">
       <c r="L422" s="2"/>
       <c r="M422" s="2"/>
       <c r="N422" s="2"/>
       <c r="O422" s="2"/>
       <c r="T422" s="2"/>
     </row>
-    <row r="423" spans="12:20" ht="25.95" customHeight="1">
+    <row r="423" spans="12:20" ht="25.9" customHeight="1">
       <c r="L423" s="2"/>
       <c r="M423" s="2"/>
       <c r="N423" s="2"/>
       <c r="O423" s="2"/>
       <c r="T423" s="2"/>
     </row>
-    <row r="424" spans="12:20" ht="25.95" customHeight="1">
+    <row r="424" spans="12:20" ht="25.9" customHeight="1">
       <c r="L424" s="2"/>
       <c r="M424" s="2"/>
       <c r="N424" s="2"/>
       <c r="O424" s="2"/>
       <c r="T424" s="2"/>
     </row>
-    <row r="425" spans="12:20" ht="25.95" customHeight="1">
+    <row r="425" spans="12:20" ht="25.9" customHeight="1">
       <c r="L425" s="2"/>
       <c r="M425" s="2"/>
       <c r="N425" s="2"/>
       <c r="O425" s="2"/>
       <c r="T425" s="2"/>
     </row>
-    <row r="426" spans="12:20" ht="25.95" customHeight="1">
+    <row r="426" spans="12:20" ht="25.9" customHeight="1">
       <c r="L426" s="2"/>
       <c r="M426" s="2"/>
       <c r="N426" s="2"/>
       <c r="O426" s="2"/>
       <c r="T426" s="2"/>
     </row>
-    <row r="427" spans="12:20" ht="25.95" customHeight="1">
+    <row r="427" spans="12:20" ht="25.9" customHeight="1">
       <c r="L427" s="2"/>
       <c r="M427" s="2"/>
       <c r="N427" s="2"/>
       <c r="O427" s="2"/>
       <c r="T427" s="2"/>
     </row>
-    <row r="428" spans="12:20" ht="25.95" customHeight="1">
+    <row r="428" spans="12:20" ht="25.9" customHeight="1">
       <c r="L428" s="2"/>
       <c r="M428" s="2"/>
       <c r="N428" s="2"/>
       <c r="O428" s="2"/>
       <c r="T428" s="2"/>
     </row>
-    <row r="429" spans="12:20" ht="25.95" customHeight="1">
+    <row r="429" spans="12:20" ht="25.9" customHeight="1">
       <c r="L429" s="2"/>
       <c r="M429" s="2"/>
       <c r="N429" s="2"/>
       <c r="O429" s="2"/>
       <c r="T429" s="2"/>
     </row>
-    <row r="430" spans="12:20" ht="25.95" customHeight="1">
+    <row r="430" spans="12:20" ht="25.9" customHeight="1">
       <c r="L430" s="2"/>
       <c r="M430" s="2"/>
       <c r="N430" s="2"/>
       <c r="O430" s="2"/>
       <c r="T430" s="2"/>
     </row>
-    <row r="431" spans="12:20" ht="25.95" customHeight="1">
+    <row r="431" spans="12:20" ht="25.9" customHeight="1">
       <c r="L431" s="2"/>
       <c r="M431" s="2"/>
       <c r="N431" s="2"/>
       <c r="O431" s="2"/>
       <c r="T431" s="2"/>
     </row>
-    <row r="432" spans="12:20" ht="25.95" customHeight="1">
+    <row r="432" spans="12:20" ht="25.9" customHeight="1">
       <c r="L432" s="2"/>
       <c r="M432" s="2"/>
       <c r="N432" s="2"/>
       <c r="O432" s="2"/>
       <c r="T432" s="2"/>
     </row>
-    <row r="433" spans="12:20" ht="25.95" customHeight="1">
+    <row r="433" spans="12:20" ht="25.9" customHeight="1">
       <c r="L433" s="2"/>
       <c r="M433" s="2"/>
       <c r="N433" s="2"/>
       <c r="O433" s="2"/>
       <c r="T433" s="2"/>
     </row>
-    <row r="434" spans="12:20" ht="25.95" customHeight="1">
+    <row r="434" spans="12:20" ht="25.9" customHeight="1">
       <c r="L434" s="2"/>
       <c r="M434" s="2"/>
       <c r="N434" s="2"/>
       <c r="O434" s="2"/>
       <c r="T434" s="2"/>
     </row>
-    <row r="435" spans="12:20" ht="25.95" customHeight="1">
+    <row r="435" spans="12:20" ht="25.9" customHeight="1">
       <c r="L435" s="2"/>
       <c r="M435" s="2"/>
       <c r="N435" s="2"/>
       <c r="O435" s="2"/>
       <c r="T435" s="2"/>
     </row>
-    <row r="436" spans="12:20" ht="25.95" customHeight="1">
+    <row r="436" spans="12:20" ht="25.9" customHeight="1">
       <c r="L436" s="2"/>
       <c r="M436" s="2"/>
       <c r="N436" s="2"/>
       <c r="O436" s="2"/>
       <c r="T436" s="2"/>
     </row>
-    <row r="437" spans="12:20" ht="25.95" customHeight="1">
+    <row r="437" spans="12:20" ht="25.9" customHeight="1">
       <c r="L437" s="2"/>
       <c r="M437" s="2"/>
       <c r="N437" s="2"/>
       <c r="O437" s="2"/>
       <c r="T437" s="2"/>
     </row>
-    <row r="438" spans="12:20" ht="25.95" customHeight="1">
+    <row r="438" spans="12:20" ht="25.9" customHeight="1">
       <c r="L438" s="2"/>
       <c r="M438" s="2"/>
       <c r="N438" s="2"/>
       <c r="O438" s="2"/>
       <c r="T438" s="2"/>
     </row>
-    <row r="439" spans="12:20" ht="25.95" customHeight="1">
+    <row r="439" spans="12:20" ht="25.9" customHeight="1">
       <c r="L439" s="2"/>
       <c r="M439" s="2"/>
       <c r="N439" s="2"/>
       <c r="O439" s="2"/>
       <c r="T439" s="2"/>
     </row>
-    <row r="440" spans="12:20" ht="25.95" customHeight="1">
+    <row r="440" spans="12:20" ht="25.9" customHeight="1">
       <c r="L440" s="2"/>
       <c r="M440" s="2"/>
       <c r="N440" s="2"/>
       <c r="O440" s="2"/>
       <c r="T440" s="2"/>
     </row>
-    <row r="441" spans="12:20" ht="25.95" customHeight="1">
+    <row r="441" spans="12:20" ht="25.9" customHeight="1">
       <c r="L441" s="2"/>
       <c r="M441" s="2"/>
       <c r="N441" s="2"/>
       <c r="O441" s="2"/>
       <c r="T441" s="2"/>
     </row>
-    <row r="442" spans="12:20" ht="25.95" customHeight="1">
+    <row r="442" spans="12:20" ht="25.9" customHeight="1">
       <c r="L442" s="2"/>
       <c r="M442" s="2"/>
       <c r="N442" s="2"/>
       <c r="O442" s="2"/>
       <c r="T442" s="2"/>
     </row>
-    <row r="443" spans="12:20" ht="25.95" customHeight="1">
+    <row r="443" spans="12:20" ht="25.9" customHeight="1">
       <c r="L443" s="2"/>
       <c r="M443" s="2"/>
       <c r="N443" s="2"/>
       <c r="O443" s="2"/>
       <c r="T443" s="2"/>
     </row>
-    <row r="444" spans="12:20" ht="25.95" customHeight="1">
+    <row r="444" spans="12:20" ht="25.9" customHeight="1">
       <c r="L444" s="2"/>
       <c r="M444" s="2"/>
       <c r="N444" s="2"/>
       <c r="O444" s="2"/>
       <c r="T444" s="2"/>
     </row>
-    <row r="445" spans="12:20" ht="25.95" customHeight="1">
+    <row r="445" spans="12:20" ht="25.9" customHeight="1">
       <c r="L445" s="2"/>
       <c r="M445" s="2"/>
       <c r="N445" s="2"/>
       <c r="O445" s="2"/>
       <c r="T445" s="2"/>
     </row>
-    <row r="446" spans="12:20" ht="25.95" customHeight="1">
+    <row r="446" spans="12:20" ht="25.9" customHeight="1">
       <c r="L446" s="2"/>
       <c r="M446" s="2"/>
       <c r="N446" s="2"/>
       <c r="O446" s="2"/>
       <c r="T446" s="2"/>
     </row>
-    <row r="447" spans="12:20" ht="25.95" customHeight="1">
+    <row r="447" spans="12:20" ht="25.9" customHeight="1">
       <c r="L447" s="2"/>
       <c r="M447" s="2"/>
       <c r="N447" s="2"/>
       <c r="O447" s="2"/>
       <c r="T447" s="2"/>
     </row>
-    <row r="448" spans="12:20" ht="25.95" customHeight="1">
+    <row r="448" spans="12:20" ht="25.9" customHeight="1">
       <c r="L448" s="2"/>
       <c r="M448" s="2"/>
       <c r="N448" s="2"/>
       <c r="O448" s="2"/>
       <c r="T448" s="2"/>
     </row>
-    <row r="449" spans="12:20" ht="25.95" customHeight="1">
+    <row r="449" spans="12:20" ht="25.9" customHeight="1">
       <c r="L449" s="2"/>
       <c r="M449" s="2"/>
       <c r="N449" s="2"/>
       <c r="O449" s="2"/>
       <c r="T449" s="2"/>
     </row>
-    <row r="450" spans="12:20" ht="25.95" customHeight="1">
+    <row r="450" spans="12:20" ht="25.9" customHeight="1">
       <c r="L450" s="2"/>
       <c r="M450" s="2"/>
       <c r="N450" s="2"/>
       <c r="O450" s="2"/>
       <c r="T450" s="2"/>
     </row>
-    <row r="451" spans="12:20" ht="25.95" customHeight="1">
+    <row r="451" spans="12:20" ht="25.9" customHeight="1">
       <c r="L451" s="2"/>
       <c r="M451" s="2"/>
       <c r="N451" s="2"/>
       <c r="O451" s="2"/>
       <c r="T451" s="2"/>
     </row>
-    <row r="452" spans="12:20" ht="25.95" customHeight="1">
+    <row r="452" spans="12:20" ht="25.9" customHeight="1">
       <c r="L452" s="2"/>
       <c r="M452" s="2"/>
       <c r="N452" s="2"/>
       <c r="O452" s="2"/>
       <c r="T452" s="2"/>
     </row>
-    <row r="453" spans="12:20" ht="25.95" customHeight="1">
+    <row r="453" spans="12:20" ht="25.9" customHeight="1">
       <c r="L453" s="2"/>
       <c r="M453" s="2"/>
       <c r="N453" s="2"/>
       <c r="O453" s="2"/>
       <c r="T453" s="2"/>
     </row>
-    <row r="454" spans="12:20" ht="25.95" customHeight="1">
+    <row r="454" spans="12:20" ht="25.9" customHeight="1">
       <c r="L454" s="2"/>
       <c r="M454" s="2"/>
       <c r="N454" s="2"/>
       <c r="O454" s="2"/>
       <c r="T454" s="2"/>
     </row>
-    <row r="455" spans="12:20" ht="25.95" customHeight="1">
+    <row r="455" spans="12:20" ht="25.9" customHeight="1">
       <c r="L455" s="2"/>
       <c r="M455" s="2"/>
       <c r="N455" s="2"/>
       <c r="O455" s="2"/>
       <c r="T455" s="2"/>
     </row>
-    <row r="456" spans="12:20" ht="25.95" customHeight="1">
+    <row r="456" spans="12:20" ht="25.9" customHeight="1">
       <c r="L456" s="2"/>
       <c r="M456" s="2"/>
       <c r="N456" s="2"/>
       <c r="O456" s="2"/>
       <c r="T456" s="2"/>
     </row>
-    <row r="457" spans="12:20" ht="25.95" customHeight="1">
+    <row r="457" spans="12:20" ht="25.9" customHeight="1">
       <c r="L457" s="2"/>
       <c r="M457" s="2"/>
       <c r="N457" s="2"/>
       <c r="O457" s="2"/>
       <c r="T457" s="2"/>
     </row>
-    <row r="458" spans="12:20" ht="25.95" customHeight="1">
+    <row r="458" spans="12:20" ht="25.9" customHeight="1">
       <c r="L458" s="2"/>
       <c r="M458" s="2"/>
       <c r="N458" s="2"/>
       <c r="O458" s="2"/>
       <c r="T458" s="2"/>
     </row>
-    <row r="459" spans="12:20" ht="25.95" customHeight="1">
+    <row r="459" spans="12:20" ht="25.9" customHeight="1">
       <c r="L459" s="2"/>
       <c r="M459" s="2"/>
       <c r="N459" s="2"/>
       <c r="O459" s="2"/>
       <c r="T459" s="2"/>
     </row>
-    <row r="460" spans="12:20" ht="25.95" customHeight="1">
+    <row r="460" spans="12:20" ht="25.9" customHeight="1">
       <c r="L460" s="2"/>
       <c r="M460" s="2"/>
       <c r="N460" s="2"/>
       <c r="O460" s="2"/>
       <c r="T460" s="2"/>
     </row>
-    <row r="461" spans="12:20" ht="25.95" customHeight="1">
+    <row r="461" spans="12:20" ht="25.9" customHeight="1">
       <c r="L461" s="2"/>
       <c r="M461" s="2"/>
       <c r="N461" s="2"/>
       <c r="O461" s="2"/>
       <c r="T461" s="2"/>
     </row>
-    <row r="462" spans="12:20" ht="25.95" customHeight="1">
+    <row r="462" spans="12:20" ht="25.9" customHeight="1">
       <c r="L462" s="2"/>
       <c r="M462" s="2"/>
       <c r="N462" s="2"/>
       <c r="O462" s="2"/>
       <c r="T462" s="2"/>
     </row>
-    <row r="463" spans="12:20" ht="25.95" customHeight="1">
+    <row r="463" spans="12:20" ht="25.9" customHeight="1">
       <c r="L463" s="2"/>
       <c r="M463" s="2"/>
       <c r="N463" s="2"/>
       <c r="O463" s="2"/>
       <c r="T463" s="2"/>
     </row>
-    <row r="464" spans="12:20" ht="25.95" customHeight="1">
+    <row r="464" spans="12:20" ht="25.9" customHeight="1">
       <c r="L464" s="2"/>
       <c r="M464" s="2"/>
       <c r="N464" s="2"/>
       <c r="O464" s="2"/>
       <c r="T464" s="2"/>
     </row>
-    <row r="465" spans="12:20" ht="25.95" customHeight="1">
+    <row r="465" spans="12:20" ht="25.9" customHeight="1">
       <c r="L465" s="2"/>
       <c r="M465" s="2"/>
       <c r="N465" s="2"/>
       <c r="O465" s="2"/>
       <c r="T465" s="2"/>
     </row>
-    <row r="466" spans="12:20" ht="25.95" customHeight="1">
+    <row r="466" spans="12:20" ht="25.9" customHeight="1">
       <c r="L466" s="2"/>
       <c r="M466" s="2"/>
       <c r="N466" s="2"/>
       <c r="O466" s="2"/>
       <c r="T466" s="2"/>
     </row>
-    <row r="467" spans="12:20" ht="25.95" customHeight="1">
+    <row r="467" spans="12:20" ht="25.9" customHeight="1">
       <c r="L467" s="2"/>
       <c r="M467" s="2"/>
       <c r="N467" s="2"/>
       <c r="O467" s="2"/>
       <c r="T467" s="2"/>
     </row>
-    <row r="468" spans="12:20" ht="25.95" customHeight="1">
+    <row r="468" spans="12:20" ht="25.9" customHeight="1">
       <c r="L468" s="2"/>
       <c r="M468" s="2"/>
       <c r="N468" s="2"/>
       <c r="O468" s="2"/>
       <c r="T468" s="2"/>
     </row>
-    <row r="469" spans="12:20" ht="25.95" customHeight="1">
+    <row r="469" spans="12:20" ht="25.9" customHeight="1">
       <c r="L469" s="2"/>
       <c r="M469" s="2"/>
       <c r="N469" s="2"/>
       <c r="O469" s="2"/>
       <c r="T469" s="2"/>
     </row>
-    <row r="470" spans="12:20" ht="25.95" customHeight="1">
+    <row r="470" spans="12:20" ht="25.9" customHeight="1">
       <c r="L470" s="2"/>
       <c r="M470" s="2"/>
       <c r="N470" s="2"/>
       <c r="O470" s="2"/>
       <c r="T470" s="2"/>
     </row>
-    <row r="471" spans="12:20" ht="25.95" customHeight="1">
+    <row r="471" spans="12:20" ht="25.9" customHeight="1">
       <c r="L471" s="2"/>
       <c r="M471" s="2"/>
       <c r="N471" s="2"/>
       <c r="O471" s="2"/>
       <c r="T471" s="2"/>
     </row>
-    <row r="472" spans="12:20" ht="25.95" customHeight="1">
+    <row r="472" spans="12:20" ht="25.9" customHeight="1">
       <c r="L472" s="2"/>
       <c r="M472" s="2"/>
       <c r="N472" s="2"/>
       <c r="O472" s="2"/>
       <c r="T472" s="2"/>
     </row>
-    <row r="473" spans="12:20" ht="25.95" customHeight="1">
+    <row r="473" spans="12:20" ht="25.9" customHeight="1">
       <c r="L473" s="2"/>
       <c r="M473" s="2"/>
       <c r="N473" s="2"/>
       <c r="O473" s="2"/>
       <c r="T473" s="2"/>
     </row>
-    <row r="474" spans="12:20" ht="25.95" customHeight="1">
+    <row r="474" spans="12:20" ht="25.9" customHeight="1">
       <c r="L474" s="2"/>
       <c r="M474" s="2"/>
       <c r="N474" s="2"/>
       <c r="O474" s="2"/>
       <c r="T474" s="2"/>
     </row>
-    <row r="475" spans="12:20" ht="25.95" customHeight="1">
+    <row r="475" spans="12:20" ht="25.9" customHeight="1">
       <c r="L475" s="2"/>
       <c r="M475" s="2"/>
       <c r="N475" s="2"/>
       <c r="O475" s="2"/>
       <c r="T475" s="2"/>
     </row>
-    <row r="476" spans="12:20" ht="25.95" customHeight="1">
+    <row r="476" spans="12:20" ht="25.9" customHeight="1">
       <c r="L476" s="2"/>
       <c r="M476" s="2"/>
       <c r="N476" s="2"/>
       <c r="O476" s="2"/>
       <c r="T476" s="2"/>
     </row>
-    <row r="477" spans="12:20" ht="25.95" customHeight="1">
+    <row r="477" spans="12:20" ht="25.9" customHeight="1">
       <c r="L477" s="2"/>
       <c r="M477" s="2"/>
       <c r="N477" s="2"/>
       <c r="O477" s="2"/>
       <c r="T477" s="2"/>
     </row>
-    <row r="478" spans="12:20" ht="25.95" customHeight="1">
+    <row r="478" spans="12:20" ht="25.9" customHeight="1">
       <c r="L478" s="2"/>
       <c r="M478" s="2"/>
       <c r="N478" s="2"/>
       <c r="O478" s="2"/>
       <c r="T478" s="2"/>
     </row>
-    <row r="479" spans="12:20" ht="25.95" customHeight="1">
+    <row r="479" spans="12:20" ht="25.9" customHeight="1">
       <c r="L479" s="2"/>
       <c r="M479" s="2"/>
       <c r="N479" s="2"/>
       <c r="O479" s="2"/>
       <c r="T479" s="2"/>
     </row>
-    <row r="480" spans="12:20" ht="25.95" customHeight="1">
+    <row r="480" spans="12:20" ht="25.9" customHeight="1">
       <c r="L480" s="2"/>
       <c r="M480" s="2"/>
       <c r="N480" s="2"/>
       <c r="O480" s="2"/>
       <c r="T480" s="2"/>
     </row>
-    <row r="481" spans="12:20" ht="25.95" customHeight="1">
+    <row r="481" spans="12:20" ht="25.9" customHeight="1">
       <c r="L481" s="2"/>
       <c r="M481" s="2"/>
       <c r="N481" s="2"/>
       <c r="O481" s="2"/>
       <c r="T481" s="2"/>
     </row>
-    <row r="482" spans="12:20" ht="25.95" customHeight="1">
+    <row r="482" spans="12:20" ht="25.9" customHeight="1">
       <c r="L482" s="2"/>
       <c r="M482" s="2"/>
       <c r="N482" s="2"/>
       <c r="O482" s="2"/>
       <c r="T482" s="2"/>
     </row>
-    <row r="483" spans="12:20" ht="25.95" customHeight="1">
+    <row r="483" spans="12:20" ht="25.9" customHeight="1">
       <c r="L483" s="2"/>
       <c r="M483" s="2"/>
       <c r="N483" s="2"/>
       <c r="O483" s="2"/>
       <c r="T483" s="2"/>
     </row>
-    <row r="484" spans="12:20" ht="25.95" customHeight="1">
+    <row r="484" spans="12:20" ht="25.9" customHeight="1">
       <c r="L484" s="2"/>
       <c r="M484" s="2"/>
       <c r="N484" s="2"/>
       <c r="O484" s="2"/>
       <c r="T484" s="2"/>
     </row>
-    <row r="485" spans="12:20" ht="25.95" customHeight="1">
+    <row r="485" spans="12:20" ht="25.9" customHeight="1">
       <c r="L485" s="2"/>
       <c r="M485" s="2"/>
       <c r="N485" s="2"/>
       <c r="O485" s="2"/>
       <c r="T485" s="2"/>
     </row>
-    <row r="486" spans="12:20" ht="25.95" customHeight="1">
+    <row r="486" spans="12:20" ht="25.9" customHeight="1">
       <c r="L486" s="2"/>
       <c r="M486" s="2"/>
       <c r="N486" s="2"/>
       <c r="O486" s="2"/>
       <c r="T486" s="2"/>
     </row>
-    <row r="487" spans="12:20" ht="25.95" customHeight="1">
+    <row r="487" spans="12:20" ht="25.9" customHeight="1">
       <c r="L487" s="2"/>
       <c r="M487" s="2"/>
       <c r="N487" s="2"/>
       <c r="O487" s="2"/>
       <c r="T487" s="2"/>
     </row>
-    <row r="488" spans="12:20" ht="25.95" customHeight="1">
+    <row r="488" spans="12:20" ht="25.9" customHeight="1">
       <c r="L488" s="2"/>
       <c r="M488" s="2"/>
       <c r="N488" s="2"/>
       <c r="O488" s="2"/>
       <c r="T488" s="2"/>
     </row>
-    <row r="489" spans="12:20" ht="25.95" customHeight="1">
+    <row r="489" spans="12:20" ht="25.9" customHeight="1">
       <c r="L489" s="2"/>
       <c r="M489" s="2"/>
       <c r="N489" s="2"/>
       <c r="O489" s="2"/>
       <c r="T489" s="2"/>
     </row>
-    <row r="490" spans="12:20" ht="25.95" customHeight="1">
+    <row r="490" spans="12:20" ht="25.9" customHeight="1">
       <c r="L490" s="2"/>
       <c r="M490" s="2"/>
       <c r="N490" s="2"/>
       <c r="O490" s="2"/>
       <c r="T490" s="2"/>
     </row>
-    <row r="491" spans="12:20" ht="25.95" customHeight="1">
+    <row r="491" spans="12:20" ht="25.9" customHeight="1">
       <c r="L491" s="2"/>
       <c r="M491" s="2"/>
       <c r="N491" s="2"/>
       <c r="O491" s="2"/>
       <c r="T491" s="2"/>
     </row>
-    <row r="492" spans="12:20" ht="25.95" customHeight="1">
+    <row r="492" spans="12:20" ht="25.9" customHeight="1">
       <c r="L492" s="2"/>
       <c r="M492" s="2"/>
       <c r="N492" s="2"/>
       <c r="O492" s="2"/>
       <c r="T492" s="2"/>
     </row>
-    <row r="493" spans="12:20" ht="25.95" customHeight="1">
+    <row r="493" spans="12:20" ht="25.9" customHeight="1">
       <c r="L493" s="2"/>
       <c r="M493" s="2"/>
       <c r="N493" s="2"/>
       <c r="O493" s="2"/>
       <c r="T493" s="2"/>
     </row>
-    <row r="494" spans="12:20" ht="25.95" customHeight="1">
+    <row r="494" spans="12:20" ht="25.9" customHeight="1">
       <c r="L494" s="2"/>
       <c r="M494" s="2"/>
       <c r="N494" s="2"/>
       <c r="O494" s="2"/>
       <c r="T494" s="2"/>
     </row>
-    <row r="495" spans="12:20" ht="25.95" customHeight="1">
+    <row r="495" spans="12:20" ht="25.9" customHeight="1">
       <c r="L495" s="2"/>
       <c r="M495" s="2"/>
       <c r="N495" s="2"/>
       <c r="O495" s="2"/>
       <c r="T495" s="2"/>
     </row>
-    <row r="496" spans="12:20" ht="25.95" customHeight="1">
+    <row r="496" spans="12:20" ht="25.9" customHeight="1">
       <c r="L496" s="2"/>
       <c r="M496" s="2"/>
       <c r="N496" s="2"/>
       <c r="O496" s="2"/>
       <c r="T496" s="2"/>
     </row>
-    <row r="497" spans="12:20" ht="25.95" customHeight="1">
+    <row r="497" spans="12:20" ht="25.9" customHeight="1">
       <c r="L497" s="2"/>
       <c r="M497" s="2"/>
       <c r="N497" s="2"/>
       <c r="O497" s="2"/>
       <c r="T497" s="2"/>
     </row>
-    <row r="498" spans="12:20" ht="25.95" customHeight="1">
+    <row r="498" spans="12:20" ht="25.9" customHeight="1">
       <c r="L498" s="2"/>
       <c r="M498" s="2"/>
       <c r="N498" s="2"/>
       <c r="O498" s="2"/>
       <c r="T498" s="2"/>
     </row>
-    <row r="499" spans="12:20" ht="25.95" customHeight="1">
+    <row r="499" spans="12:20" ht="25.9" customHeight="1">
       <c r="L499" s="2"/>
       <c r="M499" s="2"/>
       <c r="N499" s="2"/>
       <c r="O499" s="2"/>
       <c r="T499" s="2"/>
     </row>
-    <row r="500" spans="12:20" ht="25.95" customHeight="1">
+    <row r="500" spans="12:20" ht="25.9" customHeight="1">
       <c r="L500" s="2"/>
       <c r="M500" s="2"/>
       <c r="N500" s="2"/>
       <c r="O500" s="2"/>
       <c r="T500" s="2"/>
     </row>
-    <row r="501" spans="12:20" ht="25.95" customHeight="1">
+    <row r="501" spans="12:20" ht="25.9" customHeight="1">
       <c r="L501" s="2"/>
       <c r="M501" s="2"/>
       <c r="N501" s="2"/>
       <c r="O501" s="2"/>
       <c r="T501" s="2"/>
     </row>
-    <row r="502" spans="12:20" ht="25.95" customHeight="1">
+    <row r="502" spans="12:20" ht="25.9" customHeight="1">
       <c r="L502" s="2"/>
       <c r="M502" s="2"/>
       <c r="N502" s="2"/>
       <c r="O502" s="2"/>
       <c r="T502" s="2"/>
     </row>
-    <row r="503" spans="12:20" ht="25.95" customHeight="1">
+    <row r="503" spans="12:20" ht="25.9" customHeight="1">
       <c r="L503" s="2"/>
       <c r="M503" s="2"/>
       <c r="N503" s="2"/>
       <c r="O503" s="2"/>
       <c r="T503" s="2"/>
     </row>
-    <row r="504" spans="12:20" ht="25.95" customHeight="1">
+    <row r="504" spans="12:20" ht="25.9" customHeight="1">
       <c r="L504" s="2"/>
       <c r="M504" s="2"/>
       <c r="N504" s="2"/>
       <c r="O504" s="2"/>
       <c r="T504" s="2"/>
     </row>
-    <row r="505" spans="12:20" ht="25.95" customHeight="1">
+    <row r="505" spans="12:20" ht="25.9" customHeight="1">
       <c r="L505" s="2"/>
       <c r="M505" s="2"/>
       <c r="N505" s="2"/>
       <c r="O505" s="2"/>
       <c r="T505" s="2"/>
     </row>
-    <row r="506" spans="12:20" ht="25.95" customHeight="1">
+    <row r="506" spans="12:20" ht="25.9" customHeight="1">
       <c r="L506" s="2"/>
       <c r="M506" s="2"/>
       <c r="N506" s="2"/>
       <c r="O506" s="2"/>
       <c r="T506" s="2"/>
     </row>
-    <row r="507" spans="12:20" ht="25.95" customHeight="1">
+    <row r="507" spans="12:20" ht="25.9" customHeight="1">
       <c r="L507" s="2"/>
       <c r="M507" s="2"/>
       <c r="N507" s="2"/>
       <c r="O507" s="2"/>
       <c r="T507" s="2"/>
     </row>
-    <row r="508" spans="12:20" ht="25.95" customHeight="1">
+    <row r="508" spans="12:20" ht="25.9" customHeight="1">
       <c r="L508" s="2"/>
       <c r="M508" s="2"/>
       <c r="N508" s="2"/>
       <c r="O508" s="2"/>
       <c r="T508" s="2"/>
     </row>
-    <row r="509" spans="12:20" ht="25.95" customHeight="1">
+    <row r="509" spans="12:20" ht="25.9" customHeight="1">
       <c r="L509" s="2"/>
       <c r="M509" s="2"/>
       <c r="N509" s="2"/>
       <c r="O509" s="2"/>
       <c r="T509" s="2"/>
     </row>
-    <row r="510" spans="12:20" ht="25.95" customHeight="1">
+    <row r="510" spans="12:20" ht="25.9" customHeight="1">
       <c r="L510" s="2"/>
       <c r="M510" s="2"/>
       <c r="N510" s="2"/>
       <c r="O510" s="2"/>
       <c r="T510" s="2"/>
     </row>
-    <row r="511" spans="12:20" ht="25.95" customHeight="1">
+    <row r="511" spans="12:20" ht="25.9" customHeight="1">
       <c r="L511" s="2"/>
       <c r="M511" s="2"/>
       <c r="N511" s="2"/>
       <c r="O511" s="2"/>
       <c r="T511" s="2"/>
     </row>
-    <row r="512" spans="12:20" ht="25.95" customHeight="1">
+    <row r="512" spans="12:20" ht="25.9" customHeight="1">
       <c r="L512" s="2"/>
       <c r="M512" s="2"/>
       <c r="N512" s="2"/>
       <c r="O512" s="2"/>
       <c r="T512" s="2"/>
     </row>
-    <row r="513" spans="12:20" ht="25.95" customHeight="1">
+    <row r="513" spans="12:20" ht="25.9" customHeight="1">
       <c r="L513" s="2"/>
       <c r="M513" s="2"/>
       <c r="N513" s="2"/>
       <c r="O513" s="2"/>
       <c r="T513" s="2"/>
     </row>
-    <row r="514" spans="12:20" ht="25.95" customHeight="1">
+    <row r="514" spans="12:20" ht="25.9" customHeight="1">
       <c r="L514" s="2"/>
       <c r="M514" s="2"/>
       <c r="N514" s="2"/>
       <c r="O514" s="2"/>
       <c r="T514" s="2"/>
     </row>
-    <row r="515" spans="12:20" ht="25.95" customHeight="1">
+    <row r="515" spans="12:20" ht="25.9" customHeight="1">
       <c r="L515" s="2"/>
       <c r="M515" s="2"/>
       <c r="N515" s="2"/>
       <c r="O515" s="2"/>
       <c r="T515" s="2"/>
     </row>
-    <row r="516" spans="12:20" ht="25.95" customHeight="1">
+    <row r="516" spans="12:20" ht="25.9" customHeight="1">
       <c r="L516" s="2"/>
       <c r="M516" s="2"/>
       <c r="N516" s="2"/>
       <c r="O516" s="2"/>
       <c r="T516" s="2"/>
     </row>
-    <row r="517" spans="12:20" ht="25.95" customHeight="1">
+    <row r="517" spans="12:20" ht="25.9" customHeight="1">
       <c r="L517" s="2"/>
       <c r="M517" s="2"/>
       <c r="N517" s="2"/>
       <c r="O517" s="2"/>
       <c r="T517" s="2"/>
     </row>
-    <row r="518" spans="12:20" ht="25.95" customHeight="1">
+    <row r="518" spans="12:20" ht="25.9" customHeight="1">
       <c r="L518" s="2"/>
       <c r="M518" s="2"/>
       <c r="N518" s="2"/>
       <c r="O518" s="2"/>
       <c r="T518" s="2"/>
     </row>
-    <row r="519" spans="12:20" ht="25.95" customHeight="1">
+    <row r="519" spans="12:20" ht="25.9" customHeight="1">
       <c r="L519" s="2"/>
       <c r="M519" s="2"/>
       <c r="N519" s="2"/>
       <c r="O519" s="2"/>
       <c r="T519" s="2"/>
     </row>
-    <row r="520" spans="12:20" ht="25.95" customHeight="1">
+    <row r="520" spans="12:20" ht="25.9" customHeight="1">
       <c r="L520" s="2"/>
       <c r="M520" s="2"/>
       <c r="N520" s="2"/>
       <c r="O520" s="2"/>
       <c r="T520" s="2"/>
     </row>
-    <row r="521" spans="12:20" ht="25.95" customHeight="1">
+    <row r="521" spans="12:20" ht="25.9" customHeight="1">
       <c r="L521" s="2"/>
       <c r="M521" s="2"/>
       <c r="N521" s="2"/>
       <c r="O521" s="2"/>
       <c r="T521" s="2"/>
     </row>
-    <row r="522" spans="12:20" ht="25.95" customHeight="1">
+    <row r="522" spans="12:20" ht="25.9" customHeight="1">
       <c r="L522" s="2"/>
       <c r="M522" s="2"/>
       <c r="N522" s="2"/>
       <c r="O522" s="2"/>
       <c r="T522" s="2"/>
     </row>
-    <row r="523" spans="12:20" ht="25.95" customHeight="1">
+    <row r="523" spans="12:20" ht="25.9" customHeight="1">
       <c r="L523" s="2"/>
       <c r="M523" s="2"/>
       <c r="N523" s="2"/>
       <c r="O523" s="2"/>
       <c r="T523" s="2"/>
     </row>
-    <row r="524" spans="12:20" ht="25.95" customHeight="1">
+    <row r="524" spans="12:20" ht="25.9" customHeight="1">
       <c r="L524" s="2"/>
       <c r="M524" s="2"/>
       <c r="N524" s="2"/>
       <c r="O524" s="2"/>
       <c r="T524" s="2"/>
     </row>
-    <row r="525" spans="12:20" ht="25.95" customHeight="1">
+    <row r="525" spans="12:20" ht="25.9" customHeight="1">
       <c r="L525" s="2"/>
       <c r="M525" s="2"/>
       <c r="N525" s="2"/>
       <c r="O525" s="2"/>
       <c r="T525" s="2"/>
     </row>
-    <row r="526" spans="12:20" ht="25.95" customHeight="1">
+    <row r="526" spans="12:20" ht="25.9" customHeight="1">
       <c r="L526" s="2"/>
       <c r="M526" s="2"/>
       <c r="N526" s="2"/>
       <c r="O526" s="2"/>
       <c r="T526" s="2"/>
     </row>
-    <row r="527" spans="12:20" ht="25.95" customHeight="1">
+    <row r="527" spans="12:20" ht="25.9" customHeight="1">
       <c r="L527" s="2"/>
       <c r="M527" s="2"/>
       <c r="N527" s="2"/>
       <c r="O527" s="2"/>
       <c r="T527" s="2"/>
     </row>
-    <row r="528" spans="12:20" ht="25.95" customHeight="1">
+    <row r="528" spans="12:20" ht="25.9" customHeight="1">
       <c r="L528" s="2"/>
       <c r="M528" s="2"/>
       <c r="N528" s="2"/>
       <c r="O528" s="2"/>
       <c r="T528" s="2"/>
     </row>
-    <row r="529" spans="12:20" ht="25.95" customHeight="1">
+    <row r="529" spans="12:20" ht="25.9" customHeight="1">
       <c r="L529" s="2"/>
       <c r="M529" s="2"/>
       <c r="N529" s="2"/>
       <c r="O529" s="2"/>
       <c r="T529" s="2"/>
     </row>
-    <row r="530" spans="12:20" ht="25.95" customHeight="1">
+    <row r="530" spans="12:20" ht="25.9" customHeight="1">
       <c r="L530" s="2"/>
       <c r="M530" s="2"/>
       <c r="N530" s="2"/>
       <c r="O530" s="2"/>
       <c r="T530" s="2"/>
     </row>
-    <row r="531" spans="12:20" ht="25.95" customHeight="1">
+    <row r="531" spans="12:20" ht="25.9" customHeight="1">
       <c r="L531" s="2"/>
       <c r="M531" s="2"/>
       <c r="N531" s="2"/>
       <c r="O531" s="2"/>
       <c r="T531" s="2"/>
     </row>
-    <row r="532" spans="12:20" ht="25.95" customHeight="1">
+    <row r="532" spans="12:20" ht="25.9" customHeight="1">
       <c r="L532" s="2"/>
       <c r="M532" s="2"/>
       <c r="N532" s="2"/>
       <c r="O532" s="2"/>
       <c r="T532" s="2"/>
     </row>
-    <row r="533" spans="12:20" ht="25.95" customHeight="1">
+    <row r="533" spans="12:20" ht="25.9" customHeight="1">
       <c r="L533" s="2"/>
       <c r="M533" s="2"/>
       <c r="N533" s="2"/>
       <c r="O533" s="2"/>
       <c r="T533" s="2"/>
     </row>
-    <row r="534" spans="12:20" ht="25.95" customHeight="1">
+    <row r="534" spans="12:20" ht="25.9" customHeight="1">
       <c r="L534" s="2"/>
       <c r="M534" s="2"/>
       <c r="N534" s="2"/>
       <c r="O534" s="2"/>
       <c r="T534" s="2"/>
     </row>
-    <row r="535" spans="12:20" ht="25.95" customHeight="1">
+    <row r="535" spans="12:20" ht="25.9" customHeight="1">
       <c r="L535" s="2"/>
       <c r="M535" s="2"/>
       <c r="N535" s="2"/>
       <c r="O535" s="2"/>
       <c r="T535" s="2"/>
     </row>
-    <row r="536" spans="12:20" ht="25.95" customHeight="1">
+    <row r="536" spans="12:20" ht="25.9" customHeight="1">
       <c r="L536" s="2"/>
       <c r="M536" s="2"/>
       <c r="N536" s="2"/>
       <c r="O536" s="2"/>
       <c r="T536" s="2"/>
     </row>
-    <row r="537" spans="12:20" ht="25.95" customHeight="1">
+    <row r="537" spans="12:20" ht="25.9" customHeight="1">
       <c r="L537" s="2"/>
       <c r="M537" s="2"/>
       <c r="N537" s="2"/>
       <c r="O537" s="2"/>
       <c r="T537" s="2"/>
     </row>
-    <row r="538" spans="12:20" ht="25.95" customHeight="1">
+    <row r="538" spans="12:20" ht="25.9" customHeight="1">
       <c r="L538" s="2"/>
       <c r="M538" s="2"/>
       <c r="N538" s="2"/>
       <c r="O538" s="2"/>
       <c r="T538" s="2"/>
     </row>
-    <row r="539" spans="12:20" ht="25.95" customHeight="1">
+    <row r="539" spans="12:20" ht="25.9" customHeight="1">
       <c r="L539" s="2"/>
       <c r="M539" s="2"/>
       <c r="N539" s="2"/>
       <c r="O539" s="2"/>
       <c r="T539" s="2"/>
     </row>
-    <row r="540" spans="12:20" ht="25.95" customHeight="1">
+    <row r="540" spans="12:20" ht="25.9" customHeight="1">
       <c r="L540" s="2"/>
       <c r="M540" s="2"/>
       <c r="N540" s="2"/>
       <c r="O540" s="2"/>
       <c r="T540" s="2"/>
     </row>
-    <row r="541" spans="12:20" ht="25.95" customHeight="1">
+    <row r="541" spans="12:20" ht="25.9" customHeight="1">
       <c r="L541" s="2"/>
       <c r="M541" s="2"/>
       <c r="N541" s="2"/>
       <c r="O541" s="2"/>
       <c r="T541" s="2"/>
     </row>
-    <row r="542" spans="12:20" ht="25.95" customHeight="1">
+    <row r="542" spans="12:20" ht="25.9" customHeight="1">
       <c r="L542" s="2"/>
       <c r="M542" s="2"/>
       <c r="N542" s="2"/>
       <c r="O542" s="2"/>
       <c r="T542" s="2"/>
     </row>
-    <row r="543" spans="12:20" ht="25.95" customHeight="1">
+    <row r="543" spans="12:20" ht="25.9" customHeight="1">
       <c r="L543" s="2"/>
       <c r="M543" s="2"/>
       <c r="N543" s="2"/>
       <c r="O543" s="2"/>
       <c r="T543" s="2"/>
     </row>
-    <row r="544" spans="12:20" ht="25.95" customHeight="1">
+    <row r="544" spans="12:20" ht="25.9" customHeight="1">
       <c r="L544" s="2"/>
       <c r="M544" s="2"/>
       <c r="N544" s="2"/>
       <c r="O544" s="2"/>
       <c r="T544" s="2"/>
     </row>
-    <row r="545" spans="12:20" ht="25.95" customHeight="1">
+    <row r="545" spans="12:20" ht="25.9" customHeight="1">
       <c r="L545" s="2"/>
       <c r="M545" s="2"/>
       <c r="N545" s="2"/>
       <c r="O545" s="2"/>
       <c r="T545" s="2"/>
     </row>
-    <row r="546" spans="12:20" ht="25.95" customHeight="1">
+    <row r="546" spans="12:20" ht="25.9" customHeight="1">
       <c r="L546" s="2"/>
       <c r="M546" s="2"/>
       <c r="N546" s="2"/>
       <c r="O546" s="2"/>
       <c r="T546" s="2"/>
     </row>
-    <row r="547" spans="12:20" ht="25.95" customHeight="1">
+    <row r="547" spans="12:20" ht="25.9" customHeight="1">
       <c r="L547" s="2"/>
       <c r="M547" s="2"/>
       <c r="N547" s="2"/>
       <c r="O547" s="2"/>
       <c r="T547" s="2"/>
     </row>
-    <row r="548" spans="12:20" ht="25.95" customHeight="1">
+    <row r="548" spans="12:20" ht="25.9" customHeight="1">
       <c r="L548" s="2"/>
       <c r="M548" s="2"/>
       <c r="N548" s="2"/>
       <c r="O548" s="2"/>
       <c r="T548" s="2"/>
     </row>
-    <row r="549" spans="12:20" ht="25.95" customHeight="1">
+    <row r="549" spans="12:20" ht="25.9" customHeight="1">
       <c r="L549" s="2"/>
       <c r="M549" s="2"/>
       <c r="N549" s="2"/>
       <c r="O549" s="2"/>
       <c r="T549" s="2"/>
     </row>
-    <row r="550" spans="12:20" ht="25.95" customHeight="1">
+    <row r="550" spans="12:20" ht="25.9" customHeight="1">
       <c r="L550" s="2"/>
       <c r="M550" s="2"/>
       <c r="N550" s="2"/>
       <c r="O550" s="2"/>
       <c r="T550" s="2"/>
     </row>
-    <row r="551" spans="12:20" ht="25.95" customHeight="1">
+    <row r="551" spans="12:20" ht="25.9" customHeight="1">
       <c r="L551" s="2"/>
       <c r="M551" s="2"/>
       <c r="N551" s="2"/>
       <c r="O551" s="2"/>
       <c r="T551" s="2"/>
     </row>
-    <row r="552" spans="12:20" ht="25.95" customHeight="1">
+    <row r="552" spans="12:20" ht="25.9" customHeight="1">
       <c r="L552" s="2"/>
       <c r="M552" s="2"/>
       <c r="N552" s="2"/>
       <c r="O552" s="2"/>
       <c r="T552" s="2"/>
     </row>
-    <row r="553" spans="12:20" ht="25.95" customHeight="1">
+    <row r="553" spans="12:20" ht="25.9" customHeight="1">
       <c r="L553" s="2"/>
       <c r="M553" s="2"/>
       <c r="N553" s="2"/>
       <c r="O553" s="2"/>
       <c r="T553" s="2"/>
     </row>
-    <row r="554" spans="12:20" ht="25.95" customHeight="1">
+    <row r="554" spans="12:20" ht="25.9" customHeight="1">
       <c r="L554" s="2"/>
       <c r="M554" s="2"/>
       <c r="N554" s="2"/>
       <c r="O554" s="2"/>
       <c r="T554" s="2"/>
     </row>
-    <row r="555" spans="12:20" ht="25.95" customHeight="1">
+    <row r="555" spans="12:20" ht="25.9" customHeight="1">
       <c r="L555" s="2"/>
       <c r="M555" s="2"/>
       <c r="N555" s="2"/>
       <c r="O555" s="2"/>
       <c r="T555" s="2"/>
     </row>
-    <row r="556" spans="12:20" ht="25.95" customHeight="1">
+    <row r="556" spans="12:20" ht="25.9" customHeight="1">
       <c r="L556" s="2"/>
       <c r="M556" s="2"/>
       <c r="N556" s="2"/>
       <c r="O556" s="2"/>
       <c r="T556" s="2"/>
     </row>
-    <row r="557" spans="12:20" ht="25.95" customHeight="1">
+    <row r="557" spans="12:20" ht="25.9" customHeight="1">
       <c r="L557" s="2"/>
       <c r="M557" s="2"/>
       <c r="N557" s="2"/>
       <c r="O557" s="2"/>
       <c r="T557" s="2"/>
     </row>
-    <row r="558" spans="12:20" ht="25.95" customHeight="1">
+    <row r="558" spans="12:20" ht="25.9" customHeight="1">
       <c r="L558" s="2"/>
       <c r="M558" s="2"/>
       <c r="N558" s="2"/>
       <c r="O558" s="2"/>
       <c r="T558" s="2"/>
     </row>
-    <row r="559" spans="12:20" ht="25.95" customHeight="1">
+    <row r="559" spans="12:20" ht="25.9" customHeight="1">
       <c r="L559" s="2"/>
       <c r="M559" s="2"/>
       <c r="N559" s="2"/>
       <c r="O559" s="2"/>
       <c r="T559" s="2"/>
     </row>
-    <row r="560" spans="12:20" ht="25.95" customHeight="1">
+    <row r="560" spans="12:20" ht="25.9" customHeight="1">
       <c r="L560" s="2"/>
       <c r="M560" s="2"/>
       <c r="N560" s="2"/>
       <c r="O560" s="2"/>
       <c r="T560" s="2"/>
     </row>
-    <row r="561" spans="12:20" ht="25.95" customHeight="1">
+    <row r="561" spans="12:20" ht="25.9" customHeight="1">
       <c r="L561" s="2"/>
       <c r="M561" s="2"/>
       <c r="N561" s="2"/>
       <c r="O561" s="2"/>
       <c r="T561" s="2"/>
     </row>
-    <row r="562" spans="12:20" ht="25.95" customHeight="1">
+    <row r="562" spans="12:20" ht="25.9" customHeight="1">
       <c r="L562" s="2"/>
       <c r="M562" s="2"/>
       <c r="N562" s="2"/>
       <c r="O562" s="2"/>
       <c r="T562" s="2"/>
     </row>
-    <row r="563" spans="12:20" ht="25.95" customHeight="1">
+    <row r="563" spans="12:20" ht="25.9" customHeight="1">
       <c r="L563" s="2"/>
       <c r="M563" s="2"/>
       <c r="N563" s="2"/>
       <c r="O563" s="2"/>
       <c r="T563" s="2"/>
     </row>
-    <row r="564" spans="12:20" ht="25.95" customHeight="1">
+    <row r="564" spans="12:20" ht="25.9" customHeight="1">
       <c r="L564" s="2"/>
       <c r="M564" s="2"/>
       <c r="N564" s="2"/>
       <c r="O564" s="2"/>
       <c r="T564" s="2"/>
     </row>
-    <row r="565" spans="12:20" ht="25.95" customHeight="1">
+    <row r="565" spans="12:20" ht="25.9" customHeight="1">
       <c r="L565" s="2"/>
       <c r="M565" s="2"/>
       <c r="N565" s="2"/>
       <c r="O565" s="2"/>
       <c r="T565" s="2"/>
     </row>
-    <row r="566" spans="12:20" ht="25.95" customHeight="1">
+    <row r="566" spans="12:20" ht="25.9" customHeight="1">
       <c r="L566" s="2"/>
       <c r="M566" s="2"/>
       <c r="N566" s="2"/>
       <c r="O566" s="2"/>
       <c r="T566" s="2"/>
     </row>
-    <row r="567" spans="12:20" ht="25.95" customHeight="1">
+    <row r="567" spans="12:20" ht="25.9" customHeight="1">
       <c r="L567" s="2"/>
       <c r="M567" s="2"/>
       <c r="N567" s="2"/>
       <c r="O567" s="2"/>
       <c r="T567" s="2"/>
     </row>
-    <row r="568" spans="12:20" ht="25.95" customHeight="1">
+    <row r="568" spans="12:20" ht="25.9" customHeight="1">
       <c r="L568" s="2"/>
       <c r="M568" s="2"/>
       <c r="N568" s="2"/>
       <c r="O568" s="2"/>
       <c r="T568" s="2"/>
     </row>
-    <row r="569" spans="12:20" ht="25.95" customHeight="1">
+    <row r="569" spans="12:20" ht="25.9" customHeight="1">
       <c r="L569" s="2"/>
       <c r="M569" s="2"/>
       <c r="N569" s="2"/>
       <c r="O569" s="2"/>
       <c r="T569" s="2"/>
     </row>
-    <row r="570" spans="12:20" ht="25.95" customHeight="1">
+    <row r="570" spans="12:20" ht="25.9" customHeight="1">
       <c r="L570" s="2"/>
       <c r="M570" s="2"/>
       <c r="N570" s="2"/>
       <c r="O570" s="2"/>
       <c r="T570" s="2"/>
     </row>
-    <row r="571" spans="12:20" ht="25.95" customHeight="1">
+    <row r="571" spans="12:20" ht="25.9" customHeight="1">
       <c r="L571" s="2"/>
       <c r="M571" s="2"/>
       <c r="N571" s="2"/>
       <c r="O571" s="2"/>
       <c r="T571" s="2"/>
     </row>
-    <row r="572" spans="12:20" ht="25.95" customHeight="1">
+    <row r="572" spans="12:20" ht="25.9" customHeight="1">
       <c r="L572" s="2"/>
       <c r="M572" s="2"/>
       <c r="N572" s="2"/>
       <c r="O572" s="2"/>
       <c r="T572" s="2"/>
     </row>
-    <row r="573" spans="12:20" ht="25.95" customHeight="1">
+    <row r="573" spans="12:20" ht="25.9" customHeight="1">
       <c r="L573" s="2"/>
       <c r="M573" s="2"/>
       <c r="N573" s="2"/>
       <c r="O573" s="2"/>
       <c r="T573" s="2"/>
     </row>
-    <row r="574" spans="12:20" ht="25.95" customHeight="1">
+    <row r="574" spans="12:20" ht="25.9" customHeight="1">
       <c r="L574" s="2"/>
       <c r="M574" s="2"/>
       <c r="N574" s="2"/>
       <c r="O574" s="2"/>
       <c r="T574" s="2"/>
     </row>
-    <row r="575" spans="12:20" ht="25.95" customHeight="1">
+    <row r="575" spans="12:20" ht="25.9" customHeight="1">
       <c r="L575" s="2"/>
       <c r="M575" s="2"/>
       <c r="N575" s="2"/>
       <c r="O575" s="2"/>
       <c r="T575" s="2"/>
     </row>
-    <row r="576" spans="12:20" ht="25.95" customHeight="1">
+    <row r="576" spans="12:20" ht="25.9" customHeight="1">
       <c r="L576" s="2"/>
       <c r="M576" s="2"/>
       <c r="N576" s="2"/>
       <c r="O576" s="2"/>
       <c r="T576" s="2"/>
     </row>
-    <row r="577" spans="12:20" ht="25.95" customHeight="1">
+    <row r="577" spans="12:20" ht="25.9" customHeight="1">
       <c r="L577" s="2"/>
       <c r="M577" s="2"/>
       <c r="N577" s="2"/>
       <c r="O577" s="2"/>
       <c r="T577" s="2"/>
     </row>
-    <row r="578" spans="12:20" ht="25.95" customHeight="1">
+    <row r="578" spans="12:20" ht="25.9" customHeight="1">
       <c r="L578" s="2"/>
       <c r="M578" s="2"/>
       <c r="N578" s="2"/>
       <c r="O578" s="2"/>
       <c r="T578" s="2"/>
     </row>
-    <row r="579" spans="12:20" ht="25.95" customHeight="1">
+    <row r="579" spans="12:20" ht="25.9" customHeight="1">
       <c r="L579" s="2"/>
       <c r="M579" s="2"/>
       <c r="N579" s="2"/>
       <c r="O579" s="2"/>
       <c r="T579" s="2"/>
     </row>
-    <row r="580" spans="12:20" ht="25.95" customHeight="1">
+    <row r="580" spans="12:20" ht="25.9" customHeight="1">
       <c r="L580" s="2"/>
       <c r="M580" s="2"/>
       <c r="N580" s="2"/>
       <c r="O580" s="2"/>
       <c r="T580" s="2"/>
     </row>
-    <row r="581" spans="12:20" ht="25.95" customHeight="1">
+    <row r="581" spans="12:20" ht="25.9" customHeight="1">
       <c r="L581" s="2"/>
       <c r="M581" s="2"/>
       <c r="N581" s="2"/>
       <c r="O581" s="2"/>
       <c r="T581" s="2"/>
     </row>
-    <row r="582" spans="12:20" ht="25.95" customHeight="1">
+    <row r="582" spans="12:20" ht="25.9" customHeight="1">
       <c r="L582" s="2"/>
       <c r="M582" s="2"/>
       <c r="N582" s="2"/>
       <c r="O582" s="2"/>
       <c r="T582" s="2"/>
     </row>
-    <row r="583" spans="12:20" ht="25.95" customHeight="1">
+    <row r="583" spans="12:20" ht="25.9" customHeight="1">
       <c r="L583" s="2"/>
       <c r="M583" s="2"/>
       <c r="N583" s="2"/>
       <c r="O583" s="2"/>
       <c r="T583" s="2"/>
     </row>
-    <row r="584" spans="12:20" ht="25.95" customHeight="1">
+    <row r="584" spans="12:20" ht="25.9" customHeight="1">
       <c r="L584" s="2"/>
       <c r="M584" s="2"/>
       <c r="N584" s="2"/>
       <c r="O584" s="2"/>
       <c r="T584" s="2"/>
     </row>
-    <row r="585" spans="12:20" ht="25.95" customHeight="1">
+    <row r="585" spans="12:20" ht="25.9" customHeight="1">
       <c r="L585" s="2"/>
       <c r="M585" s="2"/>
       <c r="N585" s="2"/>
       <c r="O585" s="2"/>
       <c r="T585" s="2"/>
     </row>
-    <row r="586" spans="12:20" ht="25.95" customHeight="1">
+    <row r="586" spans="12:20" ht="25.9" customHeight="1">
       <c r="L586" s="2"/>
       <c r="M586" s="2"/>
       <c r="N586" s="2"/>
       <c r="O586" s="2"/>
       <c r="T586" s="2"/>
     </row>
-    <row r="587" spans="12:20" ht="25.95" customHeight="1">
+    <row r="587" spans="12:20" ht="25.9" customHeight="1">
       <c r="L587" s="2"/>
       <c r="M587" s="2"/>
       <c r="N587" s="2"/>
       <c r="O587" s="2"/>
       <c r="T587" s="2"/>
     </row>
-    <row r="588" spans="12:20" ht="25.95" customHeight="1">
+    <row r="588" spans="12:20" ht="25.9" customHeight="1">
       <c r="L588" s="2"/>
       <c r="M588" s="2"/>
       <c r="N588" s="2"/>
       <c r="O588" s="2"/>
       <c r="T588" s="2"/>
     </row>
-    <row r="589" spans="12:20" ht="25.95" customHeight="1">
+    <row r="589" spans="12:20" ht="25.9" customHeight="1">
       <c r="L589" s="2"/>
       <c r="M589" s="2"/>
       <c r="N589" s="2"/>
       <c r="O589" s="2"/>
       <c r="T589" s="2"/>
     </row>
-    <row r="590" spans="12:20" ht="25.95" customHeight="1">
+    <row r="590" spans="12:20" ht="25.9" customHeight="1">
       <c r="L590" s="2"/>
       <c r="M590" s="2"/>
       <c r="N590" s="2"/>
       <c r="O590" s="2"/>
       <c r="T590" s="2"/>
     </row>
-    <row r="591" spans="12:20" ht="25.95" customHeight="1">
+    <row r="591" spans="12:20" ht="25.9" customHeight="1">
       <c r="L591" s="2"/>
       <c r="M591" s="2"/>
       <c r="N591" s="2"/>
       <c r="O591" s="2"/>
       <c r="T591" s="2"/>
     </row>
-    <row r="592" spans="12:20" ht="25.95" customHeight="1">
+    <row r="592" spans="12:20" ht="25.9" customHeight="1">
       <c r="L592" s="2"/>
       <c r="M592" s="2"/>
       <c r="N592" s="2"/>
       <c r="O592" s="2"/>
       <c r="T592" s="2"/>
     </row>
-    <row r="593" spans="12:20" ht="25.95" customHeight="1">
+    <row r="593" spans="12:20" ht="25.9" customHeight="1">
       <c r="L593" s="2"/>
       <c r="M593" s="2"/>
       <c r="N593" s="2"/>
       <c r="O593" s="2"/>
       <c r="T593" s="2"/>
     </row>
-    <row r="594" spans="12:20" ht="25.95" customHeight="1">
+    <row r="594" spans="12:20" ht="25.9" customHeight="1">
       <c r="L594" s="2"/>
       <c r="M594" s="2"/>
       <c r="N594" s="2"/>
       <c r="O594" s="2"/>
       <c r="T594" s="2"/>
     </row>
-    <row r="595" spans="12:20" ht="25.95" customHeight="1">
+    <row r="595" spans="12:20" ht="25.9" customHeight="1">
       <c r="L595" s="2"/>
       <c r="M595" s="2"/>
       <c r="N595" s="2"/>
       <c r="O595" s="2"/>
       <c r="T595" s="2"/>
     </row>
-    <row r="596" spans="12:20" ht="25.95" customHeight="1">
+    <row r="596" spans="12:20" ht="25.9" customHeight="1">
       <c r="L596" s="2"/>
       <c r="M596" s="2"/>
       <c r="N596" s="2"/>
       <c r="O596" s="2"/>
       <c r="T596" s="2"/>
     </row>
-    <row r="597" spans="12:20" ht="25.95" customHeight="1">
+    <row r="597" spans="12:20" ht="25.9" customHeight="1">
       <c r="L597" s="2"/>
       <c r="M597" s="2"/>
       <c r="N597" s="2"/>
       <c r="O597" s="2"/>
       <c r="T597" s="2"/>
     </row>
-    <row r="598" spans="12:20" ht="25.95" customHeight="1">
+    <row r="598" spans="12:20" ht="25.9" customHeight="1">
       <c r="L598" s="2"/>
       <c r="M598" s="2"/>
       <c r="N598" s="2"/>
       <c r="O598" s="2"/>
       <c r="T598" s="2"/>
     </row>
-    <row r="599" spans="12:20" ht="25.95" customHeight="1">
+    <row r="599" spans="12:20" ht="25.9" customHeight="1">
       <c r="L599" s="2"/>
       <c r="M599" s="2"/>
       <c r="N599" s="2"/>
       <c r="O599" s="2"/>
       <c r="T599" s="2"/>
     </row>
-    <row r="600" spans="12:20" ht="25.95" customHeight="1">
+    <row r="600" spans="12:20" ht="25.9" customHeight="1">
       <c r="L600" s="2"/>
       <c r="M600" s="2"/>
       <c r="N600" s="2"/>
       <c r="O600" s="2"/>
       <c r="T600" s="2"/>
     </row>
-    <row r="601" spans="12:20" ht="25.95" customHeight="1">
+    <row r="601" spans="12:20" ht="25.9" customHeight="1">
       <c r="L601" s="2"/>
       <c r="M601" s="2"/>
       <c r="N601" s="2"/>
       <c r="O601" s="2"/>
       <c r="T601" s="2"/>
     </row>
-    <row r="602" spans="12:20" ht="25.95" customHeight="1">
+    <row r="602" spans="12:20" ht="25.9" customHeight="1">
       <c r="L602" s="2"/>
       <c r="M602" s="2"/>
       <c r="N602" s="2"/>
       <c r="O602" s="2"/>
       <c r="T602" s="2"/>
     </row>
-    <row r="603" spans="12:20" ht="25.95" customHeight="1">
+    <row r="603" spans="12:20" ht="25.9" customHeight="1">
       <c r="L603" s="2"/>
       <c r="M603" s="2"/>
       <c r="N603" s="2"/>
       <c r="O603" s="2"/>
       <c r="T603" s="2"/>
     </row>
-    <row r="604" spans="12:20" ht="25.95" customHeight="1">
+    <row r="604" spans="12:20" ht="25.9" customHeight="1">
       <c r="L604" s="2"/>
       <c r="M604" s="2"/>
       <c r="N604" s="2"/>
       <c r="O604" s="2"/>
       <c r="T604" s="2"/>
     </row>
-    <row r="605" spans="12:20" ht="25.95" customHeight="1">
+    <row r="605" spans="12:20" ht="25.9" customHeight="1">
       <c r="L605" s="2"/>
       <c r="M605" s="2"/>
       <c r="N605" s="2"/>
       <c r="O605" s="2"/>
       <c r="T605" s="2"/>
     </row>
-    <row r="606" spans="12:20" ht="25.95" customHeight="1">
+    <row r="606" spans="12:20" ht="25.9" customHeight="1">
       <c r="L606" s="2"/>
       <c r="M606" s="2"/>
       <c r="N606" s="2"/>
       <c r="O606" s="2"/>
       <c r="T606" s="2"/>
     </row>
-    <row r="607" spans="12:20" ht="25.95" customHeight="1">
+    <row r="607" spans="12:20" ht="25.9" customHeight="1">
       <c r="L607" s="2"/>
       <c r="M607" s="2"/>
       <c r="N607" s="2"/>
       <c r="O607" s="2"/>
       <c r="T607" s="2"/>
     </row>
-    <row r="608" spans="12:20" ht="25.95" customHeight="1">
+    <row r="608" spans="12:20" ht="25.9" customHeight="1">
       <c r="L608" s="2"/>
       <c r="M608" s="2"/>
       <c r="N608" s="2"/>
       <c r="O608" s="2"/>
       <c r="T608" s="2"/>
     </row>
-    <row r="609" spans="12:20" ht="25.95" customHeight="1">
+    <row r="609" spans="12:20" ht="25.9" customHeight="1">
       <c r="L609" s="2"/>
       <c r="M609" s="2"/>
       <c r="N609" s="2"/>
       <c r="O609" s="2"/>
       <c r="T609" s="2"/>
     </row>
-    <row r="610" spans="12:20" ht="25.95" customHeight="1">
+    <row r="610" spans="12:20" ht="25.9" customHeight="1">
       <c r="L610" s="2"/>
       <c r="M610" s="2"/>
       <c r="N610" s="2"/>
       <c r="O610" s="2"/>
       <c r="T610" s="2"/>
     </row>
-    <row r="611" spans="12:20" ht="25.95" customHeight="1">
+    <row r="611" spans="12:20" ht="25.9" customHeight="1">
       <c r="L611" s="2"/>
       <c r="M611" s="2"/>
       <c r="N611" s="2"/>
       <c r="O611" s="2"/>
       <c r="T611" s="2"/>
     </row>
-    <row r="612" spans="12:20" ht="25.95" customHeight="1">
+    <row r="612" spans="12:20" ht="25.9" customHeight="1">
       <c r="L612" s="2"/>
       <c r="M612" s="2"/>
       <c r="N612" s="2"/>
       <c r="O612" s="2"/>
       <c r="T612" s="2"/>
     </row>
-    <row r="613" spans="12:20" ht="25.95" customHeight="1">
+    <row r="613" spans="12:20" ht="25.9" customHeight="1">
       <c r="L613" s="2"/>
       <c r="M613" s="2"/>
       <c r="N613" s="2"/>
       <c r="O613" s="2"/>
       <c r="T613" s="2"/>
     </row>
-    <row r="614" spans="12:20" ht="25.95" customHeight="1">
+    <row r="614" spans="12:20" ht="25.9" customHeight="1">
       <c r="L614" s="2"/>
       <c r="M614" s="2"/>
       <c r="N614" s="2"/>
       <c r="O614" s="2"/>
       <c r="T614" s="2"/>
     </row>
-    <row r="615" spans="12:20" ht="25.95" customHeight="1">
+    <row r="615" spans="12:20" ht="25.9" customHeight="1">
       <c r="L615" s="2"/>
       <c r="M615" s="2"/>
       <c r="N615" s="2"/>
       <c r="O615" s="2"/>
       <c r="T615" s="2"/>
     </row>
-    <row r="616" spans="12:20" ht="25.95" customHeight="1">
+    <row r="616" spans="12:20" ht="25.9" customHeight="1">
       <c r="L616" s="2"/>
       <c r="M616" s="2"/>
       <c r="N616" s="2"/>
       <c r="O616" s="2"/>
       <c r="T616" s="2"/>
     </row>
-    <row r="617" spans="12:20" ht="25.95" customHeight="1">
+    <row r="617" spans="12:20" ht="25.9" customHeight="1">
       <c r="L617" s="2"/>
       <c r="M617" s="2"/>
       <c r="N617" s="2"/>
       <c r="O617" s="2"/>
       <c r="T617" s="2"/>
     </row>
-    <row r="618" spans="12:20" ht="25.95" customHeight="1">
+    <row r="618" spans="12:20" ht="25.9" customHeight="1">
       <c r="L618" s="2"/>
       <c r="M618" s="2"/>
       <c r="N618" s="2"/>
       <c r="O618" s="2"/>
       <c r="T618" s="2"/>
     </row>
-    <row r="619" spans="12:20" ht="25.95" customHeight="1">
+    <row r="619" spans="12:20" ht="25.9" customHeight="1">
       <c r="L619" s="2"/>
       <c r="M619" s="2"/>
       <c r="N619" s="2"/>
       <c r="O619" s="2"/>
       <c r="T619" s="2"/>
     </row>
-    <row r="620" spans="12:20" ht="25.95" customHeight="1">
+    <row r="620" spans="12:20" ht="25.9" customHeight="1">
       <c r="L620" s="2"/>
       <c r="M620" s="2"/>
       <c r="N620" s="2"/>
       <c r="O620" s="2"/>
       <c r="T620" s="2"/>
     </row>
-    <row r="621" spans="12:20" ht="25.95" customHeight="1">
+    <row r="621" spans="12:20" ht="25.9" customHeight="1">
       <c r="L621" s="2"/>
       <c r="M621" s="2"/>
       <c r="N621" s="2"/>
       <c r="O621" s="2"/>
       <c r="T621" s="2"/>
     </row>
-    <row r="622" spans="12:20" ht="25.95" customHeight="1">
+    <row r="622" spans="12:20" ht="25.9" customHeight="1">
       <c r="L622" s="2"/>
       <c r="M622" s="2"/>
       <c r="N622" s="2"/>
       <c r="O622" s="2"/>
       <c r="T622" s="2"/>
     </row>
-    <row r="623" spans="12:20" ht="25.95" customHeight="1">
+    <row r="623" spans="12:20" ht="25.9" customHeight="1">
       <c r="L623" s="2"/>
       <c r="M623" s="2"/>
       <c r="N623" s="2"/>
       <c r="O623" s="2"/>
       <c r="T623" s="2"/>
     </row>
-    <row r="624" spans="12:20" ht="25.95" customHeight="1">
+    <row r="624" spans="12:20" ht="25.9" customHeight="1">
       <c r="L624" s="2"/>
       <c r="M624" s="2"/>
       <c r="N624" s="2"/>
       <c r="O624" s="2"/>
       <c r="T624" s="2"/>
     </row>
-    <row r="625" spans="12:20" ht="25.95" customHeight="1">
+    <row r="625" spans="12:20" ht="25.9" customHeight="1">
       <c r="L625" s="2"/>
       <c r="M625" s="2"/>
       <c r="N625" s="2"/>
       <c r="O625" s="2"/>
       <c r="T625" s="2"/>
     </row>
-    <row r="626" spans="12:20" ht="25.95" customHeight="1">
+    <row r="626" spans="12:20" ht="25.9" customHeight="1">
       <c r="L626" s="2"/>
       <c r="M626" s="2"/>
       <c r="N626" s="2"/>
       <c r="O626" s="2"/>
       <c r="T626" s="2"/>
     </row>
-    <row r="627" spans="12:20" ht="25.95" customHeight="1">
+    <row r="627" spans="12:20" ht="25.9" customHeight="1">
       <c r="L627" s="2"/>
       <c r="M627" s="2"/>
       <c r="N627" s="2"/>
       <c r="O627" s="2"/>
       <c r="T627" s="2"/>
     </row>
-    <row r="628" spans="12:20" ht="25.95" customHeight="1">
+    <row r="628" spans="12:20" ht="25.9" customHeight="1">
       <c r="L628" s="2"/>
       <c r="M628" s="2"/>
       <c r="N628" s="2"/>
       <c r="O628" s="2"/>
       <c r="T628" s="2"/>
     </row>
-    <row r="629" spans="12:20" ht="25.95" customHeight="1">
+    <row r="629" spans="12:20" ht="25.9" customHeight="1">
       <c r="L629" s="2"/>
       <c r="M629" s="2"/>
       <c r="N629" s="2"/>
       <c r="O629" s="2"/>
       <c r="T629" s="2"/>
     </row>
-    <row r="630" spans="12:20" ht="25.95" customHeight="1">
+    <row r="630" spans="12:20" ht="25.9" customHeight="1">
       <c r="L630" s="2"/>
       <c r="M630" s="2"/>
       <c r="N630" s="2"/>
       <c r="O630" s="2"/>
       <c r="T630" s="2"/>
     </row>
-    <row r="631" spans="12:20" ht="25.95" customHeight="1">
+    <row r="631" spans="12:20" ht="25.9" customHeight="1">
       <c r="L631" s="2"/>
       <c r="M631" s="2"/>
       <c r="N631" s="2"/>
       <c r="O631" s="2"/>
       <c r="T631" s="2"/>
     </row>
-    <row r="632" spans="12:20" ht="25.95" customHeight="1">
+    <row r="632" spans="12:20" ht="25.9" customHeight="1">
       <c r="L632" s="2"/>
       <c r="M632" s="2"/>
       <c r="N632" s="2"/>
       <c r="O632" s="2"/>
       <c r="T632" s="2"/>
     </row>
-    <row r="633" spans="12:20" ht="25.95" customHeight="1">
+    <row r="633" spans="12:20" ht="25.9" customHeight="1">
       <c r="L633" s="2"/>
       <c r="M633" s="2"/>
       <c r="N633" s="2"/>
       <c r="O633" s="2"/>
       <c r="T633" s="2"/>
     </row>
-    <row r="634" spans="12:20" ht="25.95" customHeight="1">
+    <row r="634" spans="12:20" ht="25.9" customHeight="1">
       <c r="L634" s="2"/>
       <c r="M634" s="2"/>
       <c r="N634" s="2"/>
       <c r="O634" s="2"/>
       <c r="T634" s="2"/>
     </row>
-    <row r="635" spans="12:20" ht="25.95" customHeight="1">
+    <row r="635" spans="12:20" ht="25.9" customHeight="1">
       <c r="L635" s="2"/>
       <c r="M635" s="2"/>
       <c r="N635" s="2"/>
       <c r="O635" s="2"/>
       <c r="T635" s="2"/>
     </row>
-    <row r="636" spans="12:20" ht="25.95" customHeight="1">
+    <row r="636" spans="12:20" ht="25.9" customHeight="1">
       <c r="L636" s="2"/>
       <c r="M636" s="2"/>
       <c r="N636" s="2"/>
       <c r="O636" s="2"/>
       <c r="T636" s="2"/>
     </row>
-    <row r="637" spans="12:20" ht="25.95" customHeight="1">
+    <row r="637" spans="12:20" ht="25.9" customHeight="1">
       <c r="L637" s="2"/>
       <c r="M637" s="2"/>
       <c r="N637" s="2"/>
       <c r="O637" s="2"/>
       <c r="T637" s="2"/>
     </row>
-    <row r="638" spans="12:20" ht="25.95" customHeight="1">
+    <row r="638" spans="12:20" ht="25.9" customHeight="1">
       <c r="L638" s="2"/>
       <c r="M638" s="2"/>
       <c r="N638" s="2"/>
       <c r="O638" s="2"/>
       <c r="T638" s="2"/>
     </row>
-    <row r="639" spans="12:20" ht="25.95" customHeight="1">
+    <row r="639" spans="12:20" ht="25.9" customHeight="1">
       <c r="L639" s="2"/>
       <c r="M639" s="2"/>
       <c r="N639" s="2"/>
       <c r="O639" s="2"/>
       <c r="T639" s="2"/>
     </row>
-    <row r="640" spans="12:20" ht="25.95" customHeight="1">
+    <row r="640" spans="12:20" ht="25.9" customHeight="1">
       <c r="L640" s="2"/>
       <c r="M640" s="2"/>
       <c r="N640" s="2"/>
       <c r="O640" s="2"/>
       <c r="T640" s="2"/>
     </row>
-    <row r="641" spans="12:20" ht="25.95" customHeight="1">
+    <row r="641" spans="12:20" ht="25.9" customHeight="1">
       <c r="L641" s="2"/>
       <c r="M641" s="2"/>
       <c r="N641" s="2"/>
       <c r="O641" s="2"/>
       <c r="T641" s="2"/>
     </row>
-    <row r="642" spans="12:20" ht="25.95" customHeight="1">
+    <row r="642" spans="12:20" ht="25.9" customHeight="1">
       <c r="L642" s="2"/>
       <c r="M642" s="2"/>
       <c r="N642" s="2"/>
       <c r="O642" s="2"/>
       <c r="T642" s="2"/>
     </row>
-    <row r="643" spans="12:20" ht="25.95" customHeight="1">
+    <row r="643" spans="12:20" ht="25.9" customHeight="1">
       <c r="L643" s="2"/>
       <c r="M643" s="2"/>
       <c r="N643" s="2"/>
       <c r="O643" s="2"/>
       <c r="T643" s="2"/>
     </row>
-    <row r="644" spans="12:20" ht="25.95" customHeight="1">
+    <row r="644" spans="12:20" ht="25.9" customHeight="1">
       <c r="L644" s="2"/>
       <c r="M644" s="2"/>
       <c r="N644" s="2"/>
       <c r="O644" s="2"/>
       <c r="T644" s="2"/>
     </row>
-    <row r="645" spans="12:20" ht="25.95" customHeight="1">
+    <row r="645" spans="12:20" ht="25.9" customHeight="1">
       <c r="L645" s="2"/>
       <c r="M645" s="2"/>
       <c r="N645" s="2"/>
       <c r="O645" s="2"/>
       <c r="T645" s="2"/>
     </row>
-    <row r="646" spans="12:20" ht="25.95" customHeight="1">
+    <row r="646" spans="12:20" ht="25.9" customHeight="1">
       <c r="L646" s="2"/>
       <c r="M646" s="2"/>
       <c r="N646" s="2"/>
       <c r="O646" s="2"/>
       <c r="T646" s="2"/>
     </row>
-    <row r="647" spans="12:20" ht="25.95" customHeight="1">
+    <row r="647" spans="12:20" ht="25.9" customHeight="1">
       <c r="L647" s="2"/>
       <c r="M647" s="2"/>
       <c r="N647" s="2"/>
       <c r="O647" s="2"/>
       <c r="T647" s="2"/>
     </row>
-    <row r="648" spans="12:20" ht="25.95" customHeight="1">
+    <row r="648" spans="12:20" ht="25.9" customHeight="1">
       <c r="L648" s="2"/>
       <c r="M648" s="2"/>
       <c r="N648" s="2"/>
       <c r="O648" s="2"/>
       <c r="T648" s="2"/>
     </row>
-    <row r="649" spans="12:20" ht="25.95" customHeight="1">
+    <row r="649" spans="12:20" ht="25.9" customHeight="1">
       <c r="L649" s="2"/>
       <c r="M649" s="2"/>
       <c r="N649" s="2"/>
       <c r="O649" s="2"/>
       <c r="T649" s="2"/>
     </row>
-    <row r="650" spans="12:20" ht="25.95" customHeight="1">
+    <row r="650" spans="12:20" ht="25.9" customHeight="1">
       <c r="L650" s="2"/>
       <c r="M650" s="2"/>
       <c r="N650" s="2"/>
       <c r="O650" s="2"/>
       <c r="T650" s="2"/>
     </row>
-    <row r="651" spans="12:20" ht="25.95" customHeight="1">
+    <row r="651" spans="12:20" ht="25.9" customHeight="1">
       <c r="L651" s="2"/>
       <c r="M651" s="2"/>
       <c r="N651" s="2"/>
       <c r="O651" s="2"/>
       <c r="T651" s="2"/>
     </row>
-    <row r="652" spans="12:20" ht="25.95" customHeight="1">
+    <row r="652" spans="12:20" ht="25.9" customHeight="1">
       <c r="L652" s="2"/>
       <c r="M652" s="2"/>
       <c r="N652" s="2"/>
       <c r="O652" s="2"/>
       <c r="T652" s="2"/>
     </row>
-    <row r="653" spans="12:20" ht="25.95" customHeight="1">
+    <row r="653" spans="12:20" ht="25.9" customHeight="1">
       <c r="L653" s="2"/>
       <c r="M653" s="2"/>
       <c r="N653" s="2"/>
       <c r="O653" s="2"/>
       <c r="T653" s="2"/>
     </row>
-    <row r="654" spans="12:20" ht="25.95" customHeight="1">
+    <row r="654" spans="12:20" ht="25.9" customHeight="1">
       <c r="L654" s="2"/>
       <c r="M654" s="2"/>
       <c r="N654" s="2"/>
       <c r="O654" s="2"/>
       <c r="T654" s="2"/>
     </row>
-    <row r="655" spans="12:20" ht="25.95" customHeight="1">
+    <row r="655" spans="12:20" ht="25.9" customHeight="1">
       <c r="L655" s="2"/>
       <c r="M655" s="2"/>
       <c r="N655" s="2"/>
       <c r="O655" s="2"/>
       <c r="T655" s="2"/>
     </row>
-    <row r="656" spans="12:20" ht="25.95" customHeight="1">
+    <row r="656" spans="12:20" ht="25.9" customHeight="1">
       <c r="L656" s="2"/>
       <c r="M656" s="2"/>
       <c r="N656" s="2"/>
       <c r="O656" s="2"/>
       <c r="T656" s="2"/>
     </row>
-    <row r="657" spans="12:20" ht="25.95" customHeight="1">
+    <row r="657" spans="12:20" ht="25.9" customHeight="1">
       <c r="L657" s="2"/>
       <c r="M657" s="2"/>
       <c r="N657" s="2"/>
       <c r="O657" s="2"/>
       <c r="T657" s="2"/>
     </row>
-    <row r="658" spans="12:20" ht="25.95" customHeight="1">
+    <row r="658" spans="12:20" ht="25.9" customHeight="1">
       <c r="L658" s="2"/>
       <c r="M658" s="2"/>
       <c r="N658" s="2"/>
       <c r="O658" s="2"/>
       <c r="T658" s="2"/>
     </row>
-    <row r="659" spans="12:20" ht="25.95" customHeight="1">
+    <row r="659" spans="12:20" ht="25.9" customHeight="1">
       <c r="L659" s="2"/>
       <c r="M659" s="2"/>
       <c r="N659" s="2"/>
       <c r="O659" s="2"/>
       <c r="T659" s="2"/>
     </row>
-    <row r="660" spans="12:20" ht="25.95" customHeight="1">
+    <row r="660" spans="12:20" ht="25.9" customHeight="1">
       <c r="L660" s="2"/>
       <c r="M660" s="2"/>
       <c r="N660" s="2"/>
       <c r="O660" s="2"/>
       <c r="T660" s="2"/>
     </row>
-    <row r="661" spans="12:20" ht="25.95" customHeight="1">
+    <row r="661" spans="12:20" ht="25.9" customHeight="1">
       <c r="L661" s="2"/>
       <c r="M661" s="2"/>
       <c r="N661" s="2"/>
       <c r="O661" s="2"/>
       <c r="T661" s="2"/>
     </row>
-    <row r="662" spans="12:20" ht="25.95" customHeight="1">
+    <row r="662" spans="12:20" ht="25.9" customHeight="1">
       <c r="L662" s="2"/>
       <c r="M662" s="2"/>
       <c r="N662" s="2"/>
       <c r="O662" s="2"/>
       <c r="T662" s="2"/>
     </row>
-    <row r="663" spans="12:20" ht="25.95" customHeight="1">
+    <row r="663" spans="12:20" ht="25.9" customHeight="1">
       <c r="L663" s="2"/>
       <c r="M663" s="2"/>
       <c r="N663" s="2"/>
       <c r="O663" s="2"/>
       <c r="T663" s="2"/>
     </row>
-    <row r="664" spans="12:20" ht="25.95" customHeight="1">
+    <row r="664" spans="12:20" ht="25.9" customHeight="1">
       <c r="L664" s="2"/>
       <c r="M664" s="2"/>
       <c r="N664" s="2"/>
       <c r="O664" s="2"/>
       <c r="T664" s="2"/>
     </row>
-    <row r="665" spans="12:20" ht="25.95" customHeight="1">
+    <row r="665" spans="12:20" ht="25.9" customHeight="1">
       <c r="L665" s="2"/>
       <c r="M665" s="2"/>
       <c r="N665" s="2"/>
       <c r="O665" s="2"/>
       <c r="T665" s="2"/>
     </row>
-    <row r="666" spans="12:20" ht="25.95" customHeight="1">
+    <row r="666" spans="12:20" ht="25.9" customHeight="1">
       <c r="L666" s="2"/>
       <c r="M666" s="2"/>
       <c r="N666" s="2"/>
       <c r="O666" s="2"/>
       <c r="T666" s="2"/>
     </row>
-    <row r="667" spans="12:20" ht="25.95" customHeight="1">
+    <row r="667" spans="12:20" ht="25.9" customHeight="1">
       <c r="L667" s="2"/>
       <c r="M667" s="2"/>
       <c r="N667" s="2"/>
       <c r="O667" s="2"/>
       <c r="T667" s="2"/>
     </row>
-    <row r="668" spans="12:20" ht="25.95" customHeight="1">
+    <row r="668" spans="12:20" ht="25.9" customHeight="1">
       <c r="L668" s="2"/>
       <c r="M668" s="2"/>
       <c r="N668" s="2"/>
       <c r="O668" s="2"/>
       <c r="T668" s="2"/>
     </row>
-    <row r="669" spans="12:20" ht="25.95" customHeight="1">
+    <row r="669" spans="12:20" ht="25.9" customHeight="1">
       <c r="L669" s="2"/>
       <c r="M669" s="2"/>
       <c r="N669" s="2"/>
       <c r="O669" s="2"/>
       <c r="T669" s="2"/>
     </row>
-    <row r="670" spans="12:20" ht="25.95" customHeight="1">
+    <row r="670" spans="12:20" ht="25.9" customHeight="1">
       <c r="L670" s="2"/>
       <c r="M670" s="2"/>
       <c r="N670" s="2"/>
       <c r="O670" s="2"/>
       <c r="T670" s="2"/>
     </row>
-    <row r="671" spans="12:20" ht="25.95" customHeight="1">
+    <row r="671" spans="12:20" ht="25.9" customHeight="1">
       <c r="L671" s="2"/>
       <c r="M671" s="2"/>
       <c r="N671" s="2"/>
       <c r="O671" s="2"/>
       <c r="T671" s="2"/>
     </row>
-    <row r="672" spans="12:20" ht="25.95" customHeight="1">
+    <row r="672" spans="12:20" ht="25.9" customHeight="1">
       <c r="L672" s="2"/>
       <c r="M672" s="2"/>
       <c r="N672" s="2"/>
       <c r="O672" s="2"/>
       <c r="T672" s="2"/>
     </row>
-    <row r="673" spans="12:20" ht="25.95" customHeight="1">
+    <row r="673" spans="12:20" ht="25.9" customHeight="1">
       <c r="L673" s="2"/>
       <c r="M673" s="2"/>
       <c r="N673" s="2"/>
       <c r="O673" s="2"/>
       <c r="T673" s="2"/>
     </row>
-    <row r="674" spans="12:20" ht="25.95" customHeight="1">
+    <row r="674" spans="12:20" ht="25.9" customHeight="1">
       <c r="L674" s="2"/>
       <c r="M674" s="2"/>
       <c r="N674" s="2"/>
       <c r="O674" s="2"/>
       <c r="T674" s="2"/>
     </row>
-    <row r="675" spans="12:20" ht="25.95" customHeight="1">
+    <row r="675" spans="12:20" ht="25.9" customHeight="1">
       <c r="L675" s="2"/>
       <c r="M675" s="2"/>
       <c r="N675" s="2"/>
       <c r="O675" s="2"/>
       <c r="T675" s="2"/>
     </row>
-    <row r="676" spans="12:20" ht="25.95" customHeight="1">
+    <row r="676" spans="12:20" ht="25.9" customHeight="1">
       <c r="L676" s="2"/>
       <c r="M676" s="2"/>
       <c r="N676" s="2"/>
       <c r="O676" s="2"/>
       <c r="T676" s="2"/>
     </row>
-    <row r="677" spans="12:20" ht="25.95" customHeight="1">
+    <row r="677" spans="12:20" ht="25.9" customHeight="1">
       <c r="L677" s="2"/>
       <c r="M677" s="2"/>
       <c r="N677" s="2"/>
       <c r="O677" s="2"/>
       <c r="T677" s="2"/>
     </row>
-    <row r="678" spans="12:20" ht="25.95" customHeight="1">
+    <row r="678" spans="12:20" ht="25.9" customHeight="1">
       <c r="L678" s="2"/>
       <c r="M678" s="2"/>
       <c r="N678" s="2"/>
       <c r="O678" s="2"/>
       <c r="T678" s="2"/>
     </row>
-    <row r="679" spans="12:20" ht="25.95" customHeight="1">
+    <row r="679" spans="12:20" ht="25.9" customHeight="1">
       <c r="L679" s="2"/>
       <c r="M679" s="2"/>
       <c r="N679" s="2"/>
       <c r="O679" s="2"/>
       <c r="T679" s="2"/>
     </row>
-    <row r="680" spans="12:20" ht="25.95" customHeight="1">
+    <row r="680" spans="12:20" ht="25.9" customHeight="1">
       <c r="L680" s="2"/>
       <c r="M680" s="2"/>
       <c r="N680" s="2"/>
       <c r="O680" s="2"/>
       <c r="T680" s="2"/>
     </row>
-    <row r="681" spans="12:20" ht="25.95" customHeight="1">
+    <row r="681" spans="12:20" ht="25.9" customHeight="1">
       <c r="L681" s="2"/>
       <c r="M681" s="2"/>
       <c r="N681" s="2"/>
       <c r="O681" s="2"/>
       <c r="T681" s="2"/>
     </row>
-    <row r="682" spans="12:20" ht="25.95" customHeight="1">
+    <row r="682" spans="12:20" ht="25.9" customHeight="1">
       <c r="L682" s="2"/>
       <c r="M682" s="2"/>
       <c r="N682" s="2"/>
       <c r="O682" s="2"/>
       <c r="T682" s="2"/>
     </row>
-    <row r="683" spans="12:20" ht="25.95" customHeight="1">
+    <row r="683" spans="12:20" ht="25.9" customHeight="1">
       <c r="L683" s="2"/>
       <c r="M683" s="2"/>
       <c r="N683" s="2"/>
       <c r="O683" s="2"/>
       <c r="T683" s="2"/>
     </row>
-    <row r="684" spans="12:20" ht="25.95" customHeight="1">
+    <row r="684" spans="12:20" ht="25.9" customHeight="1">
       <c r="L684" s="2"/>
       <c r="M684" s="2"/>
       <c r="N684" s="2"/>
       <c r="O684" s="2"/>
       <c r="T684" s="2"/>
     </row>
-    <row r="685" spans="12:20" ht="25.95" customHeight="1">
+    <row r="685" spans="12:20" ht="25.9" customHeight="1">
       <c r="L685" s="2"/>
       <c r="M685" s="2"/>
       <c r="N685" s="2"/>
       <c r="O685" s="2"/>
       <c r="T685" s="2"/>
     </row>
-    <row r="686" spans="12:20" ht="25.95" customHeight="1">
+    <row r="686" spans="12:20" ht="25.9" customHeight="1">
       <c r="L686" s="2"/>
       <c r="M686" s="2"/>
       <c r="N686" s="2"/>
       <c r="O686" s="2"/>
       <c r="T686" s="2"/>
     </row>
-    <row r="687" spans="12:20" ht="25.95" customHeight="1">
+    <row r="687" spans="12:20" ht="25.9" customHeight="1">
       <c r="L687" s="2"/>
       <c r="M687" s="2"/>
       <c r="N687" s="2"/>
       <c r="O687" s="2"/>
       <c r="T687" s="2"/>
     </row>
-    <row r="688" spans="12:20" ht="25.95" customHeight="1">
+    <row r="688" spans="12:20" ht="25.9" customHeight="1">
       <c r="L688" s="2"/>
       <c r="M688" s="2"/>
       <c r="N688" s="2"/>
       <c r="O688" s="2"/>
       <c r="T688" s="2"/>
     </row>
-    <row r="689" spans="12:20" ht="25.95" customHeight="1">
+    <row r="689" spans="12:20" ht="25.9" customHeight="1">
       <c r="L689" s="2"/>
       <c r="M689" s="2"/>
       <c r="N689" s="2"/>
       <c r="O689" s="2"/>
       <c r="T689" s="2"/>
     </row>
-    <row r="690" spans="12:20" ht="25.95" customHeight="1">
+    <row r="690" spans="12:20" ht="25.9" customHeight="1">
       <c r="L690" s="2"/>
       <c r="M690" s="2"/>
       <c r="N690" s="2"/>
       <c r="O690" s="2"/>
       <c r="T690" s="2"/>
     </row>
-    <row r="691" spans="12:20" ht="25.95" customHeight="1">
+    <row r="691" spans="12:20" ht="25.9" customHeight="1">
       <c r="L691" s="2"/>
       <c r="M691" s="2"/>
       <c r="N691" s="2"/>
       <c r="O691" s="2"/>
       <c r="T691" s="2"/>
     </row>
-    <row r="692" spans="12:20" ht="25.95" customHeight="1">
+    <row r="692" spans="12:20" ht="25.9" customHeight="1">
       <c r="L692" s="2"/>
       <c r="M692" s="2"/>
       <c r="N692" s="2"/>
       <c r="O692" s="2"/>
       <c r="T692" s="2"/>
     </row>
-    <row r="693" spans="12:20" ht="25.95" customHeight="1">
+    <row r="693" spans="12:20" ht="25.9" customHeight="1">
       <c r="L693" s="2"/>
       <c r="M693" s="2"/>
       <c r="N693" s="2"/>
       <c r="O693" s="2"/>
       <c r="T693" s="2"/>
     </row>
-    <row r="694" spans="12:20" ht="25.95" customHeight="1">
+    <row r="694" spans="12:20" ht="25.9" customHeight="1">
       <c r="L694" s="2"/>
       <c r="M694" s="2"/>
       <c r="N694" s="2"/>
       <c r="O694" s="2"/>
       <c r="T694" s="2"/>
     </row>
-    <row r="695" spans="12:20" ht="25.95" customHeight="1">
+    <row r="695" spans="12:20" ht="25.9" customHeight="1">
       <c r="L695" s="2"/>
       <c r="M695" s="2"/>
       <c r="N695" s="2"/>
       <c r="O695" s="2"/>
       <c r="T695" s="2"/>
     </row>
-    <row r="696" spans="12:20" ht="25.95" customHeight="1">
+    <row r="696" spans="12:20" ht="25.9" customHeight="1">
       <c r="L696" s="2"/>
       <c r="M696" s="2"/>
       <c r="N696" s="2"/>
       <c r="O696" s="2"/>
       <c r="T696" s="2"/>
     </row>
-    <row r="697" spans="12:20" ht="25.95" customHeight="1">
+    <row r="697" spans="12:20" ht="25.9" customHeight="1">
       <c r="L697" s="2"/>
       <c r="M697" s="2"/>
       <c r="N697" s="2"/>
       <c r="O697" s="2"/>
       <c r="T697" s="2"/>
     </row>
-    <row r="698" spans="12:20" ht="25.95" customHeight="1">
+    <row r="698" spans="12:20" ht="25.9" customHeight="1">
       <c r="L698" s="2"/>
       <c r="M698" s="2"/>
       <c r="N698" s="2"/>
       <c r="O698" s="2"/>
       <c r="T698" s="2"/>
     </row>
-    <row r="699" spans="12:20" ht="25.95" customHeight="1">
+    <row r="699" spans="12:20" ht="25.9" customHeight="1">
       <c r="L699" s="2"/>
       <c r="M699" s="2"/>
       <c r="N699" s="2"/>
       <c r="O699" s="2"/>
       <c r="T699" s="2"/>
     </row>
-    <row r="700" spans="12:20" ht="25.95" customHeight="1">
+    <row r="700" spans="12:20" ht="25.9" customHeight="1">
       <c r="L700" s="2"/>
       <c r="M700" s="2"/>
       <c r="N700" s="2"/>
       <c r="O700" s="2"/>
       <c r="T700" s="2"/>
     </row>
-    <row r="701" spans="12:20" ht="25.95" customHeight="1">
+    <row r="701" spans="12:20" ht="25.9" customHeight="1">
       <c r="L701" s="2"/>
       <c r="M701" s="2"/>
       <c r="N701" s="2"/>
       <c r="O701" s="2"/>
       <c r="T701" s="2"/>
     </row>
-    <row r="702" spans="12:20" ht="25.95" customHeight="1">
+    <row r="702" spans="12:20" ht="25.9" customHeight="1">
       <c r="L702" s="2"/>
       <c r="M702" s="2"/>
       <c r="N702" s="2"/>
       <c r="O702" s="2"/>
       <c r="T702" s="2"/>
     </row>
-    <row r="703" spans="12:20" ht="25.95" customHeight="1">
+    <row r="703" spans="12:20" ht="25.9" customHeight="1">
       <c r="L703" s="2"/>
       <c r="M703" s="2"/>
       <c r="N703" s="2"/>
       <c r="O703" s="2"/>
       <c r="T703" s="2"/>
     </row>
-    <row r="704" spans="12:20" ht="25.95" customHeight="1">
+    <row r="704" spans="12:20" ht="25.9" customHeight="1">
       <c r="L704" s="2"/>
       <c r="M704" s="2"/>
       <c r="N704" s="2"/>
       <c r="O704" s="2"/>
       <c r="T704" s="2"/>
     </row>
-    <row r="705" spans="12:20" ht="25.95" customHeight="1">
+    <row r="705" spans="12:20" ht="25.9" customHeight="1">
       <c r="L705" s="2"/>
       <c r="M705" s="2"/>
       <c r="N705" s="2"/>
       <c r="O705" s="2"/>
       <c r="T705" s="2"/>
     </row>
-    <row r="706" spans="12:20" ht="25.95" customHeight="1">
+    <row r="706" spans="12:20" ht="25.9" customHeight="1">
       <c r="L706" s="2"/>
       <c r="M706" s="2"/>
       <c r="N706" s="2"/>
       <c r="O706" s="2"/>
       <c r="T706" s="2"/>
     </row>
-    <row r="707" spans="12:20" ht="25.95" customHeight="1">
+    <row r="707" spans="12:20" ht="25.9" customHeight="1">
       <c r="L707" s="2"/>
       <c r="M707" s="2"/>
       <c r="N707" s="2"/>
       <c r="O707" s="2"/>
       <c r="T707" s="2"/>
     </row>
-    <row r="708" spans="12:20" ht="25.95" customHeight="1">
+    <row r="708" spans="12:20" ht="25.9" customHeight="1">
       <c r="L708" s="2"/>
       <c r="M708" s="2"/>
       <c r="N708" s="2"/>
       <c r="O708" s="2"/>
       <c r="T708" s="2"/>
     </row>
-    <row r="709" spans="12:20" ht="25.95" customHeight="1">
+    <row r="709" spans="12:20" ht="25.9" customHeight="1">
       <c r="L709" s="2"/>
       <c r="M709" s="2"/>
       <c r="N709" s="2"/>
       <c r="O709" s="2"/>
       <c r="T709" s="2"/>
     </row>
-    <row r="710" spans="12:20" ht="25.95" customHeight="1">
+    <row r="710" spans="12:20" ht="25.9" customHeight="1">
       <c r="L710" s="2"/>
       <c r="M710" s="2"/>
       <c r="N710" s="2"/>
       <c r="O710" s="2"/>
       <c r="T710" s="2"/>
     </row>
-    <row r="711" spans="12:20" ht="25.95" customHeight="1">
+    <row r="711" spans="12:20" ht="25.9" customHeight="1">
       <c r="L711" s="2"/>
       <c r="M711" s="2"/>
       <c r="N711" s="2"/>
       <c r="O711" s="2"/>
       <c r="T711" s="2"/>
     </row>
-    <row r="712" spans="12:20" ht="25.95" customHeight="1">
+    <row r="712" spans="12:20" ht="25.9" customHeight="1">
       <c r="L712" s="2"/>
       <c r="M712" s="2"/>
       <c r="N712" s="2"/>
       <c r="O712" s="2"/>
       <c r="T712" s="2"/>
     </row>
-    <row r="713" spans="12:20" ht="25.95" customHeight="1">
+    <row r="713" spans="12:20" ht="25.9" customHeight="1">
       <c r="L713" s="2"/>
       <c r="M713" s="2"/>
       <c r="N713" s="2"/>
       <c r="O713" s="2"/>
       <c r="T713" s="2"/>
     </row>
-    <row r="714" spans="12:20" ht="25.95" customHeight="1">
+    <row r="714" spans="12:20" ht="25.9" customHeight="1">
       <c r="L714" s="2"/>
       <c r="M714" s="2"/>
       <c r="N714" s="2"/>
       <c r="O714" s="2"/>
       <c r="T714" s="2"/>
     </row>
-    <row r="715" spans="12:20" ht="25.95" customHeight="1">
+    <row r="715" spans="12:20" ht="25.9" customHeight="1">
       <c r="L715" s="2"/>
       <c r="M715" s="2"/>
       <c r="N715" s="2"/>
       <c r="O715" s="2"/>
       <c r="T715" s="2"/>
     </row>
-    <row r="716" spans="12:20" ht="25.95" customHeight="1">
+    <row r="716" spans="12:20" ht="25.9" customHeight="1">
       <c r="L716" s="2"/>
       <c r="M716" s="2"/>
       <c r="N716" s="2"/>
       <c r="O716" s="2"/>
       <c r="T716" s="2"/>
     </row>
-    <row r="717" spans="12:20" ht="25.95" customHeight="1">
+    <row r="717" spans="12:20" ht="25.9" customHeight="1">
       <c r="L717" s="2"/>
       <c r="M717" s="2"/>
       <c r="N717" s="2"/>
       <c r="O717" s="2"/>
       <c r="T717" s="2"/>
     </row>
-    <row r="718" spans="12:20" ht="25.95" customHeight="1">
+    <row r="718" spans="12:20" ht="25.9" customHeight="1">
       <c r="L718" s="2"/>
       <c r="M718" s="2"/>
       <c r="N718" s="2"/>
       <c r="O718" s="2"/>
       <c r="T718" s="2"/>
     </row>
-    <row r="719" spans="12:20" ht="25.95" customHeight="1">
+    <row r="719" spans="12:20" ht="25.9" customHeight="1">
       <c r="L719" s="2"/>
       <c r="M719" s="2"/>
       <c r="N719" s="2"/>
       <c r="O719" s="2"/>
       <c r="T719" s="2"/>
     </row>
-    <row r="720" spans="12:20" ht="25.95" customHeight="1">
+    <row r="720" spans="12:20" ht="25.9" customHeight="1">
       <c r="L720" s="2"/>
       <c r="M720" s="2"/>
       <c r="N720" s="2"/>
       <c r="O720" s="2"/>
       <c r="T720" s="2"/>
     </row>
-    <row r="721" spans="12:20" ht="25.95" customHeight="1">
+    <row r="721" spans="12:20" ht="25.9" customHeight="1">
       <c r="L721" s="2"/>
       <c r="M721" s="2"/>
       <c r="N721" s="2"/>
       <c r="O721" s="2"/>
       <c r="T721" s="2"/>
     </row>
-    <row r="722" spans="12:20" ht="25.95" customHeight="1">
+    <row r="722" spans="12:20" ht="25.9" customHeight="1">
       <c r="L722" s="2"/>
       <c r="M722" s="2"/>
       <c r="N722" s="2"/>
       <c r="O722" s="2"/>
       <c r="T722" s="2"/>
     </row>
-    <row r="723" spans="12:20" ht="25.95" customHeight="1">
+    <row r="723" spans="12:20" ht="25.9" customHeight="1">
       <c r="L723" s="2"/>
       <c r="M723" s="2"/>
       <c r="N723" s="2"/>
       <c r="O723" s="2"/>
       <c r="T723" s="2"/>
     </row>
-    <row r="724" spans="12:20" ht="25.95" customHeight="1">
+    <row r="724" spans="12:20" ht="25.9" customHeight="1">
       <c r="L724" s="2"/>
       <c r="M724" s="2"/>
       <c r="N724" s="2"/>
       <c r="O724" s="2"/>
       <c r="T724" s="2"/>
     </row>
-    <row r="725" spans="12:20" ht="25.95" customHeight="1">
+    <row r="725" spans="12:20" ht="25.9" customHeight="1">
       <c r="L725" s="2"/>
       <c r="M725" s="2"/>
       <c r="N725" s="2"/>
       <c r="O725" s="2"/>
       <c r="T725" s="2"/>
     </row>
-    <row r="726" spans="12:20" ht="25.95" customHeight="1">
+    <row r="726" spans="12:20" ht="25.9" customHeight="1">
       <c r="L726" s="2"/>
       <c r="M726" s="2"/>
       <c r="N726" s="2"/>
       <c r="O726" s="2"/>
       <c r="T726" s="2"/>
     </row>
-    <row r="727" spans="12:20" ht="25.95" customHeight="1">
+    <row r="727" spans="12:20" ht="25.9" customHeight="1">
       <c r="L727" s="2"/>
       <c r="M727" s="2"/>
       <c r="N727" s="2"/>
       <c r="O727" s="2"/>
       <c r="T727" s="2"/>
     </row>
-    <row r="728" spans="12:20" ht="25.95" customHeight="1">
+    <row r="728" spans="12:20" ht="25.9" customHeight="1">
       <c r="L728" s="2"/>
       <c r="M728" s="2"/>
       <c r="N728" s="2"/>
       <c r="O728" s="2"/>
       <c r="T728" s="2"/>
     </row>
-    <row r="729" spans="12:20" ht="25.95" customHeight="1">
+    <row r="729" spans="12:20" ht="25.9" customHeight="1">
       <c r="L729" s="2"/>
       <c r="M729" s="2"/>
       <c r="N729" s="2"/>
       <c r="O729" s="2"/>
       <c r="T729" s="2"/>
     </row>
-    <row r="730" spans="12:20" ht="25.95" customHeight="1">
+    <row r="730" spans="12:20" ht="25.9" customHeight="1">
       <c r="L730" s="2"/>
       <c r="M730" s="2"/>
       <c r="N730" s="2"/>
       <c r="O730" s="2"/>
       <c r="T730" s="2"/>
     </row>
-    <row r="731" spans="12:20" ht="25.95" customHeight="1">
+    <row r="731" spans="12:20" ht="25.9" customHeight="1">
       <c r="L731" s="2"/>
       <c r="M731" s="2"/>
       <c r="N731" s="2"/>
       <c r="O731" s="2"/>
       <c r="T731" s="2"/>
     </row>
-    <row r="732" spans="12:20" ht="25.95" customHeight="1">
+    <row r="732" spans="12:20" ht="25.9" customHeight="1">
       <c r="L732" s="2"/>
       <c r="M732" s="2"/>
       <c r="N732" s="2"/>
       <c r="O732" s="2"/>
       <c r="T732" s="2"/>
     </row>
-    <row r="733" spans="12:20" ht="25.95" customHeight="1">
+    <row r="733" spans="12:20" ht="25.9" customHeight="1">
       <c r="L733" s="2"/>
       <c r="M733" s="2"/>
       <c r="N733" s="2"/>
       <c r="O733" s="2"/>
       <c r="T733" s="2"/>
     </row>
-    <row r="734" spans="12:20" ht="25.95" customHeight="1">
+    <row r="734" spans="12:20" ht="25.9" customHeight="1">
       <c r="L734" s="2"/>
       <c r="M734" s="2"/>
       <c r="N734" s="2"/>
       <c r="O734" s="2"/>
       <c r="T734" s="2"/>
     </row>
-    <row r="735" spans="12:20" ht="25.95" customHeight="1">
+    <row r="735" spans="12:20" ht="25.9" customHeight="1">
       <c r="L735" s="2"/>
       <c r="M735" s="2"/>
       <c r="N735" s="2"/>
       <c r="O735" s="2"/>
       <c r="T735" s="2"/>
     </row>
-    <row r="736" spans="12:20" ht="25.95" customHeight="1">
+    <row r="736" spans="12:20" ht="25.9" customHeight="1">
       <c r="L736" s="2"/>
       <c r="M736" s="2"/>
       <c r="N736" s="2"/>
       <c r="O736" s="2"/>
       <c r="T736" s="2"/>
     </row>
-    <row r="737" spans="12:20" ht="25.95" customHeight="1">
+    <row r="737" spans="12:20" ht="25.9" customHeight="1">
       <c r="L737" s="2"/>
       <c r="M737" s="2"/>
       <c r="N737" s="2"/>
       <c r="O737" s="2"/>
       <c r="T737" s="2"/>
     </row>
-    <row r="738" spans="12:20" ht="25.95" customHeight="1">
+    <row r="738" spans="12:20" ht="25.9" customHeight="1">
       <c r="L738" s="2"/>
       <c r="M738" s="2"/>
       <c r="N738" s="2"/>
       <c r="O738" s="2"/>
       <c r="T738" s="2"/>
     </row>
-    <row r="739" spans="12:20" ht="25.95" customHeight="1">
+    <row r="739" spans="12:20" ht="25.9" customHeight="1">
       <c r="L739" s="2"/>
       <c r="M739" s="2"/>
       <c r="N739" s="2"/>
       <c r="O739" s="2"/>
       <c r="T739" s="2"/>
     </row>
-    <row r="740" spans="12:20" ht="25.95" customHeight="1">
+    <row r="740" spans="12:20" ht="25.9" customHeight="1">
       <c r="L740" s="2"/>
       <c r="M740" s="2"/>
       <c r="N740" s="2"/>
       <c r="O740" s="2"/>
       <c r="T740" s="2"/>
     </row>
-    <row r="741" spans="12:20" ht="25.95" customHeight="1">
+    <row r="741" spans="12:20" ht="25.9" customHeight="1">
       <c r="L741" s="2"/>
       <c r="M741" s="2"/>
       <c r="N741" s="2"/>
       <c r="O741" s="2"/>
       <c r="T741" s="2"/>
     </row>
-    <row r="742" spans="12:20" ht="25.95" customHeight="1">
+    <row r="742" spans="12:20" ht="25.9" customHeight="1">
       <c r="L742" s="2"/>
       <c r="M742" s="2"/>
       <c r="N742" s="2"/>
       <c r="O742" s="2"/>
       <c r="T742" s="2"/>
     </row>
-    <row r="743" spans="12:20" ht="25.95" customHeight="1">
+    <row r="743" spans="12:20" ht="25.9" customHeight="1">
       <c r="L743" s="2"/>
       <c r="M743" s="2"/>
       <c r="N743" s="2"/>
       <c r="O743" s="2"/>
       <c r="T743" s="2"/>
     </row>
-    <row r="744" spans="12:20" ht="25.95" customHeight="1">
+    <row r="744" spans="12:20" ht="25.9" customHeight="1">
       <c r="L744" s="2"/>
       <c r="M744" s="2"/>
       <c r="N744" s="2"/>
       <c r="O744" s="2"/>
       <c r="T744" s="2"/>
     </row>
-    <row r="745" spans="12:20" ht="25.95" customHeight="1">
+    <row r="745" spans="12:20" ht="25.9" customHeight="1">
       <c r="L745" s="2"/>
       <c r="M745" s="2"/>
       <c r="N745" s="2"/>
       <c r="O745" s="2"/>
       <c r="T745" s="2"/>
     </row>
-    <row r="746" spans="12:20" ht="25.95" customHeight="1">
+    <row r="746" spans="12:20" ht="25.9" customHeight="1">
       <c r="L746" s="2"/>
       <c r="M746" s="2"/>
       <c r="N746" s="2"/>
       <c r="O746" s="2"/>
       <c r="T746" s="2"/>
     </row>
-    <row r="747" spans="12:20" ht="25.95" customHeight="1">
+    <row r="747" spans="12:20" ht="25.9" customHeight="1">
       <c r="L747" s="2"/>
       <c r="M747" s="2"/>
       <c r="N747" s="2"/>
       <c r="O747" s="2"/>
       <c r="T747" s="2"/>
     </row>
-    <row r="748" spans="12:20" ht="25.95" customHeight="1">
+    <row r="748" spans="12:20" ht="25.9" customHeight="1">
       <c r="L748" s="2"/>
       <c r="M748" s="2"/>
       <c r="N748" s="2"/>
       <c r="O748" s="2"/>
       <c r="T748" s="2"/>
     </row>
-    <row r="749" spans="12:20" ht="25.95" customHeight="1">
+    <row r="749" spans="12:20" ht="25.9" customHeight="1">
       <c r="L749" s="2"/>
       <c r="M749" s="2"/>
       <c r="N749" s="2"/>
       <c r="O749" s="2"/>
       <c r="T749" s="2"/>
     </row>
-    <row r="750" spans="12:20" ht="25.95" customHeight="1">
+    <row r="750" spans="12:20" ht="25.9" customHeight="1">
       <c r="L750" s="2"/>
       <c r="M750" s="2"/>
       <c r="N750" s="2"/>
       <c r="O750" s="2"/>
       <c r="T750" s="2"/>
     </row>
-    <row r="751" spans="12:20" ht="25.95" customHeight="1">
+    <row r="751" spans="12:20" ht="25.9" customHeight="1">
       <c r="L751" s="2"/>
       <c r="M751" s="2"/>
       <c r="N751" s="2"/>
       <c r="O751" s="2"/>
       <c r="T751" s="2"/>
     </row>
-    <row r="752" spans="12:20" ht="25.95" customHeight="1">
+    <row r="752" spans="12:20" ht="25.9" customHeight="1">
       <c r="L752" s="2"/>
       <c r="M752" s="2"/>
       <c r="N752" s="2"/>
       <c r="O752" s="2"/>
       <c r="T752" s="2"/>
     </row>
-    <row r="753" spans="12:20" ht="25.95" customHeight="1">
+    <row r="753" spans="12:20" ht="25.9" customHeight="1">
       <c r="L753" s="2"/>
       <c r="M753" s="2"/>
       <c r="N753" s="2"/>
       <c r="O753" s="2"/>
       <c r="T753" s="2"/>
     </row>
-    <row r="754" spans="12:20" ht="25.95" customHeight="1">
+    <row r="754" spans="12:20" ht="25.9" customHeight="1">
       <c r="L754" s="2"/>
       <c r="M754" s="2"/>
       <c r="N754" s="2"/>
       <c r="O754" s="2"/>
       <c r="T754" s="2"/>
     </row>
-    <row r="755" spans="12:20" ht="25.95" customHeight="1">
+    <row r="755" spans="12:20" ht="25.9" customHeight="1">
       <c r="L755" s="2"/>
       <c r="M755" s="2"/>
       <c r="N755" s="2"/>
       <c r="O755" s="2"/>
       <c r="T755" s="2"/>
     </row>
-    <row r="756" spans="12:20" ht="25.95" customHeight="1">
+    <row r="756" spans="12:20" ht="25.9" customHeight="1">
       <c r="L756" s="2"/>
       <c r="M756" s="2"/>
       <c r="N756" s="2"/>
       <c r="O756" s="2"/>
       <c r="T756" s="2"/>
     </row>
-    <row r="757" spans="12:20" ht="25.95" customHeight="1">
+    <row r="757" spans="12:20" ht="25.9" customHeight="1">
       <c r="L757" s="2"/>
       <c r="M757" s="2"/>
       <c r="N757" s="2"/>
       <c r="O757" s="2"/>
       <c r="T757" s="2"/>
     </row>
-    <row r="758" spans="12:20" ht="25.95" customHeight="1">
+    <row r="758" spans="12:20" ht="25.9" customHeight="1">
       <c r="L758" s="2"/>
       <c r="M758" s="2"/>
       <c r="N758" s="2"/>
       <c r="O758" s="2"/>
       <c r="T758" s="2"/>
     </row>
-    <row r="759" spans="12:20" ht="25.95" customHeight="1">
+    <row r="759" spans="12:20" ht="25.9" customHeight="1">
       <c r="L759" s="2"/>
       <c r="M759" s="2"/>
       <c r="N759" s="2"/>
       <c r="O759" s="2"/>
       <c r="T759" s="2"/>
     </row>
-    <row r="760" spans="12:20" ht="25.95" customHeight="1">
+    <row r="760" spans="12:20" ht="25.9" customHeight="1">
       <c r="L760" s="2"/>
       <c r="M760" s="2"/>
       <c r="N760" s="2"/>
       <c r="O760" s="2"/>
       <c r="T760" s="2"/>
     </row>
-    <row r="761" spans="12:20" ht="25.95" customHeight="1">
+    <row r="761" spans="12:20" ht="25.9" customHeight="1">
       <c r="L761" s="2"/>
       <c r="M761" s="2"/>
       <c r="N761" s="2"/>
       <c r="O761" s="2"/>
       <c r="T761" s="2"/>
     </row>
-    <row r="762" spans="12:20" ht="25.95" customHeight="1">
+    <row r="762" spans="12:20" ht="25.9" customHeight="1">
       <c r="L762" s="2"/>
       <c r="M762" s="2"/>
       <c r="N762" s="2"/>
       <c r="O762" s="2"/>
       <c r="T762" s="2"/>
     </row>
-    <row r="763" spans="12:20" ht="25.95" customHeight="1">
+    <row r="763" spans="12:20" ht="25.9" customHeight="1">
       <c r="L763" s="2"/>
       <c r="M763" s="2"/>
       <c r="N763" s="2"/>
       <c r="O763" s="2"/>
       <c r="T763" s="2"/>
     </row>
-    <row r="764" spans="12:20" ht="25.95" customHeight="1">
+    <row r="764" spans="12:20" ht="25.9" customHeight="1">
       <c r="L764" s="2"/>
       <c r="M764" s="2"/>
       <c r="N764" s="2"/>
       <c r="O764" s="2"/>
       <c r="T764" s="2"/>
     </row>
-    <row r="765" spans="12:20" ht="25.95" customHeight="1">
+    <row r="765" spans="12:20" ht="25.9" customHeight="1">
       <c r="L765" s="2"/>
       <c r="M765" s="2"/>
       <c r="N765" s="2"/>
       <c r="O765" s="2"/>
       <c r="T765" s="2"/>
     </row>
-    <row r="766" spans="12:20" ht="25.95" customHeight="1">
+    <row r="766" spans="12:20" ht="25.9" customHeight="1">
       <c r="L766" s="2"/>
       <c r="M766" s="2"/>
       <c r="N766" s="2"/>
       <c r="O766" s="2"/>
       <c r="T766" s="2"/>
     </row>
-    <row r="767" spans="12:20" ht="25.95" customHeight="1">
+    <row r="767" spans="12:20" ht="25.9" customHeight="1">
       <c r="L767" s="2"/>
       <c r="M767" s="2"/>
       <c r="N767" s="2"/>
       <c r="O767" s="2"/>
       <c r="T767" s="2"/>
     </row>
-    <row r="768" spans="12:20" ht="25.95" customHeight="1">
+    <row r="768" spans="12:20" ht="25.9" customHeight="1">
       <c r="L768" s="2"/>
       <c r="M768" s="2"/>
       <c r="N768" s="2"/>
       <c r="O768" s="2"/>
       <c r="T768" s="2"/>
     </row>
-    <row r="769" spans="12:20" ht="25.95" customHeight="1">
+    <row r="769" spans="12:20" ht="25.9" customHeight="1">
       <c r="L769" s="2"/>
       <c r="M769" s="2"/>
       <c r="N769" s="2"/>
       <c r="O769" s="2"/>
       <c r="T769" s="2"/>
     </row>
-    <row r="770" spans="12:20" ht="25.95" customHeight="1">
+    <row r="770" spans="12:20" ht="25.9" customHeight="1">
       <c r="L770" s="2"/>
       <c r="M770" s="2"/>
       <c r="N770" s="2"/>
       <c r="O770" s="2"/>
       <c r="T770" s="2"/>
     </row>
-    <row r="771" spans="12:20" ht="25.95" customHeight="1">
+    <row r="771" spans="12:20" ht="25.9" customHeight="1">
       <c r="L771" s="2"/>
       <c r="M771" s="2"/>
       <c r="N771" s="2"/>
       <c r="O771" s="2"/>
       <c r="T771" s="2"/>
     </row>
-    <row r="772" spans="12:20" ht="25.95" customHeight="1">
+    <row r="772" spans="12:20" ht="25.9" customHeight="1">
       <c r="L772" s="2"/>
       <c r="M772" s="2"/>
       <c r="N772" s="2"/>
       <c r="O772" s="2"/>
       <c r="T772" s="2"/>
     </row>
-    <row r="773" spans="12:20" ht="25.95" customHeight="1">
+    <row r="773" spans="12:20" ht="25.9" customHeight="1">
       <c r="L773" s="2"/>
       <c r="M773" s="2"/>
       <c r="N773" s="2"/>
       <c r="O773" s="2"/>
       <c r="T773" s="2"/>
     </row>
-    <row r="774" spans="12:20" ht="25.95" customHeight="1">
+    <row r="774" spans="12:20" ht="25.9" customHeight="1">
       <c r="L774" s="2"/>
       <c r="M774" s="2"/>
       <c r="N774" s="2"/>
       <c r="O774" s="2"/>
       <c r="T774" s="2"/>
     </row>
-    <row r="775" spans="12:20" ht="25.95" customHeight="1">
+    <row r="775" spans="12:20" ht="25.9" customHeight="1">
       <c r="L775" s="2"/>
       <c r="M775" s="2"/>
       <c r="N775" s="2"/>
       <c r="O775" s="2"/>
       <c r="T775" s="2"/>
     </row>
-    <row r="776" spans="12:20" ht="25.95" customHeight="1">
+    <row r="776" spans="12:20" ht="25.9" customHeight="1">
       <c r="L776" s="2"/>
       <c r="M776" s="2"/>
       <c r="N776" s="2"/>
       <c r="O776" s="2"/>
       <c r="T776" s="2"/>
     </row>
-    <row r="777" spans="12:20" ht="25.95" customHeight="1">
+    <row r="777" spans="12:20" ht="25.9" customHeight="1">
       <c r="L777" s="2"/>
       <c r="M777" s="2"/>
       <c r="N777" s="2"/>
       <c r="O777" s="2"/>
       <c r="T777" s="2"/>
     </row>
-    <row r="778" spans="12:20" ht="25.95" customHeight="1">
+    <row r="778" spans="12:20" ht="25.9" customHeight="1">
       <c r="L778" s="2"/>
       <c r="M778" s="2"/>
       <c r="N778" s="2"/>
       <c r="O778" s="2"/>
       <c r="T778" s="2"/>
     </row>
-    <row r="779" spans="12:20" ht="25.95" customHeight="1">
+    <row r="779" spans="12:20" ht="25.9" customHeight="1">
       <c r="L779" s="2"/>
       <c r="M779" s="2"/>
       <c r="N779" s="2"/>
       <c r="O779" s="2"/>
       <c r="T779" s="2"/>
     </row>
-    <row r="780" spans="12:20" ht="25.95" customHeight="1">
+    <row r="780" spans="12:20" ht="25.9" customHeight="1">
       <c r="L780" s="2"/>
       <c r="M780" s="2"/>
       <c r="N780" s="2"/>
       <c r="O780" s="2"/>
       <c r="T780" s="2"/>
     </row>
-    <row r="781" spans="12:20" ht="25.95" customHeight="1">
+    <row r="781" spans="12:20" ht="25.9" customHeight="1">
       <c r="L781" s="2"/>
       <c r="M781" s="2"/>
       <c r="N781" s="2"/>
       <c r="O781" s="2"/>
       <c r="T781" s="2"/>
     </row>
-    <row r="782" spans="12:20" ht="25.95" customHeight="1">
+    <row r="782" spans="12:20" ht="25.9" customHeight="1">
       <c r="L782" s="2"/>
       <c r="M782" s="2"/>
       <c r="N782" s="2"/>
       <c r="O782" s="2"/>
       <c r="T782" s="2"/>
     </row>
-    <row r="783" spans="12:20" ht="25.95" customHeight="1">
+    <row r="783" spans="12:20" ht="25.9" customHeight="1">
       <c r="L783" s="2"/>
       <c r="M783" s="2"/>
       <c r="N783" s="2"/>
       <c r="O783" s="2"/>
       <c r="T783" s="2"/>
     </row>
-    <row r="784" spans="12:20" ht="25.95" customHeight="1">
+    <row r="784" spans="12:20" ht="25.9" customHeight="1">
       <c r="L784" s="2"/>
       <c r="M784" s="2"/>
       <c r="N784" s="2"/>
       <c r="O784" s="2"/>
       <c r="T784" s="2"/>
     </row>
-    <row r="785" spans="12:20" ht="25.95" customHeight="1">
+    <row r="785" spans="12:20" ht="25.9" customHeight="1">
       <c r="L785" s="2"/>
       <c r="M785" s="2"/>
       <c r="N785" s="2"/>
       <c r="O785" s="2"/>
       <c r="T785" s="2"/>
     </row>
-    <row r="786" spans="12:20" ht="25.95" customHeight="1">
+    <row r="786" spans="12:20" ht="25.9" customHeight="1">
       <c r="L786" s="2"/>
       <c r="M786" s="2"/>
       <c r="N786" s="2"/>
       <c r="O786" s="2"/>
       <c r="T786" s="2"/>
     </row>
-    <row r="787" spans="12:20" ht="25.95" customHeight="1">
+    <row r="787" spans="12:20" ht="25.9" customHeight="1">
       <c r="L787" s="2"/>
       <c r="M787" s="2"/>
       <c r="N787" s="2"/>
       <c r="O787" s="2"/>
       <c r="T787" s="2"/>
     </row>
-    <row r="788" spans="12:20" ht="25.95" customHeight="1">
+    <row r="788" spans="12:20" ht="25.9" customHeight="1">
       <c r="L788" s="2"/>
       <c r="M788" s="2"/>
       <c r="N788" s="2"/>
       <c r="O788" s="2"/>
       <c r="T788" s="2"/>
     </row>
-    <row r="789" spans="12:20" ht="25.95" customHeight="1">
+    <row r="789" spans="12:20" ht="25.9" customHeight="1">
       <c r="L789" s="2"/>
       <c r="M789" s="2"/>
       <c r="N789" s="2"/>
       <c r="O789" s="2"/>
       <c r="T789" s="2"/>
     </row>
-    <row r="790" spans="12:20" ht="25.95" customHeight="1">
+    <row r="790" spans="12:20" ht="25.9" customHeight="1">
       <c r="L790" s="2"/>
       <c r="M790" s="2"/>
       <c r="N790" s="2"/>
       <c r="O790" s="2"/>
       <c r="T790" s="2"/>
     </row>
-    <row r="791" spans="12:20" ht="25.95" customHeight="1">
+    <row r="791" spans="12:20" ht="25.9" customHeight="1">
       <c r="L791" s="2"/>
       <c r="M791" s="2"/>
       <c r="N791" s="2"/>
       <c r="O791" s="2"/>
       <c r="T791" s="2"/>
     </row>
-    <row r="792" spans="12:20" ht="25.95" customHeight="1">
+    <row r="792" spans="12:20" ht="25.9" customHeight="1">
       <c r="L792" s="2"/>
       <c r="M792" s="2"/>
       <c r="N792" s="2"/>
       <c r="O792" s="2"/>
       <c r="T792" s="2"/>
     </row>
-    <row r="793" spans="12:20" ht="25.95" customHeight="1">
+    <row r="793" spans="12:20" ht="25.9" customHeight="1">
       <c r="L793" s="2"/>
       <c r="M793" s="2"/>
       <c r="N793" s="2"/>
       <c r="O793" s="2"/>
       <c r="T793" s="2"/>
     </row>
-    <row r="794" spans="12:20" ht="25.95" customHeight="1">
+    <row r="794" spans="12:20" ht="25.9" customHeight="1">
       <c r="L794" s="2"/>
       <c r="M794" s="2"/>
       <c r="N794" s="2"/>
       <c r="O794" s="2"/>
       <c r="T794" s="2"/>
     </row>
-    <row r="795" spans="12:20" ht="25.95" customHeight="1">
+    <row r="795" spans="12:20" ht="25.9" customHeight="1">
       <c r="L795" s="2"/>
       <c r="M795" s="2"/>
       <c r="N795" s="2"/>
       <c r="O795" s="2"/>
       <c r="T795" s="2"/>
     </row>
-    <row r="796" spans="12:20" ht="25.95" customHeight="1">
+    <row r="796" spans="12:20" ht="25.9" customHeight="1">
       <c r="L796" s="2"/>
       <c r="M796" s="2"/>
       <c r="N796" s="2"/>
       <c r="O796" s="2"/>
       <c r="T796" s="2"/>
     </row>
-    <row r="797" spans="12:20" ht="25.95" customHeight="1">
+    <row r="797" spans="12:20" ht="25.9" customHeight="1">
       <c r="L797" s="2"/>
       <c r="M797" s="2"/>
       <c r="N797" s="2"/>
       <c r="O797" s="2"/>
       <c r="T797" s="2"/>
     </row>
-    <row r="798" spans="12:20" ht="25.95" customHeight="1">
+    <row r="798" spans="12:20" ht="25.9" customHeight="1">
       <c r="L798" s="2"/>
       <c r="M798" s="2"/>
       <c r="N798" s="2"/>
       <c r="O798" s="2"/>
       <c r="T798" s="2"/>
     </row>
-    <row r="799" spans="12:20" ht="25.95" customHeight="1">
+    <row r="799" spans="12:20" ht="25.9" customHeight="1">
       <c r="L799" s="2"/>
       <c r="M799" s="2"/>
       <c r="N799" s="2"/>
       <c r="O799" s="2"/>
       <c r="T799" s="2"/>
     </row>
-    <row r="800" spans="12:20" ht="25.95" customHeight="1">
+    <row r="800" spans="12:20" ht="25.9" customHeight="1">
       <c r="L800" s="2"/>
       <c r="M800" s="2"/>
       <c r="N800" s="2"/>
       <c r="O800" s="2"/>
       <c r="T800" s="2"/>
     </row>
-    <row r="801" spans="12:20" ht="25.95" customHeight="1">
+    <row r="801" spans="12:20" ht="25.9" customHeight="1">
       <c r="L801" s="2"/>
       <c r="M801" s="2"/>
       <c r="N801" s="2"/>
       <c r="O801" s="2"/>
       <c r="T801" s="2"/>
     </row>
-    <row r="802" spans="12:20" ht="25.95" customHeight="1">
+    <row r="802" spans="12:20" ht="25.9" customHeight="1">
       <c r="L802" s="2"/>
       <c r="M802" s="2"/>
       <c r="N802" s="2"/>
       <c r="O802" s="2"/>
       <c r="T802" s="2"/>
     </row>
-    <row r="803" spans="12:20" ht="25.95" customHeight="1">
+    <row r="803" spans="12:20" ht="25.9" customHeight="1">
       <c r="L803" s="2"/>
       <c r="M803" s="2"/>
       <c r="N803" s="2"/>
       <c r="O803" s="2"/>
       <c r="T803" s="2"/>
     </row>
-    <row r="804" spans="12:20" ht="25.95" customHeight="1">
+    <row r="804" spans="12:20" ht="25.9" customHeight="1">
       <c r="L804" s="2"/>
       <c r="M804" s="2"/>
       <c r="N804" s="2"/>
       <c r="O804" s="2"/>
       <c r="T804" s="2"/>
     </row>
-    <row r="805" spans="12:20" ht="25.95" customHeight="1">
+    <row r="805" spans="12:20" ht="25.9" customHeight="1">
       <c r="L805" s="2"/>
       <c r="M805" s="2"/>
       <c r="N805" s="2"/>
       <c r="O805" s="2"/>
       <c r="T805" s="2"/>
     </row>
-    <row r="806" spans="12:20" ht="25.95" customHeight="1">
+    <row r="806" spans="12:20" ht="25.9" customHeight="1">
       <c r="L806" s="2"/>
       <c r="M806" s="2"/>
       <c r="N806" s="2"/>
       <c r="O806" s="2"/>
       <c r="T806" s="2"/>
     </row>
-    <row r="807" spans="12:20" ht="25.95" customHeight="1">
+    <row r="807" spans="12:20" ht="25.9" customHeight="1">
       <c r="L807" s="2"/>
       <c r="M807" s="2"/>
       <c r="N807" s="2"/>
       <c r="O807" s="2"/>
       <c r="T807" s="2"/>
     </row>
-    <row r="808" spans="12:20" ht="25.95" customHeight="1">
+    <row r="808" spans="12:20" ht="25.9" customHeight="1">
       <c r="L808" s="2"/>
       <c r="M808" s="2"/>
       <c r="N808" s="2"/>
       <c r="O808" s="2"/>
       <c r="T808" s="2"/>
     </row>
-    <row r="809" spans="12:20" ht="25.95" customHeight="1">
+    <row r="809" spans="12:20" ht="25.9" customHeight="1">
       <c r="L809" s="2"/>
       <c r="M809" s="2"/>
       <c r="N809" s="2"/>
       <c r="O809" s="2"/>
       <c r="T809" s="2"/>
     </row>
-    <row r="810" spans="12:20" ht="25.95" customHeight="1">
+    <row r="810" spans="12:20" ht="25.9" customHeight="1">
       <c r="L810" s="2"/>
       <c r="M810" s="2"/>
       <c r="N810" s="2"/>
       <c r="O810" s="2"/>
       <c r="T810" s="2"/>
     </row>
-    <row r="811" spans="12:20" ht="25.95" customHeight="1">
+    <row r="811" spans="12:20" ht="25.9" customHeight="1">
       <c r="L811" s="2"/>
       <c r="M811" s="2"/>
       <c r="N811" s="2"/>
       <c r="O811" s="2"/>
       <c r="T811" s="2"/>
     </row>
-    <row r="812" spans="12:20" ht="25.95" customHeight="1">
+    <row r="812" spans="12:20" ht="25.9" customHeight="1">
       <c r="L812" s="2"/>
       <c r="M812" s="2"/>
       <c r="N812" s="2"/>
       <c r="O812" s="2"/>
       <c r="T812" s="2"/>
     </row>
-    <row r="813" spans="12:20" ht="25.95" customHeight="1">
+    <row r="813" spans="12:20" ht="25.9" customHeight="1">
       <c r="L813" s="2"/>
       <c r="M813" s="2"/>
       <c r="N813" s="2"/>
       <c r="O813" s="2"/>
       <c r="T813" s="2"/>
     </row>
-    <row r="814" spans="12:20" ht="25.95" customHeight="1">
+    <row r="814" spans="12:20" ht="25.9" customHeight="1">
       <c r="L814" s="2"/>
       <c r="M814" s="2"/>
       <c r="N814" s="2"/>
       <c r="O814" s="2"/>
       <c r="T814" s="2"/>
     </row>
-    <row r="815" spans="12:20" ht="25.95" customHeight="1">
+    <row r="815" spans="12:20" ht="25.9" customHeight="1">
       <c r="L815" s="2"/>
       <c r="M815" s="2"/>
       <c r="N815" s="2"/>
       <c r="O815" s="2"/>
       <c r="T815" s="2"/>
     </row>
-    <row r="816" spans="12:20" ht="25.95" customHeight="1">
+    <row r="816" spans="12:20" ht="25.9" customHeight="1">
       <c r="L816" s="2"/>
       <c r="M816" s="2"/>
       <c r="N816" s="2"/>
       <c r="O816" s="2"/>
       <c r="T816" s="2"/>
     </row>
-    <row r="817" spans="12:20" ht="25.95" customHeight="1">
+    <row r="817" spans="12:20" ht="25.9" customHeight="1">
       <c r="L817" s="2"/>
       <c r="M817" s="2"/>
       <c r="N817" s="2"/>
       <c r="O817" s="2"/>
       <c r="T817" s="2"/>
     </row>
-    <row r="818" spans="12:20" ht="25.95" customHeight="1">
+    <row r="818" spans="12:20" ht="25.9" customHeight="1">
       <c r="L818" s="2"/>
       <c r="M818" s="2"/>
       <c r="N818" s="2"/>
       <c r="O818" s="2"/>
       <c r="T818" s="2"/>
     </row>
-    <row r="819" spans="12:20" ht="25.95" customHeight="1">
+    <row r="819" spans="12:20" ht="25.9" customHeight="1">
       <c r="L819" s="2"/>
       <c r="M819" s="2"/>
       <c r="N819" s="2"/>
       <c r="O819" s="2"/>
       <c r="T819" s="2"/>
     </row>
-    <row r="820" spans="12:20" ht="25.95" customHeight="1">
+    <row r="820" spans="12:20" ht="25.9" customHeight="1">
       <c r="L820" s="2"/>
       <c r="M820" s="2"/>
       <c r="N820" s="2"/>
       <c r="O820" s="2"/>
       <c r="T820" s="2"/>
     </row>
-    <row r="821" spans="12:20" ht="25.95" customHeight="1">
+    <row r="821" spans="12:20" ht="25.9" customHeight="1">
       <c r="L821" s="2"/>
       <c r="M821" s="2"/>
       <c r="N821" s="2"/>
       <c r="O821" s="2"/>
       <c r="T821" s="2"/>
     </row>
-    <row r="822" spans="12:20" ht="25.95" customHeight="1">
+    <row r="822" spans="12:20" ht="25.9" customHeight="1">
       <c r="L822" s="2"/>
       <c r="M822" s="2"/>
       <c r="N822" s="2"/>
       <c r="O822" s="2"/>
       <c r="T822" s="2"/>
     </row>
-    <row r="823" spans="12:20" ht="25.95" customHeight="1">
+    <row r="823" spans="12:20" ht="25.9" customHeight="1">
       <c r="L823" s="2"/>
       <c r="M823" s="2"/>
       <c r="N823" s="2"/>
       <c r="O823" s="2"/>
       <c r="T823" s="2"/>
     </row>
-    <row r="824" spans="12:20" ht="25.95" customHeight="1">
+    <row r="824" spans="12:20" ht="25.9" customHeight="1">
       <c r="L824" s="2"/>
       <c r="M824" s="2"/>
       <c r="N824" s="2"/>
       <c r="O824" s="2"/>
       <c r="T824" s="2"/>
     </row>
-    <row r="825" spans="12:20" ht="25.95" customHeight="1">
+    <row r="825" spans="12:20" ht="25.9" customHeight="1">
       <c r="L825" s="2"/>
       <c r="M825" s="2"/>
       <c r="N825" s="2"/>
       <c r="O825" s="2"/>
       <c r="T825" s="2"/>
     </row>
-    <row r="826" spans="12:20" ht="25.95" customHeight="1">
+    <row r="826" spans="12:20" ht="25.9" customHeight="1">
       <c r="L826" s="2"/>
       <c r="M826" s="2"/>
       <c r="N826" s="2"/>
       <c r="O826" s="2"/>
       <c r="T826" s="2"/>
     </row>
-    <row r="827" spans="12:20" ht="25.95" customHeight="1">
+    <row r="827" spans="12:20" ht="25.9" customHeight="1">
       <c r="L827" s="2"/>
       <c r="M827" s="2"/>
       <c r="N827" s="2"/>
       <c r="O827" s="2"/>
       <c r="T827" s="2"/>
     </row>
-    <row r="828" spans="12:20" ht="25.95" customHeight="1">
+    <row r="828" spans="12:20" ht="25.9" customHeight="1">
       <c r="L828" s="2"/>
       <c r="M828" s="2"/>
       <c r="N828" s="2"/>
       <c r="O828" s="2"/>
       <c r="T828" s="2"/>
     </row>
-    <row r="829" spans="12:20" ht="25.95" customHeight="1">
+    <row r="829" spans="12:20" ht="25.9" customHeight="1">
       <c r="L829" s="2"/>
       <c r="M829" s="2"/>
       <c r="N829" s="2"/>
       <c r="O829" s="2"/>
       <c r="T829" s="2"/>
     </row>
-    <row r="830" spans="12:20" ht="25.95" customHeight="1">
+    <row r="830" spans="12:20" ht="25.9" customHeight="1">
       <c r="L830" s="2"/>
       <c r="M830" s="2"/>
       <c r="N830" s="2"/>
       <c r="O830" s="2"/>
       <c r="T830" s="2"/>
     </row>
-    <row r="831" spans="12:20" ht="25.95" customHeight="1">
+    <row r="831" spans="12:20" ht="25.9" customHeight="1">
       <c r="L831" s="2"/>
       <c r="M831" s="2"/>
       <c r="N831" s="2"/>
       <c r="O831" s="2"/>
       <c r="T831" s="2"/>
     </row>
-    <row r="832" spans="12:20" ht="25.95" customHeight="1">
+    <row r="832" spans="12:20" ht="25.9" customHeight="1">
       <c r="L832" s="2"/>
       <c r="M832" s="2"/>
       <c r="N832" s="2"/>
       <c r="O832" s="2"/>
       <c r="T832" s="2"/>
     </row>
-    <row r="833" spans="12:20" ht="25.95" customHeight="1">
+    <row r="833" spans="12:20" ht="25.9" customHeight="1">
       <c r="L833" s="2"/>
       <c r="M833" s="2"/>
       <c r="N833" s="2"/>
       <c r="O833" s="2"/>
       <c r="T833" s="2"/>
     </row>
-    <row r="834" spans="12:20" ht="25.95" customHeight="1">
+    <row r="834" spans="12:20" ht="25.9" customHeight="1">
       <c r="L834" s="2"/>
       <c r="M834" s="2"/>
       <c r="N834" s="2"/>
       <c r="O834" s="2"/>
       <c r="T834" s="2"/>
     </row>
-    <row r="835" spans="12:20" ht="25.95" customHeight="1">
+    <row r="835" spans="12:20" ht="25.9" customHeight="1">
       <c r="L835" s="2"/>
       <c r="M835" s="2"/>
       <c r="N835" s="2"/>
       <c r="O835" s="2"/>
       <c r="T835" s="2"/>
     </row>
-    <row r="836" spans="12:20" ht="25.95" customHeight="1">
+    <row r="836" spans="12:20" ht="25.9" customHeight="1">
       <c r="L836" s="2"/>
       <c r="M836" s="2"/>
       <c r="N836" s="2"/>
       <c r="O836" s="2"/>
       <c r="T836" s="2"/>
     </row>
-    <row r="837" spans="12:20" ht="25.95" customHeight="1">
+    <row r="837" spans="12:20" ht="25.9" customHeight="1">
       <c r="L837" s="2"/>
       <c r="M837" s="2"/>
       <c r="N837" s="2"/>
       <c r="O837" s="2"/>
       <c r="T837" s="2"/>
     </row>
-    <row r="838" spans="12:20" ht="25.95" customHeight="1">
+    <row r="838" spans="12:20" ht="25.9" customHeight="1">
       <c r="L838" s="2"/>
       <c r="M838" s="2"/>
       <c r="N838" s="2"/>
       <c r="O838" s="2"/>
       <c r="T838" s="2"/>
     </row>
-    <row r="839" spans="12:20" ht="25.95" customHeight="1">
+    <row r="839" spans="12:20" ht="25.9" customHeight="1">
       <c r="L839" s="2"/>
       <c r="M839" s="2"/>
       <c r="N839" s="2"/>
       <c r="O839" s="2"/>
       <c r="T839" s="2"/>
     </row>
-    <row r="840" spans="12:20" ht="25.95" customHeight="1">
+    <row r="840" spans="12:20" ht="25.9" customHeight="1">
       <c r="L840" s="2"/>
       <c r="M840" s="2"/>
       <c r="N840" s="2"/>
       <c r="O840" s="2"/>
       <c r="T840" s="2"/>
     </row>
-    <row r="841" spans="12:20" ht="25.95" customHeight="1">
+    <row r="841" spans="12:20" ht="25.9" customHeight="1">
       <c r="L841" s="2"/>
       <c r="M841" s="2"/>
       <c r="N841" s="2"/>
       <c r="O841" s="2"/>
       <c r="T841" s="2"/>
     </row>
-    <row r="842" spans="12:20" ht="25.95" customHeight="1">
+    <row r="842" spans="12:20" ht="25.9" customHeight="1">
       <c r="L842" s="2"/>
       <c r="M842" s="2"/>
       <c r="N842" s="2"/>
       <c r="O842" s="2"/>
       <c r="T842" s="2"/>
     </row>
-    <row r="843" spans="12:20" ht="25.95" customHeight="1">
+    <row r="843" spans="12:20" ht="25.9" customHeight="1">
       <c r="L843" s="2"/>
       <c r="M843" s="2"/>
       <c r="N843" s="2"/>
       <c r="O843" s="2"/>
       <c r="T843" s="2"/>
     </row>
-    <row r="844" spans="12:20" ht="25.95" customHeight="1">
+    <row r="844" spans="12:20" ht="25.9" customHeight="1">
       <c r="L844" s="2"/>
       <c r="M844" s="2"/>
       <c r="N844" s="2"/>
       <c r="O844" s="2"/>
       <c r="T844" s="2"/>
     </row>
-    <row r="845" spans="12:20" ht="25.95" customHeight="1">
+    <row r="845" spans="12:20" ht="25.9" customHeight="1">
       <c r="L845" s="2"/>
       <c r="M845" s="2"/>
       <c r="N845" s="2"/>
       <c r="O845" s="2"/>
       <c r="T845" s="2"/>
     </row>
-    <row r="846" spans="12:20" ht="25.95" customHeight="1">
+    <row r="846" spans="12:20" ht="25.9" customHeight="1">
       <c r="L846" s="2"/>
       <c r="M846" s="2"/>
       <c r="N846" s="2"/>
       <c r="O846" s="2"/>
       <c r="T846" s="2"/>
     </row>
-    <row r="847" spans="12:20" ht="25.95" customHeight="1">
+    <row r="847" spans="12:20" ht="25.9" customHeight="1">
       <c r="L847" s="2"/>
       <c r="M847" s="2"/>
       <c r="N847" s="2"/>
       <c r="O847" s="2"/>
       <c r="T847" s="2"/>
     </row>
-    <row r="848" spans="12:20" ht="25.95" customHeight="1">
+    <row r="848" spans="12:20" ht="25.9" customHeight="1">
       <c r="L848" s="2"/>
       <c r="M848" s="2"/>
       <c r="N848" s="2"/>
       <c r="O848" s="2"/>
       <c r="T848" s="2"/>
     </row>
-    <row r="849" spans="12:20" ht="25.95" customHeight="1">
+    <row r="849" spans="12:20" ht="25.9" customHeight="1">
       <c r="L849" s="2"/>
       <c r="M849" s="2"/>
       <c r="N849" s="2"/>
       <c r="O849" s="2"/>
       <c r="T849" s="2"/>
     </row>
-    <row r="850" spans="12:20" ht="25.95" customHeight="1">
+    <row r="850" spans="12:20" ht="25.9" customHeight="1">
       <c r="L850" s="2"/>
       <c r="M850" s="2"/>
       <c r="N850" s="2"/>
       <c r="O850" s="2"/>
       <c r="T850" s="2"/>
     </row>
-    <row r="851" spans="12:20" ht="25.95" customHeight="1">
+    <row r="851" spans="12:20" ht="25.9" customHeight="1">
       <c r="L851" s="2"/>
       <c r="M851" s="2"/>
       <c r="N851" s="2"/>
       <c r="O851" s="2"/>
       <c r="T851" s="2"/>
     </row>
-    <row r="852" spans="12:20" ht="25.95" customHeight="1">
+    <row r="852" spans="12:20" ht="25.9" customHeight="1">
       <c r="L852" s="2"/>
       <c r="M852" s="2"/>
       <c r="N852" s="2"/>
       <c r="O852" s="2"/>
       <c r="T852" s="2"/>
     </row>
-    <row r="853" spans="12:20" ht="25.95" customHeight="1">
+    <row r="853" spans="12:20" ht="25.9" customHeight="1">
       <c r="L853" s="2"/>
       <c r="M853" s="2"/>
       <c r="N853" s="2"/>
       <c r="O853" s="2"/>
       <c r="T853" s="2"/>
     </row>
-    <row r="854" spans="12:20" ht="25.95" customHeight="1">
+    <row r="854" spans="12:20" ht="25.9" customHeight="1">
       <c r="L854" s="2"/>
       <c r="M854" s="2"/>
       <c r="N854" s="2"/>
       <c r="O854" s="2"/>
       <c r="T854" s="2"/>
     </row>
-    <row r="855" spans="12:20" ht="25.95" customHeight="1">
+    <row r="855" spans="12:20" ht="25.9" customHeight="1">
       <c r="L855" s="2"/>
       <c r="M855" s="2"/>
       <c r="N855" s="2"/>
       <c r="O855" s="2"/>
       <c r="T855" s="2"/>
     </row>
-    <row r="856" spans="12:20" ht="25.95" customHeight="1">
+    <row r="856" spans="12:20" ht="25.9" customHeight="1">
       <c r="L856" s="2"/>
       <c r="M856" s="2"/>
       <c r="N856" s="2"/>
       <c r="O856" s="2"/>
       <c r="T856" s="2"/>
     </row>
-    <row r="857" spans="12:20" ht="25.95" customHeight="1">
+    <row r="857" spans="12:20" ht="25.9" customHeight="1">
       <c r="L857" s="2"/>
       <c r="M857" s="2"/>
       <c r="N857" s="2"/>
       <c r="O857" s="2"/>
       <c r="T857" s="2"/>
     </row>
-    <row r="858" spans="12:20" ht="25.95" customHeight="1">
+    <row r="858" spans="12:20" ht="25.9" customHeight="1">
       <c r="L858" s="2"/>
       <c r="M858" s="2"/>
       <c r="N858" s="2"/>
       <c r="O858" s="2"/>
       <c r="T858" s="2"/>
     </row>
-    <row r="859" spans="12:20" ht="25.95" customHeight="1">
+    <row r="859" spans="12:20" ht="25.9" customHeight="1">
       <c r="L859" s="2"/>
       <c r="M859" s="2"/>
       <c r="N859" s="2"/>
       <c r="O859" s="2"/>
       <c r="T859" s="2"/>
     </row>
-    <row r="860" spans="12:20" ht="25.95" customHeight="1">
+    <row r="860" spans="12:20" ht="25.9" customHeight="1">
       <c r="L860" s="2"/>
       <c r="M860" s="2"/>
       <c r="N860" s="2"/>
       <c r="O860" s="2"/>
       <c r="T860" s="2"/>
     </row>
-    <row r="861" spans="12:20" ht="25.95" customHeight="1">
+    <row r="861" spans="12:20" ht="25.9" customHeight="1">
       <c r="L861" s="2"/>
       <c r="M861" s="2"/>
       <c r="N861" s="2"/>
       <c r="O861" s="2"/>
       <c r="T861" s="2"/>
     </row>
-    <row r="862" spans="12:20" ht="25.95" customHeight="1">
+    <row r="862" spans="12:20" ht="25.9" customHeight="1">
       <c r="L862" s="2"/>
       <c r="M862" s="2"/>
       <c r="N862" s="2"/>
       <c r="O862" s="2"/>
       <c r="T862" s="2"/>
     </row>
-    <row r="863" spans="12:20" ht="25.95" customHeight="1">
+    <row r="863" spans="12:20" ht="25.9" customHeight="1">
       <c r="L863" s="2"/>
       <c r="M863" s="2"/>
       <c r="N863" s="2"/>
       <c r="O863" s="2"/>
       <c r="T863" s="2"/>
     </row>
-    <row r="864" spans="12:20" ht="25.95" customHeight="1">
+    <row r="864" spans="12:20" ht="25.9" customHeight="1">
       <c r="L864" s="2"/>
       <c r="M864" s="2"/>
       <c r="N864" s="2"/>
       <c r="O864" s="2"/>
       <c r="T864" s="2"/>
     </row>
-    <row r="865" spans="12:20" ht="25.95" customHeight="1">
+    <row r="865" spans="12:20" ht="25.9" customHeight="1">
       <c r="L865" s="2"/>
       <c r="M865" s="2"/>
       <c r="N865" s="2"/>
       <c r="O865" s="2"/>
       <c r="T865" s="2"/>
     </row>
-    <row r="866" spans="12:20" ht="25.95" customHeight="1">
+    <row r="866" spans="12:20" ht="25.9" customHeight="1">
       <c r="L866" s="2"/>
       <c r="M866" s="2"/>
       <c r="N866" s="2"/>
       <c r="O866" s="2"/>
       <c r="T866" s="2"/>
     </row>
-    <row r="867" spans="12:20" ht="25.95" customHeight="1">
+    <row r="867" spans="12:20" ht="25.9" customHeight="1">
       <c r="L867" s="2"/>
       <c r="M867" s="2"/>
       <c r="N867" s="2"/>
       <c r="O867" s="2"/>
       <c r="T867" s="2"/>
     </row>
-    <row r="868" spans="12:20" ht="25.95" customHeight="1">
+    <row r="868" spans="12:20" ht="25.9" customHeight="1">
       <c r="L868" s="2"/>
       <c r="M868" s="2"/>
       <c r="N868" s="2"/>
       <c r="O868" s="2"/>
       <c r="T868" s="2"/>
     </row>
-    <row r="869" spans="12:20" ht="25.95" customHeight="1">
+    <row r="869" spans="12:20" ht="25.9" customHeight="1">
       <c r="L869" s="2"/>
       <c r="M869" s="2"/>
       <c r="N869" s="2"/>
       <c r="O869" s="2"/>
       <c r="T869" s="2"/>
     </row>
-    <row r="870" spans="12:20" ht="25.95" customHeight="1">
+    <row r="870" spans="12:20" ht="25.9" customHeight="1">
       <c r="L870" s="2"/>
       <c r="M870" s="2"/>
       <c r="N870" s="2"/>
       <c r="O870" s="2"/>
       <c r="T870" s="2"/>
     </row>
-    <row r="871" spans="12:20" ht="25.95" customHeight="1">
+    <row r="871" spans="12:20" ht="25.9" customHeight="1">
       <c r="L871" s="2"/>
       <c r="M871" s="2"/>
       <c r="N871" s="2"/>
       <c r="O871" s="2"/>
       <c r="T871" s="2"/>
     </row>
-    <row r="872" spans="12:20" ht="25.95" customHeight="1">
+    <row r="872" spans="12:20" ht="25.9" customHeight="1">
       <c r="L872" s="2"/>
       <c r="M872" s="2"/>
       <c r="N872" s="2"/>
       <c r="O872" s="2"/>
       <c r="T872" s="2"/>
     </row>
-    <row r="873" spans="12:20" ht="25.95" customHeight="1">
+    <row r="873" spans="12:20" ht="25.9" customHeight="1">
       <c r="L873" s="2"/>
       <c r="M873" s="2"/>
       <c r="N873" s="2"/>
       <c r="O873" s="2"/>
       <c r="T873" s="2"/>
     </row>
-    <row r="874" spans="12:20" ht="25.95" customHeight="1">
+    <row r="874" spans="12:20" ht="25.9" customHeight="1">
       <c r="L874" s="2"/>
       <c r="M874" s="2"/>
       <c r="N874" s="2"/>
       <c r="O874" s="2"/>
       <c r="T874" s="2"/>
     </row>
-    <row r="875" spans="12:20" ht="25.95" customHeight="1">
+    <row r="875" spans="12:20" ht="25.9" customHeight="1">
       <c r="L875" s="2"/>
       <c r="M875" s="2"/>
       <c r="N875" s="2"/>
       <c r="O875" s="2"/>
       <c r="T875" s="2"/>
     </row>
-    <row r="876" spans="12:20" ht="25.95" customHeight="1">
+    <row r="876" spans="12:20" ht="25.9" customHeight="1">
       <c r="L876" s="2"/>
       <c r="M876" s="2"/>
       <c r="N876" s="2"/>
       <c r="O876" s="2"/>
       <c r="T876" s="2"/>
     </row>
-    <row r="877" spans="12:20" ht="25.95" customHeight="1">
+    <row r="877" spans="12:20" ht="25.9" customHeight="1">
       <c r="L877" s="2"/>
       <c r="M877" s="2"/>
       <c r="N877" s="2"/>
       <c r="O877" s="2"/>
       <c r="T877" s="2"/>
     </row>
-    <row r="878" spans="12:20" ht="25.95" customHeight="1">
+    <row r="878" spans="12:20" ht="25.9" customHeight="1">
       <c r="L878" s="2"/>
       <c r="M878" s="2"/>
       <c r="N878" s="2"/>
       <c r="O878" s="2"/>
       <c r="T878" s="2"/>
     </row>
-    <row r="879" spans="12:20" ht="25.95" customHeight="1">
+    <row r="879" spans="12:20" ht="25.9" customHeight="1">
       <c r="L879" s="2"/>
       <c r="M879" s="2"/>
       <c r="N879" s="2"/>
       <c r="O879" s="2"/>
       <c r="T879" s="2"/>
     </row>
-    <row r="880" spans="12:20" ht="25.95" customHeight="1">
+    <row r="880" spans="12:20" ht="25.9" customHeight="1">
       <c r="L880" s="2"/>
       <c r="M880" s="2"/>
       <c r="N880" s="2"/>
       <c r="O880" s="2"/>
       <c r="T880" s="2"/>
     </row>
-    <row r="881" spans="12:20" ht="25.95" customHeight="1">
+    <row r="881" spans="12:20" ht="25.9" customHeight="1">
       <c r="L881" s="2"/>
       <c r="M881" s="2"/>
       <c r="N881" s="2"/>
       <c r="O881" s="2"/>
       <c r="T881" s="2"/>
     </row>
-    <row r="882" spans="12:20" ht="25.95" customHeight="1">
+    <row r="882" spans="12:20" ht="25.9" customHeight="1">
       <c r="L882" s="2"/>
       <c r="M882" s="2"/>
       <c r="N882" s="2"/>
       <c r="O882" s="2"/>
       <c r="T882" s="2"/>
     </row>
-    <row r="883" spans="12:20" ht="25.95" customHeight="1">
+    <row r="883" spans="12:20" ht="25.9" customHeight="1">
       <c r="L883" s="2"/>
       <c r="M883" s="2"/>
       <c r="N883" s="2"/>
       <c r="O883" s="2"/>
       <c r="T883" s="2"/>
     </row>
-    <row r="884" spans="12:20" ht="25.95" customHeight="1">
+    <row r="884" spans="12:20" ht="25.9" customHeight="1">
       <c r="L884" s="2"/>
       <c r="M884" s="2"/>
       <c r="N884" s="2"/>
       <c r="O884" s="2"/>
       <c r="T884" s="2"/>
     </row>
-    <row r="885" spans="12:20" ht="25.95" customHeight="1">
+    <row r="885" spans="12:20" ht="25.9" customHeight="1">
       <c r="L885" s="2"/>
       <c r="M885" s="2"/>
       <c r="N885" s="2"/>
       <c r="O885" s="2"/>
       <c r="T885" s="2"/>
     </row>
-    <row r="886" spans="12:20" ht="25.95" customHeight="1">
+    <row r="886" spans="12:20" ht="25.9" customHeight="1">
       <c r="L886" s="2"/>
       <c r="M886" s="2"/>
       <c r="N886" s="2"/>
       <c r="O886" s="2"/>
       <c r="T886" s="2"/>
     </row>
-    <row r="887" spans="12:20" ht="25.95" customHeight="1">
+    <row r="887" spans="12:20" ht="25.9" customHeight="1">
       <c r="L887" s="2"/>
       <c r="M887" s="2"/>
       <c r="N887" s="2"/>
       <c r="O887" s="2"/>
       <c r="T887" s="2"/>
     </row>
-    <row r="888" spans="12:20" ht="25.95" customHeight="1">
+    <row r="888" spans="12:20" ht="25.9" customHeight="1">
       <c r="L888" s="2"/>
       <c r="M888" s="2"/>
       <c r="N888" s="2"/>
       <c r="O888" s="2"/>
       <c r="T888" s="2"/>
     </row>
-    <row r="889" spans="12:20" ht="25.95" customHeight="1">
+    <row r="889" spans="12:20" ht="25.9" customHeight="1">
       <c r="L889" s="2"/>
       <c r="M889" s="2"/>
       <c r="N889" s="2"/>
       <c r="O889" s="2"/>
       <c r="T889" s="2"/>
     </row>
-    <row r="890" spans="12:20" ht="25.95" customHeight="1">
+    <row r="890" spans="12:20" ht="25.9" customHeight="1">
       <c r="L890" s="2"/>
       <c r="M890" s="2"/>
       <c r="N890" s="2"/>
       <c r="O890" s="2"/>
       <c r="T890" s="2"/>
     </row>
-    <row r="891" spans="12:20" ht="25.95" customHeight="1">
+    <row r="891" spans="12:20" ht="25.9" customHeight="1">
       <c r="L891" s="2"/>
       <c r="M891" s="2"/>
       <c r="N891" s="2"/>
       <c r="O891" s="2"/>
       <c r="T891" s="2"/>
     </row>
-    <row r="892" spans="12:20" ht="25.95" customHeight="1">
+    <row r="892" spans="12:20" ht="25.9" customHeight="1">
       <c r="L892" s="2"/>
       <c r="M892" s="2"/>
       <c r="N892" s="2"/>
       <c r="O892" s="2"/>
       <c r="T892" s="2"/>
     </row>
-    <row r="893" spans="12:20" ht="25.95" customHeight="1">
+    <row r="893" spans="12:20" ht="25.9" customHeight="1">
       <c r="L893" s="2"/>
       <c r="M893" s="2"/>
       <c r="N893" s="2"/>
       <c r="O893" s="2"/>
       <c r="T893" s="2"/>
     </row>
-    <row r="894" spans="12:20" ht="25.95" customHeight="1">
+    <row r="894" spans="12:20" ht="25.9" customHeight="1">
       <c r="L894" s="2"/>
       <c r="M894" s="2"/>
       <c r="N894" s="2"/>
       <c r="O894" s="2"/>
       <c r="T894" s="2"/>
     </row>
-    <row r="895" spans="12:20" ht="25.95" customHeight="1">
+    <row r="895" spans="12:20" ht="25.9" customHeight="1">
       <c r="L895" s="2"/>
       <c r="M895" s="2"/>
       <c r="N895" s="2"/>
       <c r="O895" s="2"/>
       <c r="T895" s="2"/>
     </row>
-    <row r="896" spans="12:20" ht="25.95" customHeight="1">
+    <row r="896" spans="12:20" ht="25.9" customHeight="1">
       <c r="L896" s="2"/>
       <c r="M896" s="2"/>
       <c r="N896" s="2"/>
       <c r="O896" s="2"/>
       <c r="T896" s="2"/>
     </row>
-    <row r="897" spans="12:20" ht="25.95" customHeight="1">
+    <row r="897" spans="12:20" ht="25.9" customHeight="1">
       <c r="L897" s="2"/>
       <c r="M897" s="2"/>
       <c r="N897" s="2"/>
       <c r="O897" s="2"/>
       <c r="T897" s="2"/>
     </row>
-    <row r="898" spans="12:20" ht="25.95" customHeight="1">
+    <row r="898" spans="12:20" ht="25.9" customHeight="1">
       <c r="L898" s="2"/>
       <c r="M898" s="2"/>
       <c r="N898" s="2"/>
       <c r="O898" s="2"/>
       <c r="T898" s="2"/>
     </row>
-    <row r="899" spans="12:20" ht="25.95" customHeight="1">
+    <row r="899" spans="12:20" ht="25.9" customHeight="1">
       <c r="L899" s="2"/>
       <c r="M899" s="2"/>
       <c r="N899" s="2"/>
       <c r="O899" s="2"/>
       <c r="T899" s="2"/>
     </row>
-    <row r="900" spans="12:20" ht="25.95" customHeight="1">
+    <row r="900" spans="12:20" ht="25.9" customHeight="1">
       <c r="L900" s="2"/>
       <c r="M900" s="2"/>
       <c r="N900" s="2"/>
       <c r="O900" s="2"/>
       <c r="T900" s="2"/>
     </row>
-    <row r="901" spans="12:20" ht="25.95" customHeight="1">
+    <row r="901" spans="12:20" ht="25.9" customHeight="1">
       <c r="L901" s="2"/>
       <c r="M901" s="2"/>
       <c r="N901" s="2"/>
       <c r="O901" s="2"/>
       <c r="T901" s="2"/>
     </row>
-    <row r="902" spans="12:20" ht="25.95" customHeight="1">
+    <row r="902" spans="12:20" ht="25.9" customHeight="1">
       <c r="L902" s="2"/>
       <c r="M902" s="2"/>
       <c r="N902" s="2"/>
       <c r="O902" s="2"/>
       <c r="T902" s="2"/>
     </row>
-    <row r="903" spans="12:20" ht="25.95" customHeight="1">
+    <row r="903" spans="12:20" ht="25.9" customHeight="1">
       <c r="L903" s="2"/>
       <c r="M903" s="2"/>
       <c r="N903" s="2"/>
       <c r="O903" s="2"/>
       <c r="T903" s="2"/>
     </row>
-    <row r="904" spans="12:20" ht="25.95" customHeight="1">
+    <row r="904" spans="12:20" ht="25.9" customHeight="1">
       <c r="L904" s="2"/>
       <c r="M904" s="2"/>
       <c r="N904" s="2"/>
       <c r="O904" s="2"/>
       <c r="T904" s="2"/>
     </row>
-    <row r="905" spans="12:20" ht="25.95" customHeight="1">
+    <row r="905" spans="12:20" ht="25.9" customHeight="1">
       <c r="L905" s="2"/>
       <c r="M905" s="2"/>
       <c r="N905" s="2"/>
       <c r="O905" s="2"/>
       <c r="T905" s="2"/>
     </row>
-    <row r="906" spans="12:20" ht="25.95" customHeight="1">
+    <row r="906" spans="12:20" ht="25.9" customHeight="1">
       <c r="L906" s="2"/>
       <c r="M906" s="2"/>
       <c r="N906" s="2"/>
       <c r="O906" s="2"/>
       <c r="T906" s="2"/>
     </row>
-    <row r="907" spans="12:20" ht="25.95" customHeight="1">
+    <row r="907" spans="12:20" ht="25.9" customHeight="1">
       <c r="L907" s="2"/>
       <c r="M907" s="2"/>
       <c r="N907" s="2"/>
       <c r="O907" s="2"/>
       <c r="T907" s="2"/>
     </row>
-    <row r="908" spans="12:20" ht="25.95" customHeight="1">
+    <row r="908" spans="12:20" ht="25.9" customHeight="1">
       <c r="L908" s="2"/>
       <c r="M908" s="2"/>
       <c r="N908" s="2"/>
       <c r="O908" s="2"/>
       <c r="T908" s="2"/>
     </row>
-    <row r="909" spans="12:20" ht="25.95" customHeight="1">
+    <row r="909" spans="12:20" ht="25.9" customHeight="1">
       <c r="L909" s="2"/>
       <c r="M909" s="2"/>
       <c r="N909" s="2"/>
       <c r="O909" s="2"/>
       <c r="T909" s="2"/>
     </row>
-    <row r="910" spans="12:20" ht="25.95" customHeight="1">
+    <row r="910" spans="12:20" ht="25.9" customHeight="1">
       <c r="L910" s="2"/>
       <c r="M910" s="2"/>
       <c r="N910" s="2"/>
       <c r="O910" s="2"/>
       <c r="T910" s="2"/>
     </row>
-    <row r="911" spans="12:20" ht="25.95" customHeight="1">
+    <row r="911" spans="12:20" ht="25.9" customHeight="1">
       <c r="L911" s="2"/>
       <c r="M911" s="2"/>
       <c r="N911" s="2"/>
       <c r="O911" s="2"/>
       <c r="T911" s="2"/>
     </row>
-    <row r="912" spans="12:20" ht="25.95" customHeight="1">
+    <row r="912" spans="12:20" ht="25.9" customHeight="1">
       <c r="L912" s="2"/>
       <c r="M912" s="2"/>
       <c r="N912" s="2"/>
       <c r="O912" s="2"/>
       <c r="T912" s="2"/>
     </row>
-    <row r="913" spans="12:20" ht="25.95" customHeight="1">
+    <row r="913" spans="12:20" ht="25.9" customHeight="1">
       <c r="L913" s="2"/>
       <c r="M913" s="2"/>
       <c r="N913" s="2"/>
       <c r="O913" s="2"/>
       <c r="T913" s="2"/>
     </row>
-    <row r="914" spans="12:20" ht="25.95" customHeight="1">
+    <row r="914" spans="12:20" ht="25.9" customHeight="1">
       <c r="L914" s="2"/>
       <c r="M914" s="2"/>
       <c r="N914" s="2"/>
       <c r="O914" s="2"/>
       <c r="T914" s="2"/>
     </row>
-    <row r="915" spans="12:20" ht="25.95" customHeight="1">
+    <row r="915" spans="12:20" ht="25.9" customHeight="1">
       <c r="L915" s="2"/>
       <c r="M915" s="2"/>
       <c r="N915" s="2"/>
       <c r="O915" s="2"/>
       <c r="T915" s="2"/>
     </row>
-    <row r="916" spans="12:20" ht="25.95" customHeight="1">
+    <row r="916" spans="12:20" ht="25.9" customHeight="1">
       <c r="L916" s="2"/>
       <c r="M916" s="2"/>
       <c r="N916" s="2"/>
       <c r="O916" s="2"/>
       <c r="T916" s="2"/>
     </row>
-    <row r="917" spans="12:20" ht="25.95" customHeight="1">
+    <row r="917" spans="12:20" ht="25.9" customHeight="1">
       <c r="L917" s="2"/>
       <c r="M917" s="2"/>
       <c r="N917" s="2"/>
       <c r="O917" s="2"/>
       <c r="T917" s="2"/>
     </row>
-    <row r="918" spans="12:20" ht="25.95" customHeight="1">
+    <row r="918" spans="12:20" ht="25.9" customHeight="1">
       <c r="L918" s="2"/>
       <c r="M918" s="2"/>
       <c r="N918" s="2"/>
       <c r="O918" s="2"/>
       <c r="T918" s="2"/>
     </row>
-    <row r="919" spans="12:20" ht="25.95" customHeight="1">
+    <row r="919" spans="12:20" ht="25.9" customHeight="1">
       <c r="L919" s="2"/>
       <c r="M919" s="2"/>
       <c r="N919" s="2"/>
       <c r="O919" s="2"/>
       <c r="T919" s="2"/>
     </row>
-    <row r="920" spans="12:20" ht="25.95" customHeight="1">
+    <row r="920" spans="12:20" ht="25.9" customHeight="1">
       <c r="L920" s="2"/>
       <c r="M920" s="2"/>
       <c r="N920" s="2"/>
       <c r="O920" s="2"/>
       <c r="T920" s="2"/>
     </row>
-    <row r="921" spans="12:20" ht="25.95" customHeight="1">
+    <row r="921" spans="12:20" ht="25.9" customHeight="1">
       <c r="L921" s="2"/>
       <c r="M921" s="2"/>
       <c r="N921" s="2"/>
       <c r="O921" s="2"/>
       <c r="T921" s="2"/>
     </row>
-    <row r="922" spans="12:20" ht="25.95" customHeight="1">
+    <row r="922" spans="12:20" ht="25.9" customHeight="1">
       <c r="L922" s="2"/>
       <c r="M922" s="2"/>
       <c r="N922" s="2"/>
       <c r="O922" s="2"/>
       <c r="T922" s="2"/>
     </row>
-    <row r="923" spans="12:20" ht="25.95" customHeight="1">
+    <row r="923" spans="12:20" ht="25.9" customHeight="1">
       <c r="L923" s="2"/>
       <c r="M923" s="2"/>
       <c r="N923" s="2"/>
       <c r="O923" s="2"/>
       <c r="T923" s="2"/>
     </row>
-    <row r="924" spans="12:20" ht="25.95" customHeight="1">
+    <row r="924" spans="12:20" ht="25.9" customHeight="1">
       <c r="L924" s="2"/>
       <c r="M924" s="2"/>
       <c r="N924" s="2"/>
       <c r="O924" s="2"/>
       <c r="T924" s="2"/>
     </row>
-    <row r="925" spans="12:20" ht="25.95" customHeight="1">
+    <row r="925" spans="12:20" ht="25.9" customHeight="1">
       <c r="L925" s="2"/>
       <c r="M925" s="2"/>
       <c r="N925" s="2"/>
       <c r="O925" s="2"/>
       <c r="T925" s="2"/>
     </row>
-    <row r="926" spans="12:20" ht="25.95" customHeight="1">
+    <row r="926" spans="12:20" ht="25.9" customHeight="1">
       <c r="L926" s="2"/>
       <c r="M926" s="2"/>
       <c r="N926" s="2"/>
       <c r="O926" s="2"/>
       <c r="T926" s="2"/>
     </row>
-    <row r="927" spans="12:20" ht="25.95" customHeight="1">
+    <row r="927" spans="12:20" ht="25.9" customHeight="1">
       <c r="L927" s="2"/>
       <c r="M927" s="2"/>
       <c r="N927" s="2"/>
       <c r="O927" s="2"/>
       <c r="T927" s="2"/>
     </row>
-    <row r="928" spans="12:20" ht="25.95" customHeight="1">
+    <row r="928" spans="12:20" ht="25.9" customHeight="1">
       <c r="L928" s="2"/>
       <c r="M928" s="2"/>
       <c r="N928" s="2"/>
       <c r="O928" s="2"/>
       <c r="T928" s="2"/>
     </row>
-    <row r="929" spans="12:20" ht="25.95" customHeight="1">
+    <row r="929" spans="12:20" ht="25.9" customHeight="1">
       <c r="L929" s="2"/>
       <c r="M929" s="2"/>
       <c r="N929" s="2"/>
       <c r="O929" s="2"/>
       <c r="T929" s="2"/>
     </row>
-    <row r="930" spans="12:20" ht="25.95" customHeight="1">
+    <row r="930" spans="12:20" ht="25.9" customHeight="1">
       <c r="L930" s="2"/>
       <c r="M930" s="2"/>
       <c r="N930" s="2"/>
       <c r="O930" s="2"/>
       <c r="T930" s="2"/>
     </row>
-    <row r="931" spans="12:20" ht="25.95" customHeight="1">
+    <row r="931" spans="12:20" ht="25.9" customHeight="1">
       <c r="L931" s="2"/>
       <c r="M931" s="2"/>
       <c r="N931" s="2"/>
@@ -14037,11 +14036,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="26" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
